--- a/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
+++ b/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsao\Desktop\TeamHolyShit\개인작업폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E353AD9D-24E7-4C91-B096-42C00BE4C351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F11F554-E0A7-4C47-BDB3-DA9930156A18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
+    <workbookView xWindow="630" yWindow="195" windowWidth="27765" windowHeight="14805" activeTab="4" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
   </bookViews>
   <sheets>
     <sheet name="문서정보" sheetId="19" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>플레이어 스폰 지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핵심 오브젝트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3291,10 +3295,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B115CA4-4A3A-4C15-B086-786A2C0A2453}">
-  <dimension ref="B1:K40"/>
+  <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:K16"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3685,8 +3689,82 @@
       <c r="K39" s="62"/>
     </row>
     <row r="40" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+    </row>
+    <row r="42" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+    </row>
+    <row r="43" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+    </row>
+    <row r="44" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+    </row>
+    <row r="45" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+    </row>
+    <row r="46" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="36">
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B4:K4"/>
@@ -3717,6 +3795,12 @@
     <mergeCell ref="B36:K36"/>
     <mergeCell ref="B37:K37"/>
     <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="B45:K45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3728,9 +3812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A094B14B-4047-46AD-8935-5EAC2DD927BB}">
   <dimension ref="A1:CO63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CA44" sqref="CA44"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BT13" sqref="BT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6464,9 +6548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC1ACA1-D39A-40A3-9EAE-07F33C90ECD2}">
   <dimension ref="A1:EE90"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BD50" sqref="BD50"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA12" sqref="AA12:AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7158,7 +7242,7 @@
       <c r="Q12" s="73"/>
       <c r="R12" s="73"/>
       <c r="S12" s="74">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="T12" s="74"/>
       <c r="U12" s="74"/>
@@ -7170,7 +7254,7 @@
       <c r="Y12" s="73"/>
       <c r="Z12" s="73"/>
       <c r="AA12" s="74">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB12" s="74"/>
       <c r="AC12" s="74"/>

--- a/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
+++ b/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsao\Desktop\TeamHolyShit\개인작업폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F11F554-E0A7-4C47-BDB3-DA9930156A18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E15D08-5506-4D92-8E2F-D64FB9BD760C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="195" windowWidth="27765" windowHeight="14805" activeTab="4" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
+    <workbookView xWindow="-45" yWindow="195" windowWidth="8910" windowHeight="14805" activeTab="3" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
   </bookViews>
   <sheets>
     <sheet name="문서정보" sheetId="19" r:id="rId1"/>
@@ -3812,9 +3812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A094B14B-4047-46AD-8935-5EAC2DD927BB}">
   <dimension ref="A1:CO63"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BT13" sqref="BT13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4506,7 +4506,7 @@
       <c r="Q12" s="73"/>
       <c r="R12" s="73"/>
       <c r="S12" s="74">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="T12" s="74"/>
       <c r="U12" s="74"/>
@@ -4729,7 +4729,7 @@
       <c r="AC16" s="70"/>
       <c r="AD16" s="70"/>
     </row>
-    <row r="18" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -4791,8 +4791,15 @@
       <c r="BN18" s="11"/>
       <c r="BO18" s="11"/>
       <c r="BP18" s="11"/>
-    </row>
-    <row r="19" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BQ18" s="11"/>
+      <c r="BR18" s="11"/>
+      <c r="BS18" s="11"/>
+      <c r="BT18" s="11"/>
+      <c r="BU18" s="11"/>
+      <c r="BV18" s="11"/>
+      <c r="BW18" s="11"/>
+    </row>
+    <row r="19" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -4833,14 +4840,14 @@
       <c r="AS19" s="11"/>
       <c r="AT19" s="11"/>
       <c r="AU19" s="11"/>
-      <c r="AV19" s="34"/>
-      <c r="AW19" s="32"/>
-      <c r="AX19" s="32"/>
-      <c r="AY19" s="32"/>
-      <c r="AZ19" s="32"/>
-      <c r="BA19" s="32"/>
-      <c r="BB19" s="32"/>
-      <c r="BC19" s="32"/>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="11"/>
+      <c r="AY19" s="11"/>
+      <c r="AZ19" s="11"/>
+      <c r="BA19" s="11"/>
+      <c r="BB19" s="11"/>
+      <c r="BC19" s="34"/>
       <c r="BD19" s="32"/>
       <c r="BE19" s="32"/>
       <c r="BF19" s="32"/>
@@ -4851,11 +4858,18 @@
       <c r="BK19" s="32"/>
       <c r="BL19" s="32"/>
       <c r="BM19" s="32"/>
-      <c r="BN19" s="34"/>
-      <c r="BO19" s="11"/>
-      <c r="BP19" s="11"/>
-    </row>
-    <row r="20" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BN19" s="32"/>
+      <c r="BO19" s="32"/>
+      <c r="BP19" s="32"/>
+      <c r="BQ19" s="32"/>
+      <c r="BR19" s="32"/>
+      <c r="BS19" s="32"/>
+      <c r="BT19" s="32"/>
+      <c r="BU19" s="34"/>
+      <c r="BV19" s="11"/>
+      <c r="BW19" s="11"/>
+    </row>
+    <row r="20" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -4896,12 +4910,19 @@
       <c r="AS20" s="11"/>
       <c r="AT20" s="11"/>
       <c r="AU20" s="11"/>
-      <c r="AV20" s="34"/>
-      <c r="BN20" s="34"/>
-      <c r="BO20" s="11"/>
-      <c r="BP20" s="11"/>
-    </row>
-    <row r="21" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
+      <c r="AX20" s="11"/>
+      <c r="AY20" s="11"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="11"/>
+      <c r="BB20" s="11"/>
+      <c r="BC20" s="34"/>
+      <c r="BU20" s="34"/>
+      <c r="BV20" s="11"/>
+      <c r="BW20" s="11"/>
+    </row>
+    <row r="21" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -4942,12 +4963,19 @@
       <c r="AS21" s="11"/>
       <c r="AT21" s="11"/>
       <c r="AU21" s="11"/>
-      <c r="AV21" s="34"/>
-      <c r="BN21" s="34"/>
-      <c r="BO21" s="11"/>
-      <c r="BP21" s="11"/>
-    </row>
-    <row r="22" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV21" s="11"/>
+      <c r="AW21" s="11"/>
+      <c r="AX21" s="11"/>
+      <c r="AY21" s="11"/>
+      <c r="AZ21" s="11"/>
+      <c r="BA21" s="11"/>
+      <c r="BB21" s="11"/>
+      <c r="BC21" s="34"/>
+      <c r="BU21" s="34"/>
+      <c r="BV21" s="11"/>
+      <c r="BW21" s="11"/>
+    </row>
+    <row r="22" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -4988,14 +5016,21 @@
       <c r="AS22" s="11"/>
       <c r="AT22" s="11"/>
       <c r="AU22" s="11"/>
-      <c r="AV22" s="34"/>
-      <c r="AZ22" s="35"/>
-      <c r="BL22" s="35"/>
-      <c r="BN22" s="34"/>
-      <c r="BO22" s="11"/>
-      <c r="BP22" s="11"/>
-    </row>
-    <row r="23" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV22" s="11"/>
+      <c r="AW22" s="11"/>
+      <c r="AX22" s="11"/>
+      <c r="AY22" s="11"/>
+      <c r="AZ22" s="11"/>
+      <c r="BA22" s="11"/>
+      <c r="BB22" s="11"/>
+      <c r="BC22" s="34"/>
+      <c r="BG22" s="35"/>
+      <c r="BS22" s="35"/>
+      <c r="BU22" s="34"/>
+      <c r="BV22" s="11"/>
+      <c r="BW22" s="11"/>
+    </row>
+    <row r="23" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -5036,22 +5071,29 @@
       <c r="AS23" s="11"/>
       <c r="AT23" s="11"/>
       <c r="AU23" s="11"/>
-      <c r="AV23" s="34"/>
-      <c r="AW23" s="32"/>
-      <c r="AX23" s="32"/>
-      <c r="AY23" s="32"/>
-      <c r="AZ23" s="32"/>
-      <c r="BH23" s="32"/>
-      <c r="BI23" s="32"/>
-      <c r="BJ23" s="32"/>
-      <c r="BK23" s="32"/>
-      <c r="BL23" s="32"/>
-      <c r="BM23" s="32"/>
-      <c r="BN23" s="34"/>
-      <c r="BO23" s="11"/>
-      <c r="BP23" s="11"/>
-    </row>
-    <row r="24" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV23" s="11"/>
+      <c r="AW23" s="11"/>
+      <c r="AX23" s="11"/>
+      <c r="AY23" s="11"/>
+      <c r="AZ23" s="11"/>
+      <c r="BA23" s="11"/>
+      <c r="BB23" s="11"/>
+      <c r="BC23" s="34"/>
+      <c r="BD23" s="32"/>
+      <c r="BE23" s="32"/>
+      <c r="BF23" s="32"/>
+      <c r="BG23" s="32"/>
+      <c r="BO23" s="32"/>
+      <c r="BP23" s="32"/>
+      <c r="BQ23" s="32"/>
+      <c r="BR23" s="32"/>
+      <c r="BS23" s="32"/>
+      <c r="BT23" s="32"/>
+      <c r="BU23" s="34"/>
+      <c r="BV23" s="11"/>
+      <c r="BW23" s="11"/>
+    </row>
+    <row r="24" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -5092,13 +5134,20 @@
       <c r="AS24" s="11"/>
       <c r="AT24" s="11"/>
       <c r="AU24" s="11"/>
-      <c r="AV24" s="34"/>
-      <c r="AW24" s="35"/>
-      <c r="BN24" s="34"/>
-      <c r="BO24" s="11"/>
-      <c r="BP24" s="11"/>
-    </row>
-    <row r="25" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV24" s="11"/>
+      <c r="AW24" s="11"/>
+      <c r="AX24" s="11"/>
+      <c r="AY24" s="11"/>
+      <c r="AZ24" s="11"/>
+      <c r="BA24" s="11"/>
+      <c r="BB24" s="11"/>
+      <c r="BC24" s="34"/>
+      <c r="BD24" s="35"/>
+      <c r="BU24" s="34"/>
+      <c r="BV24" s="11"/>
+      <c r="BW24" s="11"/>
+    </row>
+    <row r="25" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
@@ -5139,12 +5188,19 @@
       <c r="AS25" s="11"/>
       <c r="AT25" s="11"/>
       <c r="AU25" s="11"/>
-      <c r="AV25" s="34"/>
-      <c r="BN25" s="34"/>
-      <c r="BO25" s="11"/>
-      <c r="BP25" s="11"/>
-    </row>
-    <row r="26" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV25" s="11"/>
+      <c r="AW25" s="11"/>
+      <c r="AX25" s="11"/>
+      <c r="AY25" s="11"/>
+      <c r="AZ25" s="11"/>
+      <c r="BA25" s="11"/>
+      <c r="BB25" s="11"/>
+      <c r="BC25" s="34"/>
+      <c r="BU25" s="34"/>
+      <c r="BV25" s="11"/>
+      <c r="BW25" s="11"/>
+    </row>
+    <row r="26" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -5185,12 +5241,19 @@
       <c r="AS26" s="11"/>
       <c r="AT26" s="11"/>
       <c r="AU26" s="11"/>
-      <c r="AV26" s="34"/>
-      <c r="BN26" s="34"/>
-      <c r="BO26" s="11"/>
-      <c r="BP26" s="11"/>
-    </row>
-    <row r="27" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV26" s="11"/>
+      <c r="AW26" s="11"/>
+      <c r="AX26" s="11"/>
+      <c r="AY26" s="11"/>
+      <c r="AZ26" s="11"/>
+      <c r="BA26" s="11"/>
+      <c r="BB26" s="11"/>
+      <c r="BC26" s="34"/>
+      <c r="BU26" s="34"/>
+      <c r="BV26" s="11"/>
+      <c r="BW26" s="11"/>
+    </row>
+    <row r="27" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -5231,24 +5294,31 @@
       <c r="AS27" s="11"/>
       <c r="AT27" s="11"/>
       <c r="AU27" s="11"/>
-      <c r="AV27" s="34"/>
-      <c r="BB27" s="32"/>
-      <c r="BC27" s="32"/>
-      <c r="BD27" s="32"/>
-      <c r="BE27" s="32"/>
-      <c r="BF27" s="32"/>
-      <c r="BG27" s="35"/>
-      <c r="BH27" s="34"/>
-      <c r="BI27" s="34"/>
-      <c r="BJ27" s="34"/>
-      <c r="BK27" s="34"/>
-      <c r="BL27" s="34"/>
-      <c r="BM27" s="34"/>
-      <c r="BN27" s="34"/>
-      <c r="BO27" s="11"/>
-      <c r="BP27" s="11"/>
-    </row>
-    <row r="28" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV27" s="11"/>
+      <c r="AW27" s="11"/>
+      <c r="AX27" s="11"/>
+      <c r="AY27" s="11"/>
+      <c r="AZ27" s="11"/>
+      <c r="BA27" s="11"/>
+      <c r="BB27" s="11"/>
+      <c r="BC27" s="34"/>
+      <c r="BI27" s="32"/>
+      <c r="BJ27" s="32"/>
+      <c r="BK27" s="32"/>
+      <c r="BL27" s="32"/>
+      <c r="BM27" s="32"/>
+      <c r="BN27" s="35"/>
+      <c r="BO27" s="34"/>
+      <c r="BP27" s="34"/>
+      <c r="BQ27" s="34"/>
+      <c r="BR27" s="34"/>
+      <c r="BS27" s="34"/>
+      <c r="BT27" s="34"/>
+      <c r="BU27" s="34"/>
+      <c r="BV27" s="11"/>
+      <c r="BW27" s="11"/>
+    </row>
+    <row r="28" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -5289,12 +5359,19 @@
       <c r="AS28" s="11"/>
       <c r="AT28" s="11"/>
       <c r="AU28" s="11"/>
-      <c r="AV28" s="34"/>
-      <c r="BN28" s="34"/>
-      <c r="BO28" s="11"/>
-      <c r="BP28" s="11"/>
-    </row>
-    <row r="29" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV28" s="11"/>
+      <c r="AW28" s="11"/>
+      <c r="AX28" s="11"/>
+      <c r="AY28" s="11"/>
+      <c r="AZ28" s="11"/>
+      <c r="BA28" s="11"/>
+      <c r="BB28" s="11"/>
+      <c r="BC28" s="34"/>
+      <c r="BU28" s="34"/>
+      <c r="BV28" s="11"/>
+      <c r="BW28" s="11"/>
+    </row>
+    <row r="29" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
@@ -5335,12 +5412,19 @@
       <c r="AS29" s="11"/>
       <c r="AT29" s="11"/>
       <c r="AU29" s="11"/>
-      <c r="AV29" s="34"/>
-      <c r="BN29" s="34"/>
-      <c r="BO29" s="11"/>
-      <c r="BP29" s="11"/>
-    </row>
-    <row r="30" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV29" s="11"/>
+      <c r="AW29" s="11"/>
+      <c r="AX29" s="11"/>
+      <c r="AY29" s="11"/>
+      <c r="AZ29" s="11"/>
+      <c r="BA29" s="11"/>
+      <c r="BB29" s="11"/>
+      <c r="BC29" s="34"/>
+      <c r="BU29" s="34"/>
+      <c r="BV29" s="11"/>
+      <c r="BW29" s="11"/>
+    </row>
+    <row r="30" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -5381,14 +5465,21 @@
       <c r="AS30" s="11"/>
       <c r="AT30" s="11"/>
       <c r="AU30" s="11"/>
-      <c r="AV30" s="34"/>
-      <c r="BG30" s="32"/>
-      <c r="BH30" s="34"/>
-      <c r="BN30" s="34"/>
-      <c r="BO30" s="11"/>
-      <c r="BP30" s="11"/>
-    </row>
-    <row r="31" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV30" s="11"/>
+      <c r="AW30" s="11"/>
+      <c r="AX30" s="11"/>
+      <c r="AY30" s="11"/>
+      <c r="AZ30" s="11"/>
+      <c r="BA30" s="11"/>
+      <c r="BB30" s="11"/>
+      <c r="BC30" s="34"/>
+      <c r="BN30" s="32"/>
+      <c r="BO30" s="34"/>
+      <c r="BU30" s="34"/>
+      <c r="BV30" s="11"/>
+      <c r="BW30" s="11"/>
+    </row>
+    <row r="31" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="32"/>
@@ -5429,19 +5520,26 @@
       <c r="AS31" s="11"/>
       <c r="AT31" s="11"/>
       <c r="AU31" s="11"/>
-      <c r="AV31" s="34"/>
-      <c r="AW31" s="32"/>
-      <c r="AX31" s="32"/>
-      <c r="AY31" s="32"/>
-      <c r="AZ31" s="32"/>
-      <c r="BA31" s="32"/>
+      <c r="AV31" s="11"/>
+      <c r="AW31" s="11"/>
+      <c r="AX31" s="11"/>
+      <c r="AY31" s="11"/>
+      <c r="AZ31" s="11"/>
+      <c r="BA31" s="11"/>
+      <c r="BB31" s="11"/>
+      <c r="BC31" s="34"/>
+      <c r="BD31" s="32"/>
+      <c r="BE31" s="32"/>
+      <c r="BF31" s="32"/>
       <c r="BG31" s="32"/>
-      <c r="BH31" s="34"/>
+      <c r="BH31" s="32"/>
       <c r="BN31" s="32"/>
-      <c r="BO31" s="11"/>
-      <c r="BP31" s="11"/>
-    </row>
-    <row r="32" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BO31" s="34"/>
+      <c r="BU31" s="32"/>
+      <c r="BV31" s="11"/>
+      <c r="BW31" s="11"/>
+    </row>
+    <row r="32" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="32"/>
@@ -5461,14 +5559,21 @@
       <c r="AS32" s="11"/>
       <c r="AT32" s="11"/>
       <c r="AU32" s="11"/>
-      <c r="AV32" s="34"/>
-      <c r="BG32" s="32"/>
-      <c r="BH32" s="34"/>
+      <c r="AV32" s="11"/>
+      <c r="AW32" s="11"/>
+      <c r="AX32" s="11"/>
+      <c r="AY32" s="11"/>
+      <c r="AZ32" s="11"/>
+      <c r="BA32" s="11"/>
+      <c r="BB32" s="11"/>
+      <c r="BC32" s="34"/>
       <c r="BN32" s="32"/>
-      <c r="BO32" s="11"/>
-      <c r="BP32" s="11"/>
-    </row>
-    <row r="33" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BO32" s="34"/>
+      <c r="BU32" s="32"/>
+      <c r="BV32" s="11"/>
+      <c r="BW32" s="11"/>
+    </row>
+    <row r="33" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="32"/>
@@ -5488,21 +5593,28 @@
       <c r="AS33" s="11"/>
       <c r="AT33" s="11"/>
       <c r="AU33" s="11"/>
-      <c r="AV33" s="34"/>
-      <c r="BG33" s="32"/>
-      <c r="BH33" s="34"/>
+      <c r="AV33" s="11"/>
+      <c r="AW33" s="11"/>
+      <c r="AX33" s="11"/>
+      <c r="AY33" s="11"/>
+      <c r="AZ33" s="11"/>
+      <c r="BA33" s="11"/>
+      <c r="BB33" s="11"/>
+      <c r="BC33" s="34"/>
       <c r="BN33" s="32"/>
-      <c r="BO33" s="11"/>
-      <c r="BP33" s="11"/>
-    </row>
-    <row r="34" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BO33" s="34"/>
+      <c r="BU33" s="32"/>
+      <c r="BV33" s="11"/>
+      <c r="BW33" s="11"/>
+    </row>
+    <row r="34" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="32"/>
+      <c r="O34" s="32"/>
       <c r="P34" s="32"/>
       <c r="Q34" s="32"/>
       <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
       <c r="AF34" s="35"/>
       <c r="AG34" s="35"/>
       <c r="AH34" s="35"/>
@@ -5519,18 +5631,24 @@
       <c r="AS34" s="11"/>
       <c r="AT34" s="11"/>
       <c r="AU34" s="11"/>
-      <c r="AV34" s="34"/>
-      <c r="BG34" s="32"/>
-      <c r="BH34" s="34"/>
+      <c r="AV34" s="11"/>
+      <c r="AW34" s="11"/>
+      <c r="AX34" s="11"/>
+      <c r="AY34" s="11"/>
+      <c r="AZ34" s="11"/>
+      <c r="BA34" s="11"/>
+      <c r="BB34" s="11"/>
+      <c r="BC34" s="34"/>
       <c r="BN34" s="32"/>
-      <c r="BO34" s="11"/>
-      <c r="BP34" s="11"/>
-    </row>
-    <row r="35" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BO34" s="34"/>
+      <c r="BU34" s="32"/>
+      <c r="BV34" s="11"/>
+      <c r="BW34" s="11"/>
+    </row>
+    <row r="35" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="32"/>
-      <c r="K35" s="35"/>
       <c r="AG35" s="35"/>
       <c r="AH35" s="35"/>
       <c r="AI35" s="34"/>
@@ -5546,19 +5664,27 @@
       <c r="AS35" s="11"/>
       <c r="AT35" s="11"/>
       <c r="AU35" s="11"/>
-      <c r="AV35" s="34"/>
-      <c r="BA35" s="35"/>
-      <c r="BG35" s="32"/>
-      <c r="BH35" s="34"/>
-      <c r="BI35" s="35"/>
+      <c r="AV35" s="11"/>
+      <c r="AW35" s="11"/>
+      <c r="AX35" s="11"/>
+      <c r="AY35" s="11"/>
+      <c r="AZ35" s="11"/>
+      <c r="BA35" s="11"/>
+      <c r="BB35" s="11"/>
+      <c r="BC35" s="34"/>
+      <c r="BH35" s="35"/>
       <c r="BN35" s="32"/>
-      <c r="BO35" s="11"/>
-      <c r="BP35" s="11"/>
-    </row>
-    <row r="36" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BO35" s="34"/>
+      <c r="BP35" s="35"/>
+      <c r="BU35" s="32"/>
+      <c r="BV35" s="11"/>
+      <c r="BW35" s="11"/>
+    </row>
+    <row r="36" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="32"/>
+      <c r="K36" s="35"/>
       <c r="Z36" s="35"/>
       <c r="AI36" s="34"/>
       <c r="AJ36" s="34"/>
@@ -5573,21 +5699,28 @@
       <c r="AS36" s="11"/>
       <c r="AT36" s="11"/>
       <c r="AU36" s="11"/>
-      <c r="AV36" s="34"/>
-      <c r="BA36" s="32"/>
-      <c r="BB36" s="32"/>
-      <c r="BC36" s="32"/>
-      <c r="BD36" s="32"/>
-      <c r="BE36" s="32"/>
-      <c r="BF36" s="32"/>
-      <c r="BG36" s="32"/>
+      <c r="AV36" s="11"/>
+      <c r="AW36" s="11"/>
+      <c r="AX36" s="11"/>
+      <c r="AY36" s="11"/>
+      <c r="AZ36" s="11"/>
+      <c r="BA36" s="11"/>
+      <c r="BB36" s="11"/>
+      <c r="BC36" s="34"/>
       <c r="BH36" s="32"/>
       <c r="BI36" s="32"/>
+      <c r="BJ36" s="32"/>
+      <c r="BK36" s="32"/>
+      <c r="BL36" s="32"/>
+      <c r="BM36" s="32"/>
       <c r="BN36" s="32"/>
-      <c r="BO36" s="11"/>
-      <c r="BP36" s="11"/>
-    </row>
-    <row r="37" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BO36" s="32"/>
+      <c r="BP36" s="32"/>
+      <c r="BU36" s="32"/>
+      <c r="BV36" s="11"/>
+      <c r="BW36" s="11"/>
+    </row>
+    <row r="37" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="32"/>
@@ -5600,21 +5733,28 @@
       <c r="Y37" s="34"/>
       <c r="Z37" s="34"/>
       <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
       <c r="AD37" s="34"/>
+      <c r="AE37" s="34"/>
+      <c r="AF37" s="34"/>
       <c r="AI37" s="35"/>
       <c r="AJ37" s="35"/>
       <c r="AR37" s="34"/>
       <c r="AS37" s="11"/>
       <c r="AT37" s="11"/>
       <c r="AU37" s="11"/>
-      <c r="AV37" s="34"/>
-      <c r="BN37" s="32"/>
-      <c r="BO37" s="11"/>
-      <c r="BP37" s="11"/>
-    </row>
-    <row r="38" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV37" s="11"/>
+      <c r="AW37" s="11"/>
+      <c r="AX37" s="11"/>
+      <c r="AY37" s="11"/>
+      <c r="AZ37" s="11"/>
+      <c r="BA37" s="11"/>
+      <c r="BB37" s="11"/>
+      <c r="BC37" s="34"/>
+      <c r="BU37" s="32"/>
+      <c r="BV37" s="11"/>
+      <c r="BW37" s="11"/>
+    </row>
+    <row r="38" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="32"/>
@@ -5624,12 +5764,19 @@
       <c r="AS38" s="11"/>
       <c r="AT38" s="11"/>
       <c r="AU38" s="11"/>
-      <c r="AV38" s="34"/>
-      <c r="BN38" s="32"/>
-      <c r="BO38" s="11"/>
-      <c r="BP38" s="11"/>
-    </row>
-    <row r="39" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV38" s="11"/>
+      <c r="AW38" s="11"/>
+      <c r="AX38" s="11"/>
+      <c r="AY38" s="11"/>
+      <c r="AZ38" s="11"/>
+      <c r="BA38" s="11"/>
+      <c r="BB38" s="11"/>
+      <c r="BC38" s="34"/>
+      <c r="BU38" s="32"/>
+      <c r="BV38" s="11"/>
+      <c r="BW38" s="11"/>
+    </row>
+    <row r="39" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="32"/>
@@ -5639,13 +5786,20 @@
       <c r="AS39" s="11"/>
       <c r="AT39" s="11"/>
       <c r="AU39" s="11"/>
-      <c r="AV39" s="34"/>
-      <c r="BI39" s="35"/>
-      <c r="BN39" s="32"/>
-      <c r="BO39" s="11"/>
-      <c r="BP39" s="11"/>
-    </row>
-    <row r="40" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV39" s="11"/>
+      <c r="AW39" s="11"/>
+      <c r="AX39" s="11"/>
+      <c r="AY39" s="11"/>
+      <c r="AZ39" s="11"/>
+      <c r="BA39" s="11"/>
+      <c r="BB39" s="11"/>
+      <c r="BC39" s="34"/>
+      <c r="BP39" s="35"/>
+      <c r="BU39" s="32"/>
+      <c r="BV39" s="11"/>
+      <c r="BW39" s="11"/>
+    </row>
+    <row r="40" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="32"/>
@@ -5655,13 +5809,20 @@
       <c r="AS40" s="11"/>
       <c r="AT40" s="11"/>
       <c r="AU40" s="11"/>
-      <c r="AV40" s="34"/>
-      <c r="BI40" s="35"/>
-      <c r="BN40" s="32"/>
-      <c r="BO40" s="11"/>
-      <c r="BP40" s="11"/>
-    </row>
-    <row r="41" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV40" s="11"/>
+      <c r="AW40" s="11"/>
+      <c r="AX40" s="11"/>
+      <c r="AY40" s="11"/>
+      <c r="AZ40" s="11"/>
+      <c r="BA40" s="11"/>
+      <c r="BB40" s="11"/>
+      <c r="BC40" s="34"/>
+      <c r="BP40" s="35"/>
+      <c r="BU40" s="32"/>
+      <c r="BV40" s="11"/>
+      <c r="BW40" s="11"/>
+    </row>
+    <row r="41" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="32"/>
@@ -5674,13 +5835,20 @@
       <c r="AS41" s="11"/>
       <c r="AT41" s="11"/>
       <c r="AU41" s="11"/>
-      <c r="AV41" s="34"/>
-      <c r="BI41" s="35"/>
-      <c r="BN41" s="32"/>
-      <c r="BO41" s="11"/>
-      <c r="BP41" s="11"/>
-    </row>
-    <row r="42" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV41" s="11"/>
+      <c r="AW41" s="11"/>
+      <c r="AX41" s="11"/>
+      <c r="AY41" s="11"/>
+      <c r="AZ41" s="11"/>
+      <c r="BA41" s="11"/>
+      <c r="BB41" s="11"/>
+      <c r="BC41" s="34"/>
+      <c r="BP41" s="35"/>
+      <c r="BU41" s="32"/>
+      <c r="BV41" s="11"/>
+      <c r="BW41" s="11"/>
+    </row>
+    <row r="42" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="32"/>
@@ -5721,14 +5889,21 @@
       <c r="AS42" s="11"/>
       <c r="AT42" s="11"/>
       <c r="AU42" s="11"/>
-      <c r="AV42" s="34"/>
-      <c r="AW42" s="35"/>
-      <c r="BI42" s="35"/>
-      <c r="BN42" s="32"/>
-      <c r="BO42" s="11"/>
-      <c r="BP42" s="11"/>
-    </row>
-    <row r="43" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV42" s="11"/>
+      <c r="AW42" s="11"/>
+      <c r="AX42" s="11"/>
+      <c r="AY42" s="11"/>
+      <c r="AZ42" s="11"/>
+      <c r="BA42" s="11"/>
+      <c r="BB42" s="11"/>
+      <c r="BC42" s="34"/>
+      <c r="BD42" s="35"/>
+      <c r="BP42" s="35"/>
+      <c r="BU42" s="32"/>
+      <c r="BV42" s="11"/>
+      <c r="BW42" s="11"/>
+    </row>
+    <row r="43" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
@@ -5769,12 +5944,19 @@
       <c r="AS43" s="11"/>
       <c r="AT43" s="11"/>
       <c r="AU43" s="11"/>
-      <c r="AV43" s="34"/>
-      <c r="BN43" s="32"/>
-      <c r="BO43" s="11"/>
-      <c r="BP43" s="11"/>
-    </row>
-    <row r="44" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV43" s="11"/>
+      <c r="AW43" s="11"/>
+      <c r="AX43" s="11"/>
+      <c r="AY43" s="11"/>
+      <c r="AZ43" s="11"/>
+      <c r="BA43" s="11"/>
+      <c r="BB43" s="11"/>
+      <c r="BC43" s="34"/>
+      <c r="BU43" s="32"/>
+      <c r="BV43" s="11"/>
+      <c r="BW43" s="11"/>
+    </row>
+    <row r="44" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
@@ -5815,12 +5997,19 @@
       <c r="AS44" s="11"/>
       <c r="AT44" s="11"/>
       <c r="AU44" s="11"/>
-      <c r="AV44" s="34"/>
-      <c r="BN44" s="32"/>
-      <c r="BO44" s="11"/>
-      <c r="BP44" s="11"/>
-    </row>
-    <row r="45" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV44" s="11"/>
+      <c r="AW44" s="11"/>
+      <c r="AX44" s="11"/>
+      <c r="AY44" s="11"/>
+      <c r="AZ44" s="11"/>
+      <c r="BA44" s="11"/>
+      <c r="BB44" s="11"/>
+      <c r="BC44" s="34"/>
+      <c r="BU44" s="32"/>
+      <c r="BV44" s="11"/>
+      <c r="BW44" s="11"/>
+    </row>
+    <row r="45" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
@@ -5861,12 +6050,19 @@
       <c r="AS45" s="11"/>
       <c r="AT45" s="11"/>
       <c r="AU45" s="11"/>
-      <c r="AV45" s="34"/>
-      <c r="BN45" s="32"/>
-      <c r="BO45" s="11"/>
-      <c r="BP45" s="11"/>
-    </row>
-    <row r="46" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV45" s="11"/>
+      <c r="AW45" s="11"/>
+      <c r="AX45" s="11"/>
+      <c r="AY45" s="11"/>
+      <c r="AZ45" s="11"/>
+      <c r="BA45" s="11"/>
+      <c r="BB45" s="11"/>
+      <c r="BC45" s="34"/>
+      <c r="BU45" s="32"/>
+      <c r="BV45" s="11"/>
+      <c r="BW45" s="11"/>
+    </row>
+    <row r="46" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
@@ -5907,17 +6103,17 @@
       <c r="AS46" s="11"/>
       <c r="AT46" s="11"/>
       <c r="AU46" s="11"/>
-      <c r="AV46" s="32"/>
-      <c r="AW46" s="32"/>
-      <c r="AX46" s="35"/>
-      <c r="AY46" s="35"/>
-      <c r="AZ46" s="32"/>
-      <c r="BA46" s="32"/>
-      <c r="BB46" s="32"/>
+      <c r="AV46" s="11"/>
+      <c r="AW46" s="11"/>
+      <c r="AX46" s="11"/>
+      <c r="AY46" s="11"/>
+      <c r="AZ46" s="11"/>
+      <c r="BA46" s="11"/>
+      <c r="BB46" s="11"/>
       <c r="BC46" s="32"/>
       <c r="BD46" s="32"/>
-      <c r="BE46" s="32"/>
-      <c r="BF46" s="32"/>
+      <c r="BE46" s="35"/>
+      <c r="BF46" s="35"/>
       <c r="BG46" s="32"/>
       <c r="BH46" s="32"/>
       <c r="BI46" s="32"/>
@@ -5926,10 +6122,17 @@
       <c r="BL46" s="32"/>
       <c r="BM46" s="32"/>
       <c r="BN46" s="32"/>
-      <c r="BO46" s="11"/>
-      <c r="BP46" s="11"/>
-    </row>
-    <row r="47" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BO46" s="32"/>
+      <c r="BP46" s="32"/>
+      <c r="BQ46" s="32"/>
+      <c r="BR46" s="32"/>
+      <c r="BS46" s="32"/>
+      <c r="BT46" s="32"/>
+      <c r="BU46" s="32"/>
+      <c r="BV46" s="11"/>
+      <c r="BW46" s="11"/>
+    </row>
+    <row r="47" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
@@ -5991,8 +6194,15 @@
       <c r="BN47" s="11"/>
       <c r="BO47" s="11"/>
       <c r="BP47" s="11"/>
-    </row>
-    <row r="48" spans="8:68" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BQ47" s="11"/>
+      <c r="BR47" s="11"/>
+      <c r="BS47" s="11"/>
+      <c r="BT47" s="11"/>
+      <c r="BU47" s="11"/>
+      <c r="BV47" s="11"/>
+      <c r="BW47" s="11"/>
+    </row>
+    <row r="48" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
@@ -6054,6 +6264,13 @@
       <c r="BN48" s="11"/>
       <c r="BO48" s="11"/>
       <c r="BP48" s="11"/>
+      <c r="BQ48" s="11"/>
+      <c r="BR48" s="11"/>
+      <c r="BS48" s="11"/>
+      <c r="BT48" s="11"/>
+      <c r="BU48" s="11"/>
+      <c r="BV48" s="11"/>
+      <c r="BW48" s="11"/>
     </row>
     <row r="53" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="70" t="s">
@@ -6548,9 +6765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC1ACA1-D39A-40A3-9EAE-07F33C90ECD2}">
   <dimension ref="A1:EE90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA12" sqref="AA12:AD13"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="EO45" sqref="EO45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
+++ b/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsao\Desktop\TeamHolyShit\개인작업폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E15D08-5506-4D92-8E2F-D64FB9BD760C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D47AEA-AC60-4C54-B1B2-F1F6DED34748}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="195" windowWidth="8910" windowHeight="14805" activeTab="3" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
+    <workbookView xWindow="-45" yWindow="195" windowWidth="17100" windowHeight="14805" activeTab="4" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
   </bookViews>
   <sheets>
     <sheet name="문서정보" sheetId="19" r:id="rId1"/>
@@ -3812,9 +3812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A094B14B-4047-46AD-8935-5EAC2DD927BB}">
   <dimension ref="A1:CO63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W35" sqref="W35"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AQ52" sqref="AQ52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6765,9 +6765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC1ACA1-D39A-40A3-9EAE-07F33C90ECD2}">
   <dimension ref="A1:EE90"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="EO45" sqref="EO45"/>
+      <selection pane="bottomLeft" activeCell="DM80" sqref="DM80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11455,7 +11455,7 @@
       <c r="CC65" s="36"/>
       <c r="CG65" s="36"/>
       <c r="CK65" s="36"/>
-      <c r="DC65" s="33"/>
+      <c r="DF65" s="33"/>
       <c r="DQ65" s="32"/>
       <c r="DR65" s="34"/>
       <c r="DS65" s="34"/>
@@ -11559,7 +11559,7 @@
       <c r="CK67" s="36"/>
       <c r="CQ67" s="34"/>
       <c r="CT67" s="35"/>
-      <c r="DD67" s="33"/>
+      <c r="DG67" s="33"/>
       <c r="DJ67" s="36"/>
       <c r="DN67" s="31"/>
       <c r="DQ67" s="32"/>

--- a/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
+++ b/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsao\Desktop\TeamHolyShit\개인작업폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D47AEA-AC60-4C54-B1B2-F1F6DED34748}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9904B38F-A435-4B96-918D-F029F041600A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="195" windowWidth="17100" windowHeight="14805" activeTab="4" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
+    <workbookView xWindow="705" yWindow="195" windowWidth="17100" windowHeight="14805" activeTab="3" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
   </bookViews>
   <sheets>
     <sheet name="문서정보" sheetId="19" r:id="rId1"/>
@@ -3812,9 +3812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A094B14B-4047-46AD-8935-5EAC2DD927BB}">
   <dimension ref="A1:CO63"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ52" sqref="AQ52"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5730,6 +5730,7 @@
       <c r="U37" s="34"/>
       <c r="V37" s="34"/>
       <c r="W37" s="34"/>
+      <c r="X37" s="35"/>
       <c r="Y37" s="34"/>
       <c r="Z37" s="34"/>
       <c r="AA37" s="34"/>
@@ -6765,9 +6766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC1ACA1-D39A-40A3-9EAE-07F33C90ECD2}">
   <dimension ref="A1:EE90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="DM80" sqref="DM80"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BA68" sqref="BA68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
+++ b/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsao\Desktop\TeamHolyShit\개인작업폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9904B38F-A435-4B96-918D-F029F041600A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6042C7-C6E2-4390-AA87-F52D4EE88645}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="195" windowWidth="17100" windowHeight="14805" activeTab="3" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
+    <workbookView xWindow="15" yWindow="195" windowWidth="17790" windowHeight="14805" firstSheet="1" activeTab="7" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
   </bookViews>
   <sheets>
     <sheet name="문서정보" sheetId="19" r:id="rId1"/>
     <sheet name="전제조건" sheetId="26" r:id="rId2"/>
     <sheet name="스테이지 컨셉" sheetId="20" r:id="rId3"/>
-    <sheet name="Lv.2" sheetId="22" r:id="rId4"/>
-    <sheet name="Lv.5" sheetId="29" r:id="rId5"/>
+    <sheet name="Lv.1" sheetId="30" r:id="rId4"/>
+    <sheet name="Lv.2" sheetId="22" r:id="rId5"/>
+    <sheet name="Lv.3" sheetId="31" r:id="rId6"/>
+    <sheet name="Lv.4" sheetId="32" r:id="rId7"/>
+    <sheet name="Lv.5" sheetId="29" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +72,6 @@
   </si>
   <si>
     <t>몬스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구역 나눔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -249,6 +248,14 @@
   <si>
     <t>핵심 오브젝트</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -449,7 +456,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,6 +531,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1061,6 +1074,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="강조색6" xfId="1" builtinId="49"/>
@@ -1090,6 +1106,205 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{623DC3A8-0F39-4E48-A721-1B8D8A41F7CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="311727" y="10235045"/>
+          <a:ext cx="10039350" cy="5846618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>ㄴ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>259773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>155863</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="직선 화살표 연결선 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA055124-650B-4D11-9030-CF92A6098714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16145741" y="259773"/>
+          <a:ext cx="526472" cy="497031"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>308262</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>325582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B58D1017-1D31-457B-96A1-393E3AE67CC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22330062" y="325582"/>
+          <a:ext cx="339438" cy="396586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1175,10 +1390,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="직선 화살표 연결선 6">
+        <xdr:cNvPr id="6" name="직선 화살표 연결선 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641B71EB-3107-4BAF-A412-5B00CED4D38D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E842AB06-AAD8-4BB1-A64F-D51BA6E05BFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,72 +1436,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>308262</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>325582</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="직사각형 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA11B719-B83B-42BD-A3B1-B137A7BEEFC5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19739262" y="325582"/>
-          <a:ext cx="339438" cy="396586"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>68</xdr:col>
       <xdr:colOff>308262</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1300,10 +1449,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="직사각형 8">
+        <xdr:cNvPr id="10" name="직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E6DF99-5738-490A-A8BC-2B7BCF0A3FD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F8C8583-8514-44A8-8783-4C60DA944FE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1503,405 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA5DA332-65C4-4BA8-B714-22819C86E61A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="311727" y="10235045"/>
+          <a:ext cx="10039350" cy="5846618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>ㄴ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>259773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>155863</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="직선 화살표 연결선 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9E7F25-EEDB-481A-BB30-304A3F079A13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16145741" y="259773"/>
+          <a:ext cx="526472" cy="497031"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>308262</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>325582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A8802A-7C65-453F-8784-20690C99FF7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22330062" y="325582"/>
+          <a:ext cx="339438" cy="396586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78145DA3-1DBD-443E-B57E-6961AB28B42C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="311727" y="10235045"/>
+          <a:ext cx="10039350" cy="5846618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>ㄴ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>259773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>155863</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="직선 화살표 연결선 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8883380-7637-4FA9-B212-BFC361CE7F50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16145741" y="259773"/>
+          <a:ext cx="526472" cy="497031"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>308262</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>325582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E69CC8B-6BEB-45B1-8553-FAAE29B1820C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22330062" y="325582"/>
+          <a:ext cx="339438" cy="396586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1413,72 +1960,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>308262</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>325582</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="직사각형 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A4B6337-D3E3-40BF-9DB4-B70CADD3AFF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16824612" y="325582"/>
-          <a:ext cx="339438" cy="396586"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1979,7 +2460,7 @@
     <row r="3" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
@@ -2110,17 +2591,17 @@
     <row r="12" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="53">
         <v>44225</v>
       </c>
       <c r="D13" s="54"/>
       <c r="M13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N13" s="55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O13" s="56"/>
     </row>
@@ -2142,7 +2623,7 @@
     </row>
     <row r="15" spans="2:15" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -2179,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
@@ -2235,7 +2716,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
@@ -2291,7 +2772,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
@@ -2308,7 +2789,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
@@ -2325,7 +2806,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
@@ -2342,7 +2823,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
@@ -2359,7 +2840,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
@@ -2390,7 +2871,7 @@
     <row r="33" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="2:15" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -2884,7 +3365,7 @@
     <row r="1" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" s="13" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
@@ -2899,7 +3380,7 @@
     <row r="3" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="61"/>
@@ -2998,7 +3479,7 @@
     </row>
     <row r="16" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="61"/>
       <c r="D16" s="61"/>
@@ -3309,7 +3790,7 @@
     <row r="1" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" s="13" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
@@ -3324,7 +3805,7 @@
     <row r="3" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="61"/>
@@ -3339,7 +3820,7 @@
     <row r="5" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="57"/>
       <c r="D6" s="57"/>
@@ -3377,7 +3858,7 @@
     </row>
     <row r="10" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="57"/>
       <c r="D10" s="57"/>
@@ -3427,7 +3908,7 @@
     </row>
     <row r="16" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="61"/>
       <c r="D16" s="61"/>
@@ -3442,7 +3923,7 @@
     <row r="17" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="57"/>
       <c r="D18" s="57"/>
@@ -3505,7 +3986,7 @@
     <row r="23" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="57"/>
@@ -3616,7 +4097,7 @@
     <row r="33" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="57"/>
       <c r="D34" s="57"/>
@@ -3691,7 +4172,7 @@
     <row r="40" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="41" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="57"/>
       <c r="D41" s="57"/>
@@ -3809,12 +4290,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A094B14B-4047-46AD-8935-5EAC2DD927BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEE78CF-CB8F-451D-805F-62B926D49E66}">
   <dimension ref="A1:CO63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AR43" sqref="AR43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3921,7 +4402,7 @@
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
       <c r="D2" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="67"/>
@@ -3931,36 +4412,36 @@
       <c r="J2" s="68"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
-      <c r="O2" s="69" t="s">
-        <v>27</v>
+      <c r="O2" s="66" t="s">
+        <v>26</v>
       </c>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="68"/>
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
       <c r="V2" s="66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W2" s="67"/>
       <c r="X2" s="67"/>
       <c r="Y2" s="68"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
-      <c r="AD2" s="69" t="s">
-        <v>29</v>
+      <c r="AD2" s="66" t="s">
+        <v>28</v>
       </c>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="68"/>
       <c r="AH2" s="21"/>
       <c r="AJ2" s="36"/>
-      <c r="AL2" s="69" t="s">
-        <v>47</v>
+      <c r="AL2" s="66" t="s">
+        <v>46</v>
       </c>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="68"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
       <c r="AT2" s="66" t="s">
@@ -3979,15 +4460,16 @@
       <c r="BF2" s="67"/>
       <c r="BG2" s="68"/>
       <c r="BH2" s="21"/>
+      <c r="BJ2" s="75"/>
       <c r="BL2" s="66" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="BM2" s="67"/>
       <c r="BN2" s="67"/>
       <c r="BO2" s="68"/>
       <c r="BP2" s="21"/>
       <c r="BT2" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BU2" s="67"/>
       <c r="BV2" s="67"/>
@@ -4205,7 +4687,7 @@
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="72" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E6" s="72"/>
       <c r="F6" s="72"/>
@@ -4486,7 +4968,7 @@
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="70"/>
       <c r="E12" s="70"/>
@@ -4500,26 +4982,22 @@
       <c r="M12" s="70"/>
       <c r="N12" s="70"/>
       <c r="O12" s="73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" s="73"/>
       <c r="Q12" s="73"/>
       <c r="R12" s="73"/>
-      <c r="S12" s="74">
-        <v>64</v>
-      </c>
+      <c r="S12" s="74"/>
       <c r="T12" s="74"/>
       <c r="U12" s="74"/>
       <c r="V12" s="74"/>
       <c r="W12" s="73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X12" s="73"/>
       <c r="Y12" s="73"/>
       <c r="Z12" s="73"/>
-      <c r="AA12" s="74">
-        <v>28</v>
-      </c>
+      <c r="AA12" s="74"/>
       <c r="AB12" s="74"/>
       <c r="AC12" s="74"/>
       <c r="AD12" s="74"/>
@@ -4669,7 +5147,7 @@
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
@@ -4729,1553 +5207,9 @@
       <c r="AC16" s="70"/>
       <c r="AD16" s="70"/>
     </row>
-    <row r="18" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="11"/>
-      <c r="AP18" s="11"/>
-      <c r="AQ18" s="11"/>
-      <c r="AR18" s="11"/>
-      <c r="AS18" s="11"/>
-      <c r="AT18" s="11"/>
-      <c r="AU18" s="11"/>
-      <c r="AV18" s="11"/>
-      <c r="AW18" s="11"/>
-      <c r="AX18" s="11"/>
-      <c r="AY18" s="11"/>
-      <c r="AZ18" s="11"/>
-      <c r="BA18" s="11"/>
-      <c r="BB18" s="11"/>
-      <c r="BC18" s="11"/>
-      <c r="BD18" s="11"/>
-      <c r="BE18" s="11"/>
-      <c r="BF18" s="11"/>
-      <c r="BG18" s="11"/>
-      <c r="BH18" s="11"/>
-      <c r="BI18" s="11"/>
-      <c r="BJ18" s="11"/>
-      <c r="BK18" s="11"/>
-      <c r="BL18" s="11"/>
-      <c r="BM18" s="11"/>
-      <c r="BN18" s="11"/>
-      <c r="BO18" s="11"/>
-      <c r="BP18" s="11"/>
-      <c r="BQ18" s="11"/>
-      <c r="BR18" s="11"/>
-      <c r="BS18" s="11"/>
-      <c r="BT18" s="11"/>
-      <c r="BU18" s="11"/>
-      <c r="BV18" s="11"/>
-      <c r="BW18" s="11"/>
-    </row>
-    <row r="19" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="11"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="11"/>
-      <c r="AR19" s="11"/>
-      <c r="AS19" s="11"/>
-      <c r="AT19" s="11"/>
-      <c r="AU19" s="11"/>
-      <c r="AV19" s="11"/>
-      <c r="AW19" s="11"/>
-      <c r="AX19" s="11"/>
-      <c r="AY19" s="11"/>
-      <c r="AZ19" s="11"/>
-      <c r="BA19" s="11"/>
-      <c r="BB19" s="11"/>
-      <c r="BC19" s="34"/>
-      <c r="BD19" s="32"/>
-      <c r="BE19" s="32"/>
-      <c r="BF19" s="32"/>
-      <c r="BG19" s="32"/>
-      <c r="BH19" s="32"/>
-      <c r="BI19" s="32"/>
-      <c r="BJ19" s="32"/>
-      <c r="BK19" s="32"/>
-      <c r="BL19" s="32"/>
-      <c r="BM19" s="32"/>
-      <c r="BN19" s="32"/>
-      <c r="BO19" s="32"/>
-      <c r="BP19" s="32"/>
-      <c r="BQ19" s="32"/>
-      <c r="BR19" s="32"/>
-      <c r="BS19" s="32"/>
-      <c r="BT19" s="32"/>
-      <c r="BU19" s="34"/>
-      <c r="BV19" s="11"/>
-      <c r="BW19" s="11"/>
-    </row>
-    <row r="20" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
-      <c r="AY20" s="11"/>
-      <c r="AZ20" s="11"/>
-      <c r="BA20" s="11"/>
-      <c r="BB20" s="11"/>
-      <c r="BC20" s="34"/>
-      <c r="BU20" s="34"/>
-      <c r="BV20" s="11"/>
-      <c r="BW20" s="11"/>
-    </row>
-    <row r="21" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="11"/>
-      <c r="AN21" s="11"/>
-      <c r="AO21" s="11"/>
-      <c r="AP21" s="11"/>
-      <c r="AQ21" s="11"/>
-      <c r="AR21" s="11"/>
-      <c r="AS21" s="11"/>
-      <c r="AT21" s="11"/>
-      <c r="AU21" s="11"/>
-      <c r="AV21" s="11"/>
-      <c r="AW21" s="11"/>
-      <c r="AX21" s="11"/>
-      <c r="AY21" s="11"/>
-      <c r="AZ21" s="11"/>
-      <c r="BA21" s="11"/>
-      <c r="BB21" s="11"/>
-      <c r="BC21" s="34"/>
-      <c r="BU21" s="34"/>
-      <c r="BV21" s="11"/>
-      <c r="BW21" s="11"/>
-    </row>
-    <row r="22" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="11"/>
-      <c r="AY22" s="11"/>
-      <c r="AZ22" s="11"/>
-      <c r="BA22" s="11"/>
-      <c r="BB22" s="11"/>
-      <c r="BC22" s="34"/>
-      <c r="BG22" s="35"/>
-      <c r="BS22" s="35"/>
-      <c r="BU22" s="34"/>
-      <c r="BV22" s="11"/>
-      <c r="BW22" s="11"/>
-    </row>
-    <row r="23" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
-      <c r="AO23" s="11"/>
-      <c r="AP23" s="11"/>
-      <c r="AQ23" s="11"/>
-      <c r="AR23" s="11"/>
-      <c r="AS23" s="11"/>
-      <c r="AT23" s="11"/>
-      <c r="AU23" s="11"/>
-      <c r="AV23" s="11"/>
-      <c r="AW23" s="11"/>
-      <c r="AX23" s="11"/>
-      <c r="AY23" s="11"/>
-      <c r="AZ23" s="11"/>
-      <c r="BA23" s="11"/>
-      <c r="BB23" s="11"/>
-      <c r="BC23" s="34"/>
-      <c r="BD23" s="32"/>
-      <c r="BE23" s="32"/>
-      <c r="BF23" s="32"/>
-      <c r="BG23" s="32"/>
-      <c r="BO23" s="32"/>
-      <c r="BP23" s="32"/>
-      <c r="BQ23" s="32"/>
-      <c r="BR23" s="32"/>
-      <c r="BS23" s="32"/>
-      <c r="BT23" s="32"/>
-      <c r="BU23" s="34"/>
-      <c r="BV23" s="11"/>
-      <c r="BW23" s="11"/>
-    </row>
-    <row r="24" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="11"/>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="11"/>
-      <c r="AL24" s="11"/>
-      <c r="AM24" s="11"/>
-      <c r="AN24" s="11"/>
-      <c r="AO24" s="11"/>
-      <c r="AP24" s="11"/>
-      <c r="AQ24" s="11"/>
-      <c r="AR24" s="11"/>
-      <c r="AS24" s="11"/>
-      <c r="AT24" s="11"/>
-      <c r="AU24" s="11"/>
-      <c r="AV24" s="11"/>
-      <c r="AW24" s="11"/>
-      <c r="AX24" s="11"/>
-      <c r="AY24" s="11"/>
-      <c r="AZ24" s="11"/>
-      <c r="BA24" s="11"/>
-      <c r="BB24" s="11"/>
-      <c r="BC24" s="34"/>
-      <c r="BD24" s="35"/>
-      <c r="BU24" s="34"/>
-      <c r="BV24" s="11"/>
-      <c r="BW24" s="11"/>
-    </row>
-    <row r="25" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="11"/>
-      <c r="AI25" s="11"/>
-      <c r="AJ25" s="11"/>
-      <c r="AK25" s="11"/>
-      <c r="AL25" s="11"/>
-      <c r="AM25" s="11"/>
-      <c r="AN25" s="11"/>
-      <c r="AO25" s="11"/>
-      <c r="AP25" s="11"/>
-      <c r="AQ25" s="11"/>
-      <c r="AR25" s="11"/>
-      <c r="AS25" s="11"/>
-      <c r="AT25" s="11"/>
-      <c r="AU25" s="11"/>
-      <c r="AV25" s="11"/>
-      <c r="AW25" s="11"/>
-      <c r="AX25" s="11"/>
-      <c r="AY25" s="11"/>
-      <c r="AZ25" s="11"/>
-      <c r="BA25" s="11"/>
-      <c r="BB25" s="11"/>
-      <c r="BC25" s="34"/>
-      <c r="BU25" s="34"/>
-      <c r="BV25" s="11"/>
-      <c r="BW25" s="11"/>
-    </row>
-    <row r="26" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="11"/>
-      <c r="AJ26" s="11"/>
-      <c r="AK26" s="11"/>
-      <c r="AL26" s="11"/>
-      <c r="AM26" s="11"/>
-      <c r="AN26" s="11"/>
-      <c r="AO26" s="11"/>
-      <c r="AP26" s="11"/>
-      <c r="AQ26" s="11"/>
-      <c r="AR26" s="11"/>
-      <c r="AS26" s="11"/>
-      <c r="AT26" s="11"/>
-      <c r="AU26" s="11"/>
-      <c r="AV26" s="11"/>
-      <c r="AW26" s="11"/>
-      <c r="AX26" s="11"/>
-      <c r="AY26" s="11"/>
-      <c r="AZ26" s="11"/>
-      <c r="BA26" s="11"/>
-      <c r="BB26" s="11"/>
-      <c r="BC26" s="34"/>
-      <c r="BU26" s="34"/>
-      <c r="BV26" s="11"/>
-      <c r="BW26" s="11"/>
-    </row>
-    <row r="27" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="11"/>
-      <c r="AI27" s="11"/>
-      <c r="AJ27" s="11"/>
-      <c r="AK27" s="11"/>
-      <c r="AL27" s="11"/>
-      <c r="AM27" s="11"/>
-      <c r="AN27" s="11"/>
-      <c r="AO27" s="11"/>
-      <c r="AP27" s="11"/>
-      <c r="AQ27" s="11"/>
-      <c r="AR27" s="11"/>
-      <c r="AS27" s="11"/>
-      <c r="AT27" s="11"/>
-      <c r="AU27" s="11"/>
-      <c r="AV27" s="11"/>
-      <c r="AW27" s="11"/>
-      <c r="AX27" s="11"/>
-      <c r="AY27" s="11"/>
-      <c r="AZ27" s="11"/>
-      <c r="BA27" s="11"/>
-      <c r="BB27" s="11"/>
-      <c r="BC27" s="34"/>
-      <c r="BI27" s="32"/>
-      <c r="BJ27" s="32"/>
-      <c r="BK27" s="32"/>
-      <c r="BL27" s="32"/>
-      <c r="BM27" s="32"/>
-      <c r="BN27" s="35"/>
-      <c r="BO27" s="34"/>
-      <c r="BP27" s="34"/>
-      <c r="BQ27" s="34"/>
-      <c r="BR27" s="34"/>
-      <c r="BS27" s="34"/>
-      <c r="BT27" s="34"/>
-      <c r="BU27" s="34"/>
-      <c r="BV27" s="11"/>
-      <c r="BW27" s="11"/>
-    </row>
-    <row r="28" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="11"/>
-      <c r="AG28" s="11"/>
-      <c r="AH28" s="11"/>
-      <c r="AI28" s="11"/>
-      <c r="AJ28" s="11"/>
-      <c r="AK28" s="11"/>
-      <c r="AL28" s="11"/>
-      <c r="AM28" s="11"/>
-      <c r="AN28" s="11"/>
-      <c r="AO28" s="11"/>
-      <c r="AP28" s="11"/>
-      <c r="AQ28" s="11"/>
-      <c r="AR28" s="11"/>
-      <c r="AS28" s="11"/>
-      <c r="AT28" s="11"/>
-      <c r="AU28" s="11"/>
-      <c r="AV28" s="11"/>
-      <c r="AW28" s="11"/>
-      <c r="AX28" s="11"/>
-      <c r="AY28" s="11"/>
-      <c r="AZ28" s="11"/>
-      <c r="BA28" s="11"/>
-      <c r="BB28" s="11"/>
-      <c r="BC28" s="34"/>
-      <c r="BU28" s="34"/>
-      <c r="BV28" s="11"/>
-      <c r="BW28" s="11"/>
-    </row>
-    <row r="29" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="11"/>
-      <c r="AH29" s="11"/>
-      <c r="AI29" s="11"/>
-      <c r="AJ29" s="11"/>
-      <c r="AK29" s="11"/>
-      <c r="AL29" s="11"/>
-      <c r="AM29" s="11"/>
-      <c r="AN29" s="11"/>
-      <c r="AO29" s="11"/>
-      <c r="AP29" s="11"/>
-      <c r="AQ29" s="11"/>
-      <c r="AR29" s="11"/>
-      <c r="AS29" s="11"/>
-      <c r="AT29" s="11"/>
-      <c r="AU29" s="11"/>
-      <c r="AV29" s="11"/>
-      <c r="AW29" s="11"/>
-      <c r="AX29" s="11"/>
-      <c r="AY29" s="11"/>
-      <c r="AZ29" s="11"/>
-      <c r="BA29" s="11"/>
-      <c r="BB29" s="11"/>
-      <c r="BC29" s="34"/>
-      <c r="BU29" s="34"/>
-      <c r="BV29" s="11"/>
-      <c r="BW29" s="11"/>
-    </row>
-    <row r="30" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="11"/>
-      <c r="AH30" s="11"/>
-      <c r="AI30" s="11"/>
-      <c r="AJ30" s="11"/>
-      <c r="AK30" s="11"/>
-      <c r="AL30" s="11"/>
-      <c r="AM30" s="11"/>
-      <c r="AN30" s="11"/>
-      <c r="AO30" s="11"/>
-      <c r="AP30" s="11"/>
-      <c r="AQ30" s="11"/>
-      <c r="AR30" s="11"/>
-      <c r="AS30" s="11"/>
-      <c r="AT30" s="11"/>
-      <c r="AU30" s="11"/>
-      <c r="AV30" s="11"/>
-      <c r="AW30" s="11"/>
-      <c r="AX30" s="11"/>
-      <c r="AY30" s="11"/>
-      <c r="AZ30" s="11"/>
-      <c r="BA30" s="11"/>
-      <c r="BB30" s="11"/>
-      <c r="BC30" s="34"/>
-      <c r="BN30" s="32"/>
-      <c r="BO30" s="34"/>
-      <c r="BU30" s="34"/>
-      <c r="BV30" s="11"/>
-      <c r="BW30" s="11"/>
-    </row>
-    <row r="31" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="32"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="34"/>
-      <c r="AK31" s="34"/>
-      <c r="AL31" s="34"/>
-      <c r="AM31" s="34"/>
-      <c r="AN31" s="34"/>
-      <c r="AO31" s="34"/>
-      <c r="AP31" s="34"/>
-      <c r="AQ31" s="34"/>
-      <c r="AR31" s="34"/>
-      <c r="AS31" s="11"/>
-      <c r="AT31" s="11"/>
-      <c r="AU31" s="11"/>
-      <c r="AV31" s="11"/>
-      <c r="AW31" s="11"/>
-      <c r="AX31" s="11"/>
-      <c r="AY31" s="11"/>
-      <c r="AZ31" s="11"/>
-      <c r="BA31" s="11"/>
-      <c r="BB31" s="11"/>
-      <c r="BC31" s="34"/>
-      <c r="BD31" s="32"/>
-      <c r="BE31" s="32"/>
-      <c r="BF31" s="32"/>
-      <c r="BG31" s="32"/>
-      <c r="BH31" s="32"/>
-      <c r="BN31" s="32"/>
-      <c r="BO31" s="34"/>
-      <c r="BU31" s="32"/>
-      <c r="BV31" s="11"/>
-      <c r="BW31" s="11"/>
-    </row>
-    <row r="32" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="32"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="AI32" s="34"/>
-      <c r="AJ32" s="34"/>
-      <c r="AK32" s="34"/>
-      <c r="AL32" s="34"/>
-      <c r="AM32" s="34"/>
-      <c r="AN32" s="34"/>
-      <c r="AO32" s="34"/>
-      <c r="AP32" s="34"/>
-      <c r="AQ32" s="34"/>
-      <c r="AR32" s="34"/>
-      <c r="AS32" s="11"/>
-      <c r="AT32" s="11"/>
-      <c r="AU32" s="11"/>
-      <c r="AV32" s="11"/>
-      <c r="AW32" s="11"/>
-      <c r="AX32" s="11"/>
-      <c r="AY32" s="11"/>
-      <c r="AZ32" s="11"/>
-      <c r="BA32" s="11"/>
-      <c r="BB32" s="11"/>
-      <c r="BC32" s="34"/>
-      <c r="BN32" s="32"/>
-      <c r="BO32" s="34"/>
-      <c r="BU32" s="32"/>
-      <c r="BV32" s="11"/>
-      <c r="BW32" s="11"/>
-    </row>
-    <row r="33" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="AI33" s="34"/>
-      <c r="AJ33" s="34"/>
-      <c r="AK33" s="34"/>
-      <c r="AL33" s="34"/>
-      <c r="AM33" s="34"/>
-      <c r="AN33" s="34"/>
-      <c r="AO33" s="34"/>
-      <c r="AP33" s="34"/>
-      <c r="AQ33" s="34"/>
-      <c r="AR33" s="34"/>
-      <c r="AS33" s="11"/>
-      <c r="AT33" s="11"/>
-      <c r="AU33" s="11"/>
-      <c r="AV33" s="11"/>
-      <c r="AW33" s="11"/>
-      <c r="AX33" s="11"/>
-      <c r="AY33" s="11"/>
-      <c r="AZ33" s="11"/>
-      <c r="BA33" s="11"/>
-      <c r="BB33" s="11"/>
-      <c r="BC33" s="34"/>
-      <c r="BN33" s="32"/>
-      <c r="BO33" s="34"/>
-      <c r="BU33" s="32"/>
-      <c r="BV33" s="11"/>
-      <c r="BW33" s="11"/>
-    </row>
-    <row r="34" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="AF34" s="35"/>
-      <c r="AG34" s="35"/>
-      <c r="AH34" s="35"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="34"/>
-      <c r="AK34" s="34"/>
-      <c r="AL34" s="34"/>
-      <c r="AM34" s="34"/>
-      <c r="AN34" s="34"/>
-      <c r="AO34" s="34"/>
-      <c r="AP34" s="34"/>
-      <c r="AQ34" s="34"/>
-      <c r="AR34" s="34"/>
-      <c r="AS34" s="11"/>
-      <c r="AT34" s="11"/>
-      <c r="AU34" s="11"/>
-      <c r="AV34" s="11"/>
-      <c r="AW34" s="11"/>
-      <c r="AX34" s="11"/>
-      <c r="AY34" s="11"/>
-      <c r="AZ34" s="11"/>
-      <c r="BA34" s="11"/>
-      <c r="BB34" s="11"/>
-      <c r="BC34" s="34"/>
-      <c r="BN34" s="32"/>
-      <c r="BO34" s="34"/>
-      <c r="BU34" s="32"/>
-      <c r="BV34" s="11"/>
-      <c r="BW34" s="11"/>
-    </row>
-    <row r="35" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="32"/>
-      <c r="AG35" s="35"/>
-      <c r="AH35" s="35"/>
-      <c r="AI35" s="34"/>
-      <c r="AJ35" s="34"/>
-      <c r="AK35" s="34"/>
-      <c r="AL35" s="34"/>
-      <c r="AM35" s="34"/>
-      <c r="AN35" s="34"/>
-      <c r="AO35" s="34"/>
-      <c r="AP35" s="34"/>
-      <c r="AQ35" s="34"/>
-      <c r="AR35" s="34"/>
-      <c r="AS35" s="11"/>
-      <c r="AT35" s="11"/>
-      <c r="AU35" s="11"/>
-      <c r="AV35" s="11"/>
-      <c r="AW35" s="11"/>
-      <c r="AX35" s="11"/>
-      <c r="AY35" s="11"/>
-      <c r="AZ35" s="11"/>
-      <c r="BA35" s="11"/>
-      <c r="BB35" s="11"/>
-      <c r="BC35" s="34"/>
-      <c r="BH35" s="35"/>
-      <c r="BN35" s="32"/>
-      <c r="BO35" s="34"/>
-      <c r="BP35" s="35"/>
-      <c r="BU35" s="32"/>
-      <c r="BV35" s="11"/>
-      <c r="BW35" s="11"/>
-    </row>
-    <row r="36" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AI36" s="34"/>
-      <c r="AJ36" s="34"/>
-      <c r="AK36" s="34"/>
-      <c r="AL36" s="34"/>
-      <c r="AM36" s="34"/>
-      <c r="AN36" s="34"/>
-      <c r="AO36" s="34"/>
-      <c r="AP36" s="34"/>
-      <c r="AQ36" s="34"/>
-      <c r="AR36" s="34"/>
-      <c r="AS36" s="11"/>
-      <c r="AT36" s="11"/>
-      <c r="AU36" s="11"/>
-      <c r="AV36" s="11"/>
-      <c r="AW36" s="11"/>
-      <c r="AX36" s="11"/>
-      <c r="AY36" s="11"/>
-      <c r="AZ36" s="11"/>
-      <c r="BA36" s="11"/>
-      <c r="BB36" s="11"/>
-      <c r="BC36" s="34"/>
-      <c r="BH36" s="32"/>
-      <c r="BI36" s="32"/>
-      <c r="BJ36" s="32"/>
-      <c r="BK36" s="32"/>
-      <c r="BL36" s="32"/>
-      <c r="BM36" s="32"/>
-      <c r="BN36" s="32"/>
-      <c r="BO36" s="32"/>
-      <c r="BP36" s="32"/>
-      <c r="BU36" s="32"/>
-      <c r="BV36" s="11"/>
-      <c r="BW36" s="11"/>
-    </row>
-    <row r="37" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="32"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
-      <c r="AF37" s="34"/>
-      <c r="AI37" s="35"/>
-      <c r="AJ37" s="35"/>
-      <c r="AR37" s="34"/>
-      <c r="AS37" s="11"/>
-      <c r="AT37" s="11"/>
-      <c r="AU37" s="11"/>
-      <c r="AV37" s="11"/>
-      <c r="AW37" s="11"/>
-      <c r="AX37" s="11"/>
-      <c r="AY37" s="11"/>
-      <c r="AZ37" s="11"/>
-      <c r="BA37" s="11"/>
-      <c r="BB37" s="11"/>
-      <c r="BC37" s="34"/>
-      <c r="BU37" s="32"/>
-      <c r="BV37" s="11"/>
-      <c r="BW37" s="11"/>
-    </row>
-    <row r="38" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="32"/>
-      <c r="AI38" s="35"/>
-      <c r="AJ38" s="35"/>
-      <c r="AR38" s="34"/>
-      <c r="AS38" s="11"/>
-      <c r="AT38" s="11"/>
-      <c r="AU38" s="11"/>
-      <c r="AV38" s="11"/>
-      <c r="AW38" s="11"/>
-      <c r="AX38" s="11"/>
-      <c r="AY38" s="11"/>
-      <c r="AZ38" s="11"/>
-      <c r="BA38" s="11"/>
-      <c r="BB38" s="11"/>
-      <c r="BC38" s="34"/>
-      <c r="BU38" s="32"/>
-      <c r="BV38" s="11"/>
-      <c r="BW38" s="11"/>
-    </row>
-    <row r="39" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="32"/>
-      <c r="AI39" s="35"/>
-      <c r="AJ39" s="35"/>
-      <c r="AR39" s="34"/>
-      <c r="AS39" s="11"/>
-      <c r="AT39" s="11"/>
-      <c r="AU39" s="11"/>
-      <c r="AV39" s="11"/>
-      <c r="AW39" s="11"/>
-      <c r="AX39" s="11"/>
-      <c r="AY39" s="11"/>
-      <c r="AZ39" s="11"/>
-      <c r="BA39" s="11"/>
-      <c r="BB39" s="11"/>
-      <c r="BC39" s="34"/>
-      <c r="BP39" s="35"/>
-      <c r="BU39" s="32"/>
-      <c r="BV39" s="11"/>
-      <c r="BW39" s="11"/>
-    </row>
-    <row r="40" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="32"/>
-      <c r="AI40" s="35"/>
-      <c r="AJ40" s="35"/>
-      <c r="AR40" s="34"/>
-      <c r="AS40" s="11"/>
-      <c r="AT40" s="11"/>
-      <c r="AU40" s="11"/>
-      <c r="AV40" s="11"/>
-      <c r="AW40" s="11"/>
-      <c r="AX40" s="11"/>
-      <c r="AY40" s="11"/>
-      <c r="AZ40" s="11"/>
-      <c r="BA40" s="11"/>
-      <c r="BB40" s="11"/>
-      <c r="BC40" s="34"/>
-      <c r="BP40" s="35"/>
-      <c r="BU40" s="32"/>
-      <c r="BV40" s="11"/>
-      <c r="BW40" s="11"/>
-    </row>
-    <row r="41" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="Q41" s="31"/>
-      <c r="AI41" s="35"/>
-      <c r="AJ41" s="35"/>
-      <c r="AR41" s="34"/>
-      <c r="AS41" s="11"/>
-      <c r="AT41" s="11"/>
-      <c r="AU41" s="11"/>
-      <c r="AV41" s="11"/>
-      <c r="AW41" s="11"/>
-      <c r="AX41" s="11"/>
-      <c r="AY41" s="11"/>
-      <c r="AZ41" s="11"/>
-      <c r="BA41" s="11"/>
-      <c r="BB41" s="11"/>
-      <c r="BC41" s="34"/>
-      <c r="BP41" s="35"/>
-      <c r="BU41" s="32"/>
-      <c r="BV41" s="11"/>
-      <c r="BW41" s="11"/>
-    </row>
-    <row r="42" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="32"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="32"/>
-      <c r="Y42" s="32"/>
-      <c r="Z42" s="32"/>
-      <c r="AA42" s="32"/>
-      <c r="AB42" s="32"/>
-      <c r="AC42" s="32"/>
-      <c r="AD42" s="32"/>
-      <c r="AE42" s="32"/>
-      <c r="AF42" s="32"/>
-      <c r="AG42" s="32"/>
-      <c r="AH42" s="32"/>
-      <c r="AI42" s="32"/>
-      <c r="AJ42" s="32"/>
-      <c r="AK42" s="34"/>
-      <c r="AL42" s="34"/>
-      <c r="AM42" s="34"/>
-      <c r="AN42" s="34"/>
-      <c r="AO42" s="35"/>
-      <c r="AP42" s="35"/>
-      <c r="AQ42" s="34"/>
-      <c r="AR42" s="34"/>
-      <c r="AS42" s="11"/>
-      <c r="AT42" s="11"/>
-      <c r="AU42" s="11"/>
-      <c r="AV42" s="11"/>
-      <c r="AW42" s="11"/>
-      <c r="AX42" s="11"/>
-      <c r="AY42" s="11"/>
-      <c r="AZ42" s="11"/>
-      <c r="BA42" s="11"/>
-      <c r="BB42" s="11"/>
-      <c r="BC42" s="34"/>
-      <c r="BD42" s="35"/>
-      <c r="BP42" s="35"/>
-      <c r="BU42" s="32"/>
-      <c r="BV42" s="11"/>
-      <c r="BW42" s="11"/>
-    </row>
-    <row r="43" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="11"/>
-      <c r="AA43" s="11"/>
-      <c r="AB43" s="11"/>
-      <c r="AC43" s="11"/>
-      <c r="AD43" s="11"/>
-      <c r="AE43" s="11"/>
-      <c r="AF43" s="11"/>
-      <c r="AG43" s="11"/>
-      <c r="AH43" s="11"/>
-      <c r="AI43" s="11"/>
-      <c r="AJ43" s="11"/>
-      <c r="AK43" s="11"/>
-      <c r="AL43" s="11"/>
-      <c r="AM43" s="11"/>
-      <c r="AN43" s="11"/>
-      <c r="AO43" s="11"/>
-      <c r="AP43" s="11"/>
-      <c r="AQ43" s="11"/>
-      <c r="AR43" s="11"/>
-      <c r="AS43" s="11"/>
-      <c r="AT43" s="11"/>
-      <c r="AU43" s="11"/>
-      <c r="AV43" s="11"/>
-      <c r="AW43" s="11"/>
-      <c r="AX43" s="11"/>
-      <c r="AY43" s="11"/>
-      <c r="AZ43" s="11"/>
-      <c r="BA43" s="11"/>
-      <c r="BB43" s="11"/>
-      <c r="BC43" s="34"/>
-      <c r="BU43" s="32"/>
-      <c r="BV43" s="11"/>
-      <c r="BW43" s="11"/>
-    </row>
-    <row r="44" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="11"/>
-      <c r="AA44" s="11"/>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="11"/>
-      <c r="AD44" s="11"/>
-      <c r="AE44" s="11"/>
-      <c r="AF44" s="11"/>
-      <c r="AG44" s="11"/>
-      <c r="AH44" s="11"/>
-      <c r="AI44" s="11"/>
-      <c r="AJ44" s="11"/>
-      <c r="AK44" s="11"/>
-      <c r="AL44" s="11"/>
-      <c r="AM44" s="11"/>
-      <c r="AN44" s="11"/>
-      <c r="AO44" s="11"/>
-      <c r="AP44" s="11"/>
-      <c r="AQ44" s="11"/>
-      <c r="AR44" s="11"/>
-      <c r="AS44" s="11"/>
-      <c r="AT44" s="11"/>
-      <c r="AU44" s="11"/>
-      <c r="AV44" s="11"/>
-      <c r="AW44" s="11"/>
-      <c r="AX44" s="11"/>
-      <c r="AY44" s="11"/>
-      <c r="AZ44" s="11"/>
-      <c r="BA44" s="11"/>
-      <c r="BB44" s="11"/>
-      <c r="BC44" s="34"/>
-      <c r="BU44" s="32"/>
-      <c r="BV44" s="11"/>
-      <c r="BW44" s="11"/>
-    </row>
-    <row r="45" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="11"/>
-      <c r="AA45" s="11"/>
-      <c r="AB45" s="11"/>
-      <c r="AC45" s="11"/>
-      <c r="AD45" s="11"/>
-      <c r="AE45" s="11"/>
-      <c r="AF45" s="11"/>
-      <c r="AG45" s="11"/>
-      <c r="AH45" s="11"/>
-      <c r="AI45" s="11"/>
-      <c r="AJ45" s="11"/>
-      <c r="AK45" s="11"/>
-      <c r="AL45" s="11"/>
-      <c r="AM45" s="11"/>
-      <c r="AN45" s="11"/>
-      <c r="AO45" s="11"/>
-      <c r="AP45" s="11"/>
-      <c r="AQ45" s="11"/>
-      <c r="AR45" s="11"/>
-      <c r="AS45" s="11"/>
-      <c r="AT45" s="11"/>
-      <c r="AU45" s="11"/>
-      <c r="AV45" s="11"/>
-      <c r="AW45" s="11"/>
-      <c r="AX45" s="11"/>
-      <c r="AY45" s="11"/>
-      <c r="AZ45" s="11"/>
-      <c r="BA45" s="11"/>
-      <c r="BB45" s="11"/>
-      <c r="BC45" s="34"/>
-      <c r="BU45" s="32"/>
-      <c r="BV45" s="11"/>
-      <c r="BW45" s="11"/>
-    </row>
-    <row r="46" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11"/>
-      <c r="Z46" s="11"/>
-      <c r="AA46" s="11"/>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="11"/>
-      <c r="AD46" s="11"/>
-      <c r="AE46" s="11"/>
-      <c r="AF46" s="11"/>
-      <c r="AG46" s="11"/>
-      <c r="AH46" s="11"/>
-      <c r="AI46" s="11"/>
-      <c r="AJ46" s="11"/>
-      <c r="AK46" s="11"/>
-      <c r="AL46" s="11"/>
-      <c r="AM46" s="11"/>
-      <c r="AN46" s="11"/>
-      <c r="AO46" s="11"/>
-      <c r="AP46" s="11"/>
-      <c r="AQ46" s="11"/>
-      <c r="AR46" s="11"/>
-      <c r="AS46" s="11"/>
-      <c r="AT46" s="11"/>
-      <c r="AU46" s="11"/>
-      <c r="AV46" s="11"/>
-      <c r="AW46" s="11"/>
-      <c r="AX46" s="11"/>
-      <c r="AY46" s="11"/>
-      <c r="AZ46" s="11"/>
-      <c r="BA46" s="11"/>
-      <c r="BB46" s="11"/>
-      <c r="BC46" s="32"/>
-      <c r="BD46" s="32"/>
-      <c r="BE46" s="35"/>
-      <c r="BF46" s="35"/>
-      <c r="BG46" s="32"/>
-      <c r="BH46" s="32"/>
-      <c r="BI46" s="32"/>
-      <c r="BJ46" s="32"/>
-      <c r="BK46" s="32"/>
-      <c r="BL46" s="32"/>
-      <c r="BM46" s="32"/>
-      <c r="BN46" s="32"/>
-      <c r="BO46" s="32"/>
-      <c r="BP46" s="32"/>
-      <c r="BQ46" s="32"/>
-      <c r="BR46" s="32"/>
-      <c r="BS46" s="32"/>
-      <c r="BT46" s="32"/>
-      <c r="BU46" s="32"/>
-      <c r="BV46" s="11"/>
-      <c r="BW46" s="11"/>
-    </row>
-    <row r="47" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="11"/>
-      <c r="Z47" s="11"/>
-      <c r="AA47" s="11"/>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="11"/>
-      <c r="AD47" s="11"/>
-      <c r="AE47" s="11"/>
-      <c r="AF47" s="11"/>
-      <c r="AG47" s="11"/>
-      <c r="AH47" s="11"/>
-      <c r="AI47" s="11"/>
-      <c r="AJ47" s="11"/>
-      <c r="AK47" s="11"/>
-      <c r="AL47" s="11"/>
-      <c r="AM47" s="11"/>
-      <c r="AN47" s="11"/>
-      <c r="AO47" s="11"/>
-      <c r="AP47" s="11"/>
-      <c r="AQ47" s="11"/>
-      <c r="AR47" s="11"/>
-      <c r="AS47" s="11"/>
-      <c r="AT47" s="11"/>
-      <c r="AU47" s="11"/>
-      <c r="AV47" s="11"/>
-      <c r="AW47" s="11"/>
-      <c r="AX47" s="11"/>
-      <c r="AY47" s="11"/>
-      <c r="AZ47" s="11"/>
-      <c r="BA47" s="11"/>
-      <c r="BB47" s="11"/>
-      <c r="BC47" s="11"/>
-      <c r="BD47" s="11"/>
-      <c r="BE47" s="11"/>
-      <c r="BF47" s="11"/>
-      <c r="BG47" s="11"/>
-      <c r="BH47" s="11"/>
-      <c r="BI47" s="11"/>
-      <c r="BJ47" s="11"/>
-      <c r="BK47" s="11"/>
-      <c r="BL47" s="11"/>
-      <c r="BM47" s="11"/>
-      <c r="BN47" s="11"/>
-      <c r="BO47" s="11"/>
-      <c r="BP47" s="11"/>
-      <c r="BQ47" s="11"/>
-      <c r="BR47" s="11"/>
-      <c r="BS47" s="11"/>
-      <c r="BT47" s="11"/>
-      <c r="BU47" s="11"/>
-      <c r="BV47" s="11"/>
-      <c r="BW47" s="11"/>
-    </row>
-    <row r="48" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="11"/>
-      <c r="Z48" s="11"/>
-      <c r="AA48" s="11"/>
-      <c r="AB48" s="11"/>
-      <c r="AC48" s="11"/>
-      <c r="AD48" s="11"/>
-      <c r="AE48" s="11"/>
-      <c r="AF48" s="11"/>
-      <c r="AG48" s="11"/>
-      <c r="AH48" s="11"/>
-      <c r="AI48" s="11"/>
-      <c r="AJ48" s="11"/>
-      <c r="AK48" s="11"/>
-      <c r="AL48" s="11"/>
-      <c r="AM48" s="11"/>
-      <c r="AN48" s="11"/>
-      <c r="AO48" s="11"/>
-      <c r="AP48" s="11"/>
-      <c r="AQ48" s="11"/>
-      <c r="AR48" s="11"/>
-      <c r="AS48" s="11"/>
-      <c r="AT48" s="11"/>
-      <c r="AU48" s="11"/>
-      <c r="AV48" s="11"/>
-      <c r="AW48" s="11"/>
-      <c r="AX48" s="11"/>
-      <c r="AY48" s="11"/>
-      <c r="AZ48" s="11"/>
-      <c r="BA48" s="11"/>
-      <c r="BB48" s="11"/>
-      <c r="BC48" s="11"/>
-      <c r="BD48" s="11"/>
-      <c r="BE48" s="11"/>
-      <c r="BF48" s="11"/>
-      <c r="BG48" s="11"/>
-      <c r="BH48" s="11"/>
-      <c r="BI48" s="11"/>
-      <c r="BJ48" s="11"/>
-      <c r="BK48" s="11"/>
-      <c r="BL48" s="11"/>
-      <c r="BM48" s="11"/>
-      <c r="BN48" s="11"/>
-      <c r="BO48" s="11"/>
-      <c r="BP48" s="11"/>
-      <c r="BQ48" s="11"/>
-      <c r="BR48" s="11"/>
-      <c r="BS48" s="11"/>
-      <c r="BT48" s="11"/>
-      <c r="BU48" s="11"/>
-      <c r="BV48" s="11"/>
-      <c r="BW48" s="11"/>
-    </row>
     <row r="53" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D53" s="70"/>
       <c r="E53" s="70"/>
@@ -6734,26 +5668,26 @@
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="C15:AD16"/>
+    <mergeCell ref="C53:AD54"/>
+    <mergeCell ref="C56:AD57"/>
+    <mergeCell ref="C58:AD59"/>
+    <mergeCell ref="C60:AD61"/>
+    <mergeCell ref="C62:AD63"/>
+    <mergeCell ref="BA2:BG2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BT2:BW2"/>
     <mergeCell ref="D6:AR8"/>
     <mergeCell ref="C12:N13"/>
     <mergeCell ref="O12:R13"/>
     <mergeCell ref="S12:V13"/>
     <mergeCell ref="W12:Z13"/>
     <mergeCell ref="AA12:AD13"/>
-    <mergeCell ref="C53:AD54"/>
-    <mergeCell ref="C56:AD57"/>
-    <mergeCell ref="C58:AD59"/>
-    <mergeCell ref="C60:AD61"/>
-    <mergeCell ref="C62:AD63"/>
-    <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="BA2:BG2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BT2:BW2"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AT2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6763,12 +5697,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC1ACA1-D39A-40A3-9EAE-07F33C90ECD2}">
-  <dimension ref="A1:EE90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A094B14B-4047-46AD-8935-5EAC2DD927BB}">
+  <dimension ref="A1:CO63"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BA68" sqref="BA68"/>
+      <selection pane="bottomLeft" activeCell="BH53" sqref="BH53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6875,7 +5809,7 @@
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
       <c r="D2" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="67"/>
@@ -6885,36 +5819,36 @@
       <c r="J2" s="68"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
-      <c r="O2" s="69" t="s">
-        <v>27</v>
+      <c r="O2" s="66" t="s">
+        <v>26</v>
       </c>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="68"/>
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
       <c r="V2" s="66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W2" s="67"/>
       <c r="X2" s="67"/>
       <c r="Y2" s="68"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
-      <c r="AD2" s="69" t="s">
-        <v>29</v>
+      <c r="AD2" s="66" t="s">
+        <v>28</v>
       </c>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="68"/>
       <c r="AH2" s="21"/>
       <c r="AJ2" s="36"/>
-      <c r="AL2" s="69" t="s">
-        <v>47</v>
+      <c r="AL2" s="66" t="s">
+        <v>46</v>
       </c>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="68"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
       <c r="AT2" s="66" t="s">
@@ -6933,15 +5867,16 @@
       <c r="BF2" s="67"/>
       <c r="BG2" s="68"/>
       <c r="BH2" s="21"/>
+      <c r="BJ2" s="75"/>
       <c r="BL2" s="66" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="BM2" s="67"/>
       <c r="BN2" s="67"/>
       <c r="BO2" s="68"/>
       <c r="BP2" s="21"/>
       <c r="BT2" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BU2" s="67"/>
       <c r="BV2" s="67"/>
@@ -7159,7 +6094,7 @@
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="72" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E6" s="72"/>
       <c r="F6" s="72"/>
@@ -7440,7 +6375,7 @@
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="70"/>
       <c r="E12" s="70"/>
@@ -7454,7 +6389,5777 @@
       <c r="M12" s="70"/>
       <c r="N12" s="70"/>
       <c r="O12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="74">
+        <v>64</v>
+      </c>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="73" t="s">
         <v>23</v>
+      </c>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="74">
+        <v>28</v>
+      </c>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="16"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="16"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="16"/>
+      <c r="BC12" s="16"/>
+      <c r="BD12" s="16"/>
+      <c r="BE12" s="16"/>
+      <c r="BF12" s="16"/>
+      <c r="BP12" s="16"/>
+      <c r="BQ12" s="16"/>
+      <c r="BR12" s="16"/>
+      <c r="BS12" s="16"/>
+      <c r="BT12" s="16"/>
+    </row>
+    <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AO13" s="22"/>
+      <c r="AQ13" s="22"/>
+      <c r="AR13" s="22"/>
+      <c r="AS13" s="22"/>
+      <c r="AT13" s="22"/>
+      <c r="AU13" s="22"/>
+      <c r="AV13" s="22"/>
+      <c r="AW13" s="22"/>
+      <c r="AX13" s="22"/>
+      <c r="AY13" s="22"/>
+      <c r="AZ13" s="22"/>
+      <c r="BA13" s="22"/>
+      <c r="BB13" s="22"/>
+      <c r="BC13" s="22"/>
+      <c r="BD13" s="22"/>
+      <c r="BE13" s="22"/>
+      <c r="BF13" s="22"/>
+      <c r="BP13" s="22"/>
+      <c r="BQ13" s="22"/>
+      <c r="BR13" s="22"/>
+      <c r="BS13" s="22"/>
+      <c r="BT13" s="22"/>
+    </row>
+    <row r="14" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AO14" s="22"/>
+      <c r="AQ14" s="22"/>
+      <c r="AR14" s="22"/>
+      <c r="AS14" s="22"/>
+      <c r="AT14" s="22"/>
+      <c r="AU14" s="22"/>
+      <c r="AV14" s="22"/>
+      <c r="AW14" s="22"/>
+      <c r="AX14" s="22"/>
+      <c r="AY14" s="22"/>
+      <c r="AZ14" s="22"/>
+      <c r="BA14" s="22"/>
+      <c r="BB14" s="22"/>
+      <c r="BC14" s="22"/>
+      <c r="BD14" s="22"/>
+      <c r="BE14" s="22"/>
+      <c r="BF14" s="22"/>
+      <c r="BP14" s="22"/>
+      <c r="BQ14" s="22"/>
+      <c r="BR14" s="22"/>
+      <c r="BS14" s="22"/>
+      <c r="BT14" s="22"/>
+    </row>
+    <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="70"/>
+    </row>
+    <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="70"/>
+      <c r="AD16" s="70"/>
+    </row>
+    <row r="18" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="11"/>
+      <c r="AT18" s="11"/>
+      <c r="AU18" s="11"/>
+      <c r="AV18" s="11"/>
+      <c r="AW18" s="11"/>
+      <c r="AX18" s="11"/>
+      <c r="AY18" s="11"/>
+      <c r="AZ18" s="11"/>
+      <c r="BA18" s="11"/>
+      <c r="BB18" s="11"/>
+      <c r="BC18" s="11"/>
+      <c r="BD18" s="11"/>
+      <c r="BE18" s="11"/>
+      <c r="BF18" s="11"/>
+      <c r="BG18" s="11"/>
+      <c r="BH18" s="11"/>
+      <c r="BI18" s="11"/>
+      <c r="BJ18" s="11"/>
+      <c r="BK18" s="11"/>
+      <c r="BL18" s="11"/>
+      <c r="BM18" s="11"/>
+      <c r="BN18" s="11"/>
+      <c r="BO18" s="11"/>
+      <c r="BP18" s="11"/>
+      <c r="BQ18" s="11"/>
+      <c r="BR18" s="11"/>
+      <c r="BS18" s="11"/>
+      <c r="BT18" s="11"/>
+      <c r="BU18" s="11"/>
+      <c r="BV18" s="11"/>
+      <c r="BW18" s="11"/>
+    </row>
+    <row r="19" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="11"/>
+      <c r="AT19" s="11"/>
+      <c r="AU19" s="11"/>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="11"/>
+      <c r="AY19" s="11"/>
+      <c r="AZ19" s="11"/>
+      <c r="BA19" s="11"/>
+      <c r="BB19" s="11"/>
+      <c r="BC19" s="34"/>
+      <c r="BD19" s="32"/>
+      <c r="BE19" s="32"/>
+      <c r="BF19" s="32"/>
+      <c r="BG19" s="32"/>
+      <c r="BH19" s="32"/>
+      <c r="BI19" s="32"/>
+      <c r="BJ19" s="32"/>
+      <c r="BK19" s="32"/>
+      <c r="BL19" s="32"/>
+      <c r="BM19" s="32"/>
+      <c r="BN19" s="32"/>
+      <c r="BO19" s="32"/>
+      <c r="BP19" s="32"/>
+      <c r="BQ19" s="32"/>
+      <c r="BR19" s="32"/>
+      <c r="BS19" s="32"/>
+      <c r="BT19" s="32"/>
+      <c r="BU19" s="34"/>
+      <c r="BV19" s="11"/>
+      <c r="BW19" s="11"/>
+    </row>
+    <row r="20" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="11"/>
+      <c r="AU20" s="11"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
+      <c r="AX20" s="11"/>
+      <c r="AY20" s="11"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="11"/>
+      <c r="BB20" s="11"/>
+      <c r="BC20" s="34"/>
+      <c r="BU20" s="34"/>
+      <c r="BV20" s="11"/>
+      <c r="BW20" s="11"/>
+    </row>
+    <row r="21" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="11"/>
+      <c r="AP21" s="11"/>
+      <c r="AQ21" s="11"/>
+      <c r="AR21" s="11"/>
+      <c r="AS21" s="11"/>
+      <c r="AT21" s="11"/>
+      <c r="AU21" s="11"/>
+      <c r="AV21" s="11"/>
+      <c r="AW21" s="11"/>
+      <c r="AX21" s="11"/>
+      <c r="AY21" s="11"/>
+      <c r="AZ21" s="11"/>
+      <c r="BA21" s="11"/>
+      <c r="BB21" s="11"/>
+      <c r="BC21" s="34"/>
+      <c r="BU21" s="34"/>
+      <c r="BV21" s="11"/>
+      <c r="BW21" s="11"/>
+    </row>
+    <row r="22" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="11"/>
+      <c r="AP22" s="11"/>
+      <c r="AQ22" s="11"/>
+      <c r="AR22" s="11"/>
+      <c r="AS22" s="11"/>
+      <c r="AT22" s="11"/>
+      <c r="AU22" s="11"/>
+      <c r="AV22" s="11"/>
+      <c r="AW22" s="11"/>
+      <c r="AX22" s="11"/>
+      <c r="AY22" s="11"/>
+      <c r="AZ22" s="11"/>
+      <c r="BA22" s="11"/>
+      <c r="BB22" s="11"/>
+      <c r="BC22" s="34"/>
+      <c r="BG22" s="35"/>
+      <c r="BS22" s="35"/>
+      <c r="BU22" s="34"/>
+      <c r="BV22" s="11"/>
+      <c r="BW22" s="11"/>
+    </row>
+    <row r="23" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="11"/>
+      <c r="AS23" s="11"/>
+      <c r="AT23" s="11"/>
+      <c r="AU23" s="11"/>
+      <c r="AV23" s="11"/>
+      <c r="AW23" s="11"/>
+      <c r="AX23" s="11"/>
+      <c r="AY23" s="11"/>
+      <c r="AZ23" s="11"/>
+      <c r="BA23" s="11"/>
+      <c r="BB23" s="11"/>
+      <c r="BC23" s="34"/>
+      <c r="BD23" s="32"/>
+      <c r="BE23" s="32"/>
+      <c r="BF23" s="32"/>
+      <c r="BG23" s="32"/>
+      <c r="BO23" s="32"/>
+      <c r="BP23" s="32"/>
+      <c r="BQ23" s="32"/>
+      <c r="BR23" s="32"/>
+      <c r="BS23" s="32"/>
+      <c r="BT23" s="32"/>
+      <c r="BU23" s="34"/>
+      <c r="BV23" s="11"/>
+      <c r="BW23" s="11"/>
+    </row>
+    <row r="24" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="11"/>
+      <c r="AO24" s="11"/>
+      <c r="AP24" s="11"/>
+      <c r="AQ24" s="11"/>
+      <c r="AR24" s="11"/>
+      <c r="AS24" s="11"/>
+      <c r="AT24" s="11"/>
+      <c r="AU24" s="11"/>
+      <c r="AV24" s="11"/>
+      <c r="AW24" s="11"/>
+      <c r="AX24" s="11"/>
+      <c r="AY24" s="11"/>
+      <c r="AZ24" s="11"/>
+      <c r="BA24" s="11"/>
+      <c r="BB24" s="11"/>
+      <c r="BC24" s="34"/>
+      <c r="BD24" s="35"/>
+      <c r="BU24" s="34"/>
+      <c r="BV24" s="11"/>
+      <c r="BW24" s="11"/>
+    </row>
+    <row r="25" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="11"/>
+      <c r="AP25" s="11"/>
+      <c r="AQ25" s="11"/>
+      <c r="AR25" s="11"/>
+      <c r="AS25" s="11"/>
+      <c r="AT25" s="11"/>
+      <c r="AU25" s="11"/>
+      <c r="AV25" s="11"/>
+      <c r="AW25" s="11"/>
+      <c r="AX25" s="11"/>
+      <c r="AY25" s="11"/>
+      <c r="AZ25" s="11"/>
+      <c r="BA25" s="11"/>
+      <c r="BB25" s="11"/>
+      <c r="BC25" s="34"/>
+      <c r="BU25" s="34"/>
+      <c r="BV25" s="11"/>
+      <c r="BW25" s="11"/>
+    </row>
+    <row r="26" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="11"/>
+      <c r="AP26" s="11"/>
+      <c r="AQ26" s="11"/>
+      <c r="AR26" s="11"/>
+      <c r="AS26" s="11"/>
+      <c r="AT26" s="11"/>
+      <c r="AU26" s="11"/>
+      <c r="AV26" s="11"/>
+      <c r="AW26" s="11"/>
+      <c r="AX26" s="11"/>
+      <c r="AY26" s="11"/>
+      <c r="AZ26" s="11"/>
+      <c r="BA26" s="11"/>
+      <c r="BB26" s="11"/>
+      <c r="BC26" s="34"/>
+      <c r="BU26" s="34"/>
+      <c r="BV26" s="11"/>
+      <c r="BW26" s="11"/>
+    </row>
+    <row r="27" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="11"/>
+      <c r="AS27" s="11"/>
+      <c r="AT27" s="11"/>
+      <c r="AU27" s="11"/>
+      <c r="AV27" s="11"/>
+      <c r="AW27" s="11"/>
+      <c r="AX27" s="11"/>
+      <c r="AY27" s="11"/>
+      <c r="AZ27" s="11"/>
+      <c r="BA27" s="11"/>
+      <c r="BB27" s="11"/>
+      <c r="BC27" s="34"/>
+      <c r="BI27" s="32"/>
+      <c r="BJ27" s="32"/>
+      <c r="BK27" s="32"/>
+      <c r="BL27" s="32"/>
+      <c r="BM27" s="32"/>
+      <c r="BN27" s="35"/>
+      <c r="BO27" s="34"/>
+      <c r="BP27" s="34"/>
+      <c r="BQ27" s="34"/>
+      <c r="BR27" s="34"/>
+      <c r="BS27" s="34"/>
+      <c r="BT27" s="34"/>
+      <c r="BU27" s="34"/>
+      <c r="BV27" s="11"/>
+      <c r="BW27" s="11"/>
+    </row>
+    <row r="28" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="11"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="11"/>
+      <c r="AS28" s="11"/>
+      <c r="AT28" s="11"/>
+      <c r="AU28" s="11"/>
+      <c r="AV28" s="11"/>
+      <c r="AW28" s="11"/>
+      <c r="AX28" s="11"/>
+      <c r="AY28" s="11"/>
+      <c r="AZ28" s="11"/>
+      <c r="BA28" s="11"/>
+      <c r="BB28" s="11"/>
+      <c r="BC28" s="34"/>
+      <c r="BU28" s="34"/>
+      <c r="BV28" s="11"/>
+      <c r="BW28" s="11"/>
+    </row>
+    <row r="29" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="11"/>
+      <c r="AS29" s="11"/>
+      <c r="AT29" s="11"/>
+      <c r="AU29" s="11"/>
+      <c r="AV29" s="11"/>
+      <c r="AW29" s="11"/>
+      <c r="AX29" s="11"/>
+      <c r="AY29" s="11"/>
+      <c r="AZ29" s="11"/>
+      <c r="BA29" s="11"/>
+      <c r="BB29" s="11"/>
+      <c r="BC29" s="34"/>
+      <c r="BU29" s="34"/>
+      <c r="BV29" s="11"/>
+      <c r="BW29" s="11"/>
+    </row>
+    <row r="30" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="11"/>
+      <c r="AP30" s="11"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="11"/>
+      <c r="AS30" s="11"/>
+      <c r="AT30" s="11"/>
+      <c r="AU30" s="11"/>
+      <c r="AV30" s="11"/>
+      <c r="AW30" s="11"/>
+      <c r="AX30" s="11"/>
+      <c r="AY30" s="11"/>
+      <c r="AZ30" s="11"/>
+      <c r="BA30" s="11"/>
+      <c r="BB30" s="11"/>
+      <c r="BC30" s="34"/>
+      <c r="BN30" s="32"/>
+      <c r="BO30" s="34"/>
+      <c r="BU30" s="34"/>
+      <c r="BV30" s="11"/>
+      <c r="BW30" s="11"/>
+    </row>
+    <row r="31" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="32"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="32"/>
+      <c r="AG31" s="32"/>
+      <c r="AH31" s="32"/>
+      <c r="AI31" s="34"/>
+      <c r="AJ31" s="34"/>
+      <c r="AK31" s="34"/>
+      <c r="AL31" s="34"/>
+      <c r="AM31" s="34"/>
+      <c r="AN31" s="34"/>
+      <c r="AO31" s="34"/>
+      <c r="AP31" s="34"/>
+      <c r="AQ31" s="34"/>
+      <c r="AR31" s="34"/>
+      <c r="AS31" s="11"/>
+      <c r="AT31" s="11"/>
+      <c r="AU31" s="11"/>
+      <c r="AV31" s="11"/>
+      <c r="AW31" s="11"/>
+      <c r="AX31" s="11"/>
+      <c r="AY31" s="11"/>
+      <c r="AZ31" s="11"/>
+      <c r="BA31" s="11"/>
+      <c r="BB31" s="11"/>
+      <c r="BC31" s="34"/>
+      <c r="BD31" s="32"/>
+      <c r="BE31" s="32"/>
+      <c r="BF31" s="32"/>
+      <c r="BG31" s="32"/>
+      <c r="BH31" s="32"/>
+      <c r="BN31" s="32"/>
+      <c r="BO31" s="34"/>
+      <c r="BU31" s="32"/>
+      <c r="BV31" s="11"/>
+      <c r="BW31" s="11"/>
+    </row>
+    <row r="32" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="32"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="AI32" s="34"/>
+      <c r="AJ32" s="34"/>
+      <c r="AK32" s="34"/>
+      <c r="AL32" s="34"/>
+      <c r="AM32" s="34"/>
+      <c r="AN32" s="34"/>
+      <c r="AO32" s="34"/>
+      <c r="AP32" s="34"/>
+      <c r="AQ32" s="34"/>
+      <c r="AR32" s="34"/>
+      <c r="AS32" s="11"/>
+      <c r="AT32" s="11"/>
+      <c r="AU32" s="11"/>
+      <c r="AV32" s="11"/>
+      <c r="AW32" s="11"/>
+      <c r="AX32" s="11"/>
+      <c r="AY32" s="11"/>
+      <c r="AZ32" s="11"/>
+      <c r="BA32" s="11"/>
+      <c r="BB32" s="11"/>
+      <c r="BC32" s="34"/>
+      <c r="BN32" s="32"/>
+      <c r="BO32" s="34"/>
+      <c r="BU32" s="32"/>
+      <c r="BV32" s="11"/>
+      <c r="BW32" s="11"/>
+    </row>
+    <row r="33" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="AI33" s="34"/>
+      <c r="AJ33" s="34"/>
+      <c r="AK33" s="34"/>
+      <c r="AL33" s="34"/>
+      <c r="AM33" s="34"/>
+      <c r="AN33" s="34"/>
+      <c r="AO33" s="34"/>
+      <c r="AP33" s="34"/>
+      <c r="AQ33" s="34"/>
+      <c r="AR33" s="34"/>
+      <c r="AS33" s="11"/>
+      <c r="AT33" s="11"/>
+      <c r="AU33" s="11"/>
+      <c r="AV33" s="11"/>
+      <c r="AW33" s="11"/>
+      <c r="AX33" s="11"/>
+      <c r="AY33" s="11"/>
+      <c r="AZ33" s="11"/>
+      <c r="BA33" s="11"/>
+      <c r="BB33" s="11"/>
+      <c r="BC33" s="34"/>
+      <c r="BN33" s="32"/>
+      <c r="BO33" s="34"/>
+      <c r="BU33" s="32"/>
+      <c r="BV33" s="11"/>
+      <c r="BW33" s="11"/>
+    </row>
+    <row r="34" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="35"/>
+      <c r="AI34" s="34"/>
+      <c r="AJ34" s="34"/>
+      <c r="AK34" s="34"/>
+      <c r="AL34" s="34"/>
+      <c r="AM34" s="34"/>
+      <c r="AN34" s="34"/>
+      <c r="AO34" s="34"/>
+      <c r="AP34" s="34"/>
+      <c r="AQ34" s="34"/>
+      <c r="AR34" s="34"/>
+      <c r="AS34" s="11"/>
+      <c r="AT34" s="11"/>
+      <c r="AU34" s="11"/>
+      <c r="AV34" s="11"/>
+      <c r="AW34" s="11"/>
+      <c r="AX34" s="11"/>
+      <c r="AY34" s="11"/>
+      <c r="AZ34" s="11"/>
+      <c r="BA34" s="11"/>
+      <c r="BB34" s="11"/>
+      <c r="BC34" s="34"/>
+      <c r="BN34" s="32"/>
+      <c r="BO34" s="34"/>
+      <c r="BU34" s="32"/>
+      <c r="BV34" s="11"/>
+      <c r="BW34" s="11"/>
+    </row>
+    <row r="35" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="32"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="35"/>
+      <c r="AI35" s="34"/>
+      <c r="AJ35" s="34"/>
+      <c r="AK35" s="34"/>
+      <c r="AL35" s="34"/>
+      <c r="AM35" s="34"/>
+      <c r="AN35" s="34"/>
+      <c r="AO35" s="34"/>
+      <c r="AP35" s="34"/>
+      <c r="AQ35" s="34"/>
+      <c r="AR35" s="34"/>
+      <c r="AS35" s="11"/>
+      <c r="AT35" s="11"/>
+      <c r="AU35" s="11"/>
+      <c r="AV35" s="11"/>
+      <c r="AW35" s="11"/>
+      <c r="AX35" s="11"/>
+      <c r="AY35" s="11"/>
+      <c r="AZ35" s="11"/>
+      <c r="BA35" s="11"/>
+      <c r="BB35" s="11"/>
+      <c r="BC35" s="34"/>
+      <c r="BH35" s="35"/>
+      <c r="BN35" s="32"/>
+      <c r="BO35" s="34"/>
+      <c r="BP35" s="35"/>
+      <c r="BU35" s="32"/>
+      <c r="BV35" s="11"/>
+      <c r="BW35" s="11"/>
+    </row>
+    <row r="36" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AI36" s="34"/>
+      <c r="AJ36" s="34"/>
+      <c r="AK36" s="34"/>
+      <c r="AL36" s="34"/>
+      <c r="AM36" s="34"/>
+      <c r="AN36" s="34"/>
+      <c r="AO36" s="34"/>
+      <c r="AP36" s="34"/>
+      <c r="AQ36" s="34"/>
+      <c r="AR36" s="34"/>
+      <c r="AS36" s="11"/>
+      <c r="AT36" s="11"/>
+      <c r="AU36" s="11"/>
+      <c r="AV36" s="11"/>
+      <c r="AW36" s="11"/>
+      <c r="AX36" s="11"/>
+      <c r="AY36" s="11"/>
+      <c r="AZ36" s="11"/>
+      <c r="BA36" s="11"/>
+      <c r="BB36" s="11"/>
+      <c r="BC36" s="34"/>
+      <c r="BH36" s="32"/>
+      <c r="BI36" s="32"/>
+      <c r="BJ36" s="32"/>
+      <c r="BK36" s="32"/>
+      <c r="BL36" s="32"/>
+      <c r="BM36" s="32"/>
+      <c r="BN36" s="32"/>
+      <c r="BO36" s="32"/>
+      <c r="BP36" s="32"/>
+      <c r="BU36" s="32"/>
+      <c r="BV36" s="11"/>
+      <c r="BW36" s="11"/>
+    </row>
+    <row r="37" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="32"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="34"/>
+      <c r="AF37" s="34"/>
+      <c r="AI37" s="35"/>
+      <c r="AJ37" s="35"/>
+      <c r="AR37" s="34"/>
+      <c r="AS37" s="11"/>
+      <c r="AT37" s="11"/>
+      <c r="AU37" s="11"/>
+      <c r="AV37" s="11"/>
+      <c r="AW37" s="11"/>
+      <c r="AX37" s="11"/>
+      <c r="AY37" s="11"/>
+      <c r="AZ37" s="11"/>
+      <c r="BA37" s="11"/>
+      <c r="BB37" s="11"/>
+      <c r="BC37" s="34"/>
+      <c r="BU37" s="32"/>
+      <c r="BV37" s="11"/>
+      <c r="BW37" s="11"/>
+    </row>
+    <row r="38" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="32"/>
+      <c r="AI38" s="35"/>
+      <c r="AJ38" s="35"/>
+      <c r="AR38" s="34"/>
+      <c r="AS38" s="11"/>
+      <c r="AT38" s="11"/>
+      <c r="AU38" s="11"/>
+      <c r="AV38" s="11"/>
+      <c r="AW38" s="11"/>
+      <c r="AX38" s="11"/>
+      <c r="AY38" s="11"/>
+      <c r="AZ38" s="11"/>
+      <c r="BA38" s="11"/>
+      <c r="BB38" s="11"/>
+      <c r="BC38" s="34"/>
+      <c r="BU38" s="32"/>
+      <c r="BV38" s="11"/>
+      <c r="BW38" s="11"/>
+    </row>
+    <row r="39" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="32"/>
+      <c r="AI39" s="35"/>
+      <c r="AJ39" s="35"/>
+      <c r="AR39" s="34"/>
+      <c r="AS39" s="11"/>
+      <c r="AT39" s="11"/>
+      <c r="AU39" s="11"/>
+      <c r="AV39" s="11"/>
+      <c r="AW39" s="11"/>
+      <c r="AX39" s="11"/>
+      <c r="AY39" s="11"/>
+      <c r="AZ39" s="11"/>
+      <c r="BA39" s="11"/>
+      <c r="BB39" s="11"/>
+      <c r="BC39" s="34"/>
+      <c r="BP39" s="35"/>
+      <c r="BU39" s="32"/>
+      <c r="BV39" s="11"/>
+      <c r="BW39" s="11"/>
+    </row>
+    <row r="40" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="32"/>
+      <c r="AI40" s="35"/>
+      <c r="AJ40" s="35"/>
+      <c r="AR40" s="34"/>
+      <c r="AS40" s="11"/>
+      <c r="AT40" s="11"/>
+      <c r="AU40" s="11"/>
+      <c r="AV40" s="11"/>
+      <c r="AW40" s="11"/>
+      <c r="AX40" s="11"/>
+      <c r="AY40" s="11"/>
+      <c r="AZ40" s="11"/>
+      <c r="BA40" s="11"/>
+      <c r="BB40" s="11"/>
+      <c r="BC40" s="34"/>
+      <c r="BP40" s="35"/>
+      <c r="BU40" s="32"/>
+      <c r="BV40" s="11"/>
+      <c r="BW40" s="11"/>
+    </row>
+    <row r="41" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="Q41" s="31"/>
+      <c r="AI41" s="35"/>
+      <c r="AJ41" s="35"/>
+      <c r="AR41" s="34"/>
+      <c r="AS41" s="11"/>
+      <c r="AT41" s="11"/>
+      <c r="AU41" s="11"/>
+      <c r="AV41" s="11"/>
+      <c r="AW41" s="11"/>
+      <c r="AX41" s="11"/>
+      <c r="AY41" s="11"/>
+      <c r="AZ41" s="11"/>
+      <c r="BA41" s="11"/>
+      <c r="BB41" s="11"/>
+      <c r="BC41" s="34"/>
+      <c r="BP41" s="35"/>
+      <c r="BU41" s="32"/>
+      <c r="BV41" s="11"/>
+      <c r="BW41" s="11"/>
+    </row>
+    <row r="42" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="32"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="32"/>
+      <c r="AF42" s="32"/>
+      <c r="AG42" s="32"/>
+      <c r="AH42" s="32"/>
+      <c r="AI42" s="32"/>
+      <c r="AJ42" s="32"/>
+      <c r="AK42" s="34"/>
+      <c r="AL42" s="34"/>
+      <c r="AM42" s="34"/>
+      <c r="AN42" s="34"/>
+      <c r="AO42" s="35"/>
+      <c r="AP42" s="35"/>
+      <c r="AQ42" s="34"/>
+      <c r="AR42" s="34"/>
+      <c r="AS42" s="11"/>
+      <c r="AT42" s="11"/>
+      <c r="AU42" s="11"/>
+      <c r="AV42" s="11"/>
+      <c r="AW42" s="11"/>
+      <c r="AX42" s="11"/>
+      <c r="AY42" s="11"/>
+      <c r="AZ42" s="11"/>
+      <c r="BA42" s="11"/>
+      <c r="BB42" s="11"/>
+      <c r="BC42" s="34"/>
+      <c r="BD42" s="35"/>
+      <c r="BP42" s="35"/>
+      <c r="BU42" s="32"/>
+      <c r="BV42" s="11"/>
+      <c r="BW42" s="11"/>
+    </row>
+    <row r="43" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="11"/>
+      <c r="AN43" s="11"/>
+      <c r="AO43" s="11"/>
+      <c r="AP43" s="11"/>
+      <c r="AQ43" s="11"/>
+      <c r="AR43" s="11"/>
+      <c r="AS43" s="11"/>
+      <c r="AT43" s="11"/>
+      <c r="AU43" s="11"/>
+      <c r="AV43" s="11"/>
+      <c r="AW43" s="11"/>
+      <c r="AX43" s="11"/>
+      <c r="AY43" s="11"/>
+      <c r="AZ43" s="11"/>
+      <c r="BA43" s="11"/>
+      <c r="BB43" s="11"/>
+      <c r="BC43" s="34"/>
+      <c r="BU43" s="32"/>
+      <c r="BV43" s="11"/>
+      <c r="BW43" s="11"/>
+    </row>
+    <row r="44" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="11"/>
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="11"/>
+      <c r="AN44" s="11"/>
+      <c r="AO44" s="11"/>
+      <c r="AP44" s="11"/>
+      <c r="AQ44" s="11"/>
+      <c r="AR44" s="11"/>
+      <c r="AS44" s="11"/>
+      <c r="AT44" s="11"/>
+      <c r="AU44" s="11"/>
+      <c r="AV44" s="11"/>
+      <c r="AW44" s="11"/>
+      <c r="AX44" s="11"/>
+      <c r="AY44" s="11"/>
+      <c r="AZ44" s="11"/>
+      <c r="BA44" s="11"/>
+      <c r="BB44" s="11"/>
+      <c r="BC44" s="34"/>
+      <c r="BU44" s="32"/>
+      <c r="BV44" s="11"/>
+      <c r="BW44" s="11"/>
+    </row>
+    <row r="45" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="11"/>
+      <c r="AL45" s="11"/>
+      <c r="AM45" s="11"/>
+      <c r="AN45" s="11"/>
+      <c r="AO45" s="11"/>
+      <c r="AP45" s="11"/>
+      <c r="AQ45" s="11"/>
+      <c r="AR45" s="11"/>
+      <c r="AS45" s="11"/>
+      <c r="AT45" s="11"/>
+      <c r="AU45" s="11"/>
+      <c r="AV45" s="11"/>
+      <c r="AW45" s="11"/>
+      <c r="AX45" s="11"/>
+      <c r="AY45" s="11"/>
+      <c r="AZ45" s="11"/>
+      <c r="BA45" s="11"/>
+      <c r="BB45" s="11"/>
+      <c r="BC45" s="34"/>
+      <c r="BH45" s="75"/>
+      <c r="BU45" s="32"/>
+      <c r="BV45" s="11"/>
+      <c r="BW45" s="11"/>
+    </row>
+    <row r="46" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="11"/>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11"/>
+      <c r="AJ46" s="11"/>
+      <c r="AK46" s="11"/>
+      <c r="AL46" s="11"/>
+      <c r="AM46" s="11"/>
+      <c r="AN46" s="11"/>
+      <c r="AO46" s="11"/>
+      <c r="AP46" s="11"/>
+      <c r="AQ46" s="11"/>
+      <c r="AR46" s="11"/>
+      <c r="AS46" s="11"/>
+      <c r="AT46" s="11"/>
+      <c r="AU46" s="11"/>
+      <c r="AV46" s="11"/>
+      <c r="AW46" s="11"/>
+      <c r="AX46" s="11"/>
+      <c r="AY46" s="11"/>
+      <c r="AZ46" s="11"/>
+      <c r="BA46" s="11"/>
+      <c r="BB46" s="11"/>
+      <c r="BC46" s="32"/>
+      <c r="BD46" s="32"/>
+      <c r="BE46" s="35"/>
+      <c r="BF46" s="35"/>
+      <c r="BG46" s="32"/>
+      <c r="BH46" s="32"/>
+      <c r="BI46" s="32"/>
+      <c r="BJ46" s="32"/>
+      <c r="BK46" s="32"/>
+      <c r="BL46" s="32"/>
+      <c r="BM46" s="32"/>
+      <c r="BN46" s="32"/>
+      <c r="BO46" s="32"/>
+      <c r="BP46" s="32"/>
+      <c r="BQ46" s="32"/>
+      <c r="BR46" s="32"/>
+      <c r="BS46" s="32"/>
+      <c r="BT46" s="32"/>
+      <c r="BU46" s="32"/>
+      <c r="BV46" s="11"/>
+      <c r="BW46" s="11"/>
+    </row>
+    <row r="47" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
+      <c r="AJ47" s="11"/>
+      <c r="AK47" s="11"/>
+      <c r="AL47" s="11"/>
+      <c r="AM47" s="11"/>
+      <c r="AN47" s="11"/>
+      <c r="AO47" s="11"/>
+      <c r="AP47" s="11"/>
+      <c r="AQ47" s="11"/>
+      <c r="AR47" s="11"/>
+      <c r="AS47" s="11"/>
+      <c r="AT47" s="11"/>
+      <c r="AU47" s="11"/>
+      <c r="AV47" s="11"/>
+      <c r="AW47" s="11"/>
+      <c r="AX47" s="11"/>
+      <c r="AY47" s="11"/>
+      <c r="AZ47" s="11"/>
+      <c r="BA47" s="11"/>
+      <c r="BB47" s="11"/>
+      <c r="BC47" s="11"/>
+      <c r="BD47" s="11"/>
+      <c r="BE47" s="11"/>
+      <c r="BF47" s="11"/>
+      <c r="BG47" s="11"/>
+      <c r="BH47" s="11"/>
+      <c r="BI47" s="11"/>
+      <c r="BJ47" s="11"/>
+      <c r="BK47" s="11"/>
+      <c r="BL47" s="11"/>
+      <c r="BM47" s="11"/>
+      <c r="BN47" s="11"/>
+      <c r="BO47" s="11"/>
+      <c r="BP47" s="11"/>
+      <c r="BQ47" s="11"/>
+      <c r="BR47" s="11"/>
+      <c r="BS47" s="11"/>
+      <c r="BT47" s="11"/>
+      <c r="BU47" s="11"/>
+      <c r="BV47" s="11"/>
+      <c r="BW47" s="11"/>
+    </row>
+    <row r="48" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="11"/>
+      <c r="AL48" s="11"/>
+      <c r="AM48" s="11"/>
+      <c r="AN48" s="11"/>
+      <c r="AO48" s="11"/>
+      <c r="AP48" s="11"/>
+      <c r="AQ48" s="11"/>
+      <c r="AR48" s="11"/>
+      <c r="AS48" s="11"/>
+      <c r="AT48" s="11"/>
+      <c r="AU48" s="11"/>
+      <c r="AV48" s="11"/>
+      <c r="AW48" s="11"/>
+      <c r="AX48" s="11"/>
+      <c r="AY48" s="11"/>
+      <c r="AZ48" s="11"/>
+      <c r="BA48" s="11"/>
+      <c r="BB48" s="11"/>
+      <c r="BC48" s="11"/>
+      <c r="BD48" s="11"/>
+      <c r="BE48" s="11"/>
+      <c r="BF48" s="11"/>
+      <c r="BG48" s="11"/>
+      <c r="BH48" s="11"/>
+      <c r="BI48" s="11"/>
+      <c r="BJ48" s="11"/>
+      <c r="BK48" s="11"/>
+      <c r="BL48" s="11"/>
+      <c r="BM48" s="11"/>
+      <c r="BN48" s="11"/>
+      <c r="BO48" s="11"/>
+      <c r="BP48" s="11"/>
+      <c r="BQ48" s="11"/>
+      <c r="BR48" s="11"/>
+      <c r="BS48" s="11"/>
+      <c r="BT48" s="11"/>
+      <c r="BU48" s="11"/>
+      <c r="BV48" s="11"/>
+      <c r="BW48" s="11"/>
+    </row>
+    <row r="53" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="70"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="70"/>
+      <c r="R53" s="70"/>
+      <c r="S53" s="70"/>
+      <c r="T53" s="70"/>
+      <c r="U53" s="70"/>
+      <c r="V53" s="70"/>
+      <c r="W53" s="70"/>
+      <c r="X53" s="70"/>
+      <c r="Y53" s="70"/>
+      <c r="Z53" s="70"/>
+      <c r="AA53" s="70"/>
+      <c r="AB53" s="70"/>
+      <c r="AC53" s="70"/>
+      <c r="AD53" s="70"/>
+    </row>
+    <row r="54" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="70"/>
+      <c r="R54" s="70"/>
+      <c r="S54" s="70"/>
+      <c r="T54" s="70"/>
+      <c r="U54" s="70"/>
+      <c r="V54" s="70"/>
+      <c r="W54" s="70"/>
+      <c r="X54" s="70"/>
+      <c r="Y54" s="70"/>
+      <c r="Z54" s="70"/>
+      <c r="AA54" s="70"/>
+      <c r="AB54" s="70"/>
+      <c r="AC54" s="70"/>
+      <c r="AD54" s="70"/>
+    </row>
+    <row r="55" spans="3:72" s="24" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22"/>
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
+      <c r="AG55" s="22"/>
+      <c r="AH55" s="22"/>
+      <c r="AI55" s="22"/>
+      <c r="AJ55" s="22"/>
+      <c r="AK55" s="22"/>
+      <c r="AL55" s="22"/>
+      <c r="AM55" s="22"/>
+      <c r="AN55" s="22"/>
+      <c r="AO55" s="22"/>
+      <c r="AP55" s="22"/>
+      <c r="AQ55" s="22"/>
+      <c r="AR55" s="22"/>
+      <c r="AS55" s="22"/>
+      <c r="AT55" s="22"/>
+      <c r="AU55" s="22"/>
+      <c r="AV55" s="22"/>
+      <c r="AW55" s="22"/>
+      <c r="AX55" s="22"/>
+      <c r="AY55" s="22"/>
+      <c r="AZ55" s="22"/>
+      <c r="BA55" s="22"/>
+      <c r="BB55" s="22"/>
+      <c r="BC55" s="22"/>
+      <c r="BD55" s="22"/>
+      <c r="BE55" s="22"/>
+      <c r="BF55" s="22"/>
+      <c r="BG55" s="22"/>
+      <c r="BH55" s="22"/>
+      <c r="BI55" s="22"/>
+      <c r="BJ55" s="22"/>
+      <c r="BK55" s="22"/>
+      <c r="BL55" s="22"/>
+      <c r="BM55" s="22"/>
+      <c r="BN55" s="22"/>
+      <c r="BO55" s="22"/>
+      <c r="BP55" s="22"/>
+      <c r="BQ55" s="22"/>
+      <c r="BR55" s="22"/>
+      <c r="BS55" s="22"/>
+      <c r="BT55" s="22"/>
+    </row>
+    <row r="56" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="71"/>
+      <c r="P56" s="71"/>
+      <c r="Q56" s="71"/>
+      <c r="R56" s="71"/>
+      <c r="S56" s="71"/>
+      <c r="T56" s="71"/>
+      <c r="U56" s="71"/>
+      <c r="V56" s="71"/>
+      <c r="W56" s="71"/>
+      <c r="X56" s="71"/>
+      <c r="Y56" s="71"/>
+      <c r="Z56" s="71"/>
+      <c r="AA56" s="71"/>
+      <c r="AB56" s="71"/>
+      <c r="AC56" s="71"/>
+      <c r="AD56" s="71"/>
+      <c r="AE56" s="22"/>
+      <c r="AF56" s="22"/>
+      <c r="AG56" s="22"/>
+      <c r="AH56" s="22"/>
+      <c r="AI56" s="22"/>
+      <c r="AJ56" s="22"/>
+      <c r="AK56" s="22"/>
+      <c r="AL56" s="22"/>
+      <c r="AM56" s="22"/>
+      <c r="AN56" s="22"/>
+      <c r="AO56" s="22"/>
+      <c r="AP56" s="22"/>
+      <c r="AQ56" s="22"/>
+      <c r="AR56" s="22"/>
+      <c r="AS56" s="22"/>
+      <c r="AT56" s="22"/>
+      <c r="AU56" s="22"/>
+      <c r="AV56" s="22"/>
+      <c r="AW56" s="22"/>
+      <c r="AX56" s="22"/>
+      <c r="AY56" s="22"/>
+      <c r="AZ56" s="22"/>
+      <c r="BA56" s="22"/>
+      <c r="BB56" s="22"/>
+      <c r="BC56" s="22"/>
+      <c r="BD56" s="22"/>
+      <c r="BE56" s="22"/>
+      <c r="BF56" s="22"/>
+      <c r="BG56" s="22"/>
+      <c r="BH56" s="22"/>
+      <c r="BI56" s="22"/>
+      <c r="BJ56" s="22"/>
+      <c r="BK56" s="22"/>
+      <c r="BL56" s="22"/>
+      <c r="BM56" s="22"/>
+      <c r="BN56" s="22"/>
+      <c r="BO56" s="22"/>
+      <c r="BP56" s="22"/>
+      <c r="BQ56" s="22"/>
+      <c r="BR56" s="22"/>
+      <c r="BS56" s="22"/>
+      <c r="BT56" s="22"/>
+    </row>
+    <row r="57" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="71"/>
+      <c r="N57" s="71"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="71"/>
+      <c r="R57" s="71"/>
+      <c r="S57" s="71"/>
+      <c r="T57" s="71"/>
+      <c r="U57" s="71"/>
+      <c r="V57" s="71"/>
+      <c r="W57" s="71"/>
+      <c r="X57" s="71"/>
+      <c r="Y57" s="71"/>
+      <c r="Z57" s="71"/>
+      <c r="AA57" s="71"/>
+      <c r="AB57" s="71"/>
+      <c r="AC57" s="71"/>
+      <c r="AD57" s="71"/>
+      <c r="AE57" s="22"/>
+      <c r="AF57" s="22"/>
+      <c r="AG57" s="22"/>
+      <c r="AH57" s="22"/>
+      <c r="AI57" s="22"/>
+      <c r="AJ57" s="22"/>
+      <c r="AK57" s="22"/>
+      <c r="AL57" s="22"/>
+      <c r="AM57" s="22"/>
+      <c r="AN57" s="22"/>
+      <c r="AO57" s="22"/>
+      <c r="AP57" s="22"/>
+      <c r="AQ57" s="22"/>
+      <c r="AR57" s="22"/>
+      <c r="AS57" s="22"/>
+      <c r="AT57" s="22"/>
+      <c r="AU57" s="22"/>
+      <c r="AV57" s="22"/>
+      <c r="AW57" s="22"/>
+      <c r="AX57" s="22"/>
+      <c r="AY57" s="22"/>
+      <c r="AZ57" s="22"/>
+      <c r="BA57" s="22"/>
+      <c r="BB57" s="22"/>
+      <c r="BC57" s="22"/>
+      <c r="BD57" s="22"/>
+      <c r="BE57" s="22"/>
+      <c r="BF57" s="22"/>
+      <c r="BG57" s="22"/>
+      <c r="BH57" s="22"/>
+      <c r="BI57" s="22"/>
+      <c r="BJ57" s="22"/>
+      <c r="BK57" s="22"/>
+      <c r="BL57" s="22"/>
+      <c r="BM57" s="22"/>
+      <c r="BN57" s="22"/>
+      <c r="BO57" s="22"/>
+      <c r="BP57" s="22"/>
+      <c r="BQ57" s="22"/>
+      <c r="BR57" s="22"/>
+      <c r="BS57" s="22"/>
+      <c r="BT57" s="22"/>
+    </row>
+    <row r="58" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="71"/>
+      <c r="S58" s="71"/>
+      <c r="T58" s="71"/>
+      <c r="U58" s="71"/>
+      <c r="V58" s="71"/>
+      <c r="W58" s="71"/>
+      <c r="X58" s="71"/>
+      <c r="Y58" s="71"/>
+      <c r="Z58" s="71"/>
+      <c r="AA58" s="71"/>
+      <c r="AB58" s="71"/>
+      <c r="AC58" s="71"/>
+      <c r="AD58" s="71"/>
+    </row>
+    <row r="59" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="71"/>
+      <c r="L59" s="71"/>
+      <c r="M59" s="71"/>
+      <c r="N59" s="71"/>
+      <c r="O59" s="71"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="71"/>
+      <c r="R59" s="71"/>
+      <c r="S59" s="71"/>
+      <c r="T59" s="71"/>
+      <c r="U59" s="71"/>
+      <c r="V59" s="71"/>
+      <c r="W59" s="71"/>
+      <c r="X59" s="71"/>
+      <c r="Y59" s="71"/>
+      <c r="Z59" s="71"/>
+      <c r="AA59" s="71"/>
+      <c r="AB59" s="71"/>
+      <c r="AC59" s="71"/>
+      <c r="AD59" s="71"/>
+    </row>
+    <row r="60" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="71"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="71"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="71"/>
+      <c r="T60" s="71"/>
+      <c r="U60" s="71"/>
+      <c r="V60" s="71"/>
+      <c r="W60" s="71"/>
+      <c r="X60" s="71"/>
+      <c r="Y60" s="71"/>
+      <c r="Z60" s="71"/>
+      <c r="AA60" s="71"/>
+      <c r="AB60" s="71"/>
+      <c r="AC60" s="71"/>
+      <c r="AD60" s="71"/>
+    </row>
+    <row r="61" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="71"/>
+      <c r="R61" s="71"/>
+      <c r="S61" s="71"/>
+      <c r="T61" s="71"/>
+      <c r="U61" s="71"/>
+      <c r="V61" s="71"/>
+      <c r="W61" s="71"/>
+      <c r="X61" s="71"/>
+      <c r="Y61" s="71"/>
+      <c r="Z61" s="71"/>
+      <c r="AA61" s="71"/>
+      <c r="AB61" s="71"/>
+      <c r="AC61" s="71"/>
+      <c r="AD61" s="71"/>
+    </row>
+    <row r="62" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="71"/>
+      <c r="Q62" s="71"/>
+      <c r="R62" s="71"/>
+      <c r="S62" s="71"/>
+      <c r="T62" s="71"/>
+      <c r="U62" s="71"/>
+      <c r="V62" s="71"/>
+      <c r="W62" s="71"/>
+      <c r="X62" s="71"/>
+      <c r="Y62" s="71"/>
+      <c r="Z62" s="71"/>
+      <c r="AA62" s="71"/>
+      <c r="AB62" s="71"/>
+      <c r="AC62" s="71"/>
+      <c r="AD62" s="71"/>
+    </row>
+    <row r="63" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="71"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="71"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="71"/>
+      <c r="R63" s="71"/>
+      <c r="S63" s="71"/>
+      <c r="T63" s="71"/>
+      <c r="U63" s="71"/>
+      <c r="V63" s="71"/>
+      <c r="W63" s="71"/>
+      <c r="X63" s="71"/>
+      <c r="Y63" s="71"/>
+      <c r="Z63" s="71"/>
+      <c r="AA63" s="71"/>
+      <c r="AB63" s="71"/>
+      <c r="AC63" s="71"/>
+      <c r="AD63" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C15:AD16"/>
+    <mergeCell ref="D6:AR8"/>
+    <mergeCell ref="C12:N13"/>
+    <mergeCell ref="O12:R13"/>
+    <mergeCell ref="S12:V13"/>
+    <mergeCell ref="W12:Z13"/>
+    <mergeCell ref="AA12:AD13"/>
+    <mergeCell ref="C53:AD54"/>
+    <mergeCell ref="C56:AD57"/>
+    <mergeCell ref="C58:AD59"/>
+    <mergeCell ref="C60:AD61"/>
+    <mergeCell ref="C62:AD63"/>
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="BA2:BG2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BT2:BW2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AL2:AO2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366C9AA2-E582-4DCF-87E8-3A93CB55243C}">
+  <dimension ref="A1:CO63"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AS26" sqref="AS26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="4.25" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="17"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="16"/>
+      <c r="BW1" s="16"/>
+      <c r="BX1" s="16"/>
+      <c r="BY1" s="16"/>
+      <c r="BZ1" s="16"/>
+      <c r="CA1" s="16"/>
+      <c r="CB1" s="16"/>
+      <c r="CC1" s="16"/>
+      <c r="CD1" s="16"/>
+      <c r="CE1" s="16"/>
+      <c r="CF1" s="16"/>
+      <c r="CG1" s="16"/>
+      <c r="CH1" s="16"/>
+      <c r="CI1" s="16"/>
+      <c r="CJ1" s="16"/>
+      <c r="CK1" s="16"/>
+      <c r="CL1" s="16"/>
+      <c r="CM1" s="16"/>
+      <c r="CN1" s="16"/>
+      <c r="CO1" s="16"/>
+    </row>
+    <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="31"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="21"/>
+      <c r="M2" s="32"/>
+      <c r="O2" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="21"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="21"/>
+      <c r="AB2" s="35"/>
+      <c r="AD2" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="21"/>
+      <c r="AJ2" s="36"/>
+      <c r="AL2" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="21"/>
+      <c r="AR2" s="33"/>
+      <c r="AT2" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="68"/>
+      <c r="AW2" s="21"/>
+      <c r="BA2" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB2" s="67"/>
+      <c r="BC2" s="67"/>
+      <c r="BD2" s="67"/>
+      <c r="BE2" s="67"/>
+      <c r="BF2" s="67"/>
+      <c r="BG2" s="68"/>
+      <c r="BH2" s="21"/>
+      <c r="BJ2" s="75"/>
+      <c r="BL2" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM2" s="67"/>
+      <c r="BN2" s="67"/>
+      <c r="BO2" s="68"/>
+      <c r="BP2" s="21"/>
+      <c r="BT2" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU2" s="67"/>
+      <c r="BV2" s="67"/>
+      <c r="BW2" s="68"/>
+    </row>
+    <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="16"/>
+      <c r="BB3" s="16"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="16"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="16"/>
+      <c r="BH3" s="17"/>
+      <c r="BI3" s="16"/>
+      <c r="BJ3" s="16"/>
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="16"/>
+      <c r="BN3" s="16"/>
+      <c r="BO3" s="16"/>
+      <c r="BP3" s="17"/>
+      <c r="BQ3" s="16"/>
+      <c r="BR3" s="16"/>
+      <c r="BS3" s="16"/>
+      <c r="BT3" s="16"/>
+      <c r="BU3" s="16"/>
+      <c r="BV3" s="16"/>
+      <c r="BW3" s="16"/>
+      <c r="BX3" s="16"/>
+      <c r="BY3" s="16"/>
+      <c r="BZ3" s="16"/>
+      <c r="CA3" s="16"/>
+      <c r="CB3" s="16"/>
+      <c r="CC3" s="16"/>
+      <c r="CD3" s="16"/>
+      <c r="CE3" s="16"/>
+      <c r="CF3" s="16"/>
+      <c r="CG3" s="16"/>
+      <c r="CH3" s="16"/>
+      <c r="CI3" s="16"/>
+      <c r="CJ3" s="16"/>
+      <c r="CK3" s="16"/>
+      <c r="CL3" s="16"/>
+      <c r="CM3" s="16"/>
+      <c r="CN3" s="16"/>
+      <c r="CO3" s="16"/>
+    </row>
+    <row r="4" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+    </row>
+    <row r="5" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+    </row>
+    <row r="6" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="72"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="72"/>
+      <c r="AN6" s="72"/>
+      <c r="AO6" s="72"/>
+      <c r="AP6" s="72"/>
+      <c r="AQ6" s="72"/>
+      <c r="AR6" s="72"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="11"/>
+      <c r="BB6" s="11"/>
+    </row>
+    <row r="7" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="72"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="72"/>
+      <c r="AO7" s="72"/>
+      <c r="AP7" s="72"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="72"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+    </row>
+    <row r="8" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="11"/>
+    </row>
+    <row r="9" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="11"/>
+    </row>
+    <row r="10" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="11"/>
+    </row>
+    <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="16"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="16"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="16"/>
+      <c r="BC12" s="16"/>
+      <c r="BD12" s="16"/>
+      <c r="BE12" s="16"/>
+      <c r="BF12" s="16"/>
+      <c r="BP12" s="16"/>
+      <c r="BQ12" s="16"/>
+      <c r="BR12" s="16"/>
+      <c r="BS12" s="16"/>
+      <c r="BT12" s="16"/>
+    </row>
+    <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AO13" s="22"/>
+      <c r="AQ13" s="22"/>
+      <c r="AR13" s="22"/>
+      <c r="AS13" s="22"/>
+      <c r="AT13" s="22"/>
+      <c r="AU13" s="22"/>
+      <c r="AV13" s="22"/>
+      <c r="AW13" s="22"/>
+      <c r="AX13" s="22"/>
+      <c r="AY13" s="22"/>
+      <c r="AZ13" s="22"/>
+      <c r="BA13" s="22"/>
+      <c r="BB13" s="22"/>
+      <c r="BC13" s="22"/>
+      <c r="BD13" s="22"/>
+      <c r="BE13" s="22"/>
+      <c r="BF13" s="22"/>
+      <c r="BP13" s="22"/>
+      <c r="BQ13" s="22"/>
+      <c r="BR13" s="22"/>
+      <c r="BS13" s="22"/>
+      <c r="BT13" s="22"/>
+    </row>
+    <row r="14" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AO14" s="22"/>
+      <c r="AQ14" s="22"/>
+      <c r="AR14" s="22"/>
+      <c r="AS14" s="22"/>
+      <c r="AT14" s="22"/>
+      <c r="AU14" s="22"/>
+      <c r="AV14" s="22"/>
+      <c r="AW14" s="22"/>
+      <c r="AX14" s="22"/>
+      <c r="AY14" s="22"/>
+      <c r="AZ14" s="22"/>
+      <c r="BA14" s="22"/>
+      <c r="BB14" s="22"/>
+      <c r="BC14" s="22"/>
+      <c r="BD14" s="22"/>
+      <c r="BE14" s="22"/>
+      <c r="BF14" s="22"/>
+      <c r="BP14" s="22"/>
+      <c r="BQ14" s="22"/>
+      <c r="BR14" s="22"/>
+      <c r="BS14" s="22"/>
+      <c r="BT14" s="22"/>
+    </row>
+    <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="70"/>
+    </row>
+    <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="70"/>
+      <c r="AD16" s="70"/>
+    </row>
+    <row r="53" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="70"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="70"/>
+      <c r="R53" s="70"/>
+      <c r="S53" s="70"/>
+      <c r="T53" s="70"/>
+      <c r="U53" s="70"/>
+      <c r="V53" s="70"/>
+      <c r="W53" s="70"/>
+      <c r="X53" s="70"/>
+      <c r="Y53" s="70"/>
+      <c r="Z53" s="70"/>
+      <c r="AA53" s="70"/>
+      <c r="AB53" s="70"/>
+      <c r="AC53" s="70"/>
+      <c r="AD53" s="70"/>
+    </row>
+    <row r="54" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="70"/>
+      <c r="R54" s="70"/>
+      <c r="S54" s="70"/>
+      <c r="T54" s="70"/>
+      <c r="U54" s="70"/>
+      <c r="V54" s="70"/>
+      <c r="W54" s="70"/>
+      <c r="X54" s="70"/>
+      <c r="Y54" s="70"/>
+      <c r="Z54" s="70"/>
+      <c r="AA54" s="70"/>
+      <c r="AB54" s="70"/>
+      <c r="AC54" s="70"/>
+      <c r="AD54" s="70"/>
+    </row>
+    <row r="55" spans="3:72" s="24" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22"/>
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
+      <c r="AG55" s="22"/>
+      <c r="AH55" s="22"/>
+      <c r="AI55" s="22"/>
+      <c r="AJ55" s="22"/>
+      <c r="AK55" s="22"/>
+      <c r="AL55" s="22"/>
+      <c r="AM55" s="22"/>
+      <c r="AN55" s="22"/>
+      <c r="AO55" s="22"/>
+      <c r="AP55" s="22"/>
+      <c r="AQ55" s="22"/>
+      <c r="AR55" s="22"/>
+      <c r="AS55" s="22"/>
+      <c r="AT55" s="22"/>
+      <c r="AU55" s="22"/>
+      <c r="AV55" s="22"/>
+      <c r="AW55" s="22"/>
+      <c r="AX55" s="22"/>
+      <c r="AY55" s="22"/>
+      <c r="AZ55" s="22"/>
+      <c r="BA55" s="22"/>
+      <c r="BB55" s="22"/>
+      <c r="BC55" s="22"/>
+      <c r="BD55" s="22"/>
+      <c r="BE55" s="22"/>
+      <c r="BF55" s="22"/>
+      <c r="BG55" s="22"/>
+      <c r="BH55" s="22"/>
+      <c r="BI55" s="22"/>
+      <c r="BJ55" s="22"/>
+      <c r="BK55" s="22"/>
+      <c r="BL55" s="22"/>
+      <c r="BM55" s="22"/>
+      <c r="BN55" s="22"/>
+      <c r="BO55" s="22"/>
+      <c r="BP55" s="22"/>
+      <c r="BQ55" s="22"/>
+      <c r="BR55" s="22"/>
+      <c r="BS55" s="22"/>
+      <c r="BT55" s="22"/>
+    </row>
+    <row r="56" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="71"/>
+      <c r="P56" s="71"/>
+      <c r="Q56" s="71"/>
+      <c r="R56" s="71"/>
+      <c r="S56" s="71"/>
+      <c r="T56" s="71"/>
+      <c r="U56" s="71"/>
+      <c r="V56" s="71"/>
+      <c r="W56" s="71"/>
+      <c r="X56" s="71"/>
+      <c r="Y56" s="71"/>
+      <c r="Z56" s="71"/>
+      <c r="AA56" s="71"/>
+      <c r="AB56" s="71"/>
+      <c r="AC56" s="71"/>
+      <c r="AD56" s="71"/>
+      <c r="AE56" s="22"/>
+      <c r="AF56" s="22"/>
+      <c r="AG56" s="22"/>
+      <c r="AH56" s="22"/>
+      <c r="AI56" s="22"/>
+      <c r="AJ56" s="22"/>
+      <c r="AK56" s="22"/>
+      <c r="AL56" s="22"/>
+      <c r="AM56" s="22"/>
+      <c r="AN56" s="22"/>
+      <c r="AO56" s="22"/>
+      <c r="AP56" s="22"/>
+      <c r="AQ56" s="22"/>
+      <c r="AR56" s="22"/>
+      <c r="AS56" s="22"/>
+      <c r="AT56" s="22"/>
+      <c r="AU56" s="22"/>
+      <c r="AV56" s="22"/>
+      <c r="AW56" s="22"/>
+      <c r="AX56" s="22"/>
+      <c r="AY56" s="22"/>
+      <c r="AZ56" s="22"/>
+      <c r="BA56" s="22"/>
+      <c r="BB56" s="22"/>
+      <c r="BC56" s="22"/>
+      <c r="BD56" s="22"/>
+      <c r="BE56" s="22"/>
+      <c r="BF56" s="22"/>
+      <c r="BG56" s="22"/>
+      <c r="BH56" s="22"/>
+      <c r="BI56" s="22"/>
+      <c r="BJ56" s="22"/>
+      <c r="BK56" s="22"/>
+      <c r="BL56" s="22"/>
+      <c r="BM56" s="22"/>
+      <c r="BN56" s="22"/>
+      <c r="BO56" s="22"/>
+      <c r="BP56" s="22"/>
+      <c r="BQ56" s="22"/>
+      <c r="BR56" s="22"/>
+      <c r="BS56" s="22"/>
+      <c r="BT56" s="22"/>
+    </row>
+    <row r="57" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="71"/>
+      <c r="N57" s="71"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="71"/>
+      <c r="R57" s="71"/>
+      <c r="S57" s="71"/>
+      <c r="T57" s="71"/>
+      <c r="U57" s="71"/>
+      <c r="V57" s="71"/>
+      <c r="W57" s="71"/>
+      <c r="X57" s="71"/>
+      <c r="Y57" s="71"/>
+      <c r="Z57" s="71"/>
+      <c r="AA57" s="71"/>
+      <c r="AB57" s="71"/>
+      <c r="AC57" s="71"/>
+      <c r="AD57" s="71"/>
+      <c r="AE57" s="22"/>
+      <c r="AF57" s="22"/>
+      <c r="AG57" s="22"/>
+      <c r="AH57" s="22"/>
+      <c r="AI57" s="22"/>
+      <c r="AJ57" s="22"/>
+      <c r="AK57" s="22"/>
+      <c r="AL57" s="22"/>
+      <c r="AM57" s="22"/>
+      <c r="AN57" s="22"/>
+      <c r="AO57" s="22"/>
+      <c r="AP57" s="22"/>
+      <c r="AQ57" s="22"/>
+      <c r="AR57" s="22"/>
+      <c r="AS57" s="22"/>
+      <c r="AT57" s="22"/>
+      <c r="AU57" s="22"/>
+      <c r="AV57" s="22"/>
+      <c r="AW57" s="22"/>
+      <c r="AX57" s="22"/>
+      <c r="AY57" s="22"/>
+      <c r="AZ57" s="22"/>
+      <c r="BA57" s="22"/>
+      <c r="BB57" s="22"/>
+      <c r="BC57" s="22"/>
+      <c r="BD57" s="22"/>
+      <c r="BE57" s="22"/>
+      <c r="BF57" s="22"/>
+      <c r="BG57" s="22"/>
+      <c r="BH57" s="22"/>
+      <c r="BI57" s="22"/>
+      <c r="BJ57" s="22"/>
+      <c r="BK57" s="22"/>
+      <c r="BL57" s="22"/>
+      <c r="BM57" s="22"/>
+      <c r="BN57" s="22"/>
+      <c r="BO57" s="22"/>
+      <c r="BP57" s="22"/>
+      <c r="BQ57" s="22"/>
+      <c r="BR57" s="22"/>
+      <c r="BS57" s="22"/>
+      <c r="BT57" s="22"/>
+    </row>
+    <row r="58" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="71"/>
+      <c r="S58" s="71"/>
+      <c r="T58" s="71"/>
+      <c r="U58" s="71"/>
+      <c r="V58" s="71"/>
+      <c r="W58" s="71"/>
+      <c r="X58" s="71"/>
+      <c r="Y58" s="71"/>
+      <c r="Z58" s="71"/>
+      <c r="AA58" s="71"/>
+      <c r="AB58" s="71"/>
+      <c r="AC58" s="71"/>
+      <c r="AD58" s="71"/>
+    </row>
+    <row r="59" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="71"/>
+      <c r="L59" s="71"/>
+      <c r="M59" s="71"/>
+      <c r="N59" s="71"/>
+      <c r="O59" s="71"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="71"/>
+      <c r="R59" s="71"/>
+      <c r="S59" s="71"/>
+      <c r="T59" s="71"/>
+      <c r="U59" s="71"/>
+      <c r="V59" s="71"/>
+      <c r="W59" s="71"/>
+      <c r="X59" s="71"/>
+      <c r="Y59" s="71"/>
+      <c r="Z59" s="71"/>
+      <c r="AA59" s="71"/>
+      <c r="AB59" s="71"/>
+      <c r="AC59" s="71"/>
+      <c r="AD59" s="71"/>
+    </row>
+    <row r="60" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="71"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="71"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="71"/>
+      <c r="T60" s="71"/>
+      <c r="U60" s="71"/>
+      <c r="V60" s="71"/>
+      <c r="W60" s="71"/>
+      <c r="X60" s="71"/>
+      <c r="Y60" s="71"/>
+      <c r="Z60" s="71"/>
+      <c r="AA60" s="71"/>
+      <c r="AB60" s="71"/>
+      <c r="AC60" s="71"/>
+      <c r="AD60" s="71"/>
+    </row>
+    <row r="61" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="71"/>
+      <c r="R61" s="71"/>
+      <c r="S61" s="71"/>
+      <c r="T61" s="71"/>
+      <c r="U61" s="71"/>
+      <c r="V61" s="71"/>
+      <c r="W61" s="71"/>
+      <c r="X61" s="71"/>
+      <c r="Y61" s="71"/>
+      <c r="Z61" s="71"/>
+      <c r="AA61" s="71"/>
+      <c r="AB61" s="71"/>
+      <c r="AC61" s="71"/>
+      <c r="AD61" s="71"/>
+    </row>
+    <row r="62" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="71"/>
+      <c r="Q62" s="71"/>
+      <c r="R62" s="71"/>
+      <c r="S62" s="71"/>
+      <c r="T62" s="71"/>
+      <c r="U62" s="71"/>
+      <c r="V62" s="71"/>
+      <c r="W62" s="71"/>
+      <c r="X62" s="71"/>
+      <c r="Y62" s="71"/>
+      <c r="Z62" s="71"/>
+      <c r="AA62" s="71"/>
+      <c r="AB62" s="71"/>
+      <c r="AC62" s="71"/>
+      <c r="AD62" s="71"/>
+    </row>
+    <row r="63" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="71"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="71"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="71"/>
+      <c r="R63" s="71"/>
+      <c r="S63" s="71"/>
+      <c r="T63" s="71"/>
+      <c r="U63" s="71"/>
+      <c r="V63" s="71"/>
+      <c r="W63" s="71"/>
+      <c r="X63" s="71"/>
+      <c r="Y63" s="71"/>
+      <c r="Z63" s="71"/>
+      <c r="AA63" s="71"/>
+      <c r="AB63" s="71"/>
+      <c r="AC63" s="71"/>
+      <c r="AD63" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C15:AD16"/>
+    <mergeCell ref="C53:AD54"/>
+    <mergeCell ref="C56:AD57"/>
+    <mergeCell ref="C58:AD59"/>
+    <mergeCell ref="C60:AD61"/>
+    <mergeCell ref="C62:AD63"/>
+    <mergeCell ref="BA2:BG2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BT2:BW2"/>
+    <mergeCell ref="D6:AR8"/>
+    <mergeCell ref="C12:N13"/>
+    <mergeCell ref="O12:R13"/>
+    <mergeCell ref="S12:V13"/>
+    <mergeCell ref="W12:Z13"/>
+    <mergeCell ref="AA12:AD13"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AT2:AV2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED20668-B17A-4E70-988E-2CE8318BE25B}">
+  <dimension ref="A1:CO63"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL30" sqref="AL30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="4.25" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="17"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="16"/>
+      <c r="BW1" s="16"/>
+      <c r="BX1" s="16"/>
+      <c r="BY1" s="16"/>
+      <c r="BZ1" s="16"/>
+      <c r="CA1" s="16"/>
+      <c r="CB1" s="16"/>
+      <c r="CC1" s="16"/>
+      <c r="CD1" s="16"/>
+      <c r="CE1" s="16"/>
+      <c r="CF1" s="16"/>
+      <c r="CG1" s="16"/>
+      <c r="CH1" s="16"/>
+      <c r="CI1" s="16"/>
+      <c r="CJ1" s="16"/>
+      <c r="CK1" s="16"/>
+      <c r="CL1" s="16"/>
+      <c r="CM1" s="16"/>
+      <c r="CN1" s="16"/>
+      <c r="CO1" s="16"/>
+    </row>
+    <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="31"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="21"/>
+      <c r="M2" s="32"/>
+      <c r="O2" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="21"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="21"/>
+      <c r="AB2" s="35"/>
+      <c r="AD2" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="21"/>
+      <c r="AJ2" s="36"/>
+      <c r="AL2" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="21"/>
+      <c r="AR2" s="33"/>
+      <c r="AT2" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="68"/>
+      <c r="AW2" s="21"/>
+      <c r="BA2" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB2" s="67"/>
+      <c r="BC2" s="67"/>
+      <c r="BD2" s="67"/>
+      <c r="BE2" s="67"/>
+      <c r="BF2" s="67"/>
+      <c r="BG2" s="68"/>
+      <c r="BH2" s="21"/>
+      <c r="BJ2" s="75"/>
+      <c r="BL2" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM2" s="67"/>
+      <c r="BN2" s="67"/>
+      <c r="BO2" s="68"/>
+      <c r="BP2" s="21"/>
+      <c r="BT2" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU2" s="67"/>
+      <c r="BV2" s="67"/>
+      <c r="BW2" s="68"/>
+    </row>
+    <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="16"/>
+      <c r="BB3" s="16"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="16"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="16"/>
+      <c r="BH3" s="17"/>
+      <c r="BI3" s="16"/>
+      <c r="BJ3" s="16"/>
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="16"/>
+      <c r="BN3" s="16"/>
+      <c r="BO3" s="16"/>
+      <c r="BP3" s="17"/>
+      <c r="BQ3" s="16"/>
+      <c r="BR3" s="16"/>
+      <c r="BS3" s="16"/>
+      <c r="BT3" s="16"/>
+      <c r="BU3" s="16"/>
+      <c r="BV3" s="16"/>
+      <c r="BW3" s="16"/>
+      <c r="BX3" s="16"/>
+      <c r="BY3" s="16"/>
+      <c r="BZ3" s="16"/>
+      <c r="CA3" s="16"/>
+      <c r="CB3" s="16"/>
+      <c r="CC3" s="16"/>
+      <c r="CD3" s="16"/>
+      <c r="CE3" s="16"/>
+      <c r="CF3" s="16"/>
+      <c r="CG3" s="16"/>
+      <c r="CH3" s="16"/>
+      <c r="CI3" s="16"/>
+      <c r="CJ3" s="16"/>
+      <c r="CK3" s="16"/>
+      <c r="CL3" s="16"/>
+      <c r="CM3" s="16"/>
+      <c r="CN3" s="16"/>
+      <c r="CO3" s="16"/>
+    </row>
+    <row r="4" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+    </row>
+    <row r="5" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+    </row>
+    <row r="6" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="72"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="72"/>
+      <c r="AN6" s="72"/>
+      <c r="AO6" s="72"/>
+      <c r="AP6" s="72"/>
+      <c r="AQ6" s="72"/>
+      <c r="AR6" s="72"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="11"/>
+      <c r="BB6" s="11"/>
+    </row>
+    <row r="7" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="72"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="72"/>
+      <c r="AO7" s="72"/>
+      <c r="AP7" s="72"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="72"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+    </row>
+    <row r="8" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="11"/>
+    </row>
+    <row r="9" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="11"/>
+    </row>
+    <row r="10" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="11"/>
+    </row>
+    <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="16"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="16"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="16"/>
+      <c r="BC12" s="16"/>
+      <c r="BD12" s="16"/>
+      <c r="BE12" s="16"/>
+      <c r="BF12" s="16"/>
+      <c r="BP12" s="16"/>
+      <c r="BQ12" s="16"/>
+      <c r="BR12" s="16"/>
+      <c r="BS12" s="16"/>
+      <c r="BT12" s="16"/>
+    </row>
+    <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AO13" s="22"/>
+      <c r="AQ13" s="22"/>
+      <c r="AR13" s="22"/>
+      <c r="AS13" s="22"/>
+      <c r="AT13" s="22"/>
+      <c r="AU13" s="22"/>
+      <c r="AV13" s="22"/>
+      <c r="AW13" s="22"/>
+      <c r="AX13" s="22"/>
+      <c r="AY13" s="22"/>
+      <c r="AZ13" s="22"/>
+      <c r="BA13" s="22"/>
+      <c r="BB13" s="22"/>
+      <c r="BC13" s="22"/>
+      <c r="BD13" s="22"/>
+      <c r="BE13" s="22"/>
+      <c r="BF13" s="22"/>
+      <c r="BP13" s="22"/>
+      <c r="BQ13" s="22"/>
+      <c r="BR13" s="22"/>
+      <c r="BS13" s="22"/>
+      <c r="BT13" s="22"/>
+    </row>
+    <row r="14" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AO14" s="22"/>
+      <c r="AQ14" s="22"/>
+      <c r="AR14" s="22"/>
+      <c r="AS14" s="22"/>
+      <c r="AT14" s="22"/>
+      <c r="AU14" s="22"/>
+      <c r="AV14" s="22"/>
+      <c r="AW14" s="22"/>
+      <c r="AX14" s="22"/>
+      <c r="AY14" s="22"/>
+      <c r="AZ14" s="22"/>
+      <c r="BA14" s="22"/>
+      <c r="BB14" s="22"/>
+      <c r="BC14" s="22"/>
+      <c r="BD14" s="22"/>
+      <c r="BE14" s="22"/>
+      <c r="BF14" s="22"/>
+      <c r="BP14" s="22"/>
+      <c r="BQ14" s="22"/>
+      <c r="BR14" s="22"/>
+      <c r="BS14" s="22"/>
+      <c r="BT14" s="22"/>
+    </row>
+    <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="70"/>
+    </row>
+    <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="70"/>
+      <c r="AD16" s="70"/>
+    </row>
+    <row r="53" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="70"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="70"/>
+      <c r="R53" s="70"/>
+      <c r="S53" s="70"/>
+      <c r="T53" s="70"/>
+      <c r="U53" s="70"/>
+      <c r="V53" s="70"/>
+      <c r="W53" s="70"/>
+      <c r="X53" s="70"/>
+      <c r="Y53" s="70"/>
+      <c r="Z53" s="70"/>
+      <c r="AA53" s="70"/>
+      <c r="AB53" s="70"/>
+      <c r="AC53" s="70"/>
+      <c r="AD53" s="70"/>
+    </row>
+    <row r="54" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="70"/>
+      <c r="R54" s="70"/>
+      <c r="S54" s="70"/>
+      <c r="T54" s="70"/>
+      <c r="U54" s="70"/>
+      <c r="V54" s="70"/>
+      <c r="W54" s="70"/>
+      <c r="X54" s="70"/>
+      <c r="Y54" s="70"/>
+      <c r="Z54" s="70"/>
+      <c r="AA54" s="70"/>
+      <c r="AB54" s="70"/>
+      <c r="AC54" s="70"/>
+      <c r="AD54" s="70"/>
+    </row>
+    <row r="55" spans="3:72" s="24" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22"/>
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
+      <c r="AG55" s="22"/>
+      <c r="AH55" s="22"/>
+      <c r="AI55" s="22"/>
+      <c r="AJ55" s="22"/>
+      <c r="AK55" s="22"/>
+      <c r="AL55" s="22"/>
+      <c r="AM55" s="22"/>
+      <c r="AN55" s="22"/>
+      <c r="AO55" s="22"/>
+      <c r="AP55" s="22"/>
+      <c r="AQ55" s="22"/>
+      <c r="AR55" s="22"/>
+      <c r="AS55" s="22"/>
+      <c r="AT55" s="22"/>
+      <c r="AU55" s="22"/>
+      <c r="AV55" s="22"/>
+      <c r="AW55" s="22"/>
+      <c r="AX55" s="22"/>
+      <c r="AY55" s="22"/>
+      <c r="AZ55" s="22"/>
+      <c r="BA55" s="22"/>
+      <c r="BB55" s="22"/>
+      <c r="BC55" s="22"/>
+      <c r="BD55" s="22"/>
+      <c r="BE55" s="22"/>
+      <c r="BF55" s="22"/>
+      <c r="BG55" s="22"/>
+      <c r="BH55" s="22"/>
+      <c r="BI55" s="22"/>
+      <c r="BJ55" s="22"/>
+      <c r="BK55" s="22"/>
+      <c r="BL55" s="22"/>
+      <c r="BM55" s="22"/>
+      <c r="BN55" s="22"/>
+      <c r="BO55" s="22"/>
+      <c r="BP55" s="22"/>
+      <c r="BQ55" s="22"/>
+      <c r="BR55" s="22"/>
+      <c r="BS55" s="22"/>
+      <c r="BT55" s="22"/>
+    </row>
+    <row r="56" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="71"/>
+      <c r="P56" s="71"/>
+      <c r="Q56" s="71"/>
+      <c r="R56" s="71"/>
+      <c r="S56" s="71"/>
+      <c r="T56" s="71"/>
+      <c r="U56" s="71"/>
+      <c r="V56" s="71"/>
+      <c r="W56" s="71"/>
+      <c r="X56" s="71"/>
+      <c r="Y56" s="71"/>
+      <c r="Z56" s="71"/>
+      <c r="AA56" s="71"/>
+      <c r="AB56" s="71"/>
+      <c r="AC56" s="71"/>
+      <c r="AD56" s="71"/>
+      <c r="AE56" s="22"/>
+      <c r="AF56" s="22"/>
+      <c r="AG56" s="22"/>
+      <c r="AH56" s="22"/>
+      <c r="AI56" s="22"/>
+      <c r="AJ56" s="22"/>
+      <c r="AK56" s="22"/>
+      <c r="AL56" s="22"/>
+      <c r="AM56" s="22"/>
+      <c r="AN56" s="22"/>
+      <c r="AO56" s="22"/>
+      <c r="AP56" s="22"/>
+      <c r="AQ56" s="22"/>
+      <c r="AR56" s="22"/>
+      <c r="AS56" s="22"/>
+      <c r="AT56" s="22"/>
+      <c r="AU56" s="22"/>
+      <c r="AV56" s="22"/>
+      <c r="AW56" s="22"/>
+      <c r="AX56" s="22"/>
+      <c r="AY56" s="22"/>
+      <c r="AZ56" s="22"/>
+      <c r="BA56" s="22"/>
+      <c r="BB56" s="22"/>
+      <c r="BC56" s="22"/>
+      <c r="BD56" s="22"/>
+      <c r="BE56" s="22"/>
+      <c r="BF56" s="22"/>
+      <c r="BG56" s="22"/>
+      <c r="BH56" s="22"/>
+      <c r="BI56" s="22"/>
+      <c r="BJ56" s="22"/>
+      <c r="BK56" s="22"/>
+      <c r="BL56" s="22"/>
+      <c r="BM56" s="22"/>
+      <c r="BN56" s="22"/>
+      <c r="BO56" s="22"/>
+      <c r="BP56" s="22"/>
+      <c r="BQ56" s="22"/>
+      <c r="BR56" s="22"/>
+      <c r="BS56" s="22"/>
+      <c r="BT56" s="22"/>
+    </row>
+    <row r="57" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="71"/>
+      <c r="N57" s="71"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="71"/>
+      <c r="R57" s="71"/>
+      <c r="S57" s="71"/>
+      <c r="T57" s="71"/>
+      <c r="U57" s="71"/>
+      <c r="V57" s="71"/>
+      <c r="W57" s="71"/>
+      <c r="X57" s="71"/>
+      <c r="Y57" s="71"/>
+      <c r="Z57" s="71"/>
+      <c r="AA57" s="71"/>
+      <c r="AB57" s="71"/>
+      <c r="AC57" s="71"/>
+      <c r="AD57" s="71"/>
+      <c r="AE57" s="22"/>
+      <c r="AF57" s="22"/>
+      <c r="AG57" s="22"/>
+      <c r="AH57" s="22"/>
+      <c r="AI57" s="22"/>
+      <c r="AJ57" s="22"/>
+      <c r="AK57" s="22"/>
+      <c r="AL57" s="22"/>
+      <c r="AM57" s="22"/>
+      <c r="AN57" s="22"/>
+      <c r="AO57" s="22"/>
+      <c r="AP57" s="22"/>
+      <c r="AQ57" s="22"/>
+      <c r="AR57" s="22"/>
+      <c r="AS57" s="22"/>
+      <c r="AT57" s="22"/>
+      <c r="AU57" s="22"/>
+      <c r="AV57" s="22"/>
+      <c r="AW57" s="22"/>
+      <c r="AX57" s="22"/>
+      <c r="AY57" s="22"/>
+      <c r="AZ57" s="22"/>
+      <c r="BA57" s="22"/>
+      <c r="BB57" s="22"/>
+      <c r="BC57" s="22"/>
+      <c r="BD57" s="22"/>
+      <c r="BE57" s="22"/>
+      <c r="BF57" s="22"/>
+      <c r="BG57" s="22"/>
+      <c r="BH57" s="22"/>
+      <c r="BI57" s="22"/>
+      <c r="BJ57" s="22"/>
+      <c r="BK57" s="22"/>
+      <c r="BL57" s="22"/>
+      <c r="BM57" s="22"/>
+      <c r="BN57" s="22"/>
+      <c r="BO57" s="22"/>
+      <c r="BP57" s="22"/>
+      <c r="BQ57" s="22"/>
+      <c r="BR57" s="22"/>
+      <c r="BS57" s="22"/>
+      <c r="BT57" s="22"/>
+    </row>
+    <row r="58" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="71"/>
+      <c r="S58" s="71"/>
+      <c r="T58" s="71"/>
+      <c r="U58" s="71"/>
+      <c r="V58" s="71"/>
+      <c r="W58" s="71"/>
+      <c r="X58" s="71"/>
+      <c r="Y58" s="71"/>
+      <c r="Z58" s="71"/>
+      <c r="AA58" s="71"/>
+      <c r="AB58" s="71"/>
+      <c r="AC58" s="71"/>
+      <c r="AD58" s="71"/>
+    </row>
+    <row r="59" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="71"/>
+      <c r="L59" s="71"/>
+      <c r="M59" s="71"/>
+      <c r="N59" s="71"/>
+      <c r="O59" s="71"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="71"/>
+      <c r="R59" s="71"/>
+      <c r="S59" s="71"/>
+      <c r="T59" s="71"/>
+      <c r="U59" s="71"/>
+      <c r="V59" s="71"/>
+      <c r="W59" s="71"/>
+      <c r="X59" s="71"/>
+      <c r="Y59" s="71"/>
+      <c r="Z59" s="71"/>
+      <c r="AA59" s="71"/>
+      <c r="AB59" s="71"/>
+      <c r="AC59" s="71"/>
+      <c r="AD59" s="71"/>
+    </row>
+    <row r="60" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="71"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="71"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="71"/>
+      <c r="T60" s="71"/>
+      <c r="U60" s="71"/>
+      <c r="V60" s="71"/>
+      <c r="W60" s="71"/>
+      <c r="X60" s="71"/>
+      <c r="Y60" s="71"/>
+      <c r="Z60" s="71"/>
+      <c r="AA60" s="71"/>
+      <c r="AB60" s="71"/>
+      <c r="AC60" s="71"/>
+      <c r="AD60" s="71"/>
+    </row>
+    <row r="61" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="71"/>
+      <c r="R61" s="71"/>
+      <c r="S61" s="71"/>
+      <c r="T61" s="71"/>
+      <c r="U61" s="71"/>
+      <c r="V61" s="71"/>
+      <c r="W61" s="71"/>
+      <c r="X61" s="71"/>
+      <c r="Y61" s="71"/>
+      <c r="Z61" s="71"/>
+      <c r="AA61" s="71"/>
+      <c r="AB61" s="71"/>
+      <c r="AC61" s="71"/>
+      <c r="AD61" s="71"/>
+    </row>
+    <row r="62" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="71"/>
+      <c r="Q62" s="71"/>
+      <c r="R62" s="71"/>
+      <c r="S62" s="71"/>
+      <c r="T62" s="71"/>
+      <c r="U62" s="71"/>
+      <c r="V62" s="71"/>
+      <c r="W62" s="71"/>
+      <c r="X62" s="71"/>
+      <c r="Y62" s="71"/>
+      <c r="Z62" s="71"/>
+      <c r="AA62" s="71"/>
+      <c r="AB62" s="71"/>
+      <c r="AC62" s="71"/>
+      <c r="AD62" s="71"/>
+    </row>
+    <row r="63" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="71"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="71"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="71"/>
+      <c r="R63" s="71"/>
+      <c r="S63" s="71"/>
+      <c r="T63" s="71"/>
+      <c r="U63" s="71"/>
+      <c r="V63" s="71"/>
+      <c r="W63" s="71"/>
+      <c r="X63" s="71"/>
+      <c r="Y63" s="71"/>
+      <c r="Z63" s="71"/>
+      <c r="AA63" s="71"/>
+      <c r="AB63" s="71"/>
+      <c r="AC63" s="71"/>
+      <c r="AD63" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C15:AD16"/>
+    <mergeCell ref="C53:AD54"/>
+    <mergeCell ref="C56:AD57"/>
+    <mergeCell ref="C58:AD59"/>
+    <mergeCell ref="C60:AD61"/>
+    <mergeCell ref="C62:AD63"/>
+    <mergeCell ref="BA2:BG2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BT2:BW2"/>
+    <mergeCell ref="D6:AR8"/>
+    <mergeCell ref="C12:N13"/>
+    <mergeCell ref="O12:R13"/>
+    <mergeCell ref="S12:V13"/>
+    <mergeCell ref="W12:Z13"/>
+    <mergeCell ref="AA12:AD13"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AT2:AV2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC1ACA1-D39A-40A3-9EAE-07F33C90ECD2}">
+  <dimension ref="A1:EE90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL65" sqref="AL65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="4.25" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="17"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="16"/>
+      <c r="BW1" s="16"/>
+      <c r="BX1" s="16"/>
+      <c r="BY1" s="16"/>
+      <c r="BZ1" s="16"/>
+      <c r="CA1" s="16"/>
+      <c r="CB1" s="16"/>
+      <c r="CC1" s="16"/>
+      <c r="CD1" s="16"/>
+      <c r="CE1" s="16"/>
+      <c r="CF1" s="16"/>
+      <c r="CG1" s="16"/>
+      <c r="CH1" s="16"/>
+      <c r="CI1" s="16"/>
+      <c r="CJ1" s="16"/>
+      <c r="CK1" s="16"/>
+      <c r="CL1" s="16"/>
+      <c r="CM1" s="16"/>
+      <c r="CN1" s="16"/>
+      <c r="CO1" s="16"/>
+    </row>
+    <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="31"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="21"/>
+      <c r="M2" s="32"/>
+      <c r="O2" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="21"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="21"/>
+      <c r="AB2" s="35"/>
+      <c r="AD2" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="21"/>
+      <c r="AJ2" s="36"/>
+      <c r="AL2" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="21"/>
+      <c r="AR2" s="33"/>
+      <c r="AT2" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="68"/>
+      <c r="AW2" s="21"/>
+      <c r="BA2" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB2" s="67"/>
+      <c r="BC2" s="67"/>
+      <c r="BD2" s="67"/>
+      <c r="BE2" s="67"/>
+      <c r="BF2" s="67"/>
+      <c r="BG2" s="68"/>
+      <c r="BH2" s="21"/>
+      <c r="BJ2" s="75"/>
+      <c r="BL2" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM2" s="67"/>
+      <c r="BN2" s="67"/>
+      <c r="BO2" s="68"/>
+      <c r="BP2" s="21"/>
+      <c r="BT2" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU2" s="67"/>
+      <c r="BV2" s="67"/>
+      <c r="BW2" s="68"/>
+    </row>
+    <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="16"/>
+      <c r="BB3" s="16"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="16"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="16"/>
+      <c r="BH3" s="17"/>
+      <c r="BI3" s="16"/>
+      <c r="BJ3" s="16"/>
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="16"/>
+      <c r="BN3" s="16"/>
+      <c r="BO3" s="16"/>
+      <c r="BP3" s="17"/>
+      <c r="BQ3" s="16"/>
+      <c r="BR3" s="16"/>
+      <c r="BS3" s="16"/>
+      <c r="BT3" s="16"/>
+      <c r="BU3" s="16"/>
+      <c r="BV3" s="16"/>
+      <c r="BW3" s="16"/>
+      <c r="BX3" s="16"/>
+      <c r="BY3" s="16"/>
+      <c r="BZ3" s="16"/>
+      <c r="CA3" s="16"/>
+      <c r="CB3" s="16"/>
+      <c r="CC3" s="16"/>
+      <c r="CD3" s="16"/>
+      <c r="CE3" s="16"/>
+      <c r="CF3" s="16"/>
+      <c r="CG3" s="16"/>
+      <c r="CH3" s="16"/>
+      <c r="CI3" s="16"/>
+      <c r="CJ3" s="16"/>
+      <c r="CK3" s="16"/>
+      <c r="CL3" s="16"/>
+      <c r="CM3" s="16"/>
+      <c r="CN3" s="16"/>
+      <c r="CO3" s="16"/>
+    </row>
+    <row r="4" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+    </row>
+    <row r="5" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+    </row>
+    <row r="6" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="72"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="72"/>
+      <c r="AN6" s="72"/>
+      <c r="AO6" s="72"/>
+      <c r="AP6" s="72"/>
+      <c r="AQ6" s="72"/>
+      <c r="AR6" s="72"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="11"/>
+      <c r="BB6" s="11"/>
+    </row>
+    <row r="7" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="72"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="72"/>
+      <c r="AO7" s="72"/>
+      <c r="AP7" s="72"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="72"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+    </row>
+    <row r="8" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="11"/>
+    </row>
+    <row r="9" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="11"/>
+    </row>
+    <row r="10" spans="1:93" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="11"/>
+    </row>
+    <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="73" t="s">
+        <v>22</v>
       </c>
       <c r="P12" s="73"/>
       <c r="Q12" s="73"/>
@@ -7466,7 +12171,7 @@
       <c r="U12" s="74"/>
       <c r="V12" s="74"/>
       <c r="W12" s="73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X12" s="73"/>
       <c r="Y12" s="73"/>
@@ -7672,7 +12377,7 @@
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
@@ -8456,7 +13161,7 @@
       <c r="AT25" s="36"/>
       <c r="BK25" s="36"/>
       <c r="BQ25" s="36"/>
-      <c r="BX25" s="31"/>
+      <c r="BX25" s="75"/>
       <c r="CW25" s="34"/>
       <c r="CX25" s="34"/>
       <c r="CY25" s="34"/>
@@ -11562,7 +16267,7 @@
       <c r="CT67" s="35"/>
       <c r="DG67" s="33"/>
       <c r="DJ67" s="36"/>
-      <c r="DN67" s="31"/>
+      <c r="DN67" s="75"/>
       <c r="DQ67" s="32"/>
       <c r="DR67" s="34"/>
       <c r="DS67" s="34"/>
@@ -11821,7 +16526,7 @@
       <c r="BR71" s="34"/>
       <c r="BS71" s="34"/>
       <c r="BT71" s="34"/>
-      <c r="BX71" s="31"/>
+      <c r="BX71" s="75"/>
       <c r="CA71" s="36"/>
       <c r="CB71" s="36"/>
       <c r="CC71" s="34"/>
@@ -11980,6 +16685,24 @@
       <c r="W73" s="34"/>
       <c r="X73" s="34"/>
       <c r="Y73" s="34"/>
+      <c r="Z73" s="36"/>
+      <c r="AA73" s="36"/>
+      <c r="AB73" s="36"/>
+      <c r="AC73" s="36"/>
+      <c r="AD73" s="36"/>
+      <c r="AE73" s="36"/>
+      <c r="AF73" s="36"/>
+      <c r="AG73" s="36"/>
+      <c r="AH73" s="36"/>
+      <c r="AI73" s="36"/>
+      <c r="AJ73" s="36"/>
+      <c r="AK73" s="36"/>
+      <c r="AL73" s="36"/>
+      <c r="AM73" s="36"/>
+      <c r="AN73" s="36"/>
+      <c r="AO73" s="36"/>
+      <c r="AP73" s="36"/>
+      <c r="AQ73" s="36"/>
       <c r="AR73" s="34"/>
       <c r="AS73" s="34"/>
       <c r="AT73" s="36"/>
@@ -12061,17 +16784,17 @@
     </row>
     <row r="74" spans="3:135" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N74" s="11"/>
-      <c r="O74" s="36"/>
-      <c r="P74" s="36"/>
-      <c r="Q74" s="36"/>
-      <c r="R74" s="36"/>
-      <c r="S74" s="36"/>
-      <c r="T74" s="36"/>
-      <c r="U74" s="36"/>
-      <c r="V74" s="36"/>
-      <c r="W74" s="36"/>
-      <c r="X74" s="36"/>
-      <c r="Y74" s="36"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
+      <c r="Q74" s="34"/>
+      <c r="R74" s="34"/>
+      <c r="S74" s="34"/>
+      <c r="T74" s="34"/>
+      <c r="U74" s="34"/>
+      <c r="V74" s="34"/>
+      <c r="W74" s="34"/>
+      <c r="X74" s="34"/>
+      <c r="Y74" s="34"/>
       <c r="Z74" s="36"/>
       <c r="AA74" s="36"/>
       <c r="AB74" s="36"/>
@@ -12090,9 +16813,9 @@
       <c r="AO74" s="36"/>
       <c r="AP74" s="36"/>
       <c r="AQ74" s="36"/>
-      <c r="AR74" s="36"/>
-      <c r="AS74" s="36"/>
-      <c r="AT74" s="36"/>
+      <c r="AR74" s="34"/>
+      <c r="AS74" s="34"/>
+      <c r="AT74" s="34"/>
       <c r="AU74" s="36"/>
       <c r="AV74" s="36"/>
       <c r="AW74" s="36"/>
@@ -12107,7 +16830,7 @@
       <c r="BF74" s="36"/>
       <c r="BG74" s="36"/>
       <c r="BH74" s="36"/>
-      <c r="BI74" s="36"/>
+      <c r="BI74" s="34"/>
       <c r="BJ74" s="34"/>
       <c r="BK74" s="34"/>
       <c r="BL74" s="34"/>
@@ -12309,7 +17032,7 @@
     </row>
     <row r="80" spans="3:135" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D80" s="70"/>
       <c r="E80" s="70"/>
@@ -12500,7 +17223,7 @@
     </row>
     <row r="83" spans="3:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D83" s="71"/>
       <c r="E83" s="71"/>
@@ -12688,7 +17411,7 @@
     </row>
     <row r="85" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D85" s="71"/>
       <c r="E85" s="71"/>
@@ -12750,7 +17473,7 @@
     </row>
     <row r="87" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D87" s="71"/>
       <c r="E87" s="71"/>

--- a/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
+++ b/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsao\Desktop\TeamHolyShit\개인작업폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6042C7-C6E2-4390-AA87-F52D4EE88645}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9BF674-0397-4FF6-98B1-0852211FBA20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="195" windowWidth="17790" windowHeight="14805" firstSheet="1" activeTab="7" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
   </bookViews>
@@ -960,25 +960,13 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,7 +1008,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1032,20 +1050,11 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1056,15 +1065,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1074,7 +1074,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2459,151 +2459,151 @@
     </row>
     <row r="3" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="46"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="42"/>
     </row>
     <row r="5" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="49"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
     </row>
     <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="49"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="45"/>
     </row>
     <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="49"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="49"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
     </row>
     <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="49"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
     </row>
     <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="49"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="45"/>
     </row>
     <row r="11" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="48"/>
     </row>
     <row r="12" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="49">
         <v>44225</v>
       </c>
-      <c r="D13" s="54"/>
+      <c r="D13" s="50"/>
       <c r="M13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="55" t="s">
+      <c r="N13" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="56"/>
+      <c r="O13" s="52"/>
     </row>
     <row r="14" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
@@ -2622,22 +2622,22 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="2:15" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
     </row>
     <row r="16" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
@@ -2659,18 +2659,18 @@
       <c r="C17" s="6">
         <v>1</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
     </row>
     <row r="18" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
@@ -2715,18 +2715,18 @@
       <c r="C21" s="6">
         <v>2</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
     </row>
     <row r="22" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
@@ -2771,121 +2771,121 @@
       <c r="C25" s="6">
         <v>3</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
     </row>
     <row r="26" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="6">
         <v>4</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
     </row>
     <row r="27" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="6">
         <v>5</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
     </row>
     <row r="28" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="30">
         <v>6</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
     </row>
     <row r="29" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="30">
         <v>7</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
     </row>
     <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
     </row>
     <row r="33" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="2:15" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
     </row>
     <row r="35" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
@@ -2910,34 +2910,34 @@
       <c r="C36" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="39"/>
+      <c r="E36" s="54"/>
       <c r="F36" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G36" s="40" t="s">
+      <c r="G36" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="39" t="s">
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="O36" s="39"/>
+      <c r="O36" s="54"/>
     </row>
     <row r="37" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="8">
         <v>1</v>
       </c>
       <c r="C37" s="28"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
       <c r="F37" s="28"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
@@ -2946,16 +2946,16 @@
       <c r="K37" s="38"/>
       <c r="L37" s="38"/>
       <c r="M37" s="38"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
     </row>
     <row r="38" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="8">
         <v>2</v>
       </c>
       <c r="C38" s="28"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
       <c r="F38" s="28"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
@@ -2964,14 +2964,14 @@
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
     </row>
     <row r="39" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8"/>
       <c r="C39" s="28"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
       <c r="F39" s="28"/>
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
@@ -2980,14 +2980,14 @@
       <c r="K39" s="38"/>
       <c r="L39" s="38"/>
       <c r="M39" s="38"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
     </row>
     <row r="40" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
       <c r="C40" s="28"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
       <c r="F40" s="28"/>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
@@ -2996,14 +2996,14 @@
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
     </row>
     <row r="41" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
       <c r="C41" s="28"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
       <c r="F41" s="28"/>
       <c r="G41" s="38"/>
       <c r="H41" s="38"/>
@@ -3012,14 +3012,14 @@
       <c r="K41" s="38"/>
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
     </row>
     <row r="42" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
       <c r="C42" s="28"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
       <c r="F42" s="28"/>
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
@@ -3028,14 +3028,14 @@
       <c r="K42" s="38"/>
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
     </row>
     <row r="43" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
       <c r="C43" s="28"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
       <c r="F43" s="28"/>
       <c r="G43" s="38"/>
       <c r="H43" s="38"/>
@@ -3044,14 +3044,14 @@
       <c r="K43" s="38"/>
       <c r="L43" s="38"/>
       <c r="M43" s="38"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
     </row>
     <row r="44" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="8"/>
       <c r="C44" s="28"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
       <c r="F44" s="28"/>
       <c r="G44" s="38"/>
       <c r="H44" s="38"/>
@@ -3060,14 +3060,14 @@
       <c r="K44" s="38"/>
       <c r="L44" s="38"/>
       <c r="M44" s="38"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
     </row>
     <row r="45" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
       <c r="C45" s="28"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
       <c r="F45" s="28"/>
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
@@ -3076,14 +3076,14 @@
       <c r="K45" s="38"/>
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
     </row>
     <row r="46" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
       <c r="C46" s="28"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
       <c r="F46" s="28"/>
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
@@ -3092,14 +3092,14 @@
       <c r="K46" s="38"/>
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
     </row>
     <row r="47" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8"/>
       <c r="C47" s="28"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
       <c r="F47" s="28"/>
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
@@ -3108,14 +3108,14 @@
       <c r="K47" s="38"/>
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
+      <c r="N47" s="57"/>
+      <c r="O47" s="57"/>
     </row>
     <row r="48" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="8"/>
       <c r="C48" s="28"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
       <c r="F48" s="28"/>
       <c r="G48" s="38"/>
       <c r="H48" s="38"/>
@@ -3124,14 +3124,14 @@
       <c r="K48" s="38"/>
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
     </row>
     <row r="49" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="8"/>
       <c r="C49" s="28"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
       <c r="F49" s="28"/>
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
@@ -3140,14 +3140,14 @@
       <c r="K49" s="38"/>
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="57"/>
     </row>
     <row r="50" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="8"/>
       <c r="C50" s="28"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
       <c r="F50" s="28"/>
       <c r="G50" s="38"/>
       <c r="H50" s="38"/>
@@ -3156,14 +3156,14 @@
       <c r="K50" s="38"/>
       <c r="L50" s="38"/>
       <c r="M50" s="38"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
     </row>
     <row r="51" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="8"/>
       <c r="C51" s="28"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
       <c r="F51" s="28"/>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
@@ -3172,14 +3172,14 @@
       <c r="K51" s="38"/>
       <c r="L51" s="38"/>
       <c r="M51" s="38"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
     </row>
     <row r="52" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
       <c r="C52" s="28"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
       <c r="F52" s="28"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
@@ -3188,14 +3188,14 @@
       <c r="K52" s="38"/>
       <c r="L52" s="38"/>
       <c r="M52" s="38"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
     </row>
     <row r="53" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
       <c r="C53" s="28"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
       <c r="F53" s="28"/>
       <c r="G53" s="38"/>
       <c r="H53" s="38"/>
@@ -3204,14 +3204,14 @@
       <c r="K53" s="38"/>
       <c r="L53" s="38"/>
       <c r="M53" s="38"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
     </row>
     <row r="54" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="8"/>
       <c r="C54" s="28"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
       <c r="F54" s="28"/>
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
@@ -3220,14 +3220,14 @@
       <c r="K54" s="38"/>
       <c r="L54" s="38"/>
       <c r="M54" s="38"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="57"/>
     </row>
     <row r="55" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="8"/>
       <c r="C55" s="28"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
       <c r="F55" s="28"/>
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
@@ -3236,14 +3236,14 @@
       <c r="K55" s="38"/>
       <c r="L55" s="38"/>
       <c r="M55" s="38"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="57"/>
     </row>
     <row r="56" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="8"/>
       <c r="C56" s="28"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
       <c r="F56" s="28"/>
       <c r="G56" s="38"/>
       <c r="H56" s="38"/>
@@ -3252,22 +3252,71 @@
       <c r="K56" s="38"/>
       <c r="L56" s="38"/>
       <c r="M56" s="38"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="E23:M23"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="E22:M22"/>
-    <mergeCell ref="B4:O11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="N38:O38"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="N36:O36"/>
     <mergeCell ref="G36:M36"/>
@@ -3279,66 +3328,17 @@
     <mergeCell ref="B34:O34"/>
     <mergeCell ref="D28:M28"/>
     <mergeCell ref="D29:M29"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:M56"/>
-    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="B4:O11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="E23:M23"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="E22:M22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3364,379 +3364,894 @@
   <sheetData>
     <row r="1" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" s="13" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
     </row>
     <row r="5" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
     </row>
     <row r="7" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
     </row>
     <row r="10" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
     </row>
     <row r="11" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
     </row>
     <row r="12" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
     </row>
     <row r="16" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
     </row>
     <row r="17" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
     </row>
     <row r="19" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
     </row>
     <row r="20" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
     </row>
     <row r="21" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
     </row>
     <row r="22" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="65"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="62"/>
     </row>
     <row r="23" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
     </row>
     <row r="25" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
     </row>
     <row r="26" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
     </row>
     <row r="27" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
     </row>
     <row r="28" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
     </row>
     <row r="29" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
     </row>
     <row r="30" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
     </row>
     <row r="31" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
     </row>
     <row r="32" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
     </row>
     <row r="33" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
     </row>
     <row r="35" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
     </row>
     <row r="36" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
     </row>
     <row r="37" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
     </row>
     <row r="38" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
     </row>
     <row r="39" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
     </row>
     <row r="40" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B38:K38"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B115CA4-4A3A-4C15-B086-786A2C0A2453}">
+  <dimension ref="B1:K46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:K42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" s="13" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66"/>
+    </row>
+    <row r="3" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+    </row>
+    <row r="5" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+    </row>
+    <row r="8" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+    </row>
+    <row r="10" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+    </row>
+    <row r="11" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
+    </row>
+    <row r="12" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+    </row>
+    <row r="13" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+    </row>
+    <row r="16" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+    </row>
+    <row r="17" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+    </row>
+    <row r="19" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+    </row>
+    <row r="20" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+    </row>
+    <row r="21" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+    </row>
+    <row r="22" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="62"/>
+    </row>
+    <row r="23" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+    </row>
+    <row r="25" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+    </row>
+    <row r="26" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+    </row>
+    <row r="27" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+    </row>
+    <row r="28" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+    </row>
+    <row r="29" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+    </row>
+    <row r="30" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+    </row>
+    <row r="31" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+    </row>
+    <row r="32" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+    </row>
+    <row r="33" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+    </row>
+    <row r="35" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+    </row>
+    <row r="36" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+    </row>
+    <row r="37" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+    </row>
+    <row r="38" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+    </row>
+    <row r="39" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+    </row>
+    <row r="40" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+    </row>
+    <row r="42" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+    </row>
+    <row r="43" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+    </row>
+    <row r="44" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+    </row>
+    <row r="45" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+    </row>
+    <row r="46" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="B45:K45"/>
     <mergeCell ref="B39:K39"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="B28:K28"/>
@@ -3767,521 +4282,6 @@
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B115CA4-4A3A-4C15-B086-786A2C0A2453}">
-  <dimension ref="B1:K46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:K42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" s="13" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-    </row>
-    <row r="5" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-    </row>
-    <row r="7" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-    </row>
-    <row r="8" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-    </row>
-    <row r="10" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-    </row>
-    <row r="11" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
-    </row>
-    <row r="12" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-    </row>
-    <row r="13" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-    </row>
-    <row r="16" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-    </row>
-    <row r="17" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-    </row>
-    <row r="19" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-    </row>
-    <row r="20" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-    </row>
-    <row r="21" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-    </row>
-    <row r="22" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="65"/>
-    </row>
-    <row r="23" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-    </row>
-    <row r="25" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-    </row>
-    <row r="26" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-    </row>
-    <row r="27" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-    </row>
-    <row r="28" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-    </row>
-    <row r="29" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-    </row>
-    <row r="30" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-    </row>
-    <row r="31" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-    </row>
-    <row r="32" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-    </row>
-    <row r="33" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-    </row>
-    <row r="35" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-    </row>
-    <row r="36" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-    </row>
-    <row r="37" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-    </row>
-    <row r="38" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-    </row>
-    <row r="39" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-    </row>
-    <row r="40" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-    </row>
-    <row r="42" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-    </row>
-    <row r="43" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-    </row>
-    <row r="44" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-    </row>
-    <row r="45" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-    </row>
-    <row r="46" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-    </row>
-  </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B42:K42"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B45:K45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4401,79 +4401,79 @@
     <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="68"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="71"/>
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="66" t="s">
+      <c r="V2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="68"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="71"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
-      <c r="AD2" s="66" t="s">
+      <c r="AD2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="68"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="71"/>
       <c r="AH2" s="21"/>
       <c r="AJ2" s="36"/>
-      <c r="AL2" s="66" t="s">
+      <c r="AL2" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="68"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="71"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
-      <c r="AT2" s="66" t="s">
+      <c r="AT2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="68"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="71"/>
       <c r="AW2" s="21"/>
-      <c r="BA2" s="66" t="s">
+      <c r="BA2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="67"/>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="67"/>
-      <c r="BE2" s="67"/>
-      <c r="BF2" s="67"/>
-      <c r="BG2" s="68"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="71"/>
       <c r="BH2" s="21"/>
-      <c r="BJ2" s="75"/>
-      <c r="BL2" s="66" t="s">
+      <c r="BJ2" s="37"/>
+      <c r="BL2" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="BM2" s="67"/>
-      <c r="BN2" s="67"/>
-      <c r="BO2" s="68"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="71"/>
       <c r="BP2" s="21"/>
-      <c r="BT2" s="66" t="s">
+      <c r="BT2" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="67"/>
-      <c r="BV2" s="67"/>
-      <c r="BW2" s="68"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="71"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -4967,20 +4967,20 @@
     <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
       <c r="O12" s="73" t="s">
         <v>22</v>
       </c>
@@ -5028,18 +5028,18 @@
     <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -5146,128 +5146,128 @@
       <c r="BT14" s="22"/>
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="70"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
     </row>
     <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="70"/>
-      <c r="AB16" s="70"/>
-      <c r="AC16" s="70"/>
-      <c r="AD16" s="70"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
     </row>
     <row r="53" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="70"/>
-      <c r="N53" s="70"/>
-      <c r="O53" s="70"/>
-      <c r="P53" s="70"/>
-      <c r="Q53" s="70"/>
-      <c r="R53" s="70"/>
-      <c r="S53" s="70"/>
-      <c r="T53" s="70"/>
-      <c r="U53" s="70"/>
-      <c r="V53" s="70"/>
-      <c r="W53" s="70"/>
-      <c r="X53" s="70"/>
-      <c r="Y53" s="70"/>
-      <c r="Z53" s="70"/>
-      <c r="AA53" s="70"/>
-      <c r="AB53" s="70"/>
-      <c r="AC53" s="70"/>
-      <c r="AD53" s="70"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="67"/>
+      <c r="P53" s="67"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="67"/>
+      <c r="S53" s="67"/>
+      <c r="T53" s="67"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
+      <c r="X53" s="67"/>
+      <c r="Y53" s="67"/>
+      <c r="Z53" s="67"/>
+      <c r="AA53" s="67"/>
+      <c r="AB53" s="67"/>
+      <c r="AC53" s="67"/>
+      <c r="AD53" s="67"/>
     </row>
     <row r="54" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="70"/>
-      <c r="N54" s="70"/>
-      <c r="O54" s="70"/>
-      <c r="P54" s="70"/>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="70"/>
-      <c r="S54" s="70"/>
-      <c r="T54" s="70"/>
-      <c r="U54" s="70"/>
-      <c r="V54" s="70"/>
-      <c r="W54" s="70"/>
-      <c r="X54" s="70"/>
-      <c r="Y54" s="70"/>
-      <c r="Z54" s="70"/>
-      <c r="AA54" s="70"/>
-      <c r="AB54" s="70"/>
-      <c r="AC54" s="70"/>
-      <c r="AD54" s="70"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="67"/>
+      <c r="P54" s="67"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="67"/>
+      <c r="S54" s="67"/>
+      <c r="T54" s="67"/>
+      <c r="U54" s="67"/>
+      <c r="V54" s="67"/>
+      <c r="W54" s="67"/>
+      <c r="X54" s="67"/>
+      <c r="Y54" s="67"/>
+      <c r="Z54" s="67"/>
+      <c r="AA54" s="67"/>
+      <c r="AB54" s="67"/>
+      <c r="AC54" s="67"/>
+      <c r="AD54" s="67"/>
     </row>
     <row r="55" spans="3:72" s="24" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C55" s="22"/>
@@ -5342,34 +5342,34 @@
       <c r="BT55" s="22"/>
     </row>
     <row r="56" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="71"/>
-      <c r="M56" s="71"/>
-      <c r="N56" s="71"/>
-      <c r="O56" s="71"/>
-      <c r="P56" s="71"/>
-      <c r="Q56" s="71"/>
-      <c r="R56" s="71"/>
-      <c r="S56" s="71"/>
-      <c r="T56" s="71"/>
-      <c r="U56" s="71"/>
-      <c r="V56" s="71"/>
-      <c r="W56" s="71"/>
-      <c r="X56" s="71"/>
-      <c r="Y56" s="71"/>
-      <c r="Z56" s="71"/>
-      <c r="AA56" s="71"/>
-      <c r="AB56" s="71"/>
-      <c r="AC56" s="71"/>
-      <c r="AD56" s="71"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="68"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="68"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="68"/>
+      <c r="W56" s="68"/>
+      <c r="X56" s="68"/>
+      <c r="Y56" s="68"/>
+      <c r="Z56" s="68"/>
+      <c r="AA56" s="68"/>
+      <c r="AB56" s="68"/>
+      <c r="AC56" s="68"/>
+      <c r="AD56" s="68"/>
       <c r="AE56" s="22"/>
       <c r="AF56" s="22"/>
       <c r="AG56" s="22"/>
@@ -5414,34 +5414,34 @@
       <c r="BT56" s="22"/>
     </row>
     <row r="57" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="71"/>
-      <c r="N57" s="71"/>
-      <c r="O57" s="71"/>
-      <c r="P57" s="71"/>
-      <c r="Q57" s="71"/>
-      <c r="R57" s="71"/>
-      <c r="S57" s="71"/>
-      <c r="T57" s="71"/>
-      <c r="U57" s="71"/>
-      <c r="V57" s="71"/>
-      <c r="W57" s="71"/>
-      <c r="X57" s="71"/>
-      <c r="Y57" s="71"/>
-      <c r="Z57" s="71"/>
-      <c r="AA57" s="71"/>
-      <c r="AB57" s="71"/>
-      <c r="AC57" s="71"/>
-      <c r="AD57" s="71"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="68"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="68"/>
+      <c r="W57" s="68"/>
+      <c r="X57" s="68"/>
+      <c r="Y57" s="68"/>
+      <c r="Z57" s="68"/>
+      <c r="AA57" s="68"/>
+      <c r="AB57" s="68"/>
+      <c r="AC57" s="68"/>
+      <c r="AD57" s="68"/>
       <c r="AE57" s="22"/>
       <c r="AF57" s="22"/>
       <c r="AG57" s="22"/>
@@ -5486,192 +5486,187 @@
       <c r="BT57" s="22"/>
     </row>
     <row r="58" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="71"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="71"/>
-      <c r="M58" s="71"/>
-      <c r="N58" s="71"/>
-      <c r="O58" s="71"/>
-      <c r="P58" s="71"/>
-      <c r="Q58" s="71"/>
-      <c r="R58" s="71"/>
-      <c r="S58" s="71"/>
-      <c r="T58" s="71"/>
-      <c r="U58" s="71"/>
-      <c r="V58" s="71"/>
-      <c r="W58" s="71"/>
-      <c r="X58" s="71"/>
-      <c r="Y58" s="71"/>
-      <c r="Z58" s="71"/>
-      <c r="AA58" s="71"/>
-      <c r="AB58" s="71"/>
-      <c r="AC58" s="71"/>
-      <c r="AD58" s="71"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="68"/>
+      <c r="Q58" s="68"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="68"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="68"/>
+      <c r="W58" s="68"/>
+      <c r="X58" s="68"/>
+      <c r="Y58" s="68"/>
+      <c r="Z58" s="68"/>
+      <c r="AA58" s="68"/>
+      <c r="AB58" s="68"/>
+      <c r="AC58" s="68"/>
+      <c r="AD58" s="68"/>
     </row>
     <row r="59" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="71"/>
-      <c r="N59" s="71"/>
-      <c r="O59" s="71"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="71"/>
-      <c r="R59" s="71"/>
-      <c r="S59" s="71"/>
-      <c r="T59" s="71"/>
-      <c r="U59" s="71"/>
-      <c r="V59" s="71"/>
-      <c r="W59" s="71"/>
-      <c r="X59" s="71"/>
-      <c r="Y59" s="71"/>
-      <c r="Z59" s="71"/>
-      <c r="AA59" s="71"/>
-      <c r="AB59" s="71"/>
-      <c r="AC59" s="71"/>
-      <c r="AD59" s="71"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="68"/>
+      <c r="Q59" s="68"/>
+      <c r="R59" s="68"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
+      <c r="W59" s="68"/>
+      <c r="X59" s="68"/>
+      <c r="Y59" s="68"/>
+      <c r="Z59" s="68"/>
+      <c r="AA59" s="68"/>
+      <c r="AB59" s="68"/>
+      <c r="AC59" s="68"/>
+      <c r="AD59" s="68"/>
     </row>
     <row r="60" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="71"/>
-      <c r="L60" s="71"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="71"/>
-      <c r="O60" s="71"/>
-      <c r="P60" s="71"/>
-      <c r="Q60" s="71"/>
-      <c r="R60" s="71"/>
-      <c r="S60" s="71"/>
-      <c r="T60" s="71"/>
-      <c r="U60" s="71"/>
-      <c r="V60" s="71"/>
-      <c r="W60" s="71"/>
-      <c r="X60" s="71"/>
-      <c r="Y60" s="71"/>
-      <c r="Z60" s="71"/>
-      <c r="AA60" s="71"/>
-      <c r="AB60" s="71"/>
-      <c r="AC60" s="71"/>
-      <c r="AD60" s="71"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="68"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
+      <c r="X60" s="68"/>
+      <c r="Y60" s="68"/>
+      <c r="Z60" s="68"/>
+      <c r="AA60" s="68"/>
+      <c r="AB60" s="68"/>
+      <c r="AC60" s="68"/>
+      <c r="AD60" s="68"/>
     </row>
     <row r="61" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="71"/>
-      <c r="N61" s="71"/>
-      <c r="O61" s="71"/>
-      <c r="P61" s="71"/>
-      <c r="Q61" s="71"/>
-      <c r="R61" s="71"/>
-      <c r="S61" s="71"/>
-      <c r="T61" s="71"/>
-      <c r="U61" s="71"/>
-      <c r="V61" s="71"/>
-      <c r="W61" s="71"/>
-      <c r="X61" s="71"/>
-      <c r="Y61" s="71"/>
-      <c r="Z61" s="71"/>
-      <c r="AA61" s="71"/>
-      <c r="AB61" s="71"/>
-      <c r="AC61" s="71"/>
-      <c r="AD61" s="71"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="68"/>
+      <c r="Q61" s="68"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="68"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="68"/>
+      <c r="W61" s="68"/>
+      <c r="X61" s="68"/>
+      <c r="Y61" s="68"/>
+      <c r="Z61" s="68"/>
+      <c r="AA61" s="68"/>
+      <c r="AB61" s="68"/>
+      <c r="AC61" s="68"/>
+      <c r="AD61" s="68"/>
     </row>
     <row r="62" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="71"/>
-      <c r="O62" s="71"/>
-      <c r="P62" s="71"/>
-      <c r="Q62" s="71"/>
-      <c r="R62" s="71"/>
-      <c r="S62" s="71"/>
-      <c r="T62" s="71"/>
-      <c r="U62" s="71"/>
-      <c r="V62" s="71"/>
-      <c r="W62" s="71"/>
-      <c r="X62" s="71"/>
-      <c r="Y62" s="71"/>
-      <c r="Z62" s="71"/>
-      <c r="AA62" s="71"/>
-      <c r="AB62" s="71"/>
-      <c r="AC62" s="71"/>
-      <c r="AD62" s="71"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="68"/>
+      <c r="O62" s="68"/>
+      <c r="P62" s="68"/>
+      <c r="Q62" s="68"/>
+      <c r="R62" s="68"/>
+      <c r="S62" s="68"/>
+      <c r="T62" s="68"/>
+      <c r="U62" s="68"/>
+      <c r="V62" s="68"/>
+      <c r="W62" s="68"/>
+      <c r="X62" s="68"/>
+      <c r="Y62" s="68"/>
+      <c r="Z62" s="68"/>
+      <c r="AA62" s="68"/>
+      <c r="AB62" s="68"/>
+      <c r="AC62" s="68"/>
+      <c r="AD62" s="68"/>
     </row>
     <row r="63" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="71"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="71"/>
-      <c r="M63" s="71"/>
-      <c r="N63" s="71"/>
-      <c r="O63" s="71"/>
-      <c r="P63" s="71"/>
-      <c r="Q63" s="71"/>
-      <c r="R63" s="71"/>
-      <c r="S63" s="71"/>
-      <c r="T63" s="71"/>
-      <c r="U63" s="71"/>
-      <c r="V63" s="71"/>
-      <c r="W63" s="71"/>
-      <c r="X63" s="71"/>
-      <c r="Y63" s="71"/>
-      <c r="Z63" s="71"/>
-      <c r="AA63" s="71"/>
-      <c r="AB63" s="71"/>
-      <c r="AC63" s="71"/>
-      <c r="AD63" s="71"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="68"/>
+      <c r="Q63" s="68"/>
+      <c r="R63" s="68"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="68"/>
+      <c r="U63" s="68"/>
+      <c r="V63" s="68"/>
+      <c r="W63" s="68"/>
+      <c r="X63" s="68"/>
+      <c r="Y63" s="68"/>
+      <c r="Z63" s="68"/>
+      <c r="AA63" s="68"/>
+      <c r="AB63" s="68"/>
+      <c r="AC63" s="68"/>
+      <c r="AD63" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C15:AD16"/>
-    <mergeCell ref="C53:AD54"/>
-    <mergeCell ref="C56:AD57"/>
-    <mergeCell ref="C58:AD59"/>
-    <mergeCell ref="C60:AD61"/>
     <mergeCell ref="C62:AD63"/>
     <mergeCell ref="BA2:BG2"/>
     <mergeCell ref="BL2:BO2"/>
@@ -5688,6 +5683,11 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="C15:AD16"/>
+    <mergeCell ref="C53:AD54"/>
+    <mergeCell ref="C56:AD57"/>
+    <mergeCell ref="C58:AD59"/>
+    <mergeCell ref="C60:AD61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5808,79 +5808,79 @@
     <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="68"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="71"/>
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="66" t="s">
+      <c r="V2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="68"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="71"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
-      <c r="AD2" s="66" t="s">
+      <c r="AD2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="68"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="71"/>
       <c r="AH2" s="21"/>
       <c r="AJ2" s="36"/>
-      <c r="AL2" s="66" t="s">
+      <c r="AL2" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="68"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="71"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
-      <c r="AT2" s="66" t="s">
+      <c r="AT2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="68"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="71"/>
       <c r="AW2" s="21"/>
-      <c r="BA2" s="66" t="s">
+      <c r="BA2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="67"/>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="67"/>
-      <c r="BE2" s="67"/>
-      <c r="BF2" s="67"/>
-      <c r="BG2" s="68"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="71"/>
       <c r="BH2" s="21"/>
-      <c r="BJ2" s="75"/>
-      <c r="BL2" s="66" t="s">
+      <c r="BJ2" s="37"/>
+      <c r="BL2" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="BM2" s="67"/>
-      <c r="BN2" s="67"/>
-      <c r="BO2" s="68"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="71"/>
       <c r="BP2" s="21"/>
-      <c r="BT2" s="66" t="s">
+      <c r="BT2" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="67"/>
-      <c r="BV2" s="67"/>
-      <c r="BW2" s="68"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="71"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -6374,20 +6374,20 @@
     <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
       <c r="O12" s="73" t="s">
         <v>22</v>
       </c>
@@ -6439,18 +6439,18 @@
     <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -6557,66 +6557,66 @@
       <c r="BT14" s="22"/>
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="70"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
     </row>
     <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="70"/>
-      <c r="AB16" s="70"/>
-      <c r="AC16" s="70"/>
-      <c r="AD16" s="70"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
     </row>
     <row r="18" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H18" s="11"/>
@@ -7948,7 +7948,7 @@
       <c r="BA45" s="11"/>
       <c r="BB45" s="11"/>
       <c r="BC45" s="34"/>
-      <c r="BH45" s="75"/>
+      <c r="BH45" s="37"/>
       <c r="BU45" s="32"/>
       <c r="BV45" s="11"/>
       <c r="BW45" s="11"/>
@@ -8164,66 +8164,66 @@
       <c r="BW48" s="11"/>
     </row>
     <row r="53" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="70"/>
-      <c r="N53" s="70"/>
-      <c r="O53" s="70"/>
-      <c r="P53" s="70"/>
-      <c r="Q53" s="70"/>
-      <c r="R53" s="70"/>
-      <c r="S53" s="70"/>
-      <c r="T53" s="70"/>
-      <c r="U53" s="70"/>
-      <c r="V53" s="70"/>
-      <c r="W53" s="70"/>
-      <c r="X53" s="70"/>
-      <c r="Y53" s="70"/>
-      <c r="Z53" s="70"/>
-      <c r="AA53" s="70"/>
-      <c r="AB53" s="70"/>
-      <c r="AC53" s="70"/>
-      <c r="AD53" s="70"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="67"/>
+      <c r="P53" s="67"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="67"/>
+      <c r="S53" s="67"/>
+      <c r="T53" s="67"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
+      <c r="X53" s="67"/>
+      <c r="Y53" s="67"/>
+      <c r="Z53" s="67"/>
+      <c r="AA53" s="67"/>
+      <c r="AB53" s="67"/>
+      <c r="AC53" s="67"/>
+      <c r="AD53" s="67"/>
     </row>
     <row r="54" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="70"/>
-      <c r="N54" s="70"/>
-      <c r="O54" s="70"/>
-      <c r="P54" s="70"/>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="70"/>
-      <c r="S54" s="70"/>
-      <c r="T54" s="70"/>
-      <c r="U54" s="70"/>
-      <c r="V54" s="70"/>
-      <c r="W54" s="70"/>
-      <c r="X54" s="70"/>
-      <c r="Y54" s="70"/>
-      <c r="Z54" s="70"/>
-      <c r="AA54" s="70"/>
-      <c r="AB54" s="70"/>
-      <c r="AC54" s="70"/>
-      <c r="AD54" s="70"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="67"/>
+      <c r="P54" s="67"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="67"/>
+      <c r="S54" s="67"/>
+      <c r="T54" s="67"/>
+      <c r="U54" s="67"/>
+      <c r="V54" s="67"/>
+      <c r="W54" s="67"/>
+      <c r="X54" s="67"/>
+      <c r="Y54" s="67"/>
+      <c r="Z54" s="67"/>
+      <c r="AA54" s="67"/>
+      <c r="AB54" s="67"/>
+      <c r="AC54" s="67"/>
+      <c r="AD54" s="67"/>
     </row>
     <row r="55" spans="3:72" s="24" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C55" s="22"/>
@@ -8298,34 +8298,34 @@
       <c r="BT55" s="22"/>
     </row>
     <row r="56" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="71"/>
-      <c r="M56" s="71"/>
-      <c r="N56" s="71"/>
-      <c r="O56" s="71"/>
-      <c r="P56" s="71"/>
-      <c r="Q56" s="71"/>
-      <c r="R56" s="71"/>
-      <c r="S56" s="71"/>
-      <c r="T56" s="71"/>
-      <c r="U56" s="71"/>
-      <c r="V56" s="71"/>
-      <c r="W56" s="71"/>
-      <c r="X56" s="71"/>
-      <c r="Y56" s="71"/>
-      <c r="Z56" s="71"/>
-      <c r="AA56" s="71"/>
-      <c r="AB56" s="71"/>
-      <c r="AC56" s="71"/>
-      <c r="AD56" s="71"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="68"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="68"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="68"/>
+      <c r="W56" s="68"/>
+      <c r="X56" s="68"/>
+      <c r="Y56" s="68"/>
+      <c r="Z56" s="68"/>
+      <c r="AA56" s="68"/>
+      <c r="AB56" s="68"/>
+      <c r="AC56" s="68"/>
+      <c r="AD56" s="68"/>
       <c r="AE56" s="22"/>
       <c r="AF56" s="22"/>
       <c r="AG56" s="22"/>
@@ -8370,34 +8370,34 @@
       <c r="BT56" s="22"/>
     </row>
     <row r="57" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="71"/>
-      <c r="N57" s="71"/>
-      <c r="O57" s="71"/>
-      <c r="P57" s="71"/>
-      <c r="Q57" s="71"/>
-      <c r="R57" s="71"/>
-      <c r="S57" s="71"/>
-      <c r="T57" s="71"/>
-      <c r="U57" s="71"/>
-      <c r="V57" s="71"/>
-      <c r="W57" s="71"/>
-      <c r="X57" s="71"/>
-      <c r="Y57" s="71"/>
-      <c r="Z57" s="71"/>
-      <c r="AA57" s="71"/>
-      <c r="AB57" s="71"/>
-      <c r="AC57" s="71"/>
-      <c r="AD57" s="71"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="68"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="68"/>
+      <c r="W57" s="68"/>
+      <c r="X57" s="68"/>
+      <c r="Y57" s="68"/>
+      <c r="Z57" s="68"/>
+      <c r="AA57" s="68"/>
+      <c r="AB57" s="68"/>
+      <c r="AC57" s="68"/>
+      <c r="AD57" s="68"/>
       <c r="AE57" s="22"/>
       <c r="AF57" s="22"/>
       <c r="AG57" s="22"/>
@@ -8442,199 +8442,187 @@
       <c r="BT57" s="22"/>
     </row>
     <row r="58" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="71"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="71"/>
-      <c r="M58" s="71"/>
-      <c r="N58" s="71"/>
-      <c r="O58" s="71"/>
-      <c r="P58" s="71"/>
-      <c r="Q58" s="71"/>
-      <c r="R58" s="71"/>
-      <c r="S58" s="71"/>
-      <c r="T58" s="71"/>
-      <c r="U58" s="71"/>
-      <c r="V58" s="71"/>
-      <c r="W58" s="71"/>
-      <c r="X58" s="71"/>
-      <c r="Y58" s="71"/>
-      <c r="Z58" s="71"/>
-      <c r="AA58" s="71"/>
-      <c r="AB58" s="71"/>
-      <c r="AC58" s="71"/>
-      <c r="AD58" s="71"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="68"/>
+      <c r="Q58" s="68"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="68"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="68"/>
+      <c r="W58" s="68"/>
+      <c r="X58" s="68"/>
+      <c r="Y58" s="68"/>
+      <c r="Z58" s="68"/>
+      <c r="AA58" s="68"/>
+      <c r="AB58" s="68"/>
+      <c r="AC58" s="68"/>
+      <c r="AD58" s="68"/>
     </row>
     <row r="59" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="71"/>
-      <c r="N59" s="71"/>
-      <c r="O59" s="71"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="71"/>
-      <c r="R59" s="71"/>
-      <c r="S59" s="71"/>
-      <c r="T59" s="71"/>
-      <c r="U59" s="71"/>
-      <c r="V59" s="71"/>
-      <c r="W59" s="71"/>
-      <c r="X59" s="71"/>
-      <c r="Y59" s="71"/>
-      <c r="Z59" s="71"/>
-      <c r="AA59" s="71"/>
-      <c r="AB59" s="71"/>
-      <c r="AC59" s="71"/>
-      <c r="AD59" s="71"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="68"/>
+      <c r="Q59" s="68"/>
+      <c r="R59" s="68"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
+      <c r="W59" s="68"/>
+      <c r="X59" s="68"/>
+      <c r="Y59" s="68"/>
+      <c r="Z59" s="68"/>
+      <c r="AA59" s="68"/>
+      <c r="AB59" s="68"/>
+      <c r="AC59" s="68"/>
+      <c r="AD59" s="68"/>
     </row>
     <row r="60" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="71"/>
-      <c r="L60" s="71"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="71"/>
-      <c r="O60" s="71"/>
-      <c r="P60" s="71"/>
-      <c r="Q60" s="71"/>
-      <c r="R60" s="71"/>
-      <c r="S60" s="71"/>
-      <c r="T60" s="71"/>
-      <c r="U60" s="71"/>
-      <c r="V60" s="71"/>
-      <c r="W60" s="71"/>
-      <c r="X60" s="71"/>
-      <c r="Y60" s="71"/>
-      <c r="Z60" s="71"/>
-      <c r="AA60" s="71"/>
-      <c r="AB60" s="71"/>
-      <c r="AC60" s="71"/>
-      <c r="AD60" s="71"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="68"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
+      <c r="X60" s="68"/>
+      <c r="Y60" s="68"/>
+      <c r="Z60" s="68"/>
+      <c r="AA60" s="68"/>
+      <c r="AB60" s="68"/>
+      <c r="AC60" s="68"/>
+      <c r="AD60" s="68"/>
     </row>
     <row r="61" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="71"/>
-      <c r="N61" s="71"/>
-      <c r="O61" s="71"/>
-      <c r="P61" s="71"/>
-      <c r="Q61" s="71"/>
-      <c r="R61" s="71"/>
-      <c r="S61" s="71"/>
-      <c r="T61" s="71"/>
-      <c r="U61" s="71"/>
-      <c r="V61" s="71"/>
-      <c r="W61" s="71"/>
-      <c r="X61" s="71"/>
-      <c r="Y61" s="71"/>
-      <c r="Z61" s="71"/>
-      <c r="AA61" s="71"/>
-      <c r="AB61" s="71"/>
-      <c r="AC61" s="71"/>
-      <c r="AD61" s="71"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="68"/>
+      <c r="Q61" s="68"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="68"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="68"/>
+      <c r="W61" s="68"/>
+      <c r="X61" s="68"/>
+      <c r="Y61" s="68"/>
+      <c r="Z61" s="68"/>
+      <c r="AA61" s="68"/>
+      <c r="AB61" s="68"/>
+      <c r="AC61" s="68"/>
+      <c r="AD61" s="68"/>
     </row>
     <row r="62" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="71"/>
-      <c r="O62" s="71"/>
-      <c r="P62" s="71"/>
-      <c r="Q62" s="71"/>
-      <c r="R62" s="71"/>
-      <c r="S62" s="71"/>
-      <c r="T62" s="71"/>
-      <c r="U62" s="71"/>
-      <c r="V62" s="71"/>
-      <c r="W62" s="71"/>
-      <c r="X62" s="71"/>
-      <c r="Y62" s="71"/>
-      <c r="Z62" s="71"/>
-      <c r="AA62" s="71"/>
-      <c r="AB62" s="71"/>
-      <c r="AC62" s="71"/>
-      <c r="AD62" s="71"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="68"/>
+      <c r="O62" s="68"/>
+      <c r="P62" s="68"/>
+      <c r="Q62" s="68"/>
+      <c r="R62" s="68"/>
+      <c r="S62" s="68"/>
+      <c r="T62" s="68"/>
+      <c r="U62" s="68"/>
+      <c r="V62" s="68"/>
+      <c r="W62" s="68"/>
+      <c r="X62" s="68"/>
+      <c r="Y62" s="68"/>
+      <c r="Z62" s="68"/>
+      <c r="AA62" s="68"/>
+      <c r="AB62" s="68"/>
+      <c r="AC62" s="68"/>
+      <c r="AD62" s="68"/>
     </row>
     <row r="63" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="71"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="71"/>
-      <c r="M63" s="71"/>
-      <c r="N63" s="71"/>
-      <c r="O63" s="71"/>
-      <c r="P63" s="71"/>
-      <c r="Q63" s="71"/>
-      <c r="R63" s="71"/>
-      <c r="S63" s="71"/>
-      <c r="T63" s="71"/>
-      <c r="U63" s="71"/>
-      <c r="V63" s="71"/>
-      <c r="W63" s="71"/>
-      <c r="X63" s="71"/>
-      <c r="Y63" s="71"/>
-      <c r="Z63" s="71"/>
-      <c r="AA63" s="71"/>
-      <c r="AB63" s="71"/>
-      <c r="AC63" s="71"/>
-      <c r="AD63" s="71"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="68"/>
+      <c r="Q63" s="68"/>
+      <c r="R63" s="68"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="68"/>
+      <c r="U63" s="68"/>
+      <c r="V63" s="68"/>
+      <c r="W63" s="68"/>
+      <c r="X63" s="68"/>
+      <c r="Y63" s="68"/>
+      <c r="Z63" s="68"/>
+      <c r="AA63" s="68"/>
+      <c r="AB63" s="68"/>
+      <c r="AC63" s="68"/>
+      <c r="AD63" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C15:AD16"/>
-    <mergeCell ref="D6:AR8"/>
-    <mergeCell ref="C12:N13"/>
-    <mergeCell ref="O12:R13"/>
-    <mergeCell ref="S12:V13"/>
-    <mergeCell ref="W12:Z13"/>
-    <mergeCell ref="AA12:AD13"/>
-    <mergeCell ref="C53:AD54"/>
-    <mergeCell ref="C56:AD57"/>
-    <mergeCell ref="C58:AD59"/>
-    <mergeCell ref="C60:AD61"/>
-    <mergeCell ref="C62:AD63"/>
     <mergeCell ref="AT2:AV2"/>
     <mergeCell ref="BA2:BG2"/>
     <mergeCell ref="BL2:BO2"/>
@@ -8644,6 +8632,18 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="C53:AD54"/>
+    <mergeCell ref="C56:AD57"/>
+    <mergeCell ref="C58:AD59"/>
+    <mergeCell ref="C60:AD61"/>
+    <mergeCell ref="C62:AD63"/>
+    <mergeCell ref="C15:AD16"/>
+    <mergeCell ref="D6:AR8"/>
+    <mergeCell ref="C12:N13"/>
+    <mergeCell ref="O12:R13"/>
+    <mergeCell ref="S12:V13"/>
+    <mergeCell ref="W12:Z13"/>
+    <mergeCell ref="AA12:AD13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8764,79 +8764,79 @@
     <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="68"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="71"/>
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="66" t="s">
+      <c r="V2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="68"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="71"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
-      <c r="AD2" s="66" t="s">
+      <c r="AD2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="68"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="71"/>
       <c r="AH2" s="21"/>
       <c r="AJ2" s="36"/>
-      <c r="AL2" s="66" t="s">
+      <c r="AL2" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="68"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="71"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
-      <c r="AT2" s="66" t="s">
+      <c r="AT2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="68"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="71"/>
       <c r="AW2" s="21"/>
-      <c r="BA2" s="66" t="s">
+      <c r="BA2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="67"/>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="67"/>
-      <c r="BE2" s="67"/>
-      <c r="BF2" s="67"/>
-      <c r="BG2" s="68"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="71"/>
       <c r="BH2" s="21"/>
-      <c r="BJ2" s="75"/>
-      <c r="BL2" s="66" t="s">
+      <c r="BJ2" s="37"/>
+      <c r="BL2" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="BM2" s="67"/>
-      <c r="BN2" s="67"/>
-      <c r="BO2" s="68"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="71"/>
       <c r="BP2" s="21"/>
-      <c r="BT2" s="66" t="s">
+      <c r="BT2" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="67"/>
-      <c r="BV2" s="67"/>
-      <c r="BW2" s="68"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="71"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -9330,20 +9330,20 @@
     <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
       <c r="O12" s="73" t="s">
         <v>22</v>
       </c>
@@ -9391,18 +9391,18 @@
     <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -9509,128 +9509,128 @@
       <c r="BT14" s="22"/>
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="70"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
     </row>
     <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="70"/>
-      <c r="AB16" s="70"/>
-      <c r="AC16" s="70"/>
-      <c r="AD16" s="70"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
     </row>
     <row r="53" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="70"/>
-      <c r="N53" s="70"/>
-      <c r="O53" s="70"/>
-      <c r="P53" s="70"/>
-      <c r="Q53" s="70"/>
-      <c r="R53" s="70"/>
-      <c r="S53" s="70"/>
-      <c r="T53" s="70"/>
-      <c r="U53" s="70"/>
-      <c r="V53" s="70"/>
-      <c r="W53" s="70"/>
-      <c r="X53" s="70"/>
-      <c r="Y53" s="70"/>
-      <c r="Z53" s="70"/>
-      <c r="AA53" s="70"/>
-      <c r="AB53" s="70"/>
-      <c r="AC53" s="70"/>
-      <c r="AD53" s="70"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="67"/>
+      <c r="P53" s="67"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="67"/>
+      <c r="S53" s="67"/>
+      <c r="T53" s="67"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
+      <c r="X53" s="67"/>
+      <c r="Y53" s="67"/>
+      <c r="Z53" s="67"/>
+      <c r="AA53" s="67"/>
+      <c r="AB53" s="67"/>
+      <c r="AC53" s="67"/>
+      <c r="AD53" s="67"/>
     </row>
     <row r="54" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="70"/>
-      <c r="N54" s="70"/>
-      <c r="O54" s="70"/>
-      <c r="P54" s="70"/>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="70"/>
-      <c r="S54" s="70"/>
-      <c r="T54" s="70"/>
-      <c r="U54" s="70"/>
-      <c r="V54" s="70"/>
-      <c r="W54" s="70"/>
-      <c r="X54" s="70"/>
-      <c r="Y54" s="70"/>
-      <c r="Z54" s="70"/>
-      <c r="AA54" s="70"/>
-      <c r="AB54" s="70"/>
-      <c r="AC54" s="70"/>
-      <c r="AD54" s="70"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="67"/>
+      <c r="P54" s="67"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="67"/>
+      <c r="S54" s="67"/>
+      <c r="T54" s="67"/>
+      <c r="U54" s="67"/>
+      <c r="V54" s="67"/>
+      <c r="W54" s="67"/>
+      <c r="X54" s="67"/>
+      <c r="Y54" s="67"/>
+      <c r="Z54" s="67"/>
+      <c r="AA54" s="67"/>
+      <c r="AB54" s="67"/>
+      <c r="AC54" s="67"/>
+      <c r="AD54" s="67"/>
     </row>
     <row r="55" spans="3:72" s="24" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C55" s="22"/>
@@ -9705,34 +9705,34 @@
       <c r="BT55" s="22"/>
     </row>
     <row r="56" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="71"/>
-      <c r="M56" s="71"/>
-      <c r="N56" s="71"/>
-      <c r="O56" s="71"/>
-      <c r="P56" s="71"/>
-      <c r="Q56" s="71"/>
-      <c r="R56" s="71"/>
-      <c r="S56" s="71"/>
-      <c r="T56" s="71"/>
-      <c r="U56" s="71"/>
-      <c r="V56" s="71"/>
-      <c r="W56" s="71"/>
-      <c r="X56" s="71"/>
-      <c r="Y56" s="71"/>
-      <c r="Z56" s="71"/>
-      <c r="AA56" s="71"/>
-      <c r="AB56" s="71"/>
-      <c r="AC56" s="71"/>
-      <c r="AD56" s="71"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="68"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="68"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="68"/>
+      <c r="W56" s="68"/>
+      <c r="X56" s="68"/>
+      <c r="Y56" s="68"/>
+      <c r="Z56" s="68"/>
+      <c r="AA56" s="68"/>
+      <c r="AB56" s="68"/>
+      <c r="AC56" s="68"/>
+      <c r="AD56" s="68"/>
       <c r="AE56" s="22"/>
       <c r="AF56" s="22"/>
       <c r="AG56" s="22"/>
@@ -9777,34 +9777,34 @@
       <c r="BT56" s="22"/>
     </row>
     <row r="57" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="71"/>
-      <c r="N57" s="71"/>
-      <c r="O57" s="71"/>
-      <c r="P57" s="71"/>
-      <c r="Q57" s="71"/>
-      <c r="R57" s="71"/>
-      <c r="S57" s="71"/>
-      <c r="T57" s="71"/>
-      <c r="U57" s="71"/>
-      <c r="V57" s="71"/>
-      <c r="W57" s="71"/>
-      <c r="X57" s="71"/>
-      <c r="Y57" s="71"/>
-      <c r="Z57" s="71"/>
-      <c r="AA57" s="71"/>
-      <c r="AB57" s="71"/>
-      <c r="AC57" s="71"/>
-      <c r="AD57" s="71"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="68"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="68"/>
+      <c r="W57" s="68"/>
+      <c r="X57" s="68"/>
+      <c r="Y57" s="68"/>
+      <c r="Z57" s="68"/>
+      <c r="AA57" s="68"/>
+      <c r="AB57" s="68"/>
+      <c r="AC57" s="68"/>
+      <c r="AD57" s="68"/>
       <c r="AE57" s="22"/>
       <c r="AF57" s="22"/>
       <c r="AG57" s="22"/>
@@ -9849,192 +9849,187 @@
       <c r="BT57" s="22"/>
     </row>
     <row r="58" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="71"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="71"/>
-      <c r="M58" s="71"/>
-      <c r="N58" s="71"/>
-      <c r="O58" s="71"/>
-      <c r="P58" s="71"/>
-      <c r="Q58" s="71"/>
-      <c r="R58" s="71"/>
-      <c r="S58" s="71"/>
-      <c r="T58" s="71"/>
-      <c r="U58" s="71"/>
-      <c r="V58" s="71"/>
-      <c r="W58" s="71"/>
-      <c r="X58" s="71"/>
-      <c r="Y58" s="71"/>
-      <c r="Z58" s="71"/>
-      <c r="AA58" s="71"/>
-      <c r="AB58" s="71"/>
-      <c r="AC58" s="71"/>
-      <c r="AD58" s="71"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="68"/>
+      <c r="Q58" s="68"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="68"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="68"/>
+      <c r="W58" s="68"/>
+      <c r="X58" s="68"/>
+      <c r="Y58" s="68"/>
+      <c r="Z58" s="68"/>
+      <c r="AA58" s="68"/>
+      <c r="AB58" s="68"/>
+      <c r="AC58" s="68"/>
+      <c r="AD58" s="68"/>
     </row>
     <row r="59" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="71"/>
-      <c r="N59" s="71"/>
-      <c r="O59" s="71"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="71"/>
-      <c r="R59" s="71"/>
-      <c r="S59" s="71"/>
-      <c r="T59" s="71"/>
-      <c r="U59" s="71"/>
-      <c r="V59" s="71"/>
-      <c r="W59" s="71"/>
-      <c r="X59" s="71"/>
-      <c r="Y59" s="71"/>
-      <c r="Z59" s="71"/>
-      <c r="AA59" s="71"/>
-      <c r="AB59" s="71"/>
-      <c r="AC59" s="71"/>
-      <c r="AD59" s="71"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="68"/>
+      <c r="Q59" s="68"/>
+      <c r="R59" s="68"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
+      <c r="W59" s="68"/>
+      <c r="X59" s="68"/>
+      <c r="Y59" s="68"/>
+      <c r="Z59" s="68"/>
+      <c r="AA59" s="68"/>
+      <c r="AB59" s="68"/>
+      <c r="AC59" s="68"/>
+      <c r="AD59" s="68"/>
     </row>
     <row r="60" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="71"/>
-      <c r="L60" s="71"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="71"/>
-      <c r="O60" s="71"/>
-      <c r="P60" s="71"/>
-      <c r="Q60" s="71"/>
-      <c r="R60" s="71"/>
-      <c r="S60" s="71"/>
-      <c r="T60" s="71"/>
-      <c r="U60" s="71"/>
-      <c r="V60" s="71"/>
-      <c r="W60" s="71"/>
-      <c r="X60" s="71"/>
-      <c r="Y60" s="71"/>
-      <c r="Z60" s="71"/>
-      <c r="AA60" s="71"/>
-      <c r="AB60" s="71"/>
-      <c r="AC60" s="71"/>
-      <c r="AD60" s="71"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="68"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
+      <c r="X60" s="68"/>
+      <c r="Y60" s="68"/>
+      <c r="Z60" s="68"/>
+      <c r="AA60" s="68"/>
+      <c r="AB60" s="68"/>
+      <c r="AC60" s="68"/>
+      <c r="AD60" s="68"/>
     </row>
     <row r="61" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="71"/>
-      <c r="N61" s="71"/>
-      <c r="O61" s="71"/>
-      <c r="P61" s="71"/>
-      <c r="Q61" s="71"/>
-      <c r="R61" s="71"/>
-      <c r="S61" s="71"/>
-      <c r="T61" s="71"/>
-      <c r="U61" s="71"/>
-      <c r="V61" s="71"/>
-      <c r="W61" s="71"/>
-      <c r="X61" s="71"/>
-      <c r="Y61" s="71"/>
-      <c r="Z61" s="71"/>
-      <c r="AA61" s="71"/>
-      <c r="AB61" s="71"/>
-      <c r="AC61" s="71"/>
-      <c r="AD61" s="71"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="68"/>
+      <c r="Q61" s="68"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="68"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="68"/>
+      <c r="W61" s="68"/>
+      <c r="X61" s="68"/>
+      <c r="Y61" s="68"/>
+      <c r="Z61" s="68"/>
+      <c r="AA61" s="68"/>
+      <c r="AB61" s="68"/>
+      <c r="AC61" s="68"/>
+      <c r="AD61" s="68"/>
     </row>
     <row r="62" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="71"/>
-      <c r="O62" s="71"/>
-      <c r="P62" s="71"/>
-      <c r="Q62" s="71"/>
-      <c r="R62" s="71"/>
-      <c r="S62" s="71"/>
-      <c r="T62" s="71"/>
-      <c r="U62" s="71"/>
-      <c r="V62" s="71"/>
-      <c r="W62" s="71"/>
-      <c r="X62" s="71"/>
-      <c r="Y62" s="71"/>
-      <c r="Z62" s="71"/>
-      <c r="AA62" s="71"/>
-      <c r="AB62" s="71"/>
-      <c r="AC62" s="71"/>
-      <c r="AD62" s="71"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="68"/>
+      <c r="O62" s="68"/>
+      <c r="P62" s="68"/>
+      <c r="Q62" s="68"/>
+      <c r="R62" s="68"/>
+      <c r="S62" s="68"/>
+      <c r="T62" s="68"/>
+      <c r="U62" s="68"/>
+      <c r="V62" s="68"/>
+      <c r="W62" s="68"/>
+      <c r="X62" s="68"/>
+      <c r="Y62" s="68"/>
+      <c r="Z62" s="68"/>
+      <c r="AA62" s="68"/>
+      <c r="AB62" s="68"/>
+      <c r="AC62" s="68"/>
+      <c r="AD62" s="68"/>
     </row>
     <row r="63" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="71"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="71"/>
-      <c r="M63" s="71"/>
-      <c r="N63" s="71"/>
-      <c r="O63" s="71"/>
-      <c r="P63" s="71"/>
-      <c r="Q63" s="71"/>
-      <c r="R63" s="71"/>
-      <c r="S63" s="71"/>
-      <c r="T63" s="71"/>
-      <c r="U63" s="71"/>
-      <c r="V63" s="71"/>
-      <c r="W63" s="71"/>
-      <c r="X63" s="71"/>
-      <c r="Y63" s="71"/>
-      <c r="Z63" s="71"/>
-      <c r="AA63" s="71"/>
-      <c r="AB63" s="71"/>
-      <c r="AC63" s="71"/>
-      <c r="AD63" s="71"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="68"/>
+      <c r="Q63" s="68"/>
+      <c r="R63" s="68"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="68"/>
+      <c r="U63" s="68"/>
+      <c r="V63" s="68"/>
+      <c r="W63" s="68"/>
+      <c r="X63" s="68"/>
+      <c r="Y63" s="68"/>
+      <c r="Z63" s="68"/>
+      <c r="AA63" s="68"/>
+      <c r="AB63" s="68"/>
+      <c r="AC63" s="68"/>
+      <c r="AD63" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C15:AD16"/>
-    <mergeCell ref="C53:AD54"/>
-    <mergeCell ref="C56:AD57"/>
-    <mergeCell ref="C58:AD59"/>
-    <mergeCell ref="C60:AD61"/>
     <mergeCell ref="C62:AD63"/>
     <mergeCell ref="BA2:BG2"/>
     <mergeCell ref="BL2:BO2"/>
@@ -10051,6 +10046,11 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="C15:AD16"/>
+    <mergeCell ref="C53:AD54"/>
+    <mergeCell ref="C56:AD57"/>
+    <mergeCell ref="C58:AD59"/>
+    <mergeCell ref="C60:AD61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10171,79 +10171,79 @@
     <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="68"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="71"/>
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="66" t="s">
+      <c r="V2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="68"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="71"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
-      <c r="AD2" s="66" t="s">
+      <c r="AD2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="68"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="71"/>
       <c r="AH2" s="21"/>
       <c r="AJ2" s="36"/>
-      <c r="AL2" s="66" t="s">
+      <c r="AL2" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="68"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="71"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
-      <c r="AT2" s="66" t="s">
+      <c r="AT2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="68"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="71"/>
       <c r="AW2" s="21"/>
-      <c r="BA2" s="66" t="s">
+      <c r="BA2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="67"/>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="67"/>
-      <c r="BE2" s="67"/>
-      <c r="BF2" s="67"/>
-      <c r="BG2" s="68"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="71"/>
       <c r="BH2" s="21"/>
-      <c r="BJ2" s="75"/>
-      <c r="BL2" s="66" t="s">
+      <c r="BJ2" s="37"/>
+      <c r="BL2" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="BM2" s="67"/>
-      <c r="BN2" s="67"/>
-      <c r="BO2" s="68"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="71"/>
       <c r="BP2" s="21"/>
-      <c r="BT2" s="66" t="s">
+      <c r="BT2" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="67"/>
-      <c r="BV2" s="67"/>
-      <c r="BW2" s="68"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="71"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -10737,20 +10737,20 @@
     <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
       <c r="O12" s="73" t="s">
         <v>22</v>
       </c>
@@ -10798,18 +10798,18 @@
     <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -10916,128 +10916,128 @@
       <c r="BT14" s="22"/>
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="70"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
     </row>
     <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="70"/>
-      <c r="AB16" s="70"/>
-      <c r="AC16" s="70"/>
-      <c r="AD16" s="70"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
     </row>
     <row r="53" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="70"/>
-      <c r="N53" s="70"/>
-      <c r="O53" s="70"/>
-      <c r="P53" s="70"/>
-      <c r="Q53" s="70"/>
-      <c r="R53" s="70"/>
-      <c r="S53" s="70"/>
-      <c r="T53" s="70"/>
-      <c r="U53" s="70"/>
-      <c r="V53" s="70"/>
-      <c r="W53" s="70"/>
-      <c r="X53" s="70"/>
-      <c r="Y53" s="70"/>
-      <c r="Z53" s="70"/>
-      <c r="AA53" s="70"/>
-      <c r="AB53" s="70"/>
-      <c r="AC53" s="70"/>
-      <c r="AD53" s="70"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="67"/>
+      <c r="P53" s="67"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="67"/>
+      <c r="S53" s="67"/>
+      <c r="T53" s="67"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
+      <c r="X53" s="67"/>
+      <c r="Y53" s="67"/>
+      <c r="Z53" s="67"/>
+      <c r="AA53" s="67"/>
+      <c r="AB53" s="67"/>
+      <c r="AC53" s="67"/>
+      <c r="AD53" s="67"/>
     </row>
     <row r="54" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="70"/>
-      <c r="N54" s="70"/>
-      <c r="O54" s="70"/>
-      <c r="P54" s="70"/>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="70"/>
-      <c r="S54" s="70"/>
-      <c r="T54" s="70"/>
-      <c r="U54" s="70"/>
-      <c r="V54" s="70"/>
-      <c r="W54" s="70"/>
-      <c r="X54" s="70"/>
-      <c r="Y54" s="70"/>
-      <c r="Z54" s="70"/>
-      <c r="AA54" s="70"/>
-      <c r="AB54" s="70"/>
-      <c r="AC54" s="70"/>
-      <c r="AD54" s="70"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="67"/>
+      <c r="P54" s="67"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="67"/>
+      <c r="S54" s="67"/>
+      <c r="T54" s="67"/>
+      <c r="U54" s="67"/>
+      <c r="V54" s="67"/>
+      <c r="W54" s="67"/>
+      <c r="X54" s="67"/>
+      <c r="Y54" s="67"/>
+      <c r="Z54" s="67"/>
+      <c r="AA54" s="67"/>
+      <c r="AB54" s="67"/>
+      <c r="AC54" s="67"/>
+      <c r="AD54" s="67"/>
     </row>
     <row r="55" spans="3:72" s="24" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C55" s="22"/>
@@ -11112,34 +11112,34 @@
       <c r="BT55" s="22"/>
     </row>
     <row r="56" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="71"/>
-      <c r="M56" s="71"/>
-      <c r="N56" s="71"/>
-      <c r="O56" s="71"/>
-      <c r="P56" s="71"/>
-      <c r="Q56" s="71"/>
-      <c r="R56" s="71"/>
-      <c r="S56" s="71"/>
-      <c r="T56" s="71"/>
-      <c r="U56" s="71"/>
-      <c r="V56" s="71"/>
-      <c r="W56" s="71"/>
-      <c r="X56" s="71"/>
-      <c r="Y56" s="71"/>
-      <c r="Z56" s="71"/>
-      <c r="AA56" s="71"/>
-      <c r="AB56" s="71"/>
-      <c r="AC56" s="71"/>
-      <c r="AD56" s="71"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="68"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="68"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="68"/>
+      <c r="W56" s="68"/>
+      <c r="X56" s="68"/>
+      <c r="Y56" s="68"/>
+      <c r="Z56" s="68"/>
+      <c r="AA56" s="68"/>
+      <c r="AB56" s="68"/>
+      <c r="AC56" s="68"/>
+      <c r="AD56" s="68"/>
       <c r="AE56" s="22"/>
       <c r="AF56" s="22"/>
       <c r="AG56" s="22"/>
@@ -11184,34 +11184,34 @@
       <c r="BT56" s="22"/>
     </row>
     <row r="57" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="71"/>
-      <c r="N57" s="71"/>
-      <c r="O57" s="71"/>
-      <c r="P57" s="71"/>
-      <c r="Q57" s="71"/>
-      <c r="R57" s="71"/>
-      <c r="S57" s="71"/>
-      <c r="T57" s="71"/>
-      <c r="U57" s="71"/>
-      <c r="V57" s="71"/>
-      <c r="W57" s="71"/>
-      <c r="X57" s="71"/>
-      <c r="Y57" s="71"/>
-      <c r="Z57" s="71"/>
-      <c r="AA57" s="71"/>
-      <c r="AB57" s="71"/>
-      <c r="AC57" s="71"/>
-      <c r="AD57" s="71"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="68"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="68"/>
+      <c r="W57" s="68"/>
+      <c r="X57" s="68"/>
+      <c r="Y57" s="68"/>
+      <c r="Z57" s="68"/>
+      <c r="AA57" s="68"/>
+      <c r="AB57" s="68"/>
+      <c r="AC57" s="68"/>
+      <c r="AD57" s="68"/>
       <c r="AE57" s="22"/>
       <c r="AF57" s="22"/>
       <c r="AG57" s="22"/>
@@ -11256,192 +11256,187 @@
       <c r="BT57" s="22"/>
     </row>
     <row r="58" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="71"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="71"/>
-      <c r="M58" s="71"/>
-      <c r="N58" s="71"/>
-      <c r="O58" s="71"/>
-      <c r="P58" s="71"/>
-      <c r="Q58" s="71"/>
-      <c r="R58" s="71"/>
-      <c r="S58" s="71"/>
-      <c r="T58" s="71"/>
-      <c r="U58" s="71"/>
-      <c r="V58" s="71"/>
-      <c r="W58" s="71"/>
-      <c r="X58" s="71"/>
-      <c r="Y58" s="71"/>
-      <c r="Z58" s="71"/>
-      <c r="AA58" s="71"/>
-      <c r="AB58" s="71"/>
-      <c r="AC58" s="71"/>
-      <c r="AD58" s="71"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="68"/>
+      <c r="Q58" s="68"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="68"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="68"/>
+      <c r="W58" s="68"/>
+      <c r="X58" s="68"/>
+      <c r="Y58" s="68"/>
+      <c r="Z58" s="68"/>
+      <c r="AA58" s="68"/>
+      <c r="AB58" s="68"/>
+      <c r="AC58" s="68"/>
+      <c r="AD58" s="68"/>
     </row>
     <row r="59" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="71"/>
-      <c r="N59" s="71"/>
-      <c r="O59" s="71"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="71"/>
-      <c r="R59" s="71"/>
-      <c r="S59" s="71"/>
-      <c r="T59" s="71"/>
-      <c r="U59" s="71"/>
-      <c r="V59" s="71"/>
-      <c r="W59" s="71"/>
-      <c r="X59" s="71"/>
-      <c r="Y59" s="71"/>
-      <c r="Z59" s="71"/>
-      <c r="AA59" s="71"/>
-      <c r="AB59" s="71"/>
-      <c r="AC59" s="71"/>
-      <c r="AD59" s="71"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="68"/>
+      <c r="Q59" s="68"/>
+      <c r="R59" s="68"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
+      <c r="W59" s="68"/>
+      <c r="X59" s="68"/>
+      <c r="Y59" s="68"/>
+      <c r="Z59" s="68"/>
+      <c r="AA59" s="68"/>
+      <c r="AB59" s="68"/>
+      <c r="AC59" s="68"/>
+      <c r="AD59" s="68"/>
     </row>
     <row r="60" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="71"/>
-      <c r="L60" s="71"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="71"/>
-      <c r="O60" s="71"/>
-      <c r="P60" s="71"/>
-      <c r="Q60" s="71"/>
-      <c r="R60" s="71"/>
-      <c r="S60" s="71"/>
-      <c r="T60" s="71"/>
-      <c r="U60" s="71"/>
-      <c r="V60" s="71"/>
-      <c r="W60" s="71"/>
-      <c r="X60" s="71"/>
-      <c r="Y60" s="71"/>
-      <c r="Z60" s="71"/>
-      <c r="AA60" s="71"/>
-      <c r="AB60" s="71"/>
-      <c r="AC60" s="71"/>
-      <c r="AD60" s="71"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="68"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
+      <c r="X60" s="68"/>
+      <c r="Y60" s="68"/>
+      <c r="Z60" s="68"/>
+      <c r="AA60" s="68"/>
+      <c r="AB60" s="68"/>
+      <c r="AC60" s="68"/>
+      <c r="AD60" s="68"/>
     </row>
     <row r="61" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="71"/>
-      <c r="N61" s="71"/>
-      <c r="O61" s="71"/>
-      <c r="P61" s="71"/>
-      <c r="Q61" s="71"/>
-      <c r="R61" s="71"/>
-      <c r="S61" s="71"/>
-      <c r="T61" s="71"/>
-      <c r="U61" s="71"/>
-      <c r="V61" s="71"/>
-      <c r="W61" s="71"/>
-      <c r="X61" s="71"/>
-      <c r="Y61" s="71"/>
-      <c r="Z61" s="71"/>
-      <c r="AA61" s="71"/>
-      <c r="AB61" s="71"/>
-      <c r="AC61" s="71"/>
-      <c r="AD61" s="71"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="68"/>
+      <c r="Q61" s="68"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="68"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="68"/>
+      <c r="W61" s="68"/>
+      <c r="X61" s="68"/>
+      <c r="Y61" s="68"/>
+      <c r="Z61" s="68"/>
+      <c r="AA61" s="68"/>
+      <c r="AB61" s="68"/>
+      <c r="AC61" s="68"/>
+      <c r="AD61" s="68"/>
     </row>
     <row r="62" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="71"/>
-      <c r="O62" s="71"/>
-      <c r="P62" s="71"/>
-      <c r="Q62" s="71"/>
-      <c r="R62" s="71"/>
-      <c r="S62" s="71"/>
-      <c r="T62" s="71"/>
-      <c r="U62" s="71"/>
-      <c r="V62" s="71"/>
-      <c r="W62" s="71"/>
-      <c r="X62" s="71"/>
-      <c r="Y62" s="71"/>
-      <c r="Z62" s="71"/>
-      <c r="AA62" s="71"/>
-      <c r="AB62" s="71"/>
-      <c r="AC62" s="71"/>
-      <c r="AD62" s="71"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="68"/>
+      <c r="O62" s="68"/>
+      <c r="P62" s="68"/>
+      <c r="Q62" s="68"/>
+      <c r="R62" s="68"/>
+      <c r="S62" s="68"/>
+      <c r="T62" s="68"/>
+      <c r="U62" s="68"/>
+      <c r="V62" s="68"/>
+      <c r="W62" s="68"/>
+      <c r="X62" s="68"/>
+      <c r="Y62" s="68"/>
+      <c r="Z62" s="68"/>
+      <c r="AA62" s="68"/>
+      <c r="AB62" s="68"/>
+      <c r="AC62" s="68"/>
+      <c r="AD62" s="68"/>
     </row>
     <row r="63" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="71"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="71"/>
-      <c r="M63" s="71"/>
-      <c r="N63" s="71"/>
-      <c r="O63" s="71"/>
-      <c r="P63" s="71"/>
-      <c r="Q63" s="71"/>
-      <c r="R63" s="71"/>
-      <c r="S63" s="71"/>
-      <c r="T63" s="71"/>
-      <c r="U63" s="71"/>
-      <c r="V63" s="71"/>
-      <c r="W63" s="71"/>
-      <c r="X63" s="71"/>
-      <c r="Y63" s="71"/>
-      <c r="Z63" s="71"/>
-      <c r="AA63" s="71"/>
-      <c r="AB63" s="71"/>
-      <c r="AC63" s="71"/>
-      <c r="AD63" s="71"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="68"/>
+      <c r="Q63" s="68"/>
+      <c r="R63" s="68"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="68"/>
+      <c r="U63" s="68"/>
+      <c r="V63" s="68"/>
+      <c r="W63" s="68"/>
+      <c r="X63" s="68"/>
+      <c r="Y63" s="68"/>
+      <c r="Z63" s="68"/>
+      <c r="AA63" s="68"/>
+      <c r="AB63" s="68"/>
+      <c r="AC63" s="68"/>
+      <c r="AD63" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C15:AD16"/>
-    <mergeCell ref="C53:AD54"/>
-    <mergeCell ref="C56:AD57"/>
-    <mergeCell ref="C58:AD59"/>
-    <mergeCell ref="C60:AD61"/>
     <mergeCell ref="C62:AD63"/>
     <mergeCell ref="BA2:BG2"/>
     <mergeCell ref="BL2:BO2"/>
@@ -11458,6 +11453,11 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="C15:AD16"/>
+    <mergeCell ref="C53:AD54"/>
+    <mergeCell ref="C56:AD57"/>
+    <mergeCell ref="C58:AD59"/>
+    <mergeCell ref="C60:AD61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11470,9 +11470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC1ACA1-D39A-40A3-9EAE-07F33C90ECD2}">
   <dimension ref="A1:EE90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL65" sqref="AL65"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BD80" sqref="BD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11578,79 +11578,79 @@
     <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="66" t="s">
+      <c r="V2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="68"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="71"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
-      <c r="AD2" s="69" t="s">
+      <c r="AD2" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
       <c r="AH2" s="21"/>
       <c r="AJ2" s="36"/>
-      <c r="AL2" s="69" t="s">
+      <c r="AL2" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
-      <c r="AT2" s="66" t="s">
+      <c r="AT2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="68"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="71"/>
       <c r="AW2" s="21"/>
-      <c r="BA2" s="66" t="s">
+      <c r="BA2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="67"/>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="67"/>
-      <c r="BE2" s="67"/>
-      <c r="BF2" s="67"/>
-      <c r="BG2" s="68"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="71"/>
       <c r="BH2" s="21"/>
-      <c r="BJ2" s="75"/>
-      <c r="BL2" s="66" t="s">
+      <c r="BJ2" s="37"/>
+      <c r="BL2" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="BM2" s="67"/>
-      <c r="BN2" s="67"/>
-      <c r="BO2" s="68"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="71"/>
       <c r="BP2" s="21"/>
-      <c r="BT2" s="66" t="s">
+      <c r="BT2" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="67"/>
-      <c r="BV2" s="67"/>
-      <c r="BW2" s="68"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="71"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -12144,20 +12144,20 @@
     <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
       <c r="O12" s="73" t="s">
         <v>22</v>
       </c>
@@ -12218,18 +12218,18 @@
     <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -12376,36 +12376,36 @@
       <c r="CO14" s="22"/>
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="70"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
       <c r="BX15" s="22"/>
       <c r="BY15" s="22"/>
       <c r="BZ15" s="22"/>
@@ -12426,34 +12426,34 @@
       <c r="CO15" s="22"/>
     </row>
     <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="70"/>
-      <c r="AB16" s="70"/>
-      <c r="AC16" s="70"/>
-      <c r="AD16" s="70"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
       <c r="CB16" s="22"/>
       <c r="CC16" s="22"/>
       <c r="CD16" s="22"/>
@@ -13087,8 +13087,8 @@
       <c r="AR24" s="34"/>
       <c r="AS24" s="34"/>
       <c r="AT24" s="36"/>
-      <c r="BK24" s="36"/>
-      <c r="BQ24" s="36"/>
+      <c r="BK24" s="34"/>
+      <c r="BQ24" s="34"/>
       <c r="CW24" s="34"/>
       <c r="CX24" s="34"/>
       <c r="CY24" s="34"/>
@@ -13159,9 +13159,9 @@
       <c r="AR25" s="34"/>
       <c r="AS25" s="34"/>
       <c r="AT25" s="36"/>
-      <c r="BK25" s="36"/>
-      <c r="BQ25" s="36"/>
-      <c r="BX25" s="75"/>
+      <c r="BK25" s="34"/>
+      <c r="BQ25" s="34"/>
+      <c r="BX25" s="37"/>
       <c r="CW25" s="34"/>
       <c r="CX25" s="34"/>
       <c r="CY25" s="34"/>
@@ -16267,7 +16267,7 @@
       <c r="CT67" s="35"/>
       <c r="DG67" s="33"/>
       <c r="DJ67" s="36"/>
-      <c r="DN67" s="75"/>
+      <c r="DN67" s="37"/>
       <c r="DQ67" s="32"/>
       <c r="DR67" s="34"/>
       <c r="DS67" s="34"/>
@@ -16526,7 +16526,7 @@
       <c r="BR71" s="34"/>
       <c r="BS71" s="34"/>
       <c r="BT71" s="34"/>
-      <c r="BX71" s="75"/>
+      <c r="BX71" s="37"/>
       <c r="CA71" s="36"/>
       <c r="CB71" s="36"/>
       <c r="CC71" s="34"/>
@@ -17031,36 +17031,36 @@
       <c r="EE75" s="11"/>
     </row>
     <row r="80" spans="3:135" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="70" t="s">
+      <c r="C80" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="70"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="70"/>
-      <c r="H80" s="70"/>
-      <c r="I80" s="70"/>
-      <c r="J80" s="70"/>
-      <c r="K80" s="70"/>
-      <c r="L80" s="70"/>
-      <c r="M80" s="70"/>
-      <c r="N80" s="70"/>
-      <c r="O80" s="70"/>
-      <c r="P80" s="70"/>
-      <c r="Q80" s="70"/>
-      <c r="R80" s="70"/>
-      <c r="S80" s="70"/>
-      <c r="T80" s="70"/>
-      <c r="U80" s="70"/>
-      <c r="V80" s="70"/>
-      <c r="W80" s="70"/>
-      <c r="X80" s="70"/>
-      <c r="Y80" s="70"/>
-      <c r="Z80" s="70"/>
-      <c r="AA80" s="70"/>
-      <c r="AB80" s="70"/>
-      <c r="AC80" s="70"/>
-      <c r="AD80" s="70"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="67"/>
+      <c r="J80" s="67"/>
+      <c r="K80" s="67"/>
+      <c r="L80" s="67"/>
+      <c r="M80" s="67"/>
+      <c r="N80" s="67"/>
+      <c r="O80" s="67"/>
+      <c r="P80" s="67"/>
+      <c r="Q80" s="67"/>
+      <c r="R80" s="67"/>
+      <c r="S80" s="67"/>
+      <c r="T80" s="67"/>
+      <c r="U80" s="67"/>
+      <c r="V80" s="67"/>
+      <c r="W80" s="67"/>
+      <c r="X80" s="67"/>
+      <c r="Y80" s="67"/>
+      <c r="Z80" s="67"/>
+      <c r="AA80" s="67"/>
+      <c r="AB80" s="67"/>
+      <c r="AC80" s="67"/>
+      <c r="AD80" s="67"/>
       <c r="BX80" s="22"/>
       <c r="BY80" s="22"/>
       <c r="BZ80" s="22"/>
@@ -17081,34 +17081,34 @@
       <c r="CO80" s="22"/>
     </row>
     <row r="81" spans="3:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="70"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="70"/>
-      <c r="H81" s="70"/>
-      <c r="I81" s="70"/>
-      <c r="J81" s="70"/>
-      <c r="K81" s="70"/>
-      <c r="L81" s="70"/>
-      <c r="M81" s="70"/>
-      <c r="N81" s="70"/>
-      <c r="O81" s="70"/>
-      <c r="P81" s="70"/>
-      <c r="Q81" s="70"/>
-      <c r="R81" s="70"/>
-      <c r="S81" s="70"/>
-      <c r="T81" s="70"/>
-      <c r="U81" s="70"/>
-      <c r="V81" s="70"/>
-      <c r="W81" s="70"/>
-      <c r="X81" s="70"/>
-      <c r="Y81" s="70"/>
-      <c r="Z81" s="70"/>
-      <c r="AA81" s="70"/>
-      <c r="AB81" s="70"/>
-      <c r="AC81" s="70"/>
-      <c r="AD81" s="70"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="67"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="67"/>
+      <c r="J81" s="67"/>
+      <c r="K81" s="67"/>
+      <c r="L81" s="67"/>
+      <c r="M81" s="67"/>
+      <c r="N81" s="67"/>
+      <c r="O81" s="67"/>
+      <c r="P81" s="67"/>
+      <c r="Q81" s="67"/>
+      <c r="R81" s="67"/>
+      <c r="S81" s="67"/>
+      <c r="T81" s="67"/>
+      <c r="U81" s="67"/>
+      <c r="V81" s="67"/>
+      <c r="W81" s="67"/>
+      <c r="X81" s="67"/>
+      <c r="Y81" s="67"/>
+      <c r="Z81" s="67"/>
+      <c r="AA81" s="67"/>
+      <c r="AB81" s="67"/>
+      <c r="AC81" s="67"/>
+      <c r="AD81" s="67"/>
       <c r="BX81" s="22"/>
       <c r="BY81" s="22"/>
       <c r="BZ81" s="22"/>
@@ -17222,36 +17222,36 @@
       <c r="CO82" s="22"/>
     </row>
     <row r="83" spans="3:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="71" t="s">
+      <c r="C83" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="71"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="71"/>
-      <c r="I83" s="71"/>
-      <c r="J83" s="71"/>
-      <c r="K83" s="71"/>
-      <c r="L83" s="71"/>
-      <c r="M83" s="71"/>
-      <c r="N83" s="71"/>
-      <c r="O83" s="71"/>
-      <c r="P83" s="71"/>
-      <c r="Q83" s="71"/>
-      <c r="R83" s="71"/>
-      <c r="S83" s="71"/>
-      <c r="T83" s="71"/>
-      <c r="U83" s="71"/>
-      <c r="V83" s="71"/>
-      <c r="W83" s="71"/>
-      <c r="X83" s="71"/>
-      <c r="Y83" s="71"/>
-      <c r="Z83" s="71"/>
-      <c r="AA83" s="71"/>
-      <c r="AB83" s="71"/>
-      <c r="AC83" s="71"/>
-      <c r="AD83" s="71"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="68"/>
+      <c r="K83" s="68"/>
+      <c r="L83" s="68"/>
+      <c r="M83" s="68"/>
+      <c r="N83" s="68"/>
+      <c r="O83" s="68"/>
+      <c r="P83" s="68"/>
+      <c r="Q83" s="68"/>
+      <c r="R83" s="68"/>
+      <c r="S83" s="68"/>
+      <c r="T83" s="68"/>
+      <c r="U83" s="68"/>
+      <c r="V83" s="68"/>
+      <c r="W83" s="68"/>
+      <c r="X83" s="68"/>
+      <c r="Y83" s="68"/>
+      <c r="Z83" s="68"/>
+      <c r="AA83" s="68"/>
+      <c r="AB83" s="68"/>
+      <c r="AC83" s="68"/>
+      <c r="AD83" s="68"/>
       <c r="AE83" s="22"/>
       <c r="AF83" s="22"/>
       <c r="AG83" s="22"/>
@@ -17317,34 +17317,34 @@
       <c r="CO83" s="22"/>
     </row>
     <row r="84" spans="3:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="71"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="71"/>
-      <c r="I84" s="71"/>
-      <c r="J84" s="71"/>
-      <c r="K84" s="71"/>
-      <c r="L84" s="71"/>
-      <c r="M84" s="71"/>
-      <c r="N84" s="71"/>
-      <c r="O84" s="71"/>
-      <c r="P84" s="71"/>
-      <c r="Q84" s="71"/>
-      <c r="R84" s="71"/>
-      <c r="S84" s="71"/>
-      <c r="T84" s="71"/>
-      <c r="U84" s="71"/>
-      <c r="V84" s="71"/>
-      <c r="W84" s="71"/>
-      <c r="X84" s="71"/>
-      <c r="Y84" s="71"/>
-      <c r="Z84" s="71"/>
-      <c r="AA84" s="71"/>
-      <c r="AB84" s="71"/>
-      <c r="AC84" s="71"/>
-      <c r="AD84" s="71"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="68"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="68"/>
+      <c r="H84" s="68"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="68"/>
+      <c r="K84" s="68"/>
+      <c r="L84" s="68"/>
+      <c r="M84" s="68"/>
+      <c r="N84" s="68"/>
+      <c r="O84" s="68"/>
+      <c r="P84" s="68"/>
+      <c r="Q84" s="68"/>
+      <c r="R84" s="68"/>
+      <c r="S84" s="68"/>
+      <c r="T84" s="68"/>
+      <c r="U84" s="68"/>
+      <c r="V84" s="68"/>
+      <c r="W84" s="68"/>
+      <c r="X84" s="68"/>
+      <c r="Y84" s="68"/>
+      <c r="Z84" s="68"/>
+      <c r="AA84" s="68"/>
+      <c r="AB84" s="68"/>
+      <c r="AC84" s="68"/>
+      <c r="AD84" s="68"/>
       <c r="AE84" s="22"/>
       <c r="AF84" s="22"/>
       <c r="AG84" s="22"/>
@@ -17410,191 +17410,196 @@
       <c r="CO84" s="22"/>
     </row>
     <row r="85" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="71" t="s">
+      <c r="C85" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="D85" s="71"/>
-      <c r="E85" s="71"/>
-      <c r="F85" s="71"/>
-      <c r="G85" s="71"/>
-      <c r="H85" s="71"/>
-      <c r="I85" s="71"/>
-      <c r="J85" s="71"/>
-      <c r="K85" s="71"/>
-      <c r="L85" s="71"/>
-      <c r="M85" s="71"/>
-      <c r="N85" s="71"/>
-      <c r="O85" s="71"/>
-      <c r="P85" s="71"/>
-      <c r="Q85" s="71"/>
-      <c r="R85" s="71"/>
-      <c r="S85" s="71"/>
-      <c r="T85" s="71"/>
-      <c r="U85" s="71"/>
-      <c r="V85" s="71"/>
-      <c r="W85" s="71"/>
-      <c r="X85" s="71"/>
-      <c r="Y85" s="71"/>
-      <c r="Z85" s="71"/>
-      <c r="AA85" s="71"/>
-      <c r="AB85" s="71"/>
-      <c r="AC85" s="71"/>
-      <c r="AD85" s="71"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="68"/>
+      <c r="L85" s="68"/>
+      <c r="M85" s="68"/>
+      <c r="N85" s="68"/>
+      <c r="O85" s="68"/>
+      <c r="P85" s="68"/>
+      <c r="Q85" s="68"/>
+      <c r="R85" s="68"/>
+      <c r="S85" s="68"/>
+      <c r="T85" s="68"/>
+      <c r="U85" s="68"/>
+      <c r="V85" s="68"/>
+      <c r="W85" s="68"/>
+      <c r="X85" s="68"/>
+      <c r="Y85" s="68"/>
+      <c r="Z85" s="68"/>
+      <c r="AA85" s="68"/>
+      <c r="AB85" s="68"/>
+      <c r="AC85" s="68"/>
+      <c r="AD85" s="68"/>
     </row>
     <row r="86" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="71"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="71"/>
-      <c r="J86" s="71"/>
-      <c r="K86" s="71"/>
-      <c r="L86" s="71"/>
-      <c r="M86" s="71"/>
-      <c r="N86" s="71"/>
-      <c r="O86" s="71"/>
-      <c r="P86" s="71"/>
-      <c r="Q86" s="71"/>
-      <c r="R86" s="71"/>
-      <c r="S86" s="71"/>
-      <c r="T86" s="71"/>
-      <c r="U86" s="71"/>
-      <c r="V86" s="71"/>
-      <c r="W86" s="71"/>
-      <c r="X86" s="71"/>
-      <c r="Y86" s="71"/>
-      <c r="Z86" s="71"/>
-      <c r="AA86" s="71"/>
-      <c r="AB86" s="71"/>
-      <c r="AC86" s="71"/>
-      <c r="AD86" s="71"/>
+      <c r="C86" s="68"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="68"/>
+      <c r="F86" s="68"/>
+      <c r="G86" s="68"/>
+      <c r="H86" s="68"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="68"/>
+      <c r="K86" s="68"/>
+      <c r="L86" s="68"/>
+      <c r="M86" s="68"/>
+      <c r="N86" s="68"/>
+      <c r="O86" s="68"/>
+      <c r="P86" s="68"/>
+      <c r="Q86" s="68"/>
+      <c r="R86" s="68"/>
+      <c r="S86" s="68"/>
+      <c r="T86" s="68"/>
+      <c r="U86" s="68"/>
+      <c r="V86" s="68"/>
+      <c r="W86" s="68"/>
+      <c r="X86" s="68"/>
+      <c r="Y86" s="68"/>
+      <c r="Z86" s="68"/>
+      <c r="AA86" s="68"/>
+      <c r="AB86" s="68"/>
+      <c r="AC86" s="68"/>
+      <c r="AD86" s="68"/>
     </row>
     <row r="87" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="71" t="s">
+      <c r="C87" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D87" s="71"/>
-      <c r="E87" s="71"/>
-      <c r="F87" s="71"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="71"/>
-      <c r="I87" s="71"/>
-      <c r="J87" s="71"/>
-      <c r="K87" s="71"/>
-      <c r="L87" s="71"/>
-      <c r="M87" s="71"/>
-      <c r="N87" s="71"/>
-      <c r="O87" s="71"/>
-      <c r="P87" s="71"/>
-      <c r="Q87" s="71"/>
-      <c r="R87" s="71"/>
-      <c r="S87" s="71"/>
-      <c r="T87" s="71"/>
-      <c r="U87" s="71"/>
-      <c r="V87" s="71"/>
-      <c r="W87" s="71"/>
-      <c r="X87" s="71"/>
-      <c r="Y87" s="71"/>
-      <c r="Z87" s="71"/>
-      <c r="AA87" s="71"/>
-      <c r="AB87" s="71"/>
-      <c r="AC87" s="71"/>
-      <c r="AD87" s="71"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="68"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="68"/>
+      <c r="H87" s="68"/>
+      <c r="I87" s="68"/>
+      <c r="J87" s="68"/>
+      <c r="K87" s="68"/>
+      <c r="L87" s="68"/>
+      <c r="M87" s="68"/>
+      <c r="N87" s="68"/>
+      <c r="O87" s="68"/>
+      <c r="P87" s="68"/>
+      <c r="Q87" s="68"/>
+      <c r="R87" s="68"/>
+      <c r="S87" s="68"/>
+      <c r="T87" s="68"/>
+      <c r="U87" s="68"/>
+      <c r="V87" s="68"/>
+      <c r="W87" s="68"/>
+      <c r="X87" s="68"/>
+      <c r="Y87" s="68"/>
+      <c r="Z87" s="68"/>
+      <c r="AA87" s="68"/>
+      <c r="AB87" s="68"/>
+      <c r="AC87" s="68"/>
+      <c r="AD87" s="68"/>
     </row>
     <row r="88" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="71"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="71"/>
-      <c r="I88" s="71"/>
-      <c r="J88" s="71"/>
-      <c r="K88" s="71"/>
-      <c r="L88" s="71"/>
-      <c r="M88" s="71"/>
-      <c r="N88" s="71"/>
-      <c r="O88" s="71"/>
-      <c r="P88" s="71"/>
-      <c r="Q88" s="71"/>
-      <c r="R88" s="71"/>
-      <c r="S88" s="71"/>
-      <c r="T88" s="71"/>
-      <c r="U88" s="71"/>
-      <c r="V88" s="71"/>
-      <c r="W88" s="71"/>
-      <c r="X88" s="71"/>
-      <c r="Y88" s="71"/>
-      <c r="Z88" s="71"/>
-      <c r="AA88" s="71"/>
-      <c r="AB88" s="71"/>
-      <c r="AC88" s="71"/>
-      <c r="AD88" s="71"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="68"/>
+      <c r="F88" s="68"/>
+      <c r="G88" s="68"/>
+      <c r="H88" s="68"/>
+      <c r="I88" s="68"/>
+      <c r="J88" s="68"/>
+      <c r="K88" s="68"/>
+      <c r="L88" s="68"/>
+      <c r="M88" s="68"/>
+      <c r="N88" s="68"/>
+      <c r="O88" s="68"/>
+      <c r="P88" s="68"/>
+      <c r="Q88" s="68"/>
+      <c r="R88" s="68"/>
+      <c r="S88" s="68"/>
+      <c r="T88" s="68"/>
+      <c r="U88" s="68"/>
+      <c r="V88" s="68"/>
+      <c r="W88" s="68"/>
+      <c r="X88" s="68"/>
+      <c r="Y88" s="68"/>
+      <c r="Z88" s="68"/>
+      <c r="AA88" s="68"/>
+      <c r="AB88" s="68"/>
+      <c r="AC88" s="68"/>
+      <c r="AD88" s="68"/>
     </row>
     <row r="89" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="71"/>
-      <c r="D89" s="71"/>
-      <c r="E89" s="71"/>
-      <c r="F89" s="71"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="71"/>
-      <c r="I89" s="71"/>
-      <c r="J89" s="71"/>
-      <c r="K89" s="71"/>
-      <c r="L89" s="71"/>
-      <c r="M89" s="71"/>
-      <c r="N89" s="71"/>
-      <c r="O89" s="71"/>
-      <c r="P89" s="71"/>
-      <c r="Q89" s="71"/>
-      <c r="R89" s="71"/>
-      <c r="S89" s="71"/>
-      <c r="T89" s="71"/>
-      <c r="U89" s="71"/>
-      <c r="V89" s="71"/>
-      <c r="W89" s="71"/>
-      <c r="X89" s="71"/>
-      <c r="Y89" s="71"/>
-      <c r="Z89" s="71"/>
-      <c r="AA89" s="71"/>
-      <c r="AB89" s="71"/>
-      <c r="AC89" s="71"/>
-      <c r="AD89" s="71"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="68"/>
+      <c r="H89" s="68"/>
+      <c r="I89" s="68"/>
+      <c r="J89" s="68"/>
+      <c r="K89" s="68"/>
+      <c r="L89" s="68"/>
+      <c r="M89" s="68"/>
+      <c r="N89" s="68"/>
+      <c r="O89" s="68"/>
+      <c r="P89" s="68"/>
+      <c r="Q89" s="68"/>
+      <c r="R89" s="68"/>
+      <c r="S89" s="68"/>
+      <c r="T89" s="68"/>
+      <c r="U89" s="68"/>
+      <c r="V89" s="68"/>
+      <c r="W89" s="68"/>
+      <c r="X89" s="68"/>
+      <c r="Y89" s="68"/>
+      <c r="Z89" s="68"/>
+      <c r="AA89" s="68"/>
+      <c r="AB89" s="68"/>
+      <c r="AC89" s="68"/>
+      <c r="AD89" s="68"/>
     </row>
     <row r="90" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="71"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="71"/>
-      <c r="I90" s="71"/>
-      <c r="J90" s="71"/>
-      <c r="K90" s="71"/>
-      <c r="L90" s="71"/>
-      <c r="M90" s="71"/>
-      <c r="N90" s="71"/>
-      <c r="O90" s="71"/>
-      <c r="P90" s="71"/>
-      <c r="Q90" s="71"/>
-      <c r="R90" s="71"/>
-      <c r="S90" s="71"/>
-      <c r="T90" s="71"/>
-      <c r="U90" s="71"/>
-      <c r="V90" s="71"/>
-      <c r="W90" s="71"/>
-      <c r="X90" s="71"/>
-      <c r="Y90" s="71"/>
-      <c r="Z90" s="71"/>
-      <c r="AA90" s="71"/>
-      <c r="AB90" s="71"/>
-      <c r="AC90" s="71"/>
-      <c r="AD90" s="71"/>
+      <c r="C90" s="68"/>
+      <c r="D90" s="68"/>
+      <c r="E90" s="68"/>
+      <c r="F90" s="68"/>
+      <c r="G90" s="68"/>
+      <c r="H90" s="68"/>
+      <c r="I90" s="68"/>
+      <c r="J90" s="68"/>
+      <c r="K90" s="68"/>
+      <c r="L90" s="68"/>
+      <c r="M90" s="68"/>
+      <c r="N90" s="68"/>
+      <c r="O90" s="68"/>
+      <c r="P90" s="68"/>
+      <c r="Q90" s="68"/>
+      <c r="R90" s="68"/>
+      <c r="S90" s="68"/>
+      <c r="T90" s="68"/>
+      <c r="U90" s="68"/>
+      <c r="V90" s="68"/>
+      <c r="W90" s="68"/>
+      <c r="X90" s="68"/>
+      <c r="Y90" s="68"/>
+      <c r="Z90" s="68"/>
+      <c r="AA90" s="68"/>
+      <c r="AB90" s="68"/>
+      <c r="AC90" s="68"/>
+      <c r="AD90" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C80:AD81"/>
+    <mergeCell ref="C83:AD84"/>
+    <mergeCell ref="C85:AD86"/>
+    <mergeCell ref="C87:AD88"/>
+    <mergeCell ref="C89:AD90"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="C15:AD16"/>
@@ -17611,11 +17616,6 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AT2:AV2"/>
     <mergeCell ref="BA2:BG2"/>
-    <mergeCell ref="C80:AD81"/>
-    <mergeCell ref="C83:AD84"/>
-    <mergeCell ref="C85:AD86"/>
-    <mergeCell ref="C87:AD88"/>
-    <mergeCell ref="C89:AD90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
+++ b/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsao\Desktop\TeamHolyShit\개인작업폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9BF674-0397-4FF6-98B1-0852211FBA20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F5BFD3-91E1-4DE5-92F8-F4F7868B04A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="195" windowWidth="17790" windowHeight="14805" firstSheet="1" activeTab="7" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
   </bookViews>
@@ -964,9 +964,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1008,37 +1023,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1050,8 +1035,20 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1066,6 +1063,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2459,151 +2459,151 @@
     </row>
     <row r="3" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="42"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
     </row>
     <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="50"/>
     </row>
     <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="45"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
     </row>
     <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="50"/>
     </row>
     <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
     </row>
     <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="45"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
     </row>
     <row r="11" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="48"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="53"/>
     </row>
     <row r="12" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="54">
         <v>44225</v>
       </c>
-      <c r="D13" s="50"/>
+      <c r="D13" s="55"/>
       <c r="M13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="51" t="s">
+      <c r="N13" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="52"/>
+      <c r="O13" s="57"/>
     </row>
     <row r="14" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
@@ -2622,22 +2622,22 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="2:15" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
     </row>
     <row r="16" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
@@ -2659,233 +2659,233 @@
       <c r="C17" s="6">
         <v>1</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
     </row>
     <row r="18" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
     </row>
     <row r="19" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
     </row>
     <row r="20" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
     </row>
     <row r="21" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="6">
         <v>2</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
     </row>
     <row r="22" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
     </row>
     <row r="23" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
     </row>
     <row r="24" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
     </row>
     <row r="25" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="6">
         <v>3</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
     </row>
     <row r="26" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="6">
         <v>4</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
     </row>
     <row r="27" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="6">
         <v>5</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
     </row>
     <row r="28" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="30">
         <v>6</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
     </row>
     <row r="29" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="30">
         <v>7</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
     </row>
     <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
     </row>
     <row r="33" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="2:15" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
     </row>
     <row r="35" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
@@ -2910,413 +2910,364 @@
       <c r="C36" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="54"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G36" s="55" t="s">
+      <c r="G36" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="54" t="s">
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="O36" s="54"/>
+      <c r="O36" s="40"/>
     </row>
     <row r="37" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="8">
         <v>1</v>
       </c>
       <c r="C37" s="28"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
     </row>
     <row r="38" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="8">
         <v>2</v>
       </c>
       <c r="C38" s="28"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
       <c r="F38" s="28"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
     </row>
     <row r="39" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8"/>
       <c r="C39" s="28"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
       <c r="F39" s="28"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
     </row>
     <row r="40" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
       <c r="C40" s="28"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
       <c r="F40" s="28"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
     </row>
     <row r="41" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
       <c r="C41" s="28"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
       <c r="F41" s="28"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="57"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
     </row>
     <row r="42" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
       <c r="C42" s="28"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
       <c r="F42" s="28"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
     </row>
     <row r="43" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
       <c r="C43" s="28"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
       <c r="F43" s="28"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="57"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
     </row>
     <row r="44" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="8"/>
       <c r="C44" s="28"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
       <c r="F44" s="28"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
     </row>
     <row r="45" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
       <c r="C45" s="28"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="28"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="57"/>
-      <c r="O45" s="57"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
     </row>
     <row r="46" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
       <c r="C46" s="28"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
       <c r="F46" s="28"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
     </row>
     <row r="47" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8"/>
       <c r="C47" s="28"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
       <c r="F47" s="28"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="57"/>
-      <c r="O47" s="57"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
     </row>
     <row r="48" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="8"/>
       <c r="C48" s="28"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="28"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="57"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
     </row>
     <row r="49" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="8"/>
       <c r="C49" s="28"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
       <c r="F49" s="28"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="57"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
     </row>
     <row r="50" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="8"/>
       <c r="C50" s="28"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
       <c r="F50" s="28"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
     </row>
     <row r="51" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="8"/>
       <c r="C51" s="28"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
       <c r="F51" s="28"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="57"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
     </row>
     <row r="52" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
       <c r="C52" s="28"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
       <c r="F52" s="28"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
     </row>
     <row r="53" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
       <c r="C53" s="28"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
       <c r="F53" s="28"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
     </row>
     <row r="54" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="8"/>
       <c r="C54" s="28"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
       <c r="F54" s="28"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
     </row>
     <row r="55" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="8"/>
       <c r="C55" s="28"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
       <c r="F55" s="28"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="57"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
     </row>
     <row r="56" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="8"/>
       <c r="C56" s="28"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
       <c r="F56" s="28"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="57"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="E23:M23"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="E22:M22"/>
+    <mergeCell ref="B4:O11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="D17:M17"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="N36:O36"/>
     <mergeCell ref="G36:M36"/>
@@ -3328,17 +3279,66 @@
     <mergeCell ref="B34:O34"/>
     <mergeCell ref="D28:M28"/>
     <mergeCell ref="D29:M29"/>
-    <mergeCell ref="B4:O11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="E23:M23"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="E22:M22"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:M56"/>
+    <mergeCell ref="N56:O56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3364,379 +3364,888 @@
   <sheetData>
     <row r="1" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" s="13" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="10" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
     </row>
     <row r="16" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
     </row>
     <row r="17" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
     </row>
     <row r="20" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
     </row>
     <row r="21" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
     </row>
     <row r="22" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="66"/>
     </row>
     <row r="23" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
     </row>
     <row r="25" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
     </row>
     <row r="26" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
     </row>
     <row r="27" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
     </row>
     <row r="28" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
     </row>
     <row r="29" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
     </row>
     <row r="30" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
     </row>
     <row r="31" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
     </row>
     <row r="32" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
     </row>
     <row r="33" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
     </row>
     <row r="35" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
     </row>
     <row r="36" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
     </row>
     <row r="37" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
     </row>
     <row r="38" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
     </row>
     <row r="39" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
     </row>
     <row r="40" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B115CA4-4A3A-4C15-B086-786A2C0A2453}">
+  <dimension ref="B1:K46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:K42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" s="13" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="7" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+    </row>
+    <row r="8" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+    </row>
+    <row r="10" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+    </row>
+    <row r="11" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
+    </row>
+    <row r="12" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+    </row>
+    <row r="13" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+    </row>
+    <row r="16" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+    </row>
+    <row r="17" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+    </row>
+    <row r="19" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+    </row>
+    <row r="20" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+    </row>
+    <row r="21" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+    </row>
+    <row r="22" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="66"/>
+    </row>
+    <row r="23" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+    </row>
+    <row r="25" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+    </row>
+    <row r="26" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+    </row>
+    <row r="27" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+    </row>
+    <row r="28" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+    </row>
+    <row r="29" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+    </row>
+    <row r="30" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+    </row>
+    <row r="31" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+    </row>
+    <row r="32" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+    </row>
+    <row r="33" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+    </row>
+    <row r="35" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+    </row>
+    <row r="36" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+    </row>
+    <row r="37" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+    </row>
+    <row r="38" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+    </row>
+    <row r="39" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+    </row>
+    <row r="40" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+    </row>
+    <row r="42" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+    </row>
+    <row r="43" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+    </row>
+    <row r="44" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+    </row>
+    <row r="45" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+    </row>
+    <row r="46" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B4:K4"/>
@@ -3767,521 +4276,12 @@
     <mergeCell ref="B36:K36"/>
     <mergeCell ref="B37:K37"/>
     <mergeCell ref="B38:K38"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B115CA4-4A3A-4C15-B086-786A2C0A2453}">
-  <dimension ref="B1:K46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:K42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" s="13" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
-    </row>
-    <row r="3" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-    </row>
-    <row r="5" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-    </row>
-    <row r="7" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-    </row>
-    <row r="8" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-    </row>
-    <row r="10" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-    </row>
-    <row r="11" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
-    </row>
-    <row r="12" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-    </row>
-    <row r="13" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-    </row>
-    <row r="16" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-    </row>
-    <row r="17" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-    </row>
-    <row r="19" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-    </row>
-    <row r="20" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-    </row>
-    <row r="21" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-    </row>
-    <row r="22" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
-    </row>
-    <row r="23" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-    </row>
-    <row r="25" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-    </row>
-    <row r="26" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-    </row>
-    <row r="27" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-    </row>
-    <row r="28" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-    </row>
-    <row r="29" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-    </row>
-    <row r="30" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-    </row>
-    <row r="31" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-    </row>
-    <row r="32" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-    </row>
-    <row r="33" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-    </row>
-    <row r="35" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-    </row>
-    <row r="36" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-    </row>
-    <row r="37" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-    </row>
-    <row r="38" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-    </row>
-    <row r="39" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-    </row>
-    <row r="40" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-    </row>
-    <row r="42" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-    </row>
-    <row r="43" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-    </row>
-    <row r="44" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-    </row>
-    <row r="45" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-    </row>
-    <row r="46" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-    </row>
-  </sheetData>
-  <mergeCells count="36">
     <mergeCell ref="B46:K46"/>
     <mergeCell ref="B41:K41"/>
     <mergeCell ref="B42:K42"/>
     <mergeCell ref="B43:K43"/>
     <mergeCell ref="B44:K44"/>
     <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4401,79 +4401,79 @@
     <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="70"/>
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="69" t="s">
+      <c r="V2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="71"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="70"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
-      <c r="AD2" s="69" t="s">
+      <c r="AD2" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="71"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="70"/>
       <c r="AH2" s="21"/>
       <c r="AJ2" s="36"/>
-      <c r="AL2" s="69" t="s">
+      <c r="AL2" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="71"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="70"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AT2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="71"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="70"/>
       <c r="AW2" s="21"/>
-      <c r="BA2" s="69" t="s">
+      <c r="BA2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="71"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="70"/>
       <c r="BH2" s="21"/>
       <c r="BJ2" s="37"/>
-      <c r="BL2" s="69" t="s">
+      <c r="BL2" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="71"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="70"/>
       <c r="BP2" s="21"/>
-      <c r="BT2" s="69" t="s">
+      <c r="BT2" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="71"/>
+      <c r="BU2" s="69"/>
+      <c r="BV2" s="69"/>
+      <c r="BW2" s="70"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -4686,49 +4686,49 @@
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="72"/>
-      <c r="AQ6" s="72"/>
-      <c r="AR6" s="72"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
+      <c r="AL6" s="71"/>
+      <c r="AM6" s="71"/>
+      <c r="AN6" s="71"/>
+      <c r="AO6" s="71"/>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71"/>
       <c r="AS6" s="11"/>
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
@@ -4744,47 +4744,47 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="71"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="71"/>
+      <c r="AK7" s="71"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="71"/>
+      <c r="AN7" s="71"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
@@ -4800,47 +4800,47 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
@@ -4967,20 +4967,20 @@
     <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
       <c r="O12" s="73" t="s">
         <v>22</v>
       </c>
@@ -5028,18 +5028,18 @@
     <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -5146,128 +5146,128 @@
       <c r="BT14" s="22"/>
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
     </row>
     <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
     </row>
     <row r="53" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="67" t="s">
+      <c r="C53" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="67"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="67"/>
-      <c r="P53" s="67"/>
-      <c r="Q53" s="67"/>
-      <c r="R53" s="67"/>
-      <c r="S53" s="67"/>
-      <c r="T53" s="67"/>
-      <c r="U53" s="67"/>
-      <c r="V53" s="67"/>
-      <c r="W53" s="67"/>
-      <c r="X53" s="67"/>
-      <c r="Y53" s="67"/>
-      <c r="Z53" s="67"/>
-      <c r="AA53" s="67"/>
-      <c r="AB53" s="67"/>
-      <c r="AC53" s="67"/>
-      <c r="AD53" s="67"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="72"/>
+      <c r="S53" s="72"/>
+      <c r="T53" s="72"/>
+      <c r="U53" s="72"/>
+      <c r="V53" s="72"/>
+      <c r="W53" s="72"/>
+      <c r="X53" s="72"/>
+      <c r="Y53" s="72"/>
+      <c r="Z53" s="72"/>
+      <c r="AA53" s="72"/>
+      <c r="AB53" s="72"/>
+      <c r="AC53" s="72"/>
+      <c r="AD53" s="72"/>
     </row>
     <row r="54" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67"/>
-      <c r="O54" s="67"/>
-      <c r="P54" s="67"/>
-      <c r="Q54" s="67"/>
-      <c r="R54" s="67"/>
-      <c r="S54" s="67"/>
-      <c r="T54" s="67"/>
-      <c r="U54" s="67"/>
-      <c r="V54" s="67"/>
-      <c r="W54" s="67"/>
-      <c r="X54" s="67"/>
-      <c r="Y54" s="67"/>
-      <c r="Z54" s="67"/>
-      <c r="AA54" s="67"/>
-      <c r="AB54" s="67"/>
-      <c r="AC54" s="67"/>
-      <c r="AD54" s="67"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="72"/>
+      <c r="S54" s="72"/>
+      <c r="T54" s="72"/>
+      <c r="U54" s="72"/>
+      <c r="V54" s="72"/>
+      <c r="W54" s="72"/>
+      <c r="X54" s="72"/>
+      <c r="Y54" s="72"/>
+      <c r="Z54" s="72"/>
+      <c r="AA54" s="72"/>
+      <c r="AB54" s="72"/>
+      <c r="AC54" s="72"/>
+      <c r="AD54" s="72"/>
     </row>
     <row r="55" spans="3:72" s="24" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C55" s="22"/>
@@ -5342,34 +5342,34 @@
       <c r="BT55" s="22"/>
     </row>
     <row r="56" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="68"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="68"/>
-      <c r="O56" s="68"/>
-      <c r="P56" s="68"/>
-      <c r="Q56" s="68"/>
-      <c r="R56" s="68"/>
-      <c r="S56" s="68"/>
-      <c r="T56" s="68"/>
-      <c r="U56" s="68"/>
-      <c r="V56" s="68"/>
-      <c r="W56" s="68"/>
-      <c r="X56" s="68"/>
-      <c r="Y56" s="68"/>
-      <c r="Z56" s="68"/>
-      <c r="AA56" s="68"/>
-      <c r="AB56" s="68"/>
-      <c r="AC56" s="68"/>
-      <c r="AD56" s="68"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="67"/>
+      <c r="O56" s="67"/>
+      <c r="P56" s="67"/>
+      <c r="Q56" s="67"/>
+      <c r="R56" s="67"/>
+      <c r="S56" s="67"/>
+      <c r="T56" s="67"/>
+      <c r="U56" s="67"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
+      <c r="AD56" s="67"/>
       <c r="AE56" s="22"/>
       <c r="AF56" s="22"/>
       <c r="AG56" s="22"/>
@@ -5414,34 +5414,34 @@
       <c r="BT56" s="22"/>
     </row>
     <row r="57" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="68"/>
-      <c r="P57" s="68"/>
-      <c r="Q57" s="68"/>
-      <c r="R57" s="68"/>
-      <c r="S57" s="68"/>
-      <c r="T57" s="68"/>
-      <c r="U57" s="68"/>
-      <c r="V57" s="68"/>
-      <c r="W57" s="68"/>
-      <c r="X57" s="68"/>
-      <c r="Y57" s="68"/>
-      <c r="Z57" s="68"/>
-      <c r="AA57" s="68"/>
-      <c r="AB57" s="68"/>
-      <c r="AC57" s="68"/>
-      <c r="AD57" s="68"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="67"/>
+      <c r="P57" s="67"/>
+      <c r="Q57" s="67"/>
+      <c r="R57" s="67"/>
+      <c r="S57" s="67"/>
+      <c r="T57" s="67"/>
+      <c r="U57" s="67"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="67"/>
+      <c r="AD57" s="67"/>
       <c r="AE57" s="22"/>
       <c r="AF57" s="22"/>
       <c r="AG57" s="22"/>
@@ -5486,187 +5486,192 @@
       <c r="BT57" s="22"/>
     </row>
     <row r="58" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="68"/>
-      <c r="P58" s="68"/>
-      <c r="Q58" s="68"/>
-      <c r="R58" s="68"/>
-      <c r="S58" s="68"/>
-      <c r="T58" s="68"/>
-      <c r="U58" s="68"/>
-      <c r="V58" s="68"/>
-      <c r="W58" s="68"/>
-      <c r="X58" s="68"/>
-      <c r="Y58" s="68"/>
-      <c r="Z58" s="68"/>
-      <c r="AA58" s="68"/>
-      <c r="AB58" s="68"/>
-      <c r="AC58" s="68"/>
-      <c r="AD58" s="68"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="67"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="67"/>
+      <c r="T58" s="67"/>
+      <c r="U58" s="67"/>
+      <c r="V58" s="67"/>
+      <c r="W58" s="67"/>
+      <c r="X58" s="67"/>
+      <c r="Y58" s="67"/>
+      <c r="Z58" s="67"/>
+      <c r="AA58" s="67"/>
+      <c r="AB58" s="67"/>
+      <c r="AC58" s="67"/>
+      <c r="AD58" s="67"/>
     </row>
     <row r="59" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="68"/>
-      <c r="P59" s="68"/>
-      <c r="Q59" s="68"/>
-      <c r="R59" s="68"/>
-      <c r="S59" s="68"/>
-      <c r="T59" s="68"/>
-      <c r="U59" s="68"/>
-      <c r="V59" s="68"/>
-      <c r="W59" s="68"/>
-      <c r="X59" s="68"/>
-      <c r="Y59" s="68"/>
-      <c r="Z59" s="68"/>
-      <c r="AA59" s="68"/>
-      <c r="AB59" s="68"/>
-      <c r="AC59" s="68"/>
-      <c r="AD59" s="68"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="67"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="67"/>
+      <c r="T59" s="67"/>
+      <c r="U59" s="67"/>
+      <c r="V59" s="67"/>
+      <c r="W59" s="67"/>
+      <c r="X59" s="67"/>
+      <c r="Y59" s="67"/>
+      <c r="Z59" s="67"/>
+      <c r="AA59" s="67"/>
+      <c r="AB59" s="67"/>
+      <c r="AC59" s="67"/>
+      <c r="AD59" s="67"/>
     </row>
     <row r="60" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
-      <c r="P60" s="68"/>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="68"/>
-      <c r="S60" s="68"/>
-      <c r="T60" s="68"/>
-      <c r="U60" s="68"/>
-      <c r="V60" s="68"/>
-      <c r="W60" s="68"/>
-      <c r="X60" s="68"/>
-      <c r="Y60" s="68"/>
-      <c r="Z60" s="68"/>
-      <c r="AA60" s="68"/>
-      <c r="AB60" s="68"/>
-      <c r="AC60" s="68"/>
-      <c r="AD60" s="68"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="67"/>
+      <c r="P60" s="67"/>
+      <c r="Q60" s="67"/>
+      <c r="R60" s="67"/>
+      <c r="S60" s="67"/>
+      <c r="T60" s="67"/>
+      <c r="U60" s="67"/>
+      <c r="V60" s="67"/>
+      <c r="W60" s="67"/>
+      <c r="X60" s="67"/>
+      <c r="Y60" s="67"/>
+      <c r="Z60" s="67"/>
+      <c r="AA60" s="67"/>
+      <c r="AB60" s="67"/>
+      <c r="AC60" s="67"/>
+      <c r="AD60" s="67"/>
     </row>
     <row r="61" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="68"/>
-      <c r="N61" s="68"/>
-      <c r="O61" s="68"/>
-      <c r="P61" s="68"/>
-      <c r="Q61" s="68"/>
-      <c r="R61" s="68"/>
-      <c r="S61" s="68"/>
-      <c r="T61" s="68"/>
-      <c r="U61" s="68"/>
-      <c r="V61" s="68"/>
-      <c r="W61" s="68"/>
-      <c r="X61" s="68"/>
-      <c r="Y61" s="68"/>
-      <c r="Z61" s="68"/>
-      <c r="AA61" s="68"/>
-      <c r="AB61" s="68"/>
-      <c r="AC61" s="68"/>
-      <c r="AD61" s="68"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="67"/>
+      <c r="Q61" s="67"/>
+      <c r="R61" s="67"/>
+      <c r="S61" s="67"/>
+      <c r="T61" s="67"/>
+      <c r="U61" s="67"/>
+      <c r="V61" s="67"/>
+      <c r="W61" s="67"/>
+      <c r="X61" s="67"/>
+      <c r="Y61" s="67"/>
+      <c r="Z61" s="67"/>
+      <c r="AA61" s="67"/>
+      <c r="AB61" s="67"/>
+      <c r="AC61" s="67"/>
+      <c r="AD61" s="67"/>
     </row>
     <row r="62" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
-      <c r="N62" s="68"/>
-      <c r="O62" s="68"/>
-      <c r="P62" s="68"/>
-      <c r="Q62" s="68"/>
-      <c r="R62" s="68"/>
-      <c r="S62" s="68"/>
-      <c r="T62" s="68"/>
-      <c r="U62" s="68"/>
-      <c r="V62" s="68"/>
-      <c r="W62" s="68"/>
-      <c r="X62" s="68"/>
-      <c r="Y62" s="68"/>
-      <c r="Z62" s="68"/>
-      <c r="AA62" s="68"/>
-      <c r="AB62" s="68"/>
-      <c r="AC62" s="68"/>
-      <c r="AD62" s="68"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="67"/>
+      <c r="N62" s="67"/>
+      <c r="O62" s="67"/>
+      <c r="P62" s="67"/>
+      <c r="Q62" s="67"/>
+      <c r="R62" s="67"/>
+      <c r="S62" s="67"/>
+      <c r="T62" s="67"/>
+      <c r="U62" s="67"/>
+      <c r="V62" s="67"/>
+      <c r="W62" s="67"/>
+      <c r="X62" s="67"/>
+      <c r="Y62" s="67"/>
+      <c r="Z62" s="67"/>
+      <c r="AA62" s="67"/>
+      <c r="AB62" s="67"/>
+      <c r="AC62" s="67"/>
+      <c r="AD62" s="67"/>
     </row>
     <row r="63" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="68"/>
-      <c r="N63" s="68"/>
-      <c r="O63" s="68"/>
-      <c r="P63" s="68"/>
-      <c r="Q63" s="68"/>
-      <c r="R63" s="68"/>
-      <c r="S63" s="68"/>
-      <c r="T63" s="68"/>
-      <c r="U63" s="68"/>
-      <c r="V63" s="68"/>
-      <c r="W63" s="68"/>
-      <c r="X63" s="68"/>
-      <c r="Y63" s="68"/>
-      <c r="Z63" s="68"/>
-      <c r="AA63" s="68"/>
-      <c r="AB63" s="68"/>
-      <c r="AC63" s="68"/>
-      <c r="AD63" s="68"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="67"/>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="67"/>
+      <c r="S63" s="67"/>
+      <c r="T63" s="67"/>
+      <c r="U63" s="67"/>
+      <c r="V63" s="67"/>
+      <c r="W63" s="67"/>
+      <c r="X63" s="67"/>
+      <c r="Y63" s="67"/>
+      <c r="Z63" s="67"/>
+      <c r="AA63" s="67"/>
+      <c r="AB63" s="67"/>
+      <c r="AC63" s="67"/>
+      <c r="AD63" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C15:AD16"/>
+    <mergeCell ref="C53:AD54"/>
+    <mergeCell ref="C56:AD57"/>
+    <mergeCell ref="C58:AD59"/>
+    <mergeCell ref="C60:AD61"/>
     <mergeCell ref="C62:AD63"/>
     <mergeCell ref="BA2:BG2"/>
     <mergeCell ref="BL2:BO2"/>
@@ -5683,11 +5688,6 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="C15:AD16"/>
-    <mergeCell ref="C53:AD54"/>
-    <mergeCell ref="C56:AD57"/>
-    <mergeCell ref="C58:AD59"/>
-    <mergeCell ref="C60:AD61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5808,79 +5808,79 @@
     <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="70"/>
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="69" t="s">
+      <c r="V2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="71"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="70"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
-      <c r="AD2" s="69" t="s">
+      <c r="AD2" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="71"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="70"/>
       <c r="AH2" s="21"/>
       <c r="AJ2" s="36"/>
-      <c r="AL2" s="69" t="s">
+      <c r="AL2" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="71"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="70"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AT2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="71"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="70"/>
       <c r="AW2" s="21"/>
-      <c r="BA2" s="69" t="s">
+      <c r="BA2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="71"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="70"/>
       <c r="BH2" s="21"/>
       <c r="BJ2" s="37"/>
-      <c r="BL2" s="69" t="s">
+      <c r="BL2" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="71"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="70"/>
       <c r="BP2" s="21"/>
-      <c r="BT2" s="69" t="s">
+      <c r="BT2" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="71"/>
+      <c r="BU2" s="69"/>
+      <c r="BV2" s="69"/>
+      <c r="BW2" s="70"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -6093,49 +6093,49 @@
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="72"/>
-      <c r="AQ6" s="72"/>
-      <c r="AR6" s="72"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
+      <c r="AL6" s="71"/>
+      <c r="AM6" s="71"/>
+      <c r="AN6" s="71"/>
+      <c r="AO6" s="71"/>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71"/>
       <c r="AS6" s="11"/>
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
@@ -6151,47 +6151,47 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="71"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="71"/>
+      <c r="AK7" s="71"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="71"/>
+      <c r="AN7" s="71"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
@@ -6207,47 +6207,47 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
@@ -6374,20 +6374,20 @@
     <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
       <c r="O12" s="73" t="s">
         <v>22</v>
       </c>
@@ -6439,18 +6439,18 @@
     <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -6557,66 +6557,66 @@
       <c r="BT14" s="22"/>
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
     </row>
     <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
     </row>
     <row r="18" spans="8:75" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H18" s="11"/>
@@ -8164,66 +8164,66 @@
       <c r="BW48" s="11"/>
     </row>
     <row r="53" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="67" t="s">
+      <c r="C53" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="67"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="67"/>
-      <c r="P53" s="67"/>
-      <c r="Q53" s="67"/>
-      <c r="R53" s="67"/>
-      <c r="S53" s="67"/>
-      <c r="T53" s="67"/>
-      <c r="U53" s="67"/>
-      <c r="V53" s="67"/>
-      <c r="W53" s="67"/>
-      <c r="X53" s="67"/>
-      <c r="Y53" s="67"/>
-      <c r="Z53" s="67"/>
-      <c r="AA53" s="67"/>
-      <c r="AB53" s="67"/>
-      <c r="AC53" s="67"/>
-      <c r="AD53" s="67"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="72"/>
+      <c r="S53" s="72"/>
+      <c r="T53" s="72"/>
+      <c r="U53" s="72"/>
+      <c r="V53" s="72"/>
+      <c r="W53" s="72"/>
+      <c r="X53" s="72"/>
+      <c r="Y53" s="72"/>
+      <c r="Z53" s="72"/>
+      <c r="AA53" s="72"/>
+      <c r="AB53" s="72"/>
+      <c r="AC53" s="72"/>
+      <c r="AD53" s="72"/>
     </row>
     <row r="54" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67"/>
-      <c r="O54" s="67"/>
-      <c r="P54" s="67"/>
-      <c r="Q54" s="67"/>
-      <c r="R54" s="67"/>
-      <c r="S54" s="67"/>
-      <c r="T54" s="67"/>
-      <c r="U54" s="67"/>
-      <c r="V54" s="67"/>
-      <c r="W54" s="67"/>
-      <c r="X54" s="67"/>
-      <c r="Y54" s="67"/>
-      <c r="Z54" s="67"/>
-      <c r="AA54" s="67"/>
-      <c r="AB54" s="67"/>
-      <c r="AC54" s="67"/>
-      <c r="AD54" s="67"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="72"/>
+      <c r="S54" s="72"/>
+      <c r="T54" s="72"/>
+      <c r="U54" s="72"/>
+      <c r="V54" s="72"/>
+      <c r="W54" s="72"/>
+      <c r="X54" s="72"/>
+      <c r="Y54" s="72"/>
+      <c r="Z54" s="72"/>
+      <c r="AA54" s="72"/>
+      <c r="AB54" s="72"/>
+      <c r="AC54" s="72"/>
+      <c r="AD54" s="72"/>
     </row>
     <row r="55" spans="3:72" s="24" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C55" s="22"/>
@@ -8298,34 +8298,34 @@
       <c r="BT55" s="22"/>
     </row>
     <row r="56" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="68"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="68"/>
-      <c r="O56" s="68"/>
-      <c r="P56" s="68"/>
-      <c r="Q56" s="68"/>
-      <c r="R56" s="68"/>
-      <c r="S56" s="68"/>
-      <c r="T56" s="68"/>
-      <c r="U56" s="68"/>
-      <c r="V56" s="68"/>
-      <c r="W56" s="68"/>
-      <c r="X56" s="68"/>
-      <c r="Y56" s="68"/>
-      <c r="Z56" s="68"/>
-      <c r="AA56" s="68"/>
-      <c r="AB56" s="68"/>
-      <c r="AC56" s="68"/>
-      <c r="AD56" s="68"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="67"/>
+      <c r="O56" s="67"/>
+      <c r="P56" s="67"/>
+      <c r="Q56" s="67"/>
+      <c r="R56" s="67"/>
+      <c r="S56" s="67"/>
+      <c r="T56" s="67"/>
+      <c r="U56" s="67"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
+      <c r="AD56" s="67"/>
       <c r="AE56" s="22"/>
       <c r="AF56" s="22"/>
       <c r="AG56" s="22"/>
@@ -8370,34 +8370,34 @@
       <c r="BT56" s="22"/>
     </row>
     <row r="57" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="68"/>
-      <c r="P57" s="68"/>
-      <c r="Q57" s="68"/>
-      <c r="R57" s="68"/>
-      <c r="S57" s="68"/>
-      <c r="T57" s="68"/>
-      <c r="U57" s="68"/>
-      <c r="V57" s="68"/>
-      <c r="W57" s="68"/>
-      <c r="X57" s="68"/>
-      <c r="Y57" s="68"/>
-      <c r="Z57" s="68"/>
-      <c r="AA57" s="68"/>
-      <c r="AB57" s="68"/>
-      <c r="AC57" s="68"/>
-      <c r="AD57" s="68"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="67"/>
+      <c r="P57" s="67"/>
+      <c r="Q57" s="67"/>
+      <c r="R57" s="67"/>
+      <c r="S57" s="67"/>
+      <c r="T57" s="67"/>
+      <c r="U57" s="67"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="67"/>
+      <c r="AD57" s="67"/>
       <c r="AE57" s="22"/>
       <c r="AF57" s="22"/>
       <c r="AG57" s="22"/>
@@ -8442,187 +8442,199 @@
       <c r="BT57" s="22"/>
     </row>
     <row r="58" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="68"/>
-      <c r="P58" s="68"/>
-      <c r="Q58" s="68"/>
-      <c r="R58" s="68"/>
-      <c r="S58" s="68"/>
-      <c r="T58" s="68"/>
-      <c r="U58" s="68"/>
-      <c r="V58" s="68"/>
-      <c r="W58" s="68"/>
-      <c r="X58" s="68"/>
-      <c r="Y58" s="68"/>
-      <c r="Z58" s="68"/>
-      <c r="AA58" s="68"/>
-      <c r="AB58" s="68"/>
-      <c r="AC58" s="68"/>
-      <c r="AD58" s="68"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="67"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="67"/>
+      <c r="T58" s="67"/>
+      <c r="U58" s="67"/>
+      <c r="V58" s="67"/>
+      <c r="W58" s="67"/>
+      <c r="X58" s="67"/>
+      <c r="Y58" s="67"/>
+      <c r="Z58" s="67"/>
+      <c r="AA58" s="67"/>
+      <c r="AB58" s="67"/>
+      <c r="AC58" s="67"/>
+      <c r="AD58" s="67"/>
     </row>
     <row r="59" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="68"/>
-      <c r="P59" s="68"/>
-      <c r="Q59" s="68"/>
-      <c r="R59" s="68"/>
-      <c r="S59" s="68"/>
-      <c r="T59" s="68"/>
-      <c r="U59" s="68"/>
-      <c r="V59" s="68"/>
-      <c r="W59" s="68"/>
-      <c r="X59" s="68"/>
-      <c r="Y59" s="68"/>
-      <c r="Z59" s="68"/>
-      <c r="AA59" s="68"/>
-      <c r="AB59" s="68"/>
-      <c r="AC59" s="68"/>
-      <c r="AD59" s="68"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="67"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="67"/>
+      <c r="T59" s="67"/>
+      <c r="U59" s="67"/>
+      <c r="V59" s="67"/>
+      <c r="W59" s="67"/>
+      <c r="X59" s="67"/>
+      <c r="Y59" s="67"/>
+      <c r="Z59" s="67"/>
+      <c r="AA59" s="67"/>
+      <c r="AB59" s="67"/>
+      <c r="AC59" s="67"/>
+      <c r="AD59" s="67"/>
     </row>
     <row r="60" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
-      <c r="P60" s="68"/>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="68"/>
-      <c r="S60" s="68"/>
-      <c r="T60" s="68"/>
-      <c r="U60" s="68"/>
-      <c r="V60" s="68"/>
-      <c r="W60" s="68"/>
-      <c r="X60" s="68"/>
-      <c r="Y60" s="68"/>
-      <c r="Z60" s="68"/>
-      <c r="AA60" s="68"/>
-      <c r="AB60" s="68"/>
-      <c r="AC60" s="68"/>
-      <c r="AD60" s="68"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="67"/>
+      <c r="P60" s="67"/>
+      <c r="Q60" s="67"/>
+      <c r="R60" s="67"/>
+      <c r="S60" s="67"/>
+      <c r="T60" s="67"/>
+      <c r="U60" s="67"/>
+      <c r="V60" s="67"/>
+      <c r="W60" s="67"/>
+      <c r="X60" s="67"/>
+      <c r="Y60" s="67"/>
+      <c r="Z60" s="67"/>
+      <c r="AA60" s="67"/>
+      <c r="AB60" s="67"/>
+      <c r="AC60" s="67"/>
+      <c r="AD60" s="67"/>
     </row>
     <row r="61" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="68"/>
-      <c r="N61" s="68"/>
-      <c r="O61" s="68"/>
-      <c r="P61" s="68"/>
-      <c r="Q61" s="68"/>
-      <c r="R61" s="68"/>
-      <c r="S61" s="68"/>
-      <c r="T61" s="68"/>
-      <c r="U61" s="68"/>
-      <c r="V61" s="68"/>
-      <c r="W61" s="68"/>
-      <c r="X61" s="68"/>
-      <c r="Y61" s="68"/>
-      <c r="Z61" s="68"/>
-      <c r="AA61" s="68"/>
-      <c r="AB61" s="68"/>
-      <c r="AC61" s="68"/>
-      <c r="AD61" s="68"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="67"/>
+      <c r="Q61" s="67"/>
+      <c r="R61" s="67"/>
+      <c r="S61" s="67"/>
+      <c r="T61" s="67"/>
+      <c r="U61" s="67"/>
+      <c r="V61" s="67"/>
+      <c r="W61" s="67"/>
+      <c r="X61" s="67"/>
+      <c r="Y61" s="67"/>
+      <c r="Z61" s="67"/>
+      <c r="AA61" s="67"/>
+      <c r="AB61" s="67"/>
+      <c r="AC61" s="67"/>
+      <c r="AD61" s="67"/>
     </row>
     <row r="62" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
-      <c r="N62" s="68"/>
-      <c r="O62" s="68"/>
-      <c r="P62" s="68"/>
-      <c r="Q62" s="68"/>
-      <c r="R62" s="68"/>
-      <c r="S62" s="68"/>
-      <c r="T62" s="68"/>
-      <c r="U62" s="68"/>
-      <c r="V62" s="68"/>
-      <c r="W62" s="68"/>
-      <c r="X62" s="68"/>
-      <c r="Y62" s="68"/>
-      <c r="Z62" s="68"/>
-      <c r="AA62" s="68"/>
-      <c r="AB62" s="68"/>
-      <c r="AC62" s="68"/>
-      <c r="AD62" s="68"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="67"/>
+      <c r="N62" s="67"/>
+      <c r="O62" s="67"/>
+      <c r="P62" s="67"/>
+      <c r="Q62" s="67"/>
+      <c r="R62" s="67"/>
+      <c r="S62" s="67"/>
+      <c r="T62" s="67"/>
+      <c r="U62" s="67"/>
+      <c r="V62" s="67"/>
+      <c r="W62" s="67"/>
+      <c r="X62" s="67"/>
+      <c r="Y62" s="67"/>
+      <c r="Z62" s="67"/>
+      <c r="AA62" s="67"/>
+      <c r="AB62" s="67"/>
+      <c r="AC62" s="67"/>
+      <c r="AD62" s="67"/>
     </row>
     <row r="63" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="68"/>
-      <c r="N63" s="68"/>
-      <c r="O63" s="68"/>
-      <c r="P63" s="68"/>
-      <c r="Q63" s="68"/>
-      <c r="R63" s="68"/>
-      <c r="S63" s="68"/>
-      <c r="T63" s="68"/>
-      <c r="U63" s="68"/>
-      <c r="V63" s="68"/>
-      <c r="W63" s="68"/>
-      <c r="X63" s="68"/>
-      <c r="Y63" s="68"/>
-      <c r="Z63" s="68"/>
-      <c r="AA63" s="68"/>
-      <c r="AB63" s="68"/>
-      <c r="AC63" s="68"/>
-      <c r="AD63" s="68"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="67"/>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="67"/>
+      <c r="S63" s="67"/>
+      <c r="T63" s="67"/>
+      <c r="U63" s="67"/>
+      <c r="V63" s="67"/>
+      <c r="W63" s="67"/>
+      <c r="X63" s="67"/>
+      <c r="Y63" s="67"/>
+      <c r="Z63" s="67"/>
+      <c r="AA63" s="67"/>
+      <c r="AB63" s="67"/>
+      <c r="AC63" s="67"/>
+      <c r="AD63" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C15:AD16"/>
+    <mergeCell ref="D6:AR8"/>
+    <mergeCell ref="C12:N13"/>
+    <mergeCell ref="O12:R13"/>
+    <mergeCell ref="S12:V13"/>
+    <mergeCell ref="W12:Z13"/>
+    <mergeCell ref="AA12:AD13"/>
+    <mergeCell ref="C53:AD54"/>
+    <mergeCell ref="C56:AD57"/>
+    <mergeCell ref="C58:AD59"/>
+    <mergeCell ref="C60:AD61"/>
+    <mergeCell ref="C62:AD63"/>
     <mergeCell ref="AT2:AV2"/>
     <mergeCell ref="BA2:BG2"/>
     <mergeCell ref="BL2:BO2"/>
@@ -8632,18 +8644,6 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="C53:AD54"/>
-    <mergeCell ref="C56:AD57"/>
-    <mergeCell ref="C58:AD59"/>
-    <mergeCell ref="C60:AD61"/>
-    <mergeCell ref="C62:AD63"/>
-    <mergeCell ref="C15:AD16"/>
-    <mergeCell ref="D6:AR8"/>
-    <mergeCell ref="C12:N13"/>
-    <mergeCell ref="O12:R13"/>
-    <mergeCell ref="S12:V13"/>
-    <mergeCell ref="W12:Z13"/>
-    <mergeCell ref="AA12:AD13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8764,79 +8764,79 @@
     <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="70"/>
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="69" t="s">
+      <c r="V2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="71"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="70"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
-      <c r="AD2" s="69" t="s">
+      <c r="AD2" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="71"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="70"/>
       <c r="AH2" s="21"/>
       <c r="AJ2" s="36"/>
-      <c r="AL2" s="69" t="s">
+      <c r="AL2" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="71"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="70"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AT2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="71"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="70"/>
       <c r="AW2" s="21"/>
-      <c r="BA2" s="69" t="s">
+      <c r="BA2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="71"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="70"/>
       <c r="BH2" s="21"/>
       <c r="BJ2" s="37"/>
-      <c r="BL2" s="69" t="s">
+      <c r="BL2" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="71"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="70"/>
       <c r="BP2" s="21"/>
-      <c r="BT2" s="69" t="s">
+      <c r="BT2" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="71"/>
+      <c r="BU2" s="69"/>
+      <c r="BV2" s="69"/>
+      <c r="BW2" s="70"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -9049,49 +9049,49 @@
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="72"/>
-      <c r="AQ6" s="72"/>
-      <c r="AR6" s="72"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
+      <c r="AL6" s="71"/>
+      <c r="AM6" s="71"/>
+      <c r="AN6" s="71"/>
+      <c r="AO6" s="71"/>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71"/>
       <c r="AS6" s="11"/>
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
@@ -9107,47 +9107,47 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="71"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="71"/>
+      <c r="AK7" s="71"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="71"/>
+      <c r="AN7" s="71"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
@@ -9163,47 +9163,47 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
@@ -9330,20 +9330,20 @@
     <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
       <c r="O12" s="73" t="s">
         <v>22</v>
       </c>
@@ -9391,18 +9391,18 @@
     <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -9509,128 +9509,128 @@
       <c r="BT14" s="22"/>
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
     </row>
     <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
     </row>
     <row r="53" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="67" t="s">
+      <c r="C53" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="67"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="67"/>
-      <c r="P53" s="67"/>
-      <c r="Q53" s="67"/>
-      <c r="R53" s="67"/>
-      <c r="S53" s="67"/>
-      <c r="T53" s="67"/>
-      <c r="U53" s="67"/>
-      <c r="V53" s="67"/>
-      <c r="W53" s="67"/>
-      <c r="X53" s="67"/>
-      <c r="Y53" s="67"/>
-      <c r="Z53" s="67"/>
-      <c r="AA53" s="67"/>
-      <c r="AB53" s="67"/>
-      <c r="AC53" s="67"/>
-      <c r="AD53" s="67"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="72"/>
+      <c r="S53" s="72"/>
+      <c r="T53" s="72"/>
+      <c r="U53" s="72"/>
+      <c r="V53" s="72"/>
+      <c r="W53" s="72"/>
+      <c r="X53" s="72"/>
+      <c r="Y53" s="72"/>
+      <c r="Z53" s="72"/>
+      <c r="AA53" s="72"/>
+      <c r="AB53" s="72"/>
+      <c r="AC53" s="72"/>
+      <c r="AD53" s="72"/>
     </row>
     <row r="54" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67"/>
-      <c r="O54" s="67"/>
-      <c r="P54" s="67"/>
-      <c r="Q54" s="67"/>
-      <c r="R54" s="67"/>
-      <c r="S54" s="67"/>
-      <c r="T54" s="67"/>
-      <c r="U54" s="67"/>
-      <c r="V54" s="67"/>
-      <c r="W54" s="67"/>
-      <c r="X54" s="67"/>
-      <c r="Y54" s="67"/>
-      <c r="Z54" s="67"/>
-      <c r="AA54" s="67"/>
-      <c r="AB54" s="67"/>
-      <c r="AC54" s="67"/>
-      <c r="AD54" s="67"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="72"/>
+      <c r="S54" s="72"/>
+      <c r="T54" s="72"/>
+      <c r="U54" s="72"/>
+      <c r="V54" s="72"/>
+      <c r="W54" s="72"/>
+      <c r="X54" s="72"/>
+      <c r="Y54" s="72"/>
+      <c r="Z54" s="72"/>
+      <c r="AA54" s="72"/>
+      <c r="AB54" s="72"/>
+      <c r="AC54" s="72"/>
+      <c r="AD54" s="72"/>
     </row>
     <row r="55" spans="3:72" s="24" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C55" s="22"/>
@@ -9705,34 +9705,34 @@
       <c r="BT55" s="22"/>
     </row>
     <row r="56" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="68"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="68"/>
-      <c r="O56" s="68"/>
-      <c r="P56" s="68"/>
-      <c r="Q56" s="68"/>
-      <c r="R56" s="68"/>
-      <c r="S56" s="68"/>
-      <c r="T56" s="68"/>
-      <c r="U56" s="68"/>
-      <c r="V56" s="68"/>
-      <c r="W56" s="68"/>
-      <c r="X56" s="68"/>
-      <c r="Y56" s="68"/>
-      <c r="Z56" s="68"/>
-      <c r="AA56" s="68"/>
-      <c r="AB56" s="68"/>
-      <c r="AC56" s="68"/>
-      <c r="AD56" s="68"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="67"/>
+      <c r="O56" s="67"/>
+      <c r="P56" s="67"/>
+      <c r="Q56" s="67"/>
+      <c r="R56" s="67"/>
+      <c r="S56" s="67"/>
+      <c r="T56" s="67"/>
+      <c r="U56" s="67"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
+      <c r="AD56" s="67"/>
       <c r="AE56" s="22"/>
       <c r="AF56" s="22"/>
       <c r="AG56" s="22"/>
@@ -9777,34 +9777,34 @@
       <c r="BT56" s="22"/>
     </row>
     <row r="57" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="68"/>
-      <c r="P57" s="68"/>
-      <c r="Q57" s="68"/>
-      <c r="R57" s="68"/>
-      <c r="S57" s="68"/>
-      <c r="T57" s="68"/>
-      <c r="U57" s="68"/>
-      <c r="V57" s="68"/>
-      <c r="W57" s="68"/>
-      <c r="X57" s="68"/>
-      <c r="Y57" s="68"/>
-      <c r="Z57" s="68"/>
-      <c r="AA57" s="68"/>
-      <c r="AB57" s="68"/>
-      <c r="AC57" s="68"/>
-      <c r="AD57" s="68"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="67"/>
+      <c r="P57" s="67"/>
+      <c r="Q57" s="67"/>
+      <c r="R57" s="67"/>
+      <c r="S57" s="67"/>
+      <c r="T57" s="67"/>
+      <c r="U57" s="67"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="67"/>
+      <c r="AD57" s="67"/>
       <c r="AE57" s="22"/>
       <c r="AF57" s="22"/>
       <c r="AG57" s="22"/>
@@ -9849,187 +9849,192 @@
       <c r="BT57" s="22"/>
     </row>
     <row r="58" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="68"/>
-      <c r="P58" s="68"/>
-      <c r="Q58" s="68"/>
-      <c r="R58" s="68"/>
-      <c r="S58" s="68"/>
-      <c r="T58" s="68"/>
-      <c r="U58" s="68"/>
-      <c r="V58" s="68"/>
-      <c r="W58" s="68"/>
-      <c r="X58" s="68"/>
-      <c r="Y58" s="68"/>
-      <c r="Z58" s="68"/>
-      <c r="AA58" s="68"/>
-      <c r="AB58" s="68"/>
-      <c r="AC58" s="68"/>
-      <c r="AD58" s="68"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="67"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="67"/>
+      <c r="T58" s="67"/>
+      <c r="U58" s="67"/>
+      <c r="V58" s="67"/>
+      <c r="W58" s="67"/>
+      <c r="X58" s="67"/>
+      <c r="Y58" s="67"/>
+      <c r="Z58" s="67"/>
+      <c r="AA58" s="67"/>
+      <c r="AB58" s="67"/>
+      <c r="AC58" s="67"/>
+      <c r="AD58" s="67"/>
     </row>
     <row r="59" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="68"/>
-      <c r="P59" s="68"/>
-      <c r="Q59" s="68"/>
-      <c r="R59" s="68"/>
-      <c r="S59" s="68"/>
-      <c r="T59" s="68"/>
-      <c r="U59" s="68"/>
-      <c r="V59" s="68"/>
-      <c r="W59" s="68"/>
-      <c r="X59" s="68"/>
-      <c r="Y59" s="68"/>
-      <c r="Z59" s="68"/>
-      <c r="AA59" s="68"/>
-      <c r="AB59" s="68"/>
-      <c r="AC59" s="68"/>
-      <c r="AD59" s="68"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="67"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="67"/>
+      <c r="T59" s="67"/>
+      <c r="U59" s="67"/>
+      <c r="V59" s="67"/>
+      <c r="W59" s="67"/>
+      <c r="X59" s="67"/>
+      <c r="Y59" s="67"/>
+      <c r="Z59" s="67"/>
+      <c r="AA59" s="67"/>
+      <c r="AB59" s="67"/>
+      <c r="AC59" s="67"/>
+      <c r="AD59" s="67"/>
     </row>
     <row r="60" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
-      <c r="P60" s="68"/>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="68"/>
-      <c r="S60" s="68"/>
-      <c r="T60" s="68"/>
-      <c r="U60" s="68"/>
-      <c r="V60" s="68"/>
-      <c r="W60" s="68"/>
-      <c r="X60" s="68"/>
-      <c r="Y60" s="68"/>
-      <c r="Z60" s="68"/>
-      <c r="AA60" s="68"/>
-      <c r="AB60" s="68"/>
-      <c r="AC60" s="68"/>
-      <c r="AD60" s="68"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="67"/>
+      <c r="P60" s="67"/>
+      <c r="Q60" s="67"/>
+      <c r="R60" s="67"/>
+      <c r="S60" s="67"/>
+      <c r="T60" s="67"/>
+      <c r="U60" s="67"/>
+      <c r="V60" s="67"/>
+      <c r="W60" s="67"/>
+      <c r="X60" s="67"/>
+      <c r="Y60" s="67"/>
+      <c r="Z60" s="67"/>
+      <c r="AA60" s="67"/>
+      <c r="AB60" s="67"/>
+      <c r="AC60" s="67"/>
+      <c r="AD60" s="67"/>
     </row>
     <row r="61" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="68"/>
-      <c r="N61" s="68"/>
-      <c r="O61" s="68"/>
-      <c r="P61" s="68"/>
-      <c r="Q61" s="68"/>
-      <c r="R61" s="68"/>
-      <c r="S61" s="68"/>
-      <c r="T61" s="68"/>
-      <c r="U61" s="68"/>
-      <c r="V61" s="68"/>
-      <c r="W61" s="68"/>
-      <c r="X61" s="68"/>
-      <c r="Y61" s="68"/>
-      <c r="Z61" s="68"/>
-      <c r="AA61" s="68"/>
-      <c r="AB61" s="68"/>
-      <c r="AC61" s="68"/>
-      <c r="AD61" s="68"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="67"/>
+      <c r="Q61" s="67"/>
+      <c r="R61" s="67"/>
+      <c r="S61" s="67"/>
+      <c r="T61" s="67"/>
+      <c r="U61" s="67"/>
+      <c r="V61" s="67"/>
+      <c r="W61" s="67"/>
+      <c r="X61" s="67"/>
+      <c r="Y61" s="67"/>
+      <c r="Z61" s="67"/>
+      <c r="AA61" s="67"/>
+      <c r="AB61" s="67"/>
+      <c r="AC61" s="67"/>
+      <c r="AD61" s="67"/>
     </row>
     <row r="62" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
-      <c r="N62" s="68"/>
-      <c r="O62" s="68"/>
-      <c r="P62" s="68"/>
-      <c r="Q62" s="68"/>
-      <c r="R62" s="68"/>
-      <c r="S62" s="68"/>
-      <c r="T62" s="68"/>
-      <c r="U62" s="68"/>
-      <c r="V62" s="68"/>
-      <c r="W62" s="68"/>
-      <c r="X62" s="68"/>
-      <c r="Y62" s="68"/>
-      <c r="Z62" s="68"/>
-      <c r="AA62" s="68"/>
-      <c r="AB62" s="68"/>
-      <c r="AC62" s="68"/>
-      <c r="AD62" s="68"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="67"/>
+      <c r="N62" s="67"/>
+      <c r="O62" s="67"/>
+      <c r="P62" s="67"/>
+      <c r="Q62" s="67"/>
+      <c r="R62" s="67"/>
+      <c r="S62" s="67"/>
+      <c r="T62" s="67"/>
+      <c r="U62" s="67"/>
+      <c r="V62" s="67"/>
+      <c r="W62" s="67"/>
+      <c r="X62" s="67"/>
+      <c r="Y62" s="67"/>
+      <c r="Z62" s="67"/>
+      <c r="AA62" s="67"/>
+      <c r="AB62" s="67"/>
+      <c r="AC62" s="67"/>
+      <c r="AD62" s="67"/>
     </row>
     <row r="63" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="68"/>
-      <c r="N63" s="68"/>
-      <c r="O63" s="68"/>
-      <c r="P63" s="68"/>
-      <c r="Q63" s="68"/>
-      <c r="R63" s="68"/>
-      <c r="S63" s="68"/>
-      <c r="T63" s="68"/>
-      <c r="U63" s="68"/>
-      <c r="V63" s="68"/>
-      <c r="W63" s="68"/>
-      <c r="X63" s="68"/>
-      <c r="Y63" s="68"/>
-      <c r="Z63" s="68"/>
-      <c r="AA63" s="68"/>
-      <c r="AB63" s="68"/>
-      <c r="AC63" s="68"/>
-      <c r="AD63" s="68"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="67"/>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="67"/>
+      <c r="S63" s="67"/>
+      <c r="T63" s="67"/>
+      <c r="U63" s="67"/>
+      <c r="V63" s="67"/>
+      <c r="W63" s="67"/>
+      <c r="X63" s="67"/>
+      <c r="Y63" s="67"/>
+      <c r="Z63" s="67"/>
+      <c r="AA63" s="67"/>
+      <c r="AB63" s="67"/>
+      <c r="AC63" s="67"/>
+      <c r="AD63" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C15:AD16"/>
+    <mergeCell ref="C53:AD54"/>
+    <mergeCell ref="C56:AD57"/>
+    <mergeCell ref="C58:AD59"/>
+    <mergeCell ref="C60:AD61"/>
     <mergeCell ref="C62:AD63"/>
     <mergeCell ref="BA2:BG2"/>
     <mergeCell ref="BL2:BO2"/>
@@ -10046,11 +10051,6 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="C15:AD16"/>
-    <mergeCell ref="C53:AD54"/>
-    <mergeCell ref="C56:AD57"/>
-    <mergeCell ref="C58:AD59"/>
-    <mergeCell ref="C60:AD61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10171,79 +10171,79 @@
     <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="70"/>
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="69" t="s">
+      <c r="V2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="71"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="70"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
-      <c r="AD2" s="69" t="s">
+      <c r="AD2" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="71"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="70"/>
       <c r="AH2" s="21"/>
       <c r="AJ2" s="36"/>
-      <c r="AL2" s="69" t="s">
+      <c r="AL2" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="71"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="70"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AT2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="71"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="70"/>
       <c r="AW2" s="21"/>
-      <c r="BA2" s="69" t="s">
+      <c r="BA2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="71"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="70"/>
       <c r="BH2" s="21"/>
       <c r="BJ2" s="37"/>
-      <c r="BL2" s="69" t="s">
+      <c r="BL2" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="71"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="70"/>
       <c r="BP2" s="21"/>
-      <c r="BT2" s="69" t="s">
+      <c r="BT2" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="71"/>
+      <c r="BU2" s="69"/>
+      <c r="BV2" s="69"/>
+      <c r="BW2" s="70"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -10456,49 +10456,49 @@
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="72"/>
-      <c r="AQ6" s="72"/>
-      <c r="AR6" s="72"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
+      <c r="AL6" s="71"/>
+      <c r="AM6" s="71"/>
+      <c r="AN6" s="71"/>
+      <c r="AO6" s="71"/>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71"/>
       <c r="AS6" s="11"/>
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
@@ -10514,47 +10514,47 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="71"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="71"/>
+      <c r="AK7" s="71"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="71"/>
+      <c r="AN7" s="71"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
@@ -10570,47 +10570,47 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
@@ -10737,20 +10737,20 @@
     <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
       <c r="O12" s="73" t="s">
         <v>22</v>
       </c>
@@ -10798,18 +10798,18 @@
     <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -10916,128 +10916,128 @@
       <c r="BT14" s="22"/>
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
     </row>
     <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
     </row>
     <row r="53" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="67" t="s">
+      <c r="C53" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="67"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="67"/>
-      <c r="P53" s="67"/>
-      <c r="Q53" s="67"/>
-      <c r="R53" s="67"/>
-      <c r="S53" s="67"/>
-      <c r="T53" s="67"/>
-      <c r="U53" s="67"/>
-      <c r="V53" s="67"/>
-      <c r="W53" s="67"/>
-      <c r="X53" s="67"/>
-      <c r="Y53" s="67"/>
-      <c r="Z53" s="67"/>
-      <c r="AA53" s="67"/>
-      <c r="AB53" s="67"/>
-      <c r="AC53" s="67"/>
-      <c r="AD53" s="67"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="72"/>
+      <c r="S53" s="72"/>
+      <c r="T53" s="72"/>
+      <c r="U53" s="72"/>
+      <c r="V53" s="72"/>
+      <c r="W53" s="72"/>
+      <c r="X53" s="72"/>
+      <c r="Y53" s="72"/>
+      <c r="Z53" s="72"/>
+      <c r="AA53" s="72"/>
+      <c r="AB53" s="72"/>
+      <c r="AC53" s="72"/>
+      <c r="AD53" s="72"/>
     </row>
     <row r="54" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67"/>
-      <c r="O54" s="67"/>
-      <c r="P54" s="67"/>
-      <c r="Q54" s="67"/>
-      <c r="R54" s="67"/>
-      <c r="S54" s="67"/>
-      <c r="T54" s="67"/>
-      <c r="U54" s="67"/>
-      <c r="V54" s="67"/>
-      <c r="W54" s="67"/>
-      <c r="X54" s="67"/>
-      <c r="Y54" s="67"/>
-      <c r="Z54" s="67"/>
-      <c r="AA54" s="67"/>
-      <c r="AB54" s="67"/>
-      <c r="AC54" s="67"/>
-      <c r="AD54" s="67"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="72"/>
+      <c r="S54" s="72"/>
+      <c r="T54" s="72"/>
+      <c r="U54" s="72"/>
+      <c r="V54" s="72"/>
+      <c r="W54" s="72"/>
+      <c r="X54" s="72"/>
+      <c r="Y54" s="72"/>
+      <c r="Z54" s="72"/>
+      <c r="AA54" s="72"/>
+      <c r="AB54" s="72"/>
+      <c r="AC54" s="72"/>
+      <c r="AD54" s="72"/>
     </row>
     <row r="55" spans="3:72" s="24" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C55" s="22"/>
@@ -11112,34 +11112,34 @@
       <c r="BT55" s="22"/>
     </row>
     <row r="56" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="68"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="68"/>
-      <c r="O56" s="68"/>
-      <c r="P56" s="68"/>
-      <c r="Q56" s="68"/>
-      <c r="R56" s="68"/>
-      <c r="S56" s="68"/>
-      <c r="T56" s="68"/>
-      <c r="U56" s="68"/>
-      <c r="V56" s="68"/>
-      <c r="W56" s="68"/>
-      <c r="X56" s="68"/>
-      <c r="Y56" s="68"/>
-      <c r="Z56" s="68"/>
-      <c r="AA56" s="68"/>
-      <c r="AB56" s="68"/>
-      <c r="AC56" s="68"/>
-      <c r="AD56" s="68"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="67"/>
+      <c r="O56" s="67"/>
+      <c r="P56" s="67"/>
+      <c r="Q56" s="67"/>
+      <c r="R56" s="67"/>
+      <c r="S56" s="67"/>
+      <c r="T56" s="67"/>
+      <c r="U56" s="67"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
+      <c r="AD56" s="67"/>
       <c r="AE56" s="22"/>
       <c r="AF56" s="22"/>
       <c r="AG56" s="22"/>
@@ -11184,34 +11184,34 @@
       <c r="BT56" s="22"/>
     </row>
     <row r="57" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="68"/>
-      <c r="P57" s="68"/>
-      <c r="Q57" s="68"/>
-      <c r="R57" s="68"/>
-      <c r="S57" s="68"/>
-      <c r="T57" s="68"/>
-      <c r="U57" s="68"/>
-      <c r="V57" s="68"/>
-      <c r="W57" s="68"/>
-      <c r="X57" s="68"/>
-      <c r="Y57" s="68"/>
-      <c r="Z57" s="68"/>
-      <c r="AA57" s="68"/>
-      <c r="AB57" s="68"/>
-      <c r="AC57" s="68"/>
-      <c r="AD57" s="68"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="67"/>
+      <c r="P57" s="67"/>
+      <c r="Q57" s="67"/>
+      <c r="R57" s="67"/>
+      <c r="S57" s="67"/>
+      <c r="T57" s="67"/>
+      <c r="U57" s="67"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="67"/>
+      <c r="AD57" s="67"/>
       <c r="AE57" s="22"/>
       <c r="AF57" s="22"/>
       <c r="AG57" s="22"/>
@@ -11256,187 +11256,192 @@
       <c r="BT57" s="22"/>
     </row>
     <row r="58" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="68"/>
-      <c r="P58" s="68"/>
-      <c r="Q58" s="68"/>
-      <c r="R58" s="68"/>
-      <c r="S58" s="68"/>
-      <c r="T58" s="68"/>
-      <c r="U58" s="68"/>
-      <c r="V58" s="68"/>
-      <c r="W58" s="68"/>
-      <c r="X58" s="68"/>
-      <c r="Y58" s="68"/>
-      <c r="Z58" s="68"/>
-      <c r="AA58" s="68"/>
-      <c r="AB58" s="68"/>
-      <c r="AC58" s="68"/>
-      <c r="AD58" s="68"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="67"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="67"/>
+      <c r="T58" s="67"/>
+      <c r="U58" s="67"/>
+      <c r="V58" s="67"/>
+      <c r="W58" s="67"/>
+      <c r="X58" s="67"/>
+      <c r="Y58" s="67"/>
+      <c r="Z58" s="67"/>
+      <c r="AA58" s="67"/>
+      <c r="AB58" s="67"/>
+      <c r="AC58" s="67"/>
+      <c r="AD58" s="67"/>
     </row>
     <row r="59" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="68"/>
-      <c r="P59" s="68"/>
-      <c r="Q59" s="68"/>
-      <c r="R59" s="68"/>
-      <c r="S59" s="68"/>
-      <c r="T59" s="68"/>
-      <c r="U59" s="68"/>
-      <c r="V59" s="68"/>
-      <c r="W59" s="68"/>
-      <c r="X59" s="68"/>
-      <c r="Y59" s="68"/>
-      <c r="Z59" s="68"/>
-      <c r="AA59" s="68"/>
-      <c r="AB59" s="68"/>
-      <c r="AC59" s="68"/>
-      <c r="AD59" s="68"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="67"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="67"/>
+      <c r="T59" s="67"/>
+      <c r="U59" s="67"/>
+      <c r="V59" s="67"/>
+      <c r="W59" s="67"/>
+      <c r="X59" s="67"/>
+      <c r="Y59" s="67"/>
+      <c r="Z59" s="67"/>
+      <c r="AA59" s="67"/>
+      <c r="AB59" s="67"/>
+      <c r="AC59" s="67"/>
+      <c r="AD59" s="67"/>
     </row>
     <row r="60" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
-      <c r="P60" s="68"/>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="68"/>
-      <c r="S60" s="68"/>
-      <c r="T60" s="68"/>
-      <c r="U60" s="68"/>
-      <c r="V60" s="68"/>
-      <c r="W60" s="68"/>
-      <c r="X60" s="68"/>
-      <c r="Y60" s="68"/>
-      <c r="Z60" s="68"/>
-      <c r="AA60" s="68"/>
-      <c r="AB60" s="68"/>
-      <c r="AC60" s="68"/>
-      <c r="AD60" s="68"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="67"/>
+      <c r="P60" s="67"/>
+      <c r="Q60" s="67"/>
+      <c r="R60" s="67"/>
+      <c r="S60" s="67"/>
+      <c r="T60" s="67"/>
+      <c r="U60" s="67"/>
+      <c r="V60" s="67"/>
+      <c r="W60" s="67"/>
+      <c r="X60" s="67"/>
+      <c r="Y60" s="67"/>
+      <c r="Z60" s="67"/>
+      <c r="AA60" s="67"/>
+      <c r="AB60" s="67"/>
+      <c r="AC60" s="67"/>
+      <c r="AD60" s="67"/>
     </row>
     <row r="61" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="68"/>
-      <c r="N61" s="68"/>
-      <c r="O61" s="68"/>
-      <c r="P61" s="68"/>
-      <c r="Q61" s="68"/>
-      <c r="R61" s="68"/>
-      <c r="S61" s="68"/>
-      <c r="T61" s="68"/>
-      <c r="U61" s="68"/>
-      <c r="V61" s="68"/>
-      <c r="W61" s="68"/>
-      <c r="X61" s="68"/>
-      <c r="Y61" s="68"/>
-      <c r="Z61" s="68"/>
-      <c r="AA61" s="68"/>
-      <c r="AB61" s="68"/>
-      <c r="AC61" s="68"/>
-      <c r="AD61" s="68"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="67"/>
+      <c r="Q61" s="67"/>
+      <c r="R61" s="67"/>
+      <c r="S61" s="67"/>
+      <c r="T61" s="67"/>
+      <c r="U61" s="67"/>
+      <c r="V61" s="67"/>
+      <c r="W61" s="67"/>
+      <c r="X61" s="67"/>
+      <c r="Y61" s="67"/>
+      <c r="Z61" s="67"/>
+      <c r="AA61" s="67"/>
+      <c r="AB61" s="67"/>
+      <c r="AC61" s="67"/>
+      <c r="AD61" s="67"/>
     </row>
     <row r="62" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
-      <c r="N62" s="68"/>
-      <c r="O62" s="68"/>
-      <c r="P62" s="68"/>
-      <c r="Q62" s="68"/>
-      <c r="R62" s="68"/>
-      <c r="S62" s="68"/>
-      <c r="T62" s="68"/>
-      <c r="U62" s="68"/>
-      <c r="V62" s="68"/>
-      <c r="W62" s="68"/>
-      <c r="X62" s="68"/>
-      <c r="Y62" s="68"/>
-      <c r="Z62" s="68"/>
-      <c r="AA62" s="68"/>
-      <c r="AB62" s="68"/>
-      <c r="AC62" s="68"/>
-      <c r="AD62" s="68"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="67"/>
+      <c r="N62" s="67"/>
+      <c r="O62" s="67"/>
+      <c r="P62" s="67"/>
+      <c r="Q62" s="67"/>
+      <c r="R62" s="67"/>
+      <c r="S62" s="67"/>
+      <c r="T62" s="67"/>
+      <c r="U62" s="67"/>
+      <c r="V62" s="67"/>
+      <c r="W62" s="67"/>
+      <c r="X62" s="67"/>
+      <c r="Y62" s="67"/>
+      <c r="Z62" s="67"/>
+      <c r="AA62" s="67"/>
+      <c r="AB62" s="67"/>
+      <c r="AC62" s="67"/>
+      <c r="AD62" s="67"/>
     </row>
     <row r="63" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="68"/>
-      <c r="N63" s="68"/>
-      <c r="O63" s="68"/>
-      <c r="P63" s="68"/>
-      <c r="Q63" s="68"/>
-      <c r="R63" s="68"/>
-      <c r="S63" s="68"/>
-      <c r="T63" s="68"/>
-      <c r="U63" s="68"/>
-      <c r="V63" s="68"/>
-      <c r="W63" s="68"/>
-      <c r="X63" s="68"/>
-      <c r="Y63" s="68"/>
-      <c r="Z63" s="68"/>
-      <c r="AA63" s="68"/>
-      <c r="AB63" s="68"/>
-      <c r="AC63" s="68"/>
-      <c r="AD63" s="68"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="67"/>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="67"/>
+      <c r="S63" s="67"/>
+      <c r="T63" s="67"/>
+      <c r="U63" s="67"/>
+      <c r="V63" s="67"/>
+      <c r="W63" s="67"/>
+      <c r="X63" s="67"/>
+      <c r="Y63" s="67"/>
+      <c r="Z63" s="67"/>
+      <c r="AA63" s="67"/>
+      <c r="AB63" s="67"/>
+      <c r="AC63" s="67"/>
+      <c r="AD63" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C15:AD16"/>
+    <mergeCell ref="C53:AD54"/>
+    <mergeCell ref="C56:AD57"/>
+    <mergeCell ref="C58:AD59"/>
+    <mergeCell ref="C60:AD61"/>
     <mergeCell ref="C62:AD63"/>
     <mergeCell ref="BA2:BG2"/>
     <mergeCell ref="BL2:BO2"/>
@@ -11453,11 +11458,6 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="C15:AD16"/>
-    <mergeCell ref="C53:AD54"/>
-    <mergeCell ref="C56:AD57"/>
-    <mergeCell ref="C58:AD59"/>
-    <mergeCell ref="C60:AD61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11470,9 +11470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC1ACA1-D39A-40A3-9EAE-07F33C90ECD2}">
   <dimension ref="A1:EE90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BD80" sqref="BD80"/>
+    <sheetView tabSelected="1" topLeftCell="BV1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="DQ40" sqref="DQ40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11578,15 +11578,15 @@
     <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
       <c r="O2" s="75" t="s">
@@ -11597,12 +11597,12 @@
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="69" t="s">
+      <c r="V2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="71"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="70"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
       <c r="AD2" s="75" t="s">
@@ -11621,36 +11621,36 @@
       <c r="AO2" s="75"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AT2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="71"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="70"/>
       <c r="AW2" s="21"/>
-      <c r="BA2" s="69" t="s">
+      <c r="BA2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="71"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="70"/>
       <c r="BH2" s="21"/>
       <c r="BJ2" s="37"/>
-      <c r="BL2" s="69" t="s">
+      <c r="BL2" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="71"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="70"/>
       <c r="BP2" s="21"/>
-      <c r="BT2" s="69" t="s">
+      <c r="BT2" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="71"/>
+      <c r="BU2" s="69"/>
+      <c r="BV2" s="69"/>
+      <c r="BW2" s="70"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -11863,49 +11863,49 @@
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="72"/>
-      <c r="AQ6" s="72"/>
-      <c r="AR6" s="72"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
+      <c r="AL6" s="71"/>
+      <c r="AM6" s="71"/>
+      <c r="AN6" s="71"/>
+      <c r="AO6" s="71"/>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71"/>
       <c r="AS6" s="11"/>
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
@@ -11921,47 +11921,47 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="71"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="71"/>
+      <c r="AK7" s="71"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="71"/>
+      <c r="AN7" s="71"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
@@ -11977,47 +11977,47 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
@@ -12144,20 +12144,20 @@
     <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
       <c r="O12" s="73" t="s">
         <v>22</v>
       </c>
@@ -12218,18 +12218,18 @@
     <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -12376,36 +12376,36 @@
       <c r="CO14" s="22"/>
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
       <c r="BX15" s="22"/>
       <c r="BY15" s="22"/>
       <c r="BZ15" s="22"/>
@@ -12426,34 +12426,34 @@
       <c r="CO15" s="22"/>
     </row>
     <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
       <c r="CB16" s="22"/>
       <c r="CC16" s="22"/>
       <c r="CD16" s="22"/>
@@ -15225,7 +15225,6 @@
       <c r="DH51" s="34"/>
       <c r="DI51" s="34"/>
       <c r="DJ51" s="36"/>
-      <c r="DM51" s="35"/>
       <c r="DR51" s="32"/>
       <c r="DS51" s="34"/>
       <c r="DT51" s="34"/>
@@ -15385,6 +15384,7 @@
       <c r="DH53" s="34"/>
       <c r="DI53" s="34"/>
       <c r="DJ53" s="32"/>
+      <c r="DM53" s="35"/>
       <c r="DR53" s="36"/>
       <c r="DS53" s="34"/>
       <c r="DT53" s="34"/>
@@ -15973,7 +15973,6 @@
       <c r="W62" s="34"/>
       <c r="X62" s="34"/>
       <c r="Y62" s="34"/>
-      <c r="Z62" s="35"/>
       <c r="AL62" s="34"/>
       <c r="AM62" s="34"/>
       <c r="AN62" s="34"/>
@@ -16049,7 +16048,6 @@
       <c r="W63" s="34"/>
       <c r="X63" s="34"/>
       <c r="Y63" s="34"/>
-      <c r="Z63" s="35"/>
       <c r="AJ63" s="32"/>
       <c r="AK63" s="32"/>
       <c r="AL63" s="32"/>
@@ -16102,7 +16100,6 @@
       <c r="W64" s="34"/>
       <c r="X64" s="34"/>
       <c r="Y64" s="34"/>
-      <c r="Z64" s="35"/>
       <c r="BI64" s="34"/>
       <c r="BJ64" s="34"/>
       <c r="BK64" s="34"/>
@@ -16162,6 +16159,7 @@
       <c r="CG65" s="36"/>
       <c r="CK65" s="36"/>
       <c r="DF65" s="33"/>
+      <c r="DI65" s="36"/>
       <c r="DQ65" s="32"/>
       <c r="DR65" s="34"/>
       <c r="DS65" s="34"/>
@@ -16209,7 +16207,7 @@
       <c r="CG66" s="36"/>
       <c r="CK66" s="36"/>
       <c r="CQ66" s="36"/>
-      <c r="DJ66" s="36"/>
+      <c r="DI66" s="34"/>
       <c r="DQ66" s="32"/>
       <c r="DR66" s="34"/>
       <c r="DS66" s="34"/>
@@ -16266,8 +16264,8 @@
       <c r="CQ67" s="34"/>
       <c r="CT67" s="35"/>
       <c r="DG67" s="33"/>
-      <c r="DJ67" s="36"/>
-      <c r="DN67" s="37"/>
+      <c r="DI67" s="34"/>
+      <c r="DM67" s="37"/>
       <c r="DQ67" s="32"/>
       <c r="DR67" s="34"/>
       <c r="DS67" s="34"/>
@@ -16303,10 +16301,6 @@
       <c r="AR68" s="34"/>
       <c r="AS68" s="34"/>
       <c r="AT68" s="36"/>
-      <c r="AZ68" s="35"/>
-      <c r="BA68" s="35"/>
-      <c r="BB68" s="35"/>
-      <c r="BC68" s="35"/>
       <c r="BI68" s="36"/>
       <c r="BJ68" s="34"/>
       <c r="BK68" s="34"/>
@@ -16378,6 +16372,8 @@
       <c r="AS69" s="34"/>
       <c r="AT69" s="36"/>
       <c r="AZ69" s="35"/>
+      <c r="BA69" s="35"/>
+      <c r="BB69" s="35"/>
       <c r="BC69" s="35"/>
       <c r="BI69" s="36"/>
       <c r="BJ69" s="34"/>
@@ -16447,6 +16443,8 @@
       <c r="AR70" s="34"/>
       <c r="AS70" s="34"/>
       <c r="AT70" s="36"/>
+      <c r="AZ70" s="35"/>
+      <c r="BC70" s="35"/>
       <c r="BI70" s="36"/>
       <c r="BJ70" s="34"/>
       <c r="BK70" s="34"/>
@@ -16541,8 +16539,8 @@
       <c r="CQ71" s="34"/>
       <c r="CR71" s="36"/>
       <c r="CS71" s="36"/>
-      <c r="CT71" s="36"/>
-      <c r="CU71" s="36"/>
+      <c r="CT71" s="34"/>
+      <c r="CU71" s="34"/>
       <c r="CV71" s="36"/>
       <c r="CW71" s="36"/>
       <c r="CX71" s="36"/>
@@ -17031,36 +17029,36 @@
       <c r="EE75" s="11"/>
     </row>
     <row r="80" spans="3:135" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="67" t="s">
+      <c r="C80" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="67"/>
-      <c r="J80" s="67"/>
-      <c r="K80" s="67"/>
-      <c r="L80" s="67"/>
-      <c r="M80" s="67"/>
-      <c r="N80" s="67"/>
-      <c r="O80" s="67"/>
-      <c r="P80" s="67"/>
-      <c r="Q80" s="67"/>
-      <c r="R80" s="67"/>
-      <c r="S80" s="67"/>
-      <c r="T80" s="67"/>
-      <c r="U80" s="67"/>
-      <c r="V80" s="67"/>
-      <c r="W80" s="67"/>
-      <c r="X80" s="67"/>
-      <c r="Y80" s="67"/>
-      <c r="Z80" s="67"/>
-      <c r="AA80" s="67"/>
-      <c r="AB80" s="67"/>
-      <c r="AC80" s="67"/>
-      <c r="AD80" s="67"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="72"/>
+      <c r="I80" s="72"/>
+      <c r="J80" s="72"/>
+      <c r="K80" s="72"/>
+      <c r="L80" s="72"/>
+      <c r="M80" s="72"/>
+      <c r="N80" s="72"/>
+      <c r="O80" s="72"/>
+      <c r="P80" s="72"/>
+      <c r="Q80" s="72"/>
+      <c r="R80" s="72"/>
+      <c r="S80" s="72"/>
+      <c r="T80" s="72"/>
+      <c r="U80" s="72"/>
+      <c r="V80" s="72"/>
+      <c r="W80" s="72"/>
+      <c r="X80" s="72"/>
+      <c r="Y80" s="72"/>
+      <c r="Z80" s="72"/>
+      <c r="AA80" s="72"/>
+      <c r="AB80" s="72"/>
+      <c r="AC80" s="72"/>
+      <c r="AD80" s="72"/>
       <c r="BX80" s="22"/>
       <c r="BY80" s="22"/>
       <c r="BZ80" s="22"/>
@@ -17081,34 +17079,34 @@
       <c r="CO80" s="22"/>
     </row>
     <row r="81" spans="3:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="67"/>
-      <c r="H81" s="67"/>
-      <c r="I81" s="67"/>
-      <c r="J81" s="67"/>
-      <c r="K81" s="67"/>
-      <c r="L81" s="67"/>
-      <c r="M81" s="67"/>
-      <c r="N81" s="67"/>
-      <c r="O81" s="67"/>
-      <c r="P81" s="67"/>
-      <c r="Q81" s="67"/>
-      <c r="R81" s="67"/>
-      <c r="S81" s="67"/>
-      <c r="T81" s="67"/>
-      <c r="U81" s="67"/>
-      <c r="V81" s="67"/>
-      <c r="W81" s="67"/>
-      <c r="X81" s="67"/>
-      <c r="Y81" s="67"/>
-      <c r="Z81" s="67"/>
-      <c r="AA81" s="67"/>
-      <c r="AB81" s="67"/>
-      <c r="AC81" s="67"/>
-      <c r="AD81" s="67"/>
+      <c r="C81" s="72"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="72"/>
+      <c r="I81" s="72"/>
+      <c r="J81" s="72"/>
+      <c r="K81" s="72"/>
+      <c r="L81" s="72"/>
+      <c r="M81" s="72"/>
+      <c r="N81" s="72"/>
+      <c r="O81" s="72"/>
+      <c r="P81" s="72"/>
+      <c r="Q81" s="72"/>
+      <c r="R81" s="72"/>
+      <c r="S81" s="72"/>
+      <c r="T81" s="72"/>
+      <c r="U81" s="72"/>
+      <c r="V81" s="72"/>
+      <c r="W81" s="72"/>
+      <c r="X81" s="72"/>
+      <c r="Y81" s="72"/>
+      <c r="Z81" s="72"/>
+      <c r="AA81" s="72"/>
+      <c r="AB81" s="72"/>
+      <c r="AC81" s="72"/>
+      <c r="AD81" s="72"/>
       <c r="BX81" s="22"/>
       <c r="BY81" s="22"/>
       <c r="BZ81" s="22"/>
@@ -17222,36 +17220,36 @@
       <c r="CO82" s="22"/>
     </row>
     <row r="83" spans="3:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="68" t="s">
+      <c r="C83" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="68"/>
-      <c r="K83" s="68"/>
-      <c r="L83" s="68"/>
-      <c r="M83" s="68"/>
-      <c r="N83" s="68"/>
-      <c r="O83" s="68"/>
-      <c r="P83" s="68"/>
-      <c r="Q83" s="68"/>
-      <c r="R83" s="68"/>
-      <c r="S83" s="68"/>
-      <c r="T83" s="68"/>
-      <c r="U83" s="68"/>
-      <c r="V83" s="68"/>
-      <c r="W83" s="68"/>
-      <c r="X83" s="68"/>
-      <c r="Y83" s="68"/>
-      <c r="Z83" s="68"/>
-      <c r="AA83" s="68"/>
-      <c r="AB83" s="68"/>
-      <c r="AC83" s="68"/>
-      <c r="AD83" s="68"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="67"/>
+      <c r="M83" s="67"/>
+      <c r="N83" s="67"/>
+      <c r="O83" s="67"/>
+      <c r="P83" s="67"/>
+      <c r="Q83" s="67"/>
+      <c r="R83" s="67"/>
+      <c r="S83" s="67"/>
+      <c r="T83" s="67"/>
+      <c r="U83" s="67"/>
+      <c r="V83" s="67"/>
+      <c r="W83" s="67"/>
+      <c r="X83" s="67"/>
+      <c r="Y83" s="67"/>
+      <c r="Z83" s="67"/>
+      <c r="AA83" s="67"/>
+      <c r="AB83" s="67"/>
+      <c r="AC83" s="67"/>
+      <c r="AD83" s="67"/>
       <c r="AE83" s="22"/>
       <c r="AF83" s="22"/>
       <c r="AG83" s="22"/>
@@ -17317,34 +17315,34 @@
       <c r="CO83" s="22"/>
     </row>
     <row r="84" spans="3:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="68"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="68"/>
-      <c r="H84" s="68"/>
-      <c r="I84" s="68"/>
-      <c r="J84" s="68"/>
-      <c r="K84" s="68"/>
-      <c r="L84" s="68"/>
-      <c r="M84" s="68"/>
-      <c r="N84" s="68"/>
-      <c r="O84" s="68"/>
-      <c r="P84" s="68"/>
-      <c r="Q84" s="68"/>
-      <c r="R84" s="68"/>
-      <c r="S84" s="68"/>
-      <c r="T84" s="68"/>
-      <c r="U84" s="68"/>
-      <c r="V84" s="68"/>
-      <c r="W84" s="68"/>
-      <c r="X84" s="68"/>
-      <c r="Y84" s="68"/>
-      <c r="Z84" s="68"/>
-      <c r="AA84" s="68"/>
-      <c r="AB84" s="68"/>
-      <c r="AC84" s="68"/>
-      <c r="AD84" s="68"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="67"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="67"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="67"/>
+      <c r="L84" s="67"/>
+      <c r="M84" s="67"/>
+      <c r="N84" s="67"/>
+      <c r="O84" s="67"/>
+      <c r="P84" s="67"/>
+      <c r="Q84" s="67"/>
+      <c r="R84" s="67"/>
+      <c r="S84" s="67"/>
+      <c r="T84" s="67"/>
+      <c r="U84" s="67"/>
+      <c r="V84" s="67"/>
+      <c r="W84" s="67"/>
+      <c r="X84" s="67"/>
+      <c r="Y84" s="67"/>
+      <c r="Z84" s="67"/>
+      <c r="AA84" s="67"/>
+      <c r="AB84" s="67"/>
+      <c r="AC84" s="67"/>
+      <c r="AD84" s="67"/>
       <c r="AE84" s="22"/>
       <c r="AF84" s="22"/>
       <c r="AG84" s="22"/>
@@ -17410,196 +17408,191 @@
       <c r="CO84" s="22"/>
     </row>
     <row r="85" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="68" t="s">
+      <c r="C85" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="68"/>
-      <c r="K85" s="68"/>
-      <c r="L85" s="68"/>
-      <c r="M85" s="68"/>
-      <c r="N85" s="68"/>
-      <c r="O85" s="68"/>
-      <c r="P85" s="68"/>
-      <c r="Q85" s="68"/>
-      <c r="R85" s="68"/>
-      <c r="S85" s="68"/>
-      <c r="T85" s="68"/>
-      <c r="U85" s="68"/>
-      <c r="V85" s="68"/>
-      <c r="W85" s="68"/>
-      <c r="X85" s="68"/>
-      <c r="Y85" s="68"/>
-      <c r="Z85" s="68"/>
-      <c r="AA85" s="68"/>
-      <c r="AB85" s="68"/>
-      <c r="AC85" s="68"/>
-      <c r="AD85" s="68"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="67"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="67"/>
+      <c r="J85" s="67"/>
+      <c r="K85" s="67"/>
+      <c r="L85" s="67"/>
+      <c r="M85" s="67"/>
+      <c r="N85" s="67"/>
+      <c r="O85" s="67"/>
+      <c r="P85" s="67"/>
+      <c r="Q85" s="67"/>
+      <c r="R85" s="67"/>
+      <c r="S85" s="67"/>
+      <c r="T85" s="67"/>
+      <c r="U85" s="67"/>
+      <c r="V85" s="67"/>
+      <c r="W85" s="67"/>
+      <c r="X85" s="67"/>
+      <c r="Y85" s="67"/>
+      <c r="Z85" s="67"/>
+      <c r="AA85" s="67"/>
+      <c r="AB85" s="67"/>
+      <c r="AC85" s="67"/>
+      <c r="AD85" s="67"/>
     </row>
     <row r="86" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="68"/>
-      <c r="D86" s="68"/>
-      <c r="E86" s="68"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="68"/>
-      <c r="H86" s="68"/>
-      <c r="I86" s="68"/>
-      <c r="J86" s="68"/>
-      <c r="K86" s="68"/>
-      <c r="L86" s="68"/>
-      <c r="M86" s="68"/>
-      <c r="N86" s="68"/>
-      <c r="O86" s="68"/>
-      <c r="P86" s="68"/>
-      <c r="Q86" s="68"/>
-      <c r="R86" s="68"/>
-      <c r="S86" s="68"/>
-      <c r="T86" s="68"/>
-      <c r="U86" s="68"/>
-      <c r="V86" s="68"/>
-      <c r="W86" s="68"/>
-      <c r="X86" s="68"/>
-      <c r="Y86" s="68"/>
-      <c r="Z86" s="68"/>
-      <c r="AA86" s="68"/>
-      <c r="AB86" s="68"/>
-      <c r="AC86" s="68"/>
-      <c r="AD86" s="68"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="67"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="67"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="67"/>
+      <c r="J86" s="67"/>
+      <c r="K86" s="67"/>
+      <c r="L86" s="67"/>
+      <c r="M86" s="67"/>
+      <c r="N86" s="67"/>
+      <c r="O86" s="67"/>
+      <c r="P86" s="67"/>
+      <c r="Q86" s="67"/>
+      <c r="R86" s="67"/>
+      <c r="S86" s="67"/>
+      <c r="T86" s="67"/>
+      <c r="U86" s="67"/>
+      <c r="V86" s="67"/>
+      <c r="W86" s="67"/>
+      <c r="X86" s="67"/>
+      <c r="Y86" s="67"/>
+      <c r="Z86" s="67"/>
+      <c r="AA86" s="67"/>
+      <c r="AB86" s="67"/>
+      <c r="AC86" s="67"/>
+      <c r="AD86" s="67"/>
     </row>
     <row r="87" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="68" t="s">
+      <c r="C87" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D87" s="68"/>
-      <c r="E87" s="68"/>
-      <c r="F87" s="68"/>
-      <c r="G87" s="68"/>
-      <c r="H87" s="68"/>
-      <c r="I87" s="68"/>
-      <c r="J87" s="68"/>
-      <c r="K87" s="68"/>
-      <c r="L87" s="68"/>
-      <c r="M87" s="68"/>
-      <c r="N87" s="68"/>
-      <c r="O87" s="68"/>
-      <c r="P87" s="68"/>
-      <c r="Q87" s="68"/>
-      <c r="R87" s="68"/>
-      <c r="S87" s="68"/>
-      <c r="T87" s="68"/>
-      <c r="U87" s="68"/>
-      <c r="V87" s="68"/>
-      <c r="W87" s="68"/>
-      <c r="X87" s="68"/>
-      <c r="Y87" s="68"/>
-      <c r="Z87" s="68"/>
-      <c r="AA87" s="68"/>
-      <c r="AB87" s="68"/>
-      <c r="AC87" s="68"/>
-      <c r="AD87" s="68"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="67"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="67"/>
+      <c r="L87" s="67"/>
+      <c r="M87" s="67"/>
+      <c r="N87" s="67"/>
+      <c r="O87" s="67"/>
+      <c r="P87" s="67"/>
+      <c r="Q87" s="67"/>
+      <c r="R87" s="67"/>
+      <c r="S87" s="67"/>
+      <c r="T87" s="67"/>
+      <c r="U87" s="67"/>
+      <c r="V87" s="67"/>
+      <c r="W87" s="67"/>
+      <c r="X87" s="67"/>
+      <c r="Y87" s="67"/>
+      <c r="Z87" s="67"/>
+      <c r="AA87" s="67"/>
+      <c r="AB87" s="67"/>
+      <c r="AC87" s="67"/>
+      <c r="AD87" s="67"/>
     </row>
     <row r="88" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="68"/>
-      <c r="D88" s="68"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="68"/>
-      <c r="H88" s="68"/>
-      <c r="I88" s="68"/>
-      <c r="J88" s="68"/>
-      <c r="K88" s="68"/>
-      <c r="L88" s="68"/>
-      <c r="M88" s="68"/>
-      <c r="N88" s="68"/>
-      <c r="O88" s="68"/>
-      <c r="P88" s="68"/>
-      <c r="Q88" s="68"/>
-      <c r="R88" s="68"/>
-      <c r="S88" s="68"/>
-      <c r="T88" s="68"/>
-      <c r="U88" s="68"/>
-      <c r="V88" s="68"/>
-      <c r="W88" s="68"/>
-      <c r="X88" s="68"/>
-      <c r="Y88" s="68"/>
-      <c r="Z88" s="68"/>
-      <c r="AA88" s="68"/>
-      <c r="AB88" s="68"/>
-      <c r="AC88" s="68"/>
-      <c r="AD88" s="68"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="67"/>
+      <c r="J88" s="67"/>
+      <c r="K88" s="67"/>
+      <c r="L88" s="67"/>
+      <c r="M88" s="67"/>
+      <c r="N88" s="67"/>
+      <c r="O88" s="67"/>
+      <c r="P88" s="67"/>
+      <c r="Q88" s="67"/>
+      <c r="R88" s="67"/>
+      <c r="S88" s="67"/>
+      <c r="T88" s="67"/>
+      <c r="U88" s="67"/>
+      <c r="V88" s="67"/>
+      <c r="W88" s="67"/>
+      <c r="X88" s="67"/>
+      <c r="Y88" s="67"/>
+      <c r="Z88" s="67"/>
+      <c r="AA88" s="67"/>
+      <c r="AB88" s="67"/>
+      <c r="AC88" s="67"/>
+      <c r="AD88" s="67"/>
     </row>
     <row r="89" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="68"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="68"/>
-      <c r="H89" s="68"/>
-      <c r="I89" s="68"/>
-      <c r="J89" s="68"/>
-      <c r="K89" s="68"/>
-      <c r="L89" s="68"/>
-      <c r="M89" s="68"/>
-      <c r="N89" s="68"/>
-      <c r="O89" s="68"/>
-      <c r="P89" s="68"/>
-      <c r="Q89" s="68"/>
-      <c r="R89" s="68"/>
-      <c r="S89" s="68"/>
-      <c r="T89" s="68"/>
-      <c r="U89" s="68"/>
-      <c r="V89" s="68"/>
-      <c r="W89" s="68"/>
-      <c r="X89" s="68"/>
-      <c r="Y89" s="68"/>
-      <c r="Z89" s="68"/>
-      <c r="AA89" s="68"/>
-      <c r="AB89" s="68"/>
-      <c r="AC89" s="68"/>
-      <c r="AD89" s="68"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="67"/>
+      <c r="H89" s="67"/>
+      <c r="I89" s="67"/>
+      <c r="J89" s="67"/>
+      <c r="K89" s="67"/>
+      <c r="L89" s="67"/>
+      <c r="M89" s="67"/>
+      <c r="N89" s="67"/>
+      <c r="O89" s="67"/>
+      <c r="P89" s="67"/>
+      <c r="Q89" s="67"/>
+      <c r="R89" s="67"/>
+      <c r="S89" s="67"/>
+      <c r="T89" s="67"/>
+      <c r="U89" s="67"/>
+      <c r="V89" s="67"/>
+      <c r="W89" s="67"/>
+      <c r="X89" s="67"/>
+      <c r="Y89" s="67"/>
+      <c r="Z89" s="67"/>
+      <c r="AA89" s="67"/>
+      <c r="AB89" s="67"/>
+      <c r="AC89" s="67"/>
+      <c r="AD89" s="67"/>
     </row>
     <row r="90" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="68"/>
-      <c r="D90" s="68"/>
-      <c r="E90" s="68"/>
-      <c r="F90" s="68"/>
-      <c r="G90" s="68"/>
-      <c r="H90" s="68"/>
-      <c r="I90" s="68"/>
-      <c r="J90" s="68"/>
-      <c r="K90" s="68"/>
-      <c r="L90" s="68"/>
-      <c r="M90" s="68"/>
-      <c r="N90" s="68"/>
-      <c r="O90" s="68"/>
-      <c r="P90" s="68"/>
-      <c r="Q90" s="68"/>
-      <c r="R90" s="68"/>
-      <c r="S90" s="68"/>
-      <c r="T90" s="68"/>
-      <c r="U90" s="68"/>
-      <c r="V90" s="68"/>
-      <c r="W90" s="68"/>
-      <c r="X90" s="68"/>
-      <c r="Y90" s="68"/>
-      <c r="Z90" s="68"/>
-      <c r="AA90" s="68"/>
-      <c r="AB90" s="68"/>
-      <c r="AC90" s="68"/>
-      <c r="AD90" s="68"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="67"/>
+      <c r="J90" s="67"/>
+      <c r="K90" s="67"/>
+      <c r="L90" s="67"/>
+      <c r="M90" s="67"/>
+      <c r="N90" s="67"/>
+      <c r="O90" s="67"/>
+      <c r="P90" s="67"/>
+      <c r="Q90" s="67"/>
+      <c r="R90" s="67"/>
+      <c r="S90" s="67"/>
+      <c r="T90" s="67"/>
+      <c r="U90" s="67"/>
+      <c r="V90" s="67"/>
+      <c r="W90" s="67"/>
+      <c r="X90" s="67"/>
+      <c r="Y90" s="67"/>
+      <c r="Z90" s="67"/>
+      <c r="AA90" s="67"/>
+      <c r="AB90" s="67"/>
+      <c r="AC90" s="67"/>
+      <c r="AD90" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C80:AD81"/>
-    <mergeCell ref="C83:AD84"/>
-    <mergeCell ref="C85:AD86"/>
-    <mergeCell ref="C87:AD88"/>
-    <mergeCell ref="C89:AD90"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="C15:AD16"/>
@@ -17616,6 +17609,11 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AT2:AV2"/>
     <mergeCell ref="BA2:BG2"/>
+    <mergeCell ref="C80:AD81"/>
+    <mergeCell ref="C83:AD84"/>
+    <mergeCell ref="C85:AD86"/>
+    <mergeCell ref="C87:AD88"/>
+    <mergeCell ref="C89:AD90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
+++ b/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\TeamHolyShit\개인작업폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C998185B-F37D-4D63-B605-7A9984BFB9BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938D1A3F-C9A1-46B1-ABA1-2D5518FF2AFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
   </bookViews>
@@ -11368,8 +11368,8 @@
   <dimension ref="A1:CP86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CU42" sqref="CU42"/>
+      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BO32" sqref="BO32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1"/>
@@ -13206,19 +13206,19 @@
       <c r="BG37" s="34"/>
       <c r="BH37" s="34"/>
       <c r="BI37" s="34"/>
-      <c r="BJ37" s="36"/>
-      <c r="BK37" s="36"/>
-      <c r="BL37" s="36"/>
-      <c r="BM37" s="36"/>
-      <c r="BN37" s="36"/>
-      <c r="BO37" s="36"/>
-      <c r="BP37" s="36"/>
-      <c r="BQ37" s="36"/>
-      <c r="BR37" s="36"/>
-      <c r="BS37" s="36"/>
-      <c r="BT37" s="36"/>
-      <c r="BU37" s="36"/>
-      <c r="BV37" s="36"/>
+      <c r="BJ37" s="34"/>
+      <c r="BK37" s="34"/>
+      <c r="BL37" s="34"/>
+      <c r="BM37" s="34"/>
+      <c r="BN37" s="34"/>
+      <c r="BO37" s="34"/>
+      <c r="BP37" s="34"/>
+      <c r="BQ37" s="34"/>
+      <c r="BR37" s="34"/>
+      <c r="BS37" s="34"/>
+      <c r="BT37" s="34"/>
+      <c r="BU37" s="34"/>
+      <c r="BV37" s="34"/>
       <c r="BW37" s="34"/>
       <c r="BX37" s="34"/>
       <c r="CM37" s="34"/>
@@ -13247,19 +13247,19 @@
       <c r="BG38" s="34"/>
       <c r="BH38" s="34"/>
       <c r="BI38" s="34"/>
-      <c r="BJ38" s="36"/>
-      <c r="BK38" s="36"/>
-      <c r="BL38" s="36"/>
-      <c r="BM38" s="36"/>
-      <c r="BN38" s="36"/>
-      <c r="BO38" s="36"/>
-      <c r="BP38" s="36"/>
-      <c r="BQ38" s="36"/>
-      <c r="BR38" s="36"/>
-      <c r="BS38" s="36"/>
-      <c r="BT38" s="36"/>
-      <c r="BU38" s="36"/>
-      <c r="BV38" s="36"/>
+      <c r="BJ38" s="34"/>
+      <c r="BK38" s="34"/>
+      <c r="BL38" s="34"/>
+      <c r="BM38" s="34"/>
+      <c r="BN38" s="34"/>
+      <c r="BO38" s="34"/>
+      <c r="BP38" s="34"/>
+      <c r="BQ38" s="34"/>
+      <c r="BR38" s="34"/>
+      <c r="BS38" s="34"/>
+      <c r="BT38" s="34"/>
+      <c r="BU38" s="34"/>
+      <c r="BV38" s="34"/>
       <c r="BW38" s="34"/>
       <c r="BX38" s="34"/>
       <c r="CB38" s="33"/>
@@ -13289,19 +13289,19 @@
       <c r="BG39" s="34"/>
       <c r="BH39" s="34"/>
       <c r="BI39" s="34"/>
-      <c r="BJ39" s="36"/>
-      <c r="BK39" s="36"/>
-      <c r="BL39" s="36"/>
-      <c r="BM39" s="36"/>
-      <c r="BN39" s="36"/>
-      <c r="BO39" s="36"/>
-      <c r="BP39" s="36"/>
-      <c r="BQ39" s="36"/>
-      <c r="BR39" s="36"/>
-      <c r="BS39" s="36"/>
-      <c r="BT39" s="36"/>
-      <c r="BU39" s="36"/>
-      <c r="BV39" s="36"/>
+      <c r="BJ39" s="34"/>
+      <c r="BK39" s="34"/>
+      <c r="BL39" s="34"/>
+      <c r="BM39" s="34"/>
+      <c r="BN39" s="34"/>
+      <c r="BO39" s="34"/>
+      <c r="BP39" s="34"/>
+      <c r="BQ39" s="34"/>
+      <c r="BR39" s="34"/>
+      <c r="BS39" s="34"/>
+      <c r="BT39" s="34"/>
+      <c r="BU39" s="34"/>
+      <c r="BV39" s="34"/>
       <c r="BW39" s="34"/>
       <c r="BX39" s="34"/>
       <c r="CD39" s="35"/>
@@ -13326,19 +13326,19 @@
       <c r="AY40" s="34"/>
       <c r="BH40" s="34"/>
       <c r="BI40" s="34"/>
-      <c r="BJ40" s="36"/>
-      <c r="BK40" s="36"/>
-      <c r="BL40" s="36"/>
-      <c r="BM40" s="36"/>
-      <c r="BN40" s="36"/>
-      <c r="BO40" s="36"/>
-      <c r="BP40" s="36"/>
-      <c r="BQ40" s="36"/>
-      <c r="BR40" s="36"/>
-      <c r="BS40" s="36"/>
-      <c r="BT40" s="36"/>
-      <c r="BU40" s="36"/>
-      <c r="BV40" s="36"/>
+      <c r="BJ40" s="34"/>
+      <c r="BK40" s="34"/>
+      <c r="BL40" s="34"/>
+      <c r="BM40" s="34"/>
+      <c r="BN40" s="34"/>
+      <c r="BO40" s="34"/>
+      <c r="BP40" s="34"/>
+      <c r="BQ40" s="34"/>
+      <c r="BR40" s="34"/>
+      <c r="BS40" s="34"/>
+      <c r="BT40" s="34"/>
+      <c r="BU40" s="34"/>
+      <c r="BV40" s="34"/>
       <c r="BW40" s="34"/>
       <c r="BX40" s="34"/>
       <c r="CD40" s="35"/>
@@ -13361,19 +13361,19 @@
       <c r="AY41" s="34"/>
       <c r="BH41" s="34"/>
       <c r="BI41" s="34"/>
-      <c r="BJ41" s="36"/>
-      <c r="BK41" s="36"/>
-      <c r="BL41" s="36"/>
-      <c r="BM41" s="36"/>
-      <c r="BN41" s="36"/>
-      <c r="BO41" s="36"/>
-      <c r="BP41" s="36"/>
-      <c r="BQ41" s="36"/>
-      <c r="BR41" s="36"/>
-      <c r="BS41" s="36"/>
-      <c r="BT41" s="36"/>
-      <c r="BU41" s="36"/>
-      <c r="BV41" s="36"/>
+      <c r="BJ41" s="34"/>
+      <c r="BK41" s="34"/>
+      <c r="BL41" s="34"/>
+      <c r="BM41" s="34"/>
+      <c r="BN41" s="34"/>
+      <c r="BO41" s="34"/>
+      <c r="BP41" s="34"/>
+      <c r="BQ41" s="34"/>
+      <c r="BR41" s="34"/>
+      <c r="BS41" s="34"/>
+      <c r="BT41" s="34"/>
+      <c r="BU41" s="34"/>
+      <c r="BV41" s="34"/>
       <c r="BW41" s="34"/>
       <c r="BX41" s="34"/>
       <c r="CD41" s="35"/>
@@ -13408,19 +13408,19 @@
       <c r="AY42" s="34"/>
       <c r="BH42" s="34"/>
       <c r="BI42" s="34"/>
-      <c r="BJ42" s="36"/>
-      <c r="BK42" s="36"/>
-      <c r="BL42" s="36"/>
-      <c r="BM42" s="36"/>
-      <c r="BN42" s="36"/>
-      <c r="BO42" s="36"/>
-      <c r="BP42" s="36"/>
-      <c r="BQ42" s="36"/>
-      <c r="BR42" s="36"/>
-      <c r="BS42" s="36"/>
-      <c r="BT42" s="36"/>
-      <c r="BU42" s="36"/>
-      <c r="BV42" s="36"/>
+      <c r="BJ42" s="34"/>
+      <c r="BK42" s="34"/>
+      <c r="BL42" s="34"/>
+      <c r="BM42" s="34"/>
+      <c r="BN42" s="34"/>
+      <c r="BO42" s="34"/>
+      <c r="BP42" s="34"/>
+      <c r="BQ42" s="34"/>
+      <c r="BR42" s="34"/>
+      <c r="BS42" s="34"/>
+      <c r="BT42" s="34"/>
+      <c r="BU42" s="34"/>
+      <c r="BV42" s="34"/>
       <c r="BW42" s="34"/>
       <c r="BX42" s="34"/>
       <c r="CA42" s="35"/>
@@ -13465,19 +13465,19 @@
       <c r="AY43" s="34"/>
       <c r="BH43" s="34"/>
       <c r="BI43" s="34"/>
-      <c r="BJ43" s="36"/>
-      <c r="BK43" s="36"/>
-      <c r="BL43" s="36"/>
-      <c r="BM43" s="36"/>
-      <c r="BN43" s="36"/>
-      <c r="BO43" s="36"/>
-      <c r="BP43" s="36"/>
-      <c r="BQ43" s="36"/>
-      <c r="BR43" s="36"/>
-      <c r="BS43" s="36"/>
-      <c r="BT43" s="36"/>
-      <c r="BU43" s="36"/>
-      <c r="BV43" s="36"/>
+      <c r="BJ43" s="34"/>
+      <c r="BK43" s="34"/>
+      <c r="BL43" s="34"/>
+      <c r="BM43" s="34"/>
+      <c r="BN43" s="34"/>
+      <c r="BO43" s="34"/>
+      <c r="BP43" s="34"/>
+      <c r="BQ43" s="34"/>
+      <c r="BR43" s="34"/>
+      <c r="BS43" s="34"/>
+      <c r="BT43" s="34"/>
+      <c r="BU43" s="34"/>
+      <c r="BV43" s="34"/>
       <c r="BW43" s="34"/>
       <c r="BX43" s="34"/>
       <c r="CA43" s="35"/>
@@ -13505,19 +13505,19 @@
       <c r="H44" s="32"/>
       <c r="BH44" s="34"/>
       <c r="BI44" s="34"/>
-      <c r="BJ44" s="36"/>
-      <c r="BK44" s="36"/>
-      <c r="BL44" s="36"/>
-      <c r="BM44" s="36"/>
-      <c r="BN44" s="36"/>
-      <c r="BO44" s="36"/>
-      <c r="BP44" s="36"/>
-      <c r="BQ44" s="36"/>
-      <c r="BR44" s="36"/>
-      <c r="BS44" s="36"/>
-      <c r="BT44" s="36"/>
-      <c r="BU44" s="36"/>
-      <c r="BV44" s="36"/>
+      <c r="BJ44" s="34"/>
+      <c r="BK44" s="34"/>
+      <c r="BL44" s="34"/>
+      <c r="BM44" s="34"/>
+      <c r="BN44" s="34"/>
+      <c r="BO44" s="34"/>
+      <c r="BP44" s="34"/>
+      <c r="BQ44" s="34"/>
+      <c r="BR44" s="34"/>
+      <c r="BS44" s="34"/>
+      <c r="BT44" s="34"/>
+      <c r="BU44" s="34"/>
+      <c r="BV44" s="34"/>
       <c r="BW44" s="34"/>
       <c r="BX44" s="34"/>
       <c r="CM44" s="34"/>
@@ -13533,19 +13533,19 @@
       <c r="H45" s="32"/>
       <c r="BH45" s="34"/>
       <c r="BI45" s="34"/>
-      <c r="BJ45" s="36"/>
-      <c r="BK45" s="36"/>
-      <c r="BL45" s="36"/>
-      <c r="BM45" s="36"/>
-      <c r="BN45" s="36"/>
-      <c r="BO45" s="36"/>
-      <c r="BP45" s="36"/>
-      <c r="BQ45" s="36"/>
-      <c r="BR45" s="36"/>
-      <c r="BS45" s="36"/>
-      <c r="BT45" s="36"/>
-      <c r="BU45" s="36"/>
-      <c r="BV45" s="36"/>
+      <c r="BJ45" s="34"/>
+      <c r="BK45" s="34"/>
+      <c r="BL45" s="34"/>
+      <c r="BM45" s="34"/>
+      <c r="BN45" s="34"/>
+      <c r="BO45" s="34"/>
+      <c r="BP45" s="34"/>
+      <c r="BQ45" s="34"/>
+      <c r="BR45" s="34"/>
+      <c r="BS45" s="34"/>
+      <c r="BT45" s="34"/>
+      <c r="BU45" s="34"/>
+      <c r="BV45" s="34"/>
       <c r="BW45" s="34"/>
       <c r="BX45" s="34"/>
       <c r="CM45" s="34"/>
@@ -13562,19 +13562,19 @@
       <c r="BE46" s="31"/>
       <c r="BH46" s="34"/>
       <c r="BI46" s="34"/>
-      <c r="BJ46" s="36"/>
-      <c r="BK46" s="36"/>
-      <c r="BL46" s="36"/>
-      <c r="BM46" s="36"/>
-      <c r="BN46" s="36"/>
-      <c r="BO46" s="36"/>
-      <c r="BP46" s="36"/>
-      <c r="BQ46" s="36"/>
-      <c r="BR46" s="36"/>
-      <c r="BS46" s="36"/>
-      <c r="BT46" s="36"/>
-      <c r="BU46" s="36"/>
-      <c r="BV46" s="36"/>
+      <c r="BJ46" s="34"/>
+      <c r="BK46" s="34"/>
+      <c r="BL46" s="34"/>
+      <c r="BM46" s="34"/>
+      <c r="BN46" s="34"/>
+      <c r="BO46" s="34"/>
+      <c r="BP46" s="34"/>
+      <c r="BQ46" s="34"/>
+      <c r="BR46" s="34"/>
+      <c r="BS46" s="34"/>
+      <c r="BT46" s="34"/>
+      <c r="BU46" s="34"/>
+      <c r="BV46" s="34"/>
       <c r="BW46" s="34"/>
       <c r="BX46" s="34"/>
       <c r="CB46" s="33"/>
@@ -13628,7 +13628,7 @@
       <c r="AO47" s="34"/>
       <c r="AP47" s="34"/>
       <c r="AQ47" s="35"/>
-      <c r="AR47" s="34"/>
+      <c r="AR47" s="35"/>
       <c r="AS47" s="34"/>
       <c r="AT47" s="34"/>
       <c r="AU47" s="34"/>
@@ -13646,19 +13646,19 @@
       <c r="BG47" s="34"/>
       <c r="BH47" s="34"/>
       <c r="BI47" s="34"/>
-      <c r="BJ47" s="36"/>
-      <c r="BK47" s="36"/>
-      <c r="BL47" s="36"/>
-      <c r="BM47" s="36"/>
-      <c r="BN47" s="36"/>
-      <c r="BO47" s="36"/>
-      <c r="BP47" s="36"/>
-      <c r="BQ47" s="36"/>
-      <c r="BR47" s="36"/>
-      <c r="BS47" s="36"/>
-      <c r="BT47" s="36"/>
-      <c r="BU47" s="36"/>
-      <c r="BV47" s="36"/>
+      <c r="BJ47" s="34"/>
+      <c r="BK47" s="34"/>
+      <c r="BL47" s="34"/>
+      <c r="BM47" s="34"/>
+      <c r="BN47" s="34"/>
+      <c r="BO47" s="34"/>
+      <c r="BP47" s="34"/>
+      <c r="BQ47" s="34"/>
+      <c r="BR47" s="34"/>
+      <c r="BS47" s="34"/>
+      <c r="BT47" s="34"/>
+      <c r="BU47" s="34"/>
+      <c r="BV47" s="34"/>
       <c r="BW47" s="34"/>
       <c r="BX47" s="34"/>
       <c r="BY47" s="34"/>
@@ -13737,19 +13737,19 @@
       <c r="BG48" s="34"/>
       <c r="BH48" s="34"/>
       <c r="BI48" s="34"/>
-      <c r="BJ48" s="36"/>
-      <c r="BK48" s="36"/>
-      <c r="BL48" s="36"/>
-      <c r="BM48" s="36"/>
-      <c r="BN48" s="36"/>
-      <c r="BO48" s="36"/>
-      <c r="BP48" s="36"/>
-      <c r="BQ48" s="36"/>
-      <c r="BR48" s="36"/>
-      <c r="BS48" s="36"/>
-      <c r="BT48" s="36"/>
-      <c r="BU48" s="36"/>
-      <c r="BV48" s="36"/>
+      <c r="BJ48" s="34"/>
+      <c r="BK48" s="34"/>
+      <c r="BL48" s="34"/>
+      <c r="BM48" s="34"/>
+      <c r="BN48" s="34"/>
+      <c r="BO48" s="34"/>
+      <c r="BP48" s="34"/>
+      <c r="BQ48" s="34"/>
+      <c r="BR48" s="34"/>
+      <c r="BS48" s="34"/>
+      <c r="BT48" s="34"/>
+      <c r="BU48" s="34"/>
+      <c r="BV48" s="34"/>
       <c r="BW48" s="34"/>
       <c r="BX48" s="34"/>
       <c r="BY48" s="34"/>
@@ -15256,7 +15256,7 @@
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT16" sqref="AT16"/>
+      <selection pane="bottomLeft" activeCell="DA64" sqref="DA64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1"/>

--- a/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
+++ b/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\TeamHolyShit\개인작업폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938D1A3F-C9A1-46B1-ABA1-2D5518FF2AFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A7AD82-6A5D-4591-8FD4-5631FCCFA42F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
   </bookViews>
   <sheets>
     <sheet name="문서정보" sheetId="19" r:id="rId1"/>
@@ -11367,7 +11367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED20668-B17A-4E70-988E-2CE8318BE25B}">
   <dimension ref="A1:CP86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="BO32" sqref="BO32"/>
     </sheetView>
@@ -15254,9 +15254,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC1ACA1-D39A-40A3-9EAE-07F33C90ECD2}">
   <dimension ref="A1:DU91"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="DA64" sqref="DA64"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BE24" sqref="BE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1"/>
@@ -16554,7 +16554,7 @@
       <c r="BA21" s="32"/>
       <c r="BB21" s="32"/>
       <c r="BC21" s="32"/>
-      <c r="BD21" s="36"/>
+      <c r="BD21" s="32"/>
       <c r="BE21" s="32"/>
       <c r="BF21" s="32"/>
       <c r="BG21" s="32"/>
@@ -16659,6 +16659,7 @@
       <c r="AH22" s="34"/>
       <c r="AI22" s="34"/>
       <c r="AJ22" s="36"/>
+      <c r="BD22" s="36"/>
       <c r="CM22" s="34"/>
       <c r="CN22" s="34"/>
       <c r="CO22" s="34"/>

--- a/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
+++ b/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsao\Desktop\TeamHolyShit\개인작업폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA811BB-F1B9-458F-9EAB-ED03C77A9BCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA87F48A-2897-4CE5-93E9-5C4DA3B018EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
+    <workbookView xWindow="30" yWindow="375" windowWidth="18765" windowHeight="14805" firstSheet="1" activeTab="5" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
   </bookViews>
   <sheets>
     <sheet name="문서정보" sheetId="19" r:id="rId1"/>
@@ -963,24 +963,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1022,7 +1007,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1034,20 +1049,8 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1062,9 +1065,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4536,151 +4536,151 @@
     </row>
     <row r="3" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="47"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="42"/>
     </row>
     <row r="5" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
     </row>
     <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="50"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="45"/>
     </row>
     <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="50"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
     </row>
     <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="50"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
     </row>
     <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="50"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="45"/>
     </row>
     <row r="11" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="48"/>
     </row>
     <row r="12" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="49">
         <v>44225</v>
       </c>
-      <c r="D13" s="55"/>
+      <c r="D13" s="50"/>
       <c r="M13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="56" t="s">
+      <c r="N13" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="57"/>
+      <c r="O13" s="52"/>
     </row>
     <row r="14" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
@@ -4699,22 +4699,22 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="2:15" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
     </row>
     <row r="16" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
@@ -4736,233 +4736,233 @@
       <c r="C17" s="6">
         <v>1</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
     </row>
     <row r="18" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
     </row>
     <row r="19" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
     </row>
     <row r="20" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
     </row>
     <row r="21" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="6">
         <v>2</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
     </row>
     <row r="22" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
     </row>
     <row r="23" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
     </row>
     <row r="24" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
     </row>
     <row r="25" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="6">
         <v>3</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
     </row>
     <row r="26" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="6">
         <v>4</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
     </row>
     <row r="27" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="6">
         <v>5</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
     </row>
     <row r="28" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="30">
         <v>6</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
     </row>
     <row r="29" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="30">
         <v>7</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
     </row>
     <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
     </row>
     <row r="33" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="2:15" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
     </row>
     <row r="35" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
@@ -4987,364 +4987,413 @@
       <c r="C36" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="40"/>
+      <c r="E36" s="54"/>
       <c r="F36" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G36" s="41" t="s">
+      <c r="G36" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="40" t="s">
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="O36" s="40"/>
+      <c r="O36" s="54"/>
     </row>
     <row r="37" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="8">
         <v>1</v>
       </c>
       <c r="C37" s="28"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
     </row>
     <row r="38" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="8">
         <v>2</v>
       </c>
       <c r="C38" s="28"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
       <c r="F38" s="28"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
     </row>
     <row r="39" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8"/>
       <c r="C39" s="28"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
       <c r="F39" s="28"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
     </row>
     <row r="40" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
       <c r="C40" s="28"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
       <c r="F40" s="28"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
     </row>
     <row r="41" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
       <c r="C41" s="28"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
       <c r="F41" s="28"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
     </row>
     <row r="42" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
       <c r="C42" s="28"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
       <c r="F42" s="28"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
     </row>
     <row r="43" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
       <c r="C43" s="28"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
       <c r="F43" s="28"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
     </row>
     <row r="44" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="8"/>
       <c r="C44" s="28"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
       <c r="F44" s="28"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
     </row>
     <row r="45" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
       <c r="C45" s="28"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
       <c r="F45" s="28"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
     </row>
     <row r="46" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
       <c r="C46" s="28"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
       <c r="F46" s="28"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
     </row>
     <row r="47" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8"/>
       <c r="C47" s="28"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
       <c r="F47" s="28"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="57"/>
+      <c r="O47" s="57"/>
     </row>
     <row r="48" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="8"/>
       <c r="C48" s="28"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
       <c r="F48" s="28"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
     </row>
     <row r="49" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="8"/>
       <c r="C49" s="28"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
       <c r="F49" s="28"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="57"/>
     </row>
     <row r="50" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="8"/>
       <c r="C50" s="28"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
       <c r="F50" s="28"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
     </row>
     <row r="51" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="8"/>
       <c r="C51" s="28"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
       <c r="F51" s="28"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
     </row>
     <row r="52" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
       <c r="C52" s="28"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
       <c r="F52" s="28"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
     </row>
     <row r="53" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
       <c r="C53" s="28"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
       <c r="F53" s="28"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
     </row>
     <row r="54" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="8"/>
       <c r="C54" s="28"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
       <c r="F54" s="28"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="57"/>
     </row>
     <row r="55" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="8"/>
       <c r="C55" s="28"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
       <c r="F55" s="28"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="57"/>
     </row>
     <row r="56" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="8"/>
       <c r="C56" s="28"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
       <c r="F56" s="28"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="E23:M23"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="E22:M22"/>
-    <mergeCell ref="B4:O11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="N38:O38"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="N36:O36"/>
     <mergeCell ref="G36:M36"/>
@@ -5356,66 +5405,17 @@
     <mergeCell ref="B34:O34"/>
     <mergeCell ref="D28:M28"/>
     <mergeCell ref="D29:M29"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:M56"/>
-    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="B4:O11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="E23:M23"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="E22:M22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5441,379 +5441,894 @@
   <sheetData>
     <row r="1" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" s="13" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="61"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
     </row>
     <row r="5" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
     </row>
     <row r="7" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
     </row>
     <row r="10" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
     </row>
     <row r="11" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
     </row>
     <row r="12" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
     </row>
     <row r="16" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
     </row>
     <row r="17" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
     </row>
     <row r="19" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
     </row>
     <row r="20" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
     </row>
     <row r="21" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
     </row>
     <row r="22" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="66"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="62"/>
     </row>
     <row r="23" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
     </row>
     <row r="25" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
     </row>
     <row r="26" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
     </row>
     <row r="27" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
     </row>
     <row r="28" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
     </row>
     <row r="29" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
     </row>
     <row r="30" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
     </row>
     <row r="31" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
     </row>
     <row r="32" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
     </row>
     <row r="33" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
     </row>
     <row r="35" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
     </row>
     <row r="36" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
     </row>
     <row r="37" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
     </row>
     <row r="38" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
     </row>
     <row r="39" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
     </row>
     <row r="40" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B38:K38"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B115CA4-4A3A-4C15-B086-786A2C0A2453}">
+  <dimension ref="B1:K46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:K42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" s="13" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66"/>
+    </row>
+    <row r="3" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+    </row>
+    <row r="5" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+    </row>
+    <row r="8" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+    </row>
+    <row r="10" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+    </row>
+    <row r="11" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
+    </row>
+    <row r="12" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+    </row>
+    <row r="13" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+    </row>
+    <row r="16" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+    </row>
+    <row r="17" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+    </row>
+    <row r="19" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+    </row>
+    <row r="20" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+    </row>
+    <row r="21" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+    </row>
+    <row r="22" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="62"/>
+    </row>
+    <row r="23" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+    </row>
+    <row r="25" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+    </row>
+    <row r="26" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+    </row>
+    <row r="27" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+    </row>
+    <row r="28" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+    </row>
+    <row r="29" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+    </row>
+    <row r="30" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+    </row>
+    <row r="31" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+    </row>
+    <row r="32" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+    </row>
+    <row r="33" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+    </row>
+    <row r="35" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+    </row>
+    <row r="36" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+    </row>
+    <row r="37" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+    </row>
+    <row r="38" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+    </row>
+    <row r="39" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+    </row>
+    <row r="40" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+    </row>
+    <row r="42" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+    </row>
+    <row r="43" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+    </row>
+    <row r="44" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+    </row>
+    <row r="45" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+    </row>
+    <row r="46" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="B45:K45"/>
     <mergeCell ref="B39:K39"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="B28:K28"/>
@@ -5844,521 +6359,6 @@
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B115CA4-4A3A-4C15-B086-786A2C0A2453}">
-  <dimension ref="B1:K46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:K42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" s="13" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="61"/>
-    </row>
-    <row r="3" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-    </row>
-    <row r="5" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-    </row>
-    <row r="7" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-    </row>
-    <row r="8" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-    </row>
-    <row r="10" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-    </row>
-    <row r="11" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
-    </row>
-    <row r="12" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-    </row>
-    <row r="13" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-    </row>
-    <row r="16" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-    </row>
-    <row r="17" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-    </row>
-    <row r="19" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-    </row>
-    <row r="20" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-    </row>
-    <row r="21" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-    </row>
-    <row r="22" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="66"/>
-    </row>
-    <row r="23" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-    </row>
-    <row r="25" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-    </row>
-    <row r="26" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-    </row>
-    <row r="27" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-    </row>
-    <row r="28" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-    </row>
-    <row r="29" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-    </row>
-    <row r="30" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-    </row>
-    <row r="31" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-    </row>
-    <row r="32" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-    </row>
-    <row r="33" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-    </row>
-    <row r="35" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-    </row>
-    <row r="36" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-    </row>
-    <row r="37" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-    </row>
-    <row r="38" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-    </row>
-    <row r="39" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-    </row>
-    <row r="40" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-    </row>
-    <row r="42" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-    </row>
-    <row r="43" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-    </row>
-    <row r="44" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-    </row>
-    <row r="45" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-    </row>
-    <row r="46" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-    </row>
-  </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B42:K42"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B45:K45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6478,79 +6478,79 @@
     <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="71"/>
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="68" t="s">
+      <c r="V2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="71"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
-      <c r="AD2" s="68" t="s">
+      <c r="AD2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="71"/>
       <c r="AH2" s="21"/>
       <c r="AJ2" s="36"/>
-      <c r="AL2" s="68" t="s">
+      <c r="AL2" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="71"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
-      <c r="AT2" s="68" t="s">
+      <c r="AT2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="71"/>
       <c r="AW2" s="21"/>
-      <c r="BA2" s="68" t="s">
+      <c r="BA2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="71"/>
       <c r="BH2" s="21"/>
       <c r="BJ2" s="37"/>
-      <c r="BL2" s="68" t="s">
+      <c r="BL2" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="BM2" s="69"/>
-      <c r="BN2" s="69"/>
-      <c r="BO2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="71"/>
       <c r="BP2" s="21"/>
-      <c r="BT2" s="68" t="s">
+      <c r="BT2" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="69"/>
-      <c r="BV2" s="69"/>
-      <c r="BW2" s="70"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="71"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -6763,49 +6763,49 @@
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="71"/>
-      <c r="AJ6" s="71"/>
-      <c r="AK6" s="71"/>
-      <c r="AL6" s="71"/>
-      <c r="AM6" s="71"/>
-      <c r="AN6" s="71"/>
-      <c r="AO6" s="71"/>
-      <c r="AP6" s="71"/>
-      <c r="AQ6" s="71"/>
-      <c r="AR6" s="71"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="72"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="72"/>
+      <c r="AN6" s="72"/>
+      <c r="AO6" s="72"/>
+      <c r="AP6" s="72"/>
+      <c r="AQ6" s="72"/>
+      <c r="AR6" s="72"/>
       <c r="AS6" s="11"/>
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
@@ -6821,47 +6821,47 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="71"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="71"/>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="72"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="72"/>
+      <c r="AO7" s="72"/>
+      <c r="AP7" s="72"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="72"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
@@ -6877,47 +6877,47 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="71"/>
-      <c r="AF8" s="71"/>
-      <c r="AG8" s="71"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="71"/>
-      <c r="AJ8" s="71"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="71"/>
-      <c r="AM8" s="71"/>
-      <c r="AN8" s="71"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="71"/>
-      <c r="AQ8" s="71"/>
-      <c r="AR8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
@@ -7044,20 +7044,20 @@
     <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
       <c r="O12" s="73" t="s">
         <v>22</v>
       </c>
@@ -7105,18 +7105,18 @@
     <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -7223,128 +7223,128 @@
       <c r="BT14" s="22"/>
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
     </row>
     <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
     </row>
     <row r="53" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="72" t="s">
+      <c r="C53" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72"/>
-      <c r="N53" s="72"/>
-      <c r="O53" s="72"/>
-      <c r="P53" s="72"/>
-      <c r="Q53" s="72"/>
-      <c r="R53" s="72"/>
-      <c r="S53" s="72"/>
-      <c r="T53" s="72"/>
-      <c r="U53" s="72"/>
-      <c r="V53" s="72"/>
-      <c r="W53" s="72"/>
-      <c r="X53" s="72"/>
-      <c r="Y53" s="72"/>
-      <c r="Z53" s="72"/>
-      <c r="AA53" s="72"/>
-      <c r="AB53" s="72"/>
-      <c r="AC53" s="72"/>
-      <c r="AD53" s="72"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="67"/>
+      <c r="P53" s="67"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="67"/>
+      <c r="S53" s="67"/>
+      <c r="T53" s="67"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
+      <c r="X53" s="67"/>
+      <c r="Y53" s="67"/>
+      <c r="Z53" s="67"/>
+      <c r="AA53" s="67"/>
+      <c r="AB53" s="67"/>
+      <c r="AC53" s="67"/>
+      <c r="AD53" s="67"/>
     </row>
     <row r="54" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
-      <c r="N54" s="72"/>
-      <c r="O54" s="72"/>
-      <c r="P54" s="72"/>
-      <c r="Q54" s="72"/>
-      <c r="R54" s="72"/>
-      <c r="S54" s="72"/>
-      <c r="T54" s="72"/>
-      <c r="U54" s="72"/>
-      <c r="V54" s="72"/>
-      <c r="W54" s="72"/>
-      <c r="X54" s="72"/>
-      <c r="Y54" s="72"/>
-      <c r="Z54" s="72"/>
-      <c r="AA54" s="72"/>
-      <c r="AB54" s="72"/>
-      <c r="AC54" s="72"/>
-      <c r="AD54" s="72"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="67"/>
+      <c r="P54" s="67"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="67"/>
+      <c r="S54" s="67"/>
+      <c r="T54" s="67"/>
+      <c r="U54" s="67"/>
+      <c r="V54" s="67"/>
+      <c r="W54" s="67"/>
+      <c r="X54" s="67"/>
+      <c r="Y54" s="67"/>
+      <c r="Z54" s="67"/>
+      <c r="AA54" s="67"/>
+      <c r="AB54" s="67"/>
+      <c r="AC54" s="67"/>
+      <c r="AD54" s="67"/>
     </row>
     <row r="55" spans="3:72" s="24" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C55" s="22"/>
@@ -7419,34 +7419,34 @@
       <c r="BT55" s="22"/>
     </row>
     <row r="56" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="67"/>
-      <c r="M56" s="67"/>
-      <c r="N56" s="67"/>
-      <c r="O56" s="67"/>
-      <c r="P56" s="67"/>
-      <c r="Q56" s="67"/>
-      <c r="R56" s="67"/>
-      <c r="S56" s="67"/>
-      <c r="T56" s="67"/>
-      <c r="U56" s="67"/>
-      <c r="V56" s="67"/>
-      <c r="W56" s="67"/>
-      <c r="X56" s="67"/>
-      <c r="Y56" s="67"/>
-      <c r="Z56" s="67"/>
-      <c r="AA56" s="67"/>
-      <c r="AB56" s="67"/>
-      <c r="AC56" s="67"/>
-      <c r="AD56" s="67"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="68"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="68"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="68"/>
+      <c r="W56" s="68"/>
+      <c r="X56" s="68"/>
+      <c r="Y56" s="68"/>
+      <c r="Z56" s="68"/>
+      <c r="AA56" s="68"/>
+      <c r="AB56" s="68"/>
+      <c r="AC56" s="68"/>
+      <c r="AD56" s="68"/>
       <c r="AE56" s="22"/>
       <c r="AF56" s="22"/>
       <c r="AG56" s="22"/>
@@ -7491,34 +7491,34 @@
       <c r="BT56" s="22"/>
     </row>
     <row r="57" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="67"/>
-      <c r="M57" s="67"/>
-      <c r="N57" s="67"/>
-      <c r="O57" s="67"/>
-      <c r="P57" s="67"/>
-      <c r="Q57" s="67"/>
-      <c r="R57" s="67"/>
-      <c r="S57" s="67"/>
-      <c r="T57" s="67"/>
-      <c r="U57" s="67"/>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
-      <c r="X57" s="67"/>
-      <c r="Y57" s="67"/>
-      <c r="Z57" s="67"/>
-      <c r="AA57" s="67"/>
-      <c r="AB57" s="67"/>
-      <c r="AC57" s="67"/>
-      <c r="AD57" s="67"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="68"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="68"/>
+      <c r="W57" s="68"/>
+      <c r="X57" s="68"/>
+      <c r="Y57" s="68"/>
+      <c r="Z57" s="68"/>
+      <c r="AA57" s="68"/>
+      <c r="AB57" s="68"/>
+      <c r="AC57" s="68"/>
+      <c r="AD57" s="68"/>
       <c r="AE57" s="22"/>
       <c r="AF57" s="22"/>
       <c r="AG57" s="22"/>
@@ -7563,192 +7563,187 @@
       <c r="BT57" s="22"/>
     </row>
     <row r="58" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="67"/>
-      <c r="O58" s="67"/>
-      <c r="P58" s="67"/>
-      <c r="Q58" s="67"/>
-      <c r="R58" s="67"/>
-      <c r="S58" s="67"/>
-      <c r="T58" s="67"/>
-      <c r="U58" s="67"/>
-      <c r="V58" s="67"/>
-      <c r="W58" s="67"/>
-      <c r="X58" s="67"/>
-      <c r="Y58" s="67"/>
-      <c r="Z58" s="67"/>
-      <c r="AA58" s="67"/>
-      <c r="AB58" s="67"/>
-      <c r="AC58" s="67"/>
-      <c r="AD58" s="67"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="68"/>
+      <c r="Q58" s="68"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="68"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="68"/>
+      <c r="W58" s="68"/>
+      <c r="X58" s="68"/>
+      <c r="Y58" s="68"/>
+      <c r="Z58" s="68"/>
+      <c r="AA58" s="68"/>
+      <c r="AB58" s="68"/>
+      <c r="AC58" s="68"/>
+      <c r="AD58" s="68"/>
     </row>
     <row r="59" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="67"/>
-      <c r="N59" s="67"/>
-      <c r="O59" s="67"/>
-      <c r="P59" s="67"/>
-      <c r="Q59" s="67"/>
-      <c r="R59" s="67"/>
-      <c r="S59" s="67"/>
-      <c r="T59" s="67"/>
-      <c r="U59" s="67"/>
-      <c r="V59" s="67"/>
-      <c r="W59" s="67"/>
-      <c r="X59" s="67"/>
-      <c r="Y59" s="67"/>
-      <c r="Z59" s="67"/>
-      <c r="AA59" s="67"/>
-      <c r="AB59" s="67"/>
-      <c r="AC59" s="67"/>
-      <c r="AD59" s="67"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="68"/>
+      <c r="Q59" s="68"/>
+      <c r="R59" s="68"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
+      <c r="W59" s="68"/>
+      <c r="X59" s="68"/>
+      <c r="Y59" s="68"/>
+      <c r="Z59" s="68"/>
+      <c r="AA59" s="68"/>
+      <c r="AB59" s="68"/>
+      <c r="AC59" s="68"/>
+      <c r="AD59" s="68"/>
     </row>
     <row r="60" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="67"/>
-      <c r="N60" s="67"/>
-      <c r="O60" s="67"/>
-      <c r="P60" s="67"/>
-      <c r="Q60" s="67"/>
-      <c r="R60" s="67"/>
-      <c r="S60" s="67"/>
-      <c r="T60" s="67"/>
-      <c r="U60" s="67"/>
-      <c r="V60" s="67"/>
-      <c r="W60" s="67"/>
-      <c r="X60" s="67"/>
-      <c r="Y60" s="67"/>
-      <c r="Z60" s="67"/>
-      <c r="AA60" s="67"/>
-      <c r="AB60" s="67"/>
-      <c r="AC60" s="67"/>
-      <c r="AD60" s="67"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="68"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
+      <c r="X60" s="68"/>
+      <c r="Y60" s="68"/>
+      <c r="Z60" s="68"/>
+      <c r="AA60" s="68"/>
+      <c r="AB60" s="68"/>
+      <c r="AC60" s="68"/>
+      <c r="AD60" s="68"/>
     </row>
     <row r="61" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67"/>
-      <c r="O61" s="67"/>
-      <c r="P61" s="67"/>
-      <c r="Q61" s="67"/>
-      <c r="R61" s="67"/>
-      <c r="S61" s="67"/>
-      <c r="T61" s="67"/>
-      <c r="U61" s="67"/>
-      <c r="V61" s="67"/>
-      <c r="W61" s="67"/>
-      <c r="X61" s="67"/>
-      <c r="Y61" s="67"/>
-      <c r="Z61" s="67"/>
-      <c r="AA61" s="67"/>
-      <c r="AB61" s="67"/>
-      <c r="AC61" s="67"/>
-      <c r="AD61" s="67"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="68"/>
+      <c r="Q61" s="68"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="68"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="68"/>
+      <c r="W61" s="68"/>
+      <c r="X61" s="68"/>
+      <c r="Y61" s="68"/>
+      <c r="Z61" s="68"/>
+      <c r="AA61" s="68"/>
+      <c r="AB61" s="68"/>
+      <c r="AC61" s="68"/>
+      <c r="AD61" s="68"/>
     </row>
     <row r="62" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="67"/>
-      <c r="N62" s="67"/>
-      <c r="O62" s="67"/>
-      <c r="P62" s="67"/>
-      <c r="Q62" s="67"/>
-      <c r="R62" s="67"/>
-      <c r="S62" s="67"/>
-      <c r="T62" s="67"/>
-      <c r="U62" s="67"/>
-      <c r="V62" s="67"/>
-      <c r="W62" s="67"/>
-      <c r="X62" s="67"/>
-      <c r="Y62" s="67"/>
-      <c r="Z62" s="67"/>
-      <c r="AA62" s="67"/>
-      <c r="AB62" s="67"/>
-      <c r="AC62" s="67"/>
-      <c r="AD62" s="67"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="68"/>
+      <c r="O62" s="68"/>
+      <c r="P62" s="68"/>
+      <c r="Q62" s="68"/>
+      <c r="R62" s="68"/>
+      <c r="S62" s="68"/>
+      <c r="T62" s="68"/>
+      <c r="U62" s="68"/>
+      <c r="V62" s="68"/>
+      <c r="W62" s="68"/>
+      <c r="X62" s="68"/>
+      <c r="Y62" s="68"/>
+      <c r="Z62" s="68"/>
+      <c r="AA62" s="68"/>
+      <c r="AB62" s="68"/>
+      <c r="AC62" s="68"/>
+      <c r="AD62" s="68"/>
     </row>
     <row r="63" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67"/>
-      <c r="O63" s="67"/>
-      <c r="P63" s="67"/>
-      <c r="Q63" s="67"/>
-      <c r="R63" s="67"/>
-      <c r="S63" s="67"/>
-      <c r="T63" s="67"/>
-      <c r="U63" s="67"/>
-      <c r="V63" s="67"/>
-      <c r="W63" s="67"/>
-      <c r="X63" s="67"/>
-      <c r="Y63" s="67"/>
-      <c r="Z63" s="67"/>
-      <c r="AA63" s="67"/>
-      <c r="AB63" s="67"/>
-      <c r="AC63" s="67"/>
-      <c r="AD63" s="67"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="68"/>
+      <c r="Q63" s="68"/>
+      <c r="R63" s="68"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="68"/>
+      <c r="U63" s="68"/>
+      <c r="V63" s="68"/>
+      <c r="W63" s="68"/>
+      <c r="X63" s="68"/>
+      <c r="Y63" s="68"/>
+      <c r="Z63" s="68"/>
+      <c r="AA63" s="68"/>
+      <c r="AB63" s="68"/>
+      <c r="AC63" s="68"/>
+      <c r="AD63" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C15:AD16"/>
-    <mergeCell ref="C53:AD54"/>
-    <mergeCell ref="C56:AD57"/>
-    <mergeCell ref="C58:AD59"/>
-    <mergeCell ref="C60:AD61"/>
     <mergeCell ref="C62:AD63"/>
     <mergeCell ref="BA2:BG2"/>
     <mergeCell ref="BL2:BO2"/>
@@ -7765,6 +7760,11 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="C15:AD16"/>
+    <mergeCell ref="C53:AD54"/>
+    <mergeCell ref="C56:AD57"/>
+    <mergeCell ref="C58:AD59"/>
+    <mergeCell ref="C60:AD61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7885,79 +7885,79 @@
     <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="71"/>
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="68" t="s">
+      <c r="V2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="71"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
-      <c r="AD2" s="68" t="s">
+      <c r="AD2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="71"/>
       <c r="AH2" s="21"/>
       <c r="AJ2" s="36"/>
-      <c r="AL2" s="68" t="s">
+      <c r="AL2" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="71"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
-      <c r="AT2" s="68" t="s">
+      <c r="AT2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="71"/>
       <c r="AW2" s="21"/>
-      <c r="BA2" s="68" t="s">
+      <c r="BA2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="71"/>
       <c r="BH2" s="21"/>
       <c r="BJ2" s="37"/>
-      <c r="BL2" s="68" t="s">
+      <c r="BL2" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="BM2" s="69"/>
-      <c r="BN2" s="69"/>
-      <c r="BO2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="71"/>
       <c r="BP2" s="21"/>
-      <c r="BT2" s="68" t="s">
+      <c r="BT2" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="69"/>
-      <c r="BV2" s="69"/>
-      <c r="BW2" s="70"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="71"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -8170,49 +8170,49 @@
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="71"/>
-      <c r="AJ6" s="71"/>
-      <c r="AK6" s="71"/>
-      <c r="AL6" s="71"/>
-      <c r="AM6" s="71"/>
-      <c r="AN6" s="71"/>
-      <c r="AO6" s="71"/>
-      <c r="AP6" s="71"/>
-      <c r="AQ6" s="71"/>
-      <c r="AR6" s="71"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="72"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="72"/>
+      <c r="AN6" s="72"/>
+      <c r="AO6" s="72"/>
+      <c r="AP6" s="72"/>
+      <c r="AQ6" s="72"/>
+      <c r="AR6" s="72"/>
       <c r="AS6" s="11"/>
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
@@ -8228,47 +8228,47 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="71"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="71"/>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="72"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="72"/>
+      <c r="AO7" s="72"/>
+      <c r="AP7" s="72"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="72"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
@@ -8284,47 +8284,47 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="71"/>
-      <c r="AF8" s="71"/>
-      <c r="AG8" s="71"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="71"/>
-      <c r="AJ8" s="71"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="71"/>
-      <c r="AM8" s="71"/>
-      <c r="AN8" s="71"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="71"/>
-      <c r="AQ8" s="71"/>
-      <c r="AR8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
@@ -8451,20 +8451,20 @@
     <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
       <c r="O12" s="73" t="s">
         <v>22</v>
       </c>
@@ -8516,18 +8516,18 @@
     <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -8634,66 +8634,66 @@
       <c r="BT14" s="22"/>
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
     </row>
     <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
     </row>
     <row r="18" spans="4:71" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="11"/>
@@ -10241,66 +10241,66 @@
       <c r="BS48" s="11"/>
     </row>
     <row r="53" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="72" t="s">
+      <c r="C53" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72"/>
-      <c r="N53" s="72"/>
-      <c r="O53" s="72"/>
-      <c r="P53" s="72"/>
-      <c r="Q53" s="72"/>
-      <c r="R53" s="72"/>
-      <c r="S53" s="72"/>
-      <c r="T53" s="72"/>
-      <c r="U53" s="72"/>
-      <c r="V53" s="72"/>
-      <c r="W53" s="72"/>
-      <c r="X53" s="72"/>
-      <c r="Y53" s="72"/>
-      <c r="Z53" s="72"/>
-      <c r="AA53" s="72"/>
-      <c r="AB53" s="72"/>
-      <c r="AC53" s="72"/>
-      <c r="AD53" s="72"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="67"/>
+      <c r="P53" s="67"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="67"/>
+      <c r="S53" s="67"/>
+      <c r="T53" s="67"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
+      <c r="X53" s="67"/>
+      <c r="Y53" s="67"/>
+      <c r="Z53" s="67"/>
+      <c r="AA53" s="67"/>
+      <c r="AB53" s="67"/>
+      <c r="AC53" s="67"/>
+      <c r="AD53" s="67"/>
     </row>
     <row r="54" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
-      <c r="N54" s="72"/>
-      <c r="O54" s="72"/>
-      <c r="P54" s="72"/>
-      <c r="Q54" s="72"/>
-      <c r="R54" s="72"/>
-      <c r="S54" s="72"/>
-      <c r="T54" s="72"/>
-      <c r="U54" s="72"/>
-      <c r="V54" s="72"/>
-      <c r="W54" s="72"/>
-      <c r="X54" s="72"/>
-      <c r="Y54" s="72"/>
-      <c r="Z54" s="72"/>
-      <c r="AA54" s="72"/>
-      <c r="AB54" s="72"/>
-      <c r="AC54" s="72"/>
-      <c r="AD54" s="72"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="67"/>
+      <c r="P54" s="67"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="67"/>
+      <c r="S54" s="67"/>
+      <c r="T54" s="67"/>
+      <c r="U54" s="67"/>
+      <c r="V54" s="67"/>
+      <c r="W54" s="67"/>
+      <c r="X54" s="67"/>
+      <c r="Y54" s="67"/>
+      <c r="Z54" s="67"/>
+      <c r="AA54" s="67"/>
+      <c r="AB54" s="67"/>
+      <c r="AC54" s="67"/>
+      <c r="AD54" s="67"/>
     </row>
     <row r="55" spans="3:72" s="24" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C55" s="22"/>
@@ -10375,34 +10375,34 @@
       <c r="BT55" s="22"/>
     </row>
     <row r="56" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="67"/>
-      <c r="M56" s="67"/>
-      <c r="N56" s="67"/>
-      <c r="O56" s="67"/>
-      <c r="P56" s="67"/>
-      <c r="Q56" s="67"/>
-      <c r="R56" s="67"/>
-      <c r="S56" s="67"/>
-      <c r="T56" s="67"/>
-      <c r="U56" s="67"/>
-      <c r="V56" s="67"/>
-      <c r="W56" s="67"/>
-      <c r="X56" s="67"/>
-      <c r="Y56" s="67"/>
-      <c r="Z56" s="67"/>
-      <c r="AA56" s="67"/>
-      <c r="AB56" s="67"/>
-      <c r="AC56" s="67"/>
-      <c r="AD56" s="67"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="68"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="68"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="68"/>
+      <c r="W56" s="68"/>
+      <c r="X56" s="68"/>
+      <c r="Y56" s="68"/>
+      <c r="Z56" s="68"/>
+      <c r="AA56" s="68"/>
+      <c r="AB56" s="68"/>
+      <c r="AC56" s="68"/>
+      <c r="AD56" s="68"/>
       <c r="AE56" s="22"/>
       <c r="AF56" s="22"/>
       <c r="AG56" s="22"/>
@@ -10447,34 +10447,34 @@
       <c r="BT56" s="22"/>
     </row>
     <row r="57" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="67"/>
-      <c r="M57" s="67"/>
-      <c r="N57" s="67"/>
-      <c r="O57" s="67"/>
-      <c r="P57" s="67"/>
-      <c r="Q57" s="67"/>
-      <c r="R57" s="67"/>
-      <c r="S57" s="67"/>
-      <c r="T57" s="67"/>
-      <c r="U57" s="67"/>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
-      <c r="X57" s="67"/>
-      <c r="Y57" s="67"/>
-      <c r="Z57" s="67"/>
-      <c r="AA57" s="67"/>
-      <c r="AB57" s="67"/>
-      <c r="AC57" s="67"/>
-      <c r="AD57" s="67"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="68"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="68"/>
+      <c r="W57" s="68"/>
+      <c r="X57" s="68"/>
+      <c r="Y57" s="68"/>
+      <c r="Z57" s="68"/>
+      <c r="AA57" s="68"/>
+      <c r="AB57" s="68"/>
+      <c r="AC57" s="68"/>
+      <c r="AD57" s="68"/>
       <c r="AE57" s="22"/>
       <c r="AF57" s="22"/>
       <c r="AG57" s="22"/>
@@ -10519,199 +10519,187 @@
       <c r="BT57" s="22"/>
     </row>
     <row r="58" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="67"/>
-      <c r="O58" s="67"/>
-      <c r="P58" s="67"/>
-      <c r="Q58" s="67"/>
-      <c r="R58" s="67"/>
-      <c r="S58" s="67"/>
-      <c r="T58" s="67"/>
-      <c r="U58" s="67"/>
-      <c r="V58" s="67"/>
-      <c r="W58" s="67"/>
-      <c r="X58" s="67"/>
-      <c r="Y58" s="67"/>
-      <c r="Z58" s="67"/>
-      <c r="AA58" s="67"/>
-      <c r="AB58" s="67"/>
-      <c r="AC58" s="67"/>
-      <c r="AD58" s="67"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="68"/>
+      <c r="Q58" s="68"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="68"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="68"/>
+      <c r="W58" s="68"/>
+      <c r="X58" s="68"/>
+      <c r="Y58" s="68"/>
+      <c r="Z58" s="68"/>
+      <c r="AA58" s="68"/>
+      <c r="AB58" s="68"/>
+      <c r="AC58" s="68"/>
+      <c r="AD58" s="68"/>
     </row>
     <row r="59" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="67"/>
-      <c r="N59" s="67"/>
-      <c r="O59" s="67"/>
-      <c r="P59" s="67"/>
-      <c r="Q59" s="67"/>
-      <c r="R59" s="67"/>
-      <c r="S59" s="67"/>
-      <c r="T59" s="67"/>
-      <c r="U59" s="67"/>
-      <c r="V59" s="67"/>
-      <c r="W59" s="67"/>
-      <c r="X59" s="67"/>
-      <c r="Y59" s="67"/>
-      <c r="Z59" s="67"/>
-      <c r="AA59" s="67"/>
-      <c r="AB59" s="67"/>
-      <c r="AC59" s="67"/>
-      <c r="AD59" s="67"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="68"/>
+      <c r="Q59" s="68"/>
+      <c r="R59" s="68"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
+      <c r="W59" s="68"/>
+      <c r="X59" s="68"/>
+      <c r="Y59" s="68"/>
+      <c r="Z59" s="68"/>
+      <c r="AA59" s="68"/>
+      <c r="AB59" s="68"/>
+      <c r="AC59" s="68"/>
+      <c r="AD59" s="68"/>
     </row>
     <row r="60" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="67"/>
-      <c r="N60" s="67"/>
-      <c r="O60" s="67"/>
-      <c r="P60" s="67"/>
-      <c r="Q60" s="67"/>
-      <c r="R60" s="67"/>
-      <c r="S60" s="67"/>
-      <c r="T60" s="67"/>
-      <c r="U60" s="67"/>
-      <c r="V60" s="67"/>
-      <c r="W60" s="67"/>
-      <c r="X60" s="67"/>
-      <c r="Y60" s="67"/>
-      <c r="Z60" s="67"/>
-      <c r="AA60" s="67"/>
-      <c r="AB60" s="67"/>
-      <c r="AC60" s="67"/>
-      <c r="AD60" s="67"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="68"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
+      <c r="X60" s="68"/>
+      <c r="Y60" s="68"/>
+      <c r="Z60" s="68"/>
+      <c r="AA60" s="68"/>
+      <c r="AB60" s="68"/>
+      <c r="AC60" s="68"/>
+      <c r="AD60" s="68"/>
     </row>
     <row r="61" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67"/>
-      <c r="O61" s="67"/>
-      <c r="P61" s="67"/>
-      <c r="Q61" s="67"/>
-      <c r="R61" s="67"/>
-      <c r="S61" s="67"/>
-      <c r="T61" s="67"/>
-      <c r="U61" s="67"/>
-      <c r="V61" s="67"/>
-      <c r="W61" s="67"/>
-      <c r="X61" s="67"/>
-      <c r="Y61" s="67"/>
-      <c r="Z61" s="67"/>
-      <c r="AA61" s="67"/>
-      <c r="AB61" s="67"/>
-      <c r="AC61" s="67"/>
-      <c r="AD61" s="67"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="68"/>
+      <c r="Q61" s="68"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="68"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="68"/>
+      <c r="W61" s="68"/>
+      <c r="X61" s="68"/>
+      <c r="Y61" s="68"/>
+      <c r="Z61" s="68"/>
+      <c r="AA61" s="68"/>
+      <c r="AB61" s="68"/>
+      <c r="AC61" s="68"/>
+      <c r="AD61" s="68"/>
     </row>
     <row r="62" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="67"/>
-      <c r="N62" s="67"/>
-      <c r="O62" s="67"/>
-      <c r="P62" s="67"/>
-      <c r="Q62" s="67"/>
-      <c r="R62" s="67"/>
-      <c r="S62" s="67"/>
-      <c r="T62" s="67"/>
-      <c r="U62" s="67"/>
-      <c r="V62" s="67"/>
-      <c r="W62" s="67"/>
-      <c r="X62" s="67"/>
-      <c r="Y62" s="67"/>
-      <c r="Z62" s="67"/>
-      <c r="AA62" s="67"/>
-      <c r="AB62" s="67"/>
-      <c r="AC62" s="67"/>
-      <c r="AD62" s="67"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="68"/>
+      <c r="O62" s="68"/>
+      <c r="P62" s="68"/>
+      <c r="Q62" s="68"/>
+      <c r="R62" s="68"/>
+      <c r="S62" s="68"/>
+      <c r="T62" s="68"/>
+      <c r="U62" s="68"/>
+      <c r="V62" s="68"/>
+      <c r="W62" s="68"/>
+      <c r="X62" s="68"/>
+      <c r="Y62" s="68"/>
+      <c r="Z62" s="68"/>
+      <c r="AA62" s="68"/>
+      <c r="AB62" s="68"/>
+      <c r="AC62" s="68"/>
+      <c r="AD62" s="68"/>
     </row>
     <row r="63" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67"/>
-      <c r="O63" s="67"/>
-      <c r="P63" s="67"/>
-      <c r="Q63" s="67"/>
-      <c r="R63" s="67"/>
-      <c r="S63" s="67"/>
-      <c r="T63" s="67"/>
-      <c r="U63" s="67"/>
-      <c r="V63" s="67"/>
-      <c r="W63" s="67"/>
-      <c r="X63" s="67"/>
-      <c r="Y63" s="67"/>
-      <c r="Z63" s="67"/>
-      <c r="AA63" s="67"/>
-      <c r="AB63" s="67"/>
-      <c r="AC63" s="67"/>
-      <c r="AD63" s="67"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="68"/>
+      <c r="Q63" s="68"/>
+      <c r="R63" s="68"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="68"/>
+      <c r="U63" s="68"/>
+      <c r="V63" s="68"/>
+      <c r="W63" s="68"/>
+      <c r="X63" s="68"/>
+      <c r="Y63" s="68"/>
+      <c r="Z63" s="68"/>
+      <c r="AA63" s="68"/>
+      <c r="AB63" s="68"/>
+      <c r="AC63" s="68"/>
+      <c r="AD63" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C15:AD16"/>
-    <mergeCell ref="D6:AR8"/>
-    <mergeCell ref="C12:N13"/>
-    <mergeCell ref="O12:R13"/>
-    <mergeCell ref="S12:V13"/>
-    <mergeCell ref="W12:Z13"/>
-    <mergeCell ref="AA12:AD13"/>
-    <mergeCell ref="C53:AD54"/>
-    <mergeCell ref="C56:AD57"/>
-    <mergeCell ref="C58:AD59"/>
-    <mergeCell ref="C60:AD61"/>
-    <mergeCell ref="C62:AD63"/>
     <mergeCell ref="AT2:AV2"/>
     <mergeCell ref="BA2:BG2"/>
     <mergeCell ref="BL2:BO2"/>
@@ -10721,6 +10709,18 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="C53:AD54"/>
+    <mergeCell ref="C56:AD57"/>
+    <mergeCell ref="C58:AD59"/>
+    <mergeCell ref="C60:AD61"/>
+    <mergeCell ref="C62:AD63"/>
+    <mergeCell ref="C15:AD16"/>
+    <mergeCell ref="D6:AR8"/>
+    <mergeCell ref="C12:N13"/>
+    <mergeCell ref="O12:R13"/>
+    <mergeCell ref="S12:V13"/>
+    <mergeCell ref="W12:Z13"/>
+    <mergeCell ref="AA12:AD13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10733,9 +10733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366C9AA2-E582-4DCF-87E8-3A93CB55243C}">
   <dimension ref="A1:DI65"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CA41" sqref="CA41"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BI39" sqref="BI39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10841,79 +10841,79 @@
     <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="71"/>
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="68" t="s">
+      <c r="V2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="71"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
-      <c r="AD2" s="68" t="s">
+      <c r="AD2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="71"/>
       <c r="AH2" s="21"/>
       <c r="AJ2" s="36"/>
-      <c r="AL2" s="68" t="s">
+      <c r="AL2" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="71"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
-      <c r="AT2" s="68" t="s">
+      <c r="AT2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="71"/>
       <c r="AW2" s="21"/>
-      <c r="BA2" s="68" t="s">
+      <c r="BA2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="71"/>
       <c r="BH2" s="21"/>
       <c r="BJ2" s="37"/>
-      <c r="BL2" s="68" t="s">
+      <c r="BL2" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="BM2" s="69"/>
-      <c r="BN2" s="69"/>
-      <c r="BO2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="71"/>
       <c r="BP2" s="21"/>
-      <c r="BT2" s="68" t="s">
+      <c r="BT2" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="69"/>
-      <c r="BV2" s="69"/>
-      <c r="BW2" s="70"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="71"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -11126,49 +11126,49 @@
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="71"/>
-      <c r="AJ6" s="71"/>
-      <c r="AK6" s="71"/>
-      <c r="AL6" s="71"/>
-      <c r="AM6" s="71"/>
-      <c r="AN6" s="71"/>
-      <c r="AO6" s="71"/>
-      <c r="AP6" s="71"/>
-      <c r="AQ6" s="71"/>
-      <c r="AR6" s="71"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="72"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="72"/>
+      <c r="AN6" s="72"/>
+      <c r="AO6" s="72"/>
+      <c r="AP6" s="72"/>
+      <c r="AQ6" s="72"/>
+      <c r="AR6" s="72"/>
       <c r="AS6" s="11"/>
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
@@ -11184,47 +11184,47 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="71"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="71"/>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="72"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="72"/>
+      <c r="AO7" s="72"/>
+      <c r="AP7" s="72"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="72"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
@@ -11240,47 +11240,47 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="71"/>
-      <c r="AF8" s="71"/>
-      <c r="AG8" s="71"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="71"/>
-      <c r="AJ8" s="71"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="71"/>
-      <c r="AM8" s="71"/>
-      <c r="AN8" s="71"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="71"/>
-      <c r="AQ8" s="71"/>
-      <c r="AR8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
@@ -11407,20 +11407,20 @@
     <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
       <c r="O12" s="73" t="s">
         <v>22</v>
       </c>
@@ -11472,18 +11472,18 @@
     <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -11590,66 +11590,66 @@
       <c r="BT14" s="22"/>
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
     </row>
     <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
     </row>
     <row r="19" spans="13:113" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M19" s="11"/>
@@ -13148,66 +13148,66 @@
       <c r="BW51" s="11"/>
     </row>
     <row r="55" spans="3:113" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="72" t="s">
+      <c r="C55" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="72"/>
-      <c r="O55" s="72"/>
-      <c r="P55" s="72"/>
-      <c r="Q55" s="72"/>
-      <c r="R55" s="72"/>
-      <c r="S55" s="72"/>
-      <c r="T55" s="72"/>
-      <c r="U55" s="72"/>
-      <c r="V55" s="72"/>
-      <c r="W55" s="72"/>
-      <c r="X55" s="72"/>
-      <c r="Y55" s="72"/>
-      <c r="Z55" s="72"/>
-      <c r="AA55" s="72"/>
-      <c r="AB55" s="72"/>
-      <c r="AC55" s="72"/>
-      <c r="AD55" s="72"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="67"/>
+      <c r="M55" s="67"/>
+      <c r="N55" s="67"/>
+      <c r="O55" s="67"/>
+      <c r="P55" s="67"/>
+      <c r="Q55" s="67"/>
+      <c r="R55" s="67"/>
+      <c r="S55" s="67"/>
+      <c r="T55" s="67"/>
+      <c r="U55" s="67"/>
+      <c r="V55" s="67"/>
+      <c r="W55" s="67"/>
+      <c r="X55" s="67"/>
+      <c r="Y55" s="67"/>
+      <c r="Z55" s="67"/>
+      <c r="AA55" s="67"/>
+      <c r="AB55" s="67"/>
+      <c r="AC55" s="67"/>
+      <c r="AD55" s="67"/>
     </row>
     <row r="56" spans="3:113" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
-      <c r="K56" s="72"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="72"/>
-      <c r="O56" s="72"/>
-      <c r="P56" s="72"/>
-      <c r="Q56" s="72"/>
-      <c r="R56" s="72"/>
-      <c r="S56" s="72"/>
-      <c r="T56" s="72"/>
-      <c r="U56" s="72"/>
-      <c r="V56" s="72"/>
-      <c r="W56" s="72"/>
-      <c r="X56" s="72"/>
-      <c r="Y56" s="72"/>
-      <c r="Z56" s="72"/>
-      <c r="AA56" s="72"/>
-      <c r="AB56" s="72"/>
-      <c r="AC56" s="72"/>
-      <c r="AD56" s="72"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="67"/>
+      <c r="O56" s="67"/>
+      <c r="P56" s="67"/>
+      <c r="Q56" s="67"/>
+      <c r="R56" s="67"/>
+      <c r="S56" s="67"/>
+      <c r="T56" s="67"/>
+      <c r="U56" s="67"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
+      <c r="AD56" s="67"/>
     </row>
     <row r="57" spans="3:113" s="24" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C57" s="22"/>
@@ -13282,34 +13282,34 @@
       <c r="BT57" s="22"/>
     </row>
     <row r="58" spans="3:113" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="67"/>
-      <c r="O58" s="67"/>
-      <c r="P58" s="67"/>
-      <c r="Q58" s="67"/>
-      <c r="R58" s="67"/>
-      <c r="S58" s="67"/>
-      <c r="T58" s="67"/>
-      <c r="U58" s="67"/>
-      <c r="V58" s="67"/>
-      <c r="W58" s="67"/>
-      <c r="X58" s="67"/>
-      <c r="Y58" s="67"/>
-      <c r="Z58" s="67"/>
-      <c r="AA58" s="67"/>
-      <c r="AB58" s="67"/>
-      <c r="AC58" s="67"/>
-      <c r="AD58" s="67"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="68"/>
+      <c r="Q58" s="68"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="68"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="68"/>
+      <c r="W58" s="68"/>
+      <c r="X58" s="68"/>
+      <c r="Y58" s="68"/>
+      <c r="Z58" s="68"/>
+      <c r="AA58" s="68"/>
+      <c r="AB58" s="68"/>
+      <c r="AC58" s="68"/>
+      <c r="AD58" s="68"/>
       <c r="AE58" s="22"/>
       <c r="AF58" s="22"/>
       <c r="AG58" s="22"/>
@@ -13354,34 +13354,34 @@
       <c r="BT58" s="22"/>
     </row>
     <row r="59" spans="3:113" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="67"/>
-      <c r="N59" s="67"/>
-      <c r="O59" s="67"/>
-      <c r="P59" s="67"/>
-      <c r="Q59" s="67"/>
-      <c r="R59" s="67"/>
-      <c r="S59" s="67"/>
-      <c r="T59" s="67"/>
-      <c r="U59" s="67"/>
-      <c r="V59" s="67"/>
-      <c r="W59" s="67"/>
-      <c r="X59" s="67"/>
-      <c r="Y59" s="67"/>
-      <c r="Z59" s="67"/>
-      <c r="AA59" s="67"/>
-      <c r="AB59" s="67"/>
-      <c r="AC59" s="67"/>
-      <c r="AD59" s="67"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="68"/>
+      <c r="Q59" s="68"/>
+      <c r="R59" s="68"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
+      <c r="W59" s="68"/>
+      <c r="X59" s="68"/>
+      <c r="Y59" s="68"/>
+      <c r="Z59" s="68"/>
+      <c r="AA59" s="68"/>
+      <c r="AB59" s="68"/>
+      <c r="AC59" s="68"/>
+      <c r="AD59" s="68"/>
       <c r="AE59" s="22"/>
       <c r="AF59" s="22"/>
       <c r="AG59" s="22"/>
@@ -13426,192 +13426,187 @@
       <c r="BT59" s="22"/>
     </row>
     <row r="60" spans="3:113" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="67"/>
-      <c r="N60" s="67"/>
-      <c r="O60" s="67"/>
-      <c r="P60" s="67"/>
-      <c r="Q60" s="67"/>
-      <c r="R60" s="67"/>
-      <c r="S60" s="67"/>
-      <c r="T60" s="67"/>
-      <c r="U60" s="67"/>
-      <c r="V60" s="67"/>
-      <c r="W60" s="67"/>
-      <c r="X60" s="67"/>
-      <c r="Y60" s="67"/>
-      <c r="Z60" s="67"/>
-      <c r="AA60" s="67"/>
-      <c r="AB60" s="67"/>
-      <c r="AC60" s="67"/>
-      <c r="AD60" s="67"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="68"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
+      <c r="X60" s="68"/>
+      <c r="Y60" s="68"/>
+      <c r="Z60" s="68"/>
+      <c r="AA60" s="68"/>
+      <c r="AB60" s="68"/>
+      <c r="AC60" s="68"/>
+      <c r="AD60" s="68"/>
     </row>
     <row r="61" spans="3:113" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67"/>
-      <c r="O61" s="67"/>
-      <c r="P61" s="67"/>
-      <c r="Q61" s="67"/>
-      <c r="R61" s="67"/>
-      <c r="S61" s="67"/>
-      <c r="T61" s="67"/>
-      <c r="U61" s="67"/>
-      <c r="V61" s="67"/>
-      <c r="W61" s="67"/>
-      <c r="X61" s="67"/>
-      <c r="Y61" s="67"/>
-      <c r="Z61" s="67"/>
-      <c r="AA61" s="67"/>
-      <c r="AB61" s="67"/>
-      <c r="AC61" s="67"/>
-      <c r="AD61" s="67"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="68"/>
+      <c r="Q61" s="68"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="68"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="68"/>
+      <c r="W61" s="68"/>
+      <c r="X61" s="68"/>
+      <c r="Y61" s="68"/>
+      <c r="Z61" s="68"/>
+      <c r="AA61" s="68"/>
+      <c r="AB61" s="68"/>
+      <c r="AC61" s="68"/>
+      <c r="AD61" s="68"/>
     </row>
     <row r="62" spans="3:113" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="67"/>
-      <c r="N62" s="67"/>
-      <c r="O62" s="67"/>
-      <c r="P62" s="67"/>
-      <c r="Q62" s="67"/>
-      <c r="R62" s="67"/>
-      <c r="S62" s="67"/>
-      <c r="T62" s="67"/>
-      <c r="U62" s="67"/>
-      <c r="V62" s="67"/>
-      <c r="W62" s="67"/>
-      <c r="X62" s="67"/>
-      <c r="Y62" s="67"/>
-      <c r="Z62" s="67"/>
-      <c r="AA62" s="67"/>
-      <c r="AB62" s="67"/>
-      <c r="AC62" s="67"/>
-      <c r="AD62" s="67"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="68"/>
+      <c r="O62" s="68"/>
+      <c r="P62" s="68"/>
+      <c r="Q62" s="68"/>
+      <c r="R62" s="68"/>
+      <c r="S62" s="68"/>
+      <c r="T62" s="68"/>
+      <c r="U62" s="68"/>
+      <c r="V62" s="68"/>
+      <c r="W62" s="68"/>
+      <c r="X62" s="68"/>
+      <c r="Y62" s="68"/>
+      <c r="Z62" s="68"/>
+      <c r="AA62" s="68"/>
+      <c r="AB62" s="68"/>
+      <c r="AC62" s="68"/>
+      <c r="AD62" s="68"/>
     </row>
     <row r="63" spans="3:113" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67"/>
-      <c r="O63" s="67"/>
-      <c r="P63" s="67"/>
-      <c r="Q63" s="67"/>
-      <c r="R63" s="67"/>
-      <c r="S63" s="67"/>
-      <c r="T63" s="67"/>
-      <c r="U63" s="67"/>
-      <c r="V63" s="67"/>
-      <c r="W63" s="67"/>
-      <c r="X63" s="67"/>
-      <c r="Y63" s="67"/>
-      <c r="Z63" s="67"/>
-      <c r="AA63" s="67"/>
-      <c r="AB63" s="67"/>
-      <c r="AC63" s="67"/>
-      <c r="AD63" s="67"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="68"/>
+      <c r="Q63" s="68"/>
+      <c r="R63" s="68"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="68"/>
+      <c r="U63" s="68"/>
+      <c r="V63" s="68"/>
+      <c r="W63" s="68"/>
+      <c r="X63" s="68"/>
+      <c r="Y63" s="68"/>
+      <c r="Z63" s="68"/>
+      <c r="AA63" s="68"/>
+      <c r="AB63" s="68"/>
+      <c r="AC63" s="68"/>
+      <c r="AD63" s="68"/>
     </row>
     <row r="64" spans="3:113" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="67"/>
-      <c r="T64" s="67"/>
-      <c r="U64" s="67"/>
-      <c r="V64" s="67"/>
-      <c r="W64" s="67"/>
-      <c r="X64" s="67"/>
-      <c r="Y64" s="67"/>
-      <c r="Z64" s="67"/>
-      <c r="AA64" s="67"/>
-      <c r="AB64" s="67"/>
-      <c r="AC64" s="67"/>
-      <c r="AD64" s="67"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="68"/>
+      <c r="M64" s="68"/>
+      <c r="N64" s="68"/>
+      <c r="O64" s="68"/>
+      <c r="P64" s="68"/>
+      <c r="Q64" s="68"/>
+      <c r="R64" s="68"/>
+      <c r="S64" s="68"/>
+      <c r="T64" s="68"/>
+      <c r="U64" s="68"/>
+      <c r="V64" s="68"/>
+      <c r="W64" s="68"/>
+      <c r="X64" s="68"/>
+      <c r="Y64" s="68"/>
+      <c r="Z64" s="68"/>
+      <c r="AA64" s="68"/>
+      <c r="AB64" s="68"/>
+      <c r="AC64" s="68"/>
+      <c r="AD64" s="68"/>
     </row>
     <row r="65" spans="3:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="67"/>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="67"/>
-      <c r="T65" s="67"/>
-      <c r="U65" s="67"/>
-      <c r="V65" s="67"/>
-      <c r="W65" s="67"/>
-      <c r="X65" s="67"/>
-      <c r="Y65" s="67"/>
-      <c r="Z65" s="67"/>
-      <c r="AA65" s="67"/>
-      <c r="AB65" s="67"/>
-      <c r="AC65" s="67"/>
-      <c r="AD65" s="67"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="68"/>
+      <c r="N65" s="68"/>
+      <c r="O65" s="68"/>
+      <c r="P65" s="68"/>
+      <c r="Q65" s="68"/>
+      <c r="R65" s="68"/>
+      <c r="S65" s="68"/>
+      <c r="T65" s="68"/>
+      <c r="U65" s="68"/>
+      <c r="V65" s="68"/>
+      <c r="W65" s="68"/>
+      <c r="X65" s="68"/>
+      <c r="Y65" s="68"/>
+      <c r="Z65" s="68"/>
+      <c r="AA65" s="68"/>
+      <c r="AB65" s="68"/>
+      <c r="AC65" s="68"/>
+      <c r="AD65" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C15:AD16"/>
-    <mergeCell ref="C55:AD56"/>
-    <mergeCell ref="C58:AD59"/>
-    <mergeCell ref="C60:AD61"/>
-    <mergeCell ref="C62:AD63"/>
     <mergeCell ref="C64:AD65"/>
     <mergeCell ref="BA2:BG2"/>
     <mergeCell ref="BL2:BO2"/>
@@ -13628,6 +13623,11 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="C15:AD16"/>
+    <mergeCell ref="C55:AD56"/>
+    <mergeCell ref="C58:AD59"/>
+    <mergeCell ref="C60:AD61"/>
+    <mergeCell ref="C62:AD63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13748,79 +13748,79 @@
     <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="71"/>
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="68" t="s">
+      <c r="V2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="71"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
-      <c r="AD2" s="68" t="s">
+      <c r="AD2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="71"/>
       <c r="AH2" s="21"/>
       <c r="AJ2" s="36"/>
-      <c r="AL2" s="68" t="s">
+      <c r="AL2" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="71"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
-      <c r="AT2" s="68" t="s">
+      <c r="AT2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="71"/>
       <c r="AW2" s="21"/>
-      <c r="BA2" s="68" t="s">
+      <c r="BA2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="71"/>
       <c r="BH2" s="21"/>
       <c r="BJ2" s="37"/>
-      <c r="BL2" s="68" t="s">
+      <c r="BL2" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="BM2" s="69"/>
-      <c r="BN2" s="69"/>
-      <c r="BO2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="71"/>
       <c r="BP2" s="21"/>
-      <c r="BT2" s="68" t="s">
+      <c r="BT2" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="69"/>
-      <c r="BV2" s="69"/>
-      <c r="BW2" s="70"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="71"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -14033,49 +14033,49 @@
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="71"/>
-      <c r="AJ6" s="71"/>
-      <c r="AK6" s="71"/>
-      <c r="AL6" s="71"/>
-      <c r="AM6" s="71"/>
-      <c r="AN6" s="71"/>
-      <c r="AO6" s="71"/>
-      <c r="AP6" s="71"/>
-      <c r="AQ6" s="71"/>
-      <c r="AR6" s="71"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="72"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="72"/>
+      <c r="AN6" s="72"/>
+      <c r="AO6" s="72"/>
+      <c r="AP6" s="72"/>
+      <c r="AQ6" s="72"/>
+      <c r="AR6" s="72"/>
       <c r="AS6" s="11"/>
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
@@ -14091,47 +14091,47 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="71"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="71"/>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="72"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="72"/>
+      <c r="AO7" s="72"/>
+      <c r="AP7" s="72"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="72"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
@@ -14147,47 +14147,47 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="71"/>
-      <c r="AF8" s="71"/>
-      <c r="AG8" s="71"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="71"/>
-      <c r="AJ8" s="71"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="71"/>
-      <c r="AM8" s="71"/>
-      <c r="AN8" s="71"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="71"/>
-      <c r="AQ8" s="71"/>
-      <c r="AR8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
@@ -14314,20 +14314,20 @@
     <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
       <c r="O12" s="73" t="s">
         <v>22</v>
       </c>
@@ -14375,18 +14375,18 @@
     <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -14493,66 +14493,66 @@
       <c r="BT14" s="22"/>
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
     </row>
     <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
     </row>
     <row r="19" spans="4:94" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="11"/>
@@ -17189,316 +17189,311 @@
       <c r="BT68" s="22"/>
     </row>
     <row r="76" spans="3:94" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="72" t="s">
+      <c r="C76" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="72"/>
-      <c r="J76" s="72"/>
-      <c r="K76" s="72"/>
-      <c r="L76" s="72"/>
-      <c r="M76" s="72"/>
-      <c r="N76" s="72"/>
-      <c r="O76" s="72"/>
-      <c r="P76" s="72"/>
-      <c r="Q76" s="72"/>
-      <c r="R76" s="72"/>
-      <c r="S76" s="72"/>
-      <c r="T76" s="72"/>
-      <c r="U76" s="72"/>
-      <c r="V76" s="72"/>
-      <c r="W76" s="72"/>
-      <c r="X76" s="72"/>
-      <c r="Y76" s="72"/>
-      <c r="Z76" s="72"/>
-      <c r="AA76" s="72"/>
-      <c r="AB76" s="72"/>
-      <c r="AC76" s="72"/>
-      <c r="AD76" s="72"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
+      <c r="J76" s="67"/>
+      <c r="K76" s="67"/>
+      <c r="L76" s="67"/>
+      <c r="M76" s="67"/>
+      <c r="N76" s="67"/>
+      <c r="O76" s="67"/>
+      <c r="P76" s="67"/>
+      <c r="Q76" s="67"/>
+      <c r="R76" s="67"/>
+      <c r="S76" s="67"/>
+      <c r="T76" s="67"/>
+      <c r="U76" s="67"/>
+      <c r="V76" s="67"/>
+      <c r="W76" s="67"/>
+      <c r="X76" s="67"/>
+      <c r="Y76" s="67"/>
+      <c r="Z76" s="67"/>
+      <c r="AA76" s="67"/>
+      <c r="AB76" s="67"/>
+      <c r="AC76" s="67"/>
+      <c r="AD76" s="67"/>
       <c r="AE76" s="24"/>
     </row>
     <row r="77" spans="3:94" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="72"/>
-      <c r="H77" s="72"/>
-      <c r="I77" s="72"/>
-      <c r="J77" s="72"/>
-      <c r="K77" s="72"/>
-      <c r="L77" s="72"/>
-      <c r="M77" s="72"/>
-      <c r="N77" s="72"/>
-      <c r="O77" s="72"/>
-      <c r="P77" s="72"/>
-      <c r="Q77" s="72"/>
-      <c r="R77" s="72"/>
-      <c r="S77" s="72"/>
-      <c r="T77" s="72"/>
-      <c r="U77" s="72"/>
-      <c r="V77" s="72"/>
-      <c r="W77" s="72"/>
-      <c r="X77" s="72"/>
-      <c r="Y77" s="72"/>
-      <c r="Z77" s="72"/>
-      <c r="AA77" s="72"/>
-      <c r="AB77" s="72"/>
-      <c r="AC77" s="72"/>
-      <c r="AD77" s="72"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="67"/>
+      <c r="J77" s="67"/>
+      <c r="K77" s="67"/>
+      <c r="L77" s="67"/>
+      <c r="M77" s="67"/>
+      <c r="N77" s="67"/>
+      <c r="O77" s="67"/>
+      <c r="P77" s="67"/>
+      <c r="Q77" s="67"/>
+      <c r="R77" s="67"/>
+      <c r="S77" s="67"/>
+      <c r="T77" s="67"/>
+      <c r="U77" s="67"/>
+      <c r="V77" s="67"/>
+      <c r="W77" s="67"/>
+      <c r="X77" s="67"/>
+      <c r="Y77" s="67"/>
+      <c r="Z77" s="67"/>
+      <c r="AA77" s="67"/>
+      <c r="AB77" s="67"/>
+      <c r="AC77" s="67"/>
+      <c r="AD77" s="67"/>
       <c r="AE77" s="24"/>
     </row>
     <row r="79" spans="3:94" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="67"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="67"/>
-      <c r="I79" s="67"/>
-      <c r="J79" s="67"/>
-      <c r="K79" s="67"/>
-      <c r="L79" s="67"/>
-      <c r="M79" s="67"/>
-      <c r="N79" s="67"/>
-      <c r="O79" s="67"/>
-      <c r="P79" s="67"/>
-      <c r="Q79" s="67"/>
-      <c r="R79" s="67"/>
-      <c r="S79" s="67"/>
-      <c r="T79" s="67"/>
-      <c r="U79" s="67"/>
-      <c r="V79" s="67"/>
-      <c r="W79" s="67"/>
-      <c r="X79" s="67"/>
-      <c r="Y79" s="67"/>
-      <c r="Z79" s="67"/>
-      <c r="AA79" s="67"/>
-      <c r="AB79" s="67"/>
-      <c r="AC79" s="67"/>
-      <c r="AD79" s="67"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="68"/>
+      <c r="H79" s="68"/>
+      <c r="I79" s="68"/>
+      <c r="J79" s="68"/>
+      <c r="K79" s="68"/>
+      <c r="L79" s="68"/>
+      <c r="M79" s="68"/>
+      <c r="N79" s="68"/>
+      <c r="O79" s="68"/>
+      <c r="P79" s="68"/>
+      <c r="Q79" s="68"/>
+      <c r="R79" s="68"/>
+      <c r="S79" s="68"/>
+      <c r="T79" s="68"/>
+      <c r="U79" s="68"/>
+      <c r="V79" s="68"/>
+      <c r="W79" s="68"/>
+      <c r="X79" s="68"/>
+      <c r="Y79" s="68"/>
+      <c r="Z79" s="68"/>
+      <c r="AA79" s="68"/>
+      <c r="AB79" s="68"/>
+      <c r="AC79" s="68"/>
+      <c r="AD79" s="68"/>
     </row>
     <row r="80" spans="3:94" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="67"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="67"/>
-      <c r="J80" s="67"/>
-      <c r="K80" s="67"/>
-      <c r="L80" s="67"/>
-      <c r="M80" s="67"/>
-      <c r="N80" s="67"/>
-      <c r="O80" s="67"/>
-      <c r="P80" s="67"/>
-      <c r="Q80" s="67"/>
-      <c r="R80" s="67"/>
-      <c r="S80" s="67"/>
-      <c r="T80" s="67"/>
-      <c r="U80" s="67"/>
-      <c r="V80" s="67"/>
-      <c r="W80" s="67"/>
-      <c r="X80" s="67"/>
-      <c r="Y80" s="67"/>
-      <c r="Z80" s="67"/>
-      <c r="AA80" s="67"/>
-      <c r="AB80" s="67"/>
-      <c r="AC80" s="67"/>
-      <c r="AD80" s="67"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="68"/>
+      <c r="H80" s="68"/>
+      <c r="I80" s="68"/>
+      <c r="J80" s="68"/>
+      <c r="K80" s="68"/>
+      <c r="L80" s="68"/>
+      <c r="M80" s="68"/>
+      <c r="N80" s="68"/>
+      <c r="O80" s="68"/>
+      <c r="P80" s="68"/>
+      <c r="Q80" s="68"/>
+      <c r="R80" s="68"/>
+      <c r="S80" s="68"/>
+      <c r="T80" s="68"/>
+      <c r="U80" s="68"/>
+      <c r="V80" s="68"/>
+      <c r="W80" s="68"/>
+      <c r="X80" s="68"/>
+      <c r="Y80" s="68"/>
+      <c r="Z80" s="68"/>
+      <c r="AA80" s="68"/>
+      <c r="AB80" s="68"/>
+      <c r="AC80" s="68"/>
+      <c r="AD80" s="68"/>
     </row>
     <row r="81" spans="3:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="67"/>
-      <c r="H81" s="67"/>
-      <c r="I81" s="67"/>
-      <c r="J81" s="67"/>
-      <c r="K81" s="67"/>
-      <c r="L81" s="67"/>
-      <c r="M81" s="67"/>
-      <c r="N81" s="67"/>
-      <c r="O81" s="67"/>
-      <c r="P81" s="67"/>
-      <c r="Q81" s="67"/>
-      <c r="R81" s="67"/>
-      <c r="S81" s="67"/>
-      <c r="T81" s="67"/>
-      <c r="U81" s="67"/>
-      <c r="V81" s="67"/>
-      <c r="W81" s="67"/>
-      <c r="X81" s="67"/>
-      <c r="Y81" s="67"/>
-      <c r="Z81" s="67"/>
-      <c r="AA81" s="67"/>
-      <c r="AB81" s="67"/>
-      <c r="AC81" s="67"/>
-      <c r="AD81" s="67"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="68"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="68"/>
+      <c r="H81" s="68"/>
+      <c r="I81" s="68"/>
+      <c r="J81" s="68"/>
+      <c r="K81" s="68"/>
+      <c r="L81" s="68"/>
+      <c r="M81" s="68"/>
+      <c r="N81" s="68"/>
+      <c r="O81" s="68"/>
+      <c r="P81" s="68"/>
+      <c r="Q81" s="68"/>
+      <c r="R81" s="68"/>
+      <c r="S81" s="68"/>
+      <c r="T81" s="68"/>
+      <c r="U81" s="68"/>
+      <c r="V81" s="68"/>
+      <c r="W81" s="68"/>
+      <c r="X81" s="68"/>
+      <c r="Y81" s="68"/>
+      <c r="Z81" s="68"/>
+      <c r="AA81" s="68"/>
+      <c r="AB81" s="68"/>
+      <c r="AC81" s="68"/>
+      <c r="AD81" s="68"/>
     </row>
     <row r="82" spans="3:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="67"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="67"/>
-      <c r="H82" s="67"/>
-      <c r="I82" s="67"/>
-      <c r="J82" s="67"/>
-      <c r="K82" s="67"/>
-      <c r="L82" s="67"/>
-      <c r="M82" s="67"/>
-      <c r="N82" s="67"/>
-      <c r="O82" s="67"/>
-      <c r="P82" s="67"/>
-      <c r="Q82" s="67"/>
-      <c r="R82" s="67"/>
-      <c r="S82" s="67"/>
-      <c r="T82" s="67"/>
-      <c r="U82" s="67"/>
-      <c r="V82" s="67"/>
-      <c r="W82" s="67"/>
-      <c r="X82" s="67"/>
-      <c r="Y82" s="67"/>
-      <c r="Z82" s="67"/>
-      <c r="AA82" s="67"/>
-      <c r="AB82" s="67"/>
-      <c r="AC82" s="67"/>
-      <c r="AD82" s="67"/>
+      <c r="C82" s="68"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="68"/>
+      <c r="F82" s="68"/>
+      <c r="G82" s="68"/>
+      <c r="H82" s="68"/>
+      <c r="I82" s="68"/>
+      <c r="J82" s="68"/>
+      <c r="K82" s="68"/>
+      <c r="L82" s="68"/>
+      <c r="M82" s="68"/>
+      <c r="N82" s="68"/>
+      <c r="O82" s="68"/>
+      <c r="P82" s="68"/>
+      <c r="Q82" s="68"/>
+      <c r="R82" s="68"/>
+      <c r="S82" s="68"/>
+      <c r="T82" s="68"/>
+      <c r="U82" s="68"/>
+      <c r="V82" s="68"/>
+      <c r="W82" s="68"/>
+      <c r="X82" s="68"/>
+      <c r="Y82" s="68"/>
+      <c r="Z82" s="68"/>
+      <c r="AA82" s="68"/>
+      <c r="AB82" s="68"/>
+      <c r="AC82" s="68"/>
+      <c r="AD82" s="68"/>
     </row>
     <row r="83" spans="3:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="67"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="67"/>
-      <c r="L83" s="67"/>
-      <c r="M83" s="67"/>
-      <c r="N83" s="67"/>
-      <c r="O83" s="67"/>
-      <c r="P83" s="67"/>
-      <c r="Q83" s="67"/>
-      <c r="R83" s="67"/>
-      <c r="S83" s="67"/>
-      <c r="T83" s="67"/>
-      <c r="U83" s="67"/>
-      <c r="V83" s="67"/>
-      <c r="W83" s="67"/>
-      <c r="X83" s="67"/>
-      <c r="Y83" s="67"/>
-      <c r="Z83" s="67"/>
-      <c r="AA83" s="67"/>
-      <c r="AB83" s="67"/>
-      <c r="AC83" s="67"/>
-      <c r="AD83" s="67"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="68"/>
+      <c r="K83" s="68"/>
+      <c r="L83" s="68"/>
+      <c r="M83" s="68"/>
+      <c r="N83" s="68"/>
+      <c r="O83" s="68"/>
+      <c r="P83" s="68"/>
+      <c r="Q83" s="68"/>
+      <c r="R83" s="68"/>
+      <c r="S83" s="68"/>
+      <c r="T83" s="68"/>
+      <c r="U83" s="68"/>
+      <c r="V83" s="68"/>
+      <c r="W83" s="68"/>
+      <c r="X83" s="68"/>
+      <c r="Y83" s="68"/>
+      <c r="Z83" s="68"/>
+      <c r="AA83" s="68"/>
+      <c r="AB83" s="68"/>
+      <c r="AC83" s="68"/>
+      <c r="AD83" s="68"/>
     </row>
     <row r="84" spans="3:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="67"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="67"/>
-      <c r="I84" s="67"/>
-      <c r="J84" s="67"/>
-      <c r="K84" s="67"/>
-      <c r="L84" s="67"/>
-      <c r="M84" s="67"/>
-      <c r="N84" s="67"/>
-      <c r="O84" s="67"/>
-      <c r="P84" s="67"/>
-      <c r="Q84" s="67"/>
-      <c r="R84" s="67"/>
-      <c r="S84" s="67"/>
-      <c r="T84" s="67"/>
-      <c r="U84" s="67"/>
-      <c r="V84" s="67"/>
-      <c r="W84" s="67"/>
-      <c r="X84" s="67"/>
-      <c r="Y84" s="67"/>
-      <c r="Z84" s="67"/>
-      <c r="AA84" s="67"/>
-      <c r="AB84" s="67"/>
-      <c r="AC84" s="67"/>
-      <c r="AD84" s="67"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="68"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="68"/>
+      <c r="H84" s="68"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="68"/>
+      <c r="K84" s="68"/>
+      <c r="L84" s="68"/>
+      <c r="M84" s="68"/>
+      <c r="N84" s="68"/>
+      <c r="O84" s="68"/>
+      <c r="P84" s="68"/>
+      <c r="Q84" s="68"/>
+      <c r="R84" s="68"/>
+      <c r="S84" s="68"/>
+      <c r="T84" s="68"/>
+      <c r="U84" s="68"/>
+      <c r="V84" s="68"/>
+      <c r="W84" s="68"/>
+      <c r="X84" s="68"/>
+      <c r="Y84" s="68"/>
+      <c r="Z84" s="68"/>
+      <c r="AA84" s="68"/>
+      <c r="AB84" s="68"/>
+      <c r="AC84" s="68"/>
+      <c r="AD84" s="68"/>
     </row>
     <row r="85" spans="3:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="67"/>
-      <c r="H85" s="67"/>
-      <c r="I85" s="67"/>
-      <c r="J85" s="67"/>
-      <c r="K85" s="67"/>
-      <c r="L85" s="67"/>
-      <c r="M85" s="67"/>
-      <c r="N85" s="67"/>
-      <c r="O85" s="67"/>
-      <c r="P85" s="67"/>
-      <c r="Q85" s="67"/>
-      <c r="R85" s="67"/>
-      <c r="S85" s="67"/>
-      <c r="T85" s="67"/>
-      <c r="U85" s="67"/>
-      <c r="V85" s="67"/>
-      <c r="W85" s="67"/>
-      <c r="X85" s="67"/>
-      <c r="Y85" s="67"/>
-      <c r="Z85" s="67"/>
-      <c r="AA85" s="67"/>
-      <c r="AB85" s="67"/>
-      <c r="AC85" s="67"/>
-      <c r="AD85" s="67"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="68"/>
+      <c r="L85" s="68"/>
+      <c r="M85" s="68"/>
+      <c r="N85" s="68"/>
+      <c r="O85" s="68"/>
+      <c r="P85" s="68"/>
+      <c r="Q85" s="68"/>
+      <c r="R85" s="68"/>
+      <c r="S85" s="68"/>
+      <c r="T85" s="68"/>
+      <c r="U85" s="68"/>
+      <c r="V85" s="68"/>
+      <c r="W85" s="68"/>
+      <c r="X85" s="68"/>
+      <c r="Y85" s="68"/>
+      <c r="Z85" s="68"/>
+      <c r="AA85" s="68"/>
+      <c r="AB85" s="68"/>
+      <c r="AC85" s="68"/>
+      <c r="AD85" s="68"/>
     </row>
     <row r="86" spans="3:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="67"/>
-      <c r="D86" s="67"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="67"/>
-      <c r="J86" s="67"/>
-      <c r="K86" s="67"/>
-      <c r="L86" s="67"/>
-      <c r="M86" s="67"/>
-      <c r="N86" s="67"/>
-      <c r="O86" s="67"/>
-      <c r="P86" s="67"/>
-      <c r="Q86" s="67"/>
-      <c r="R86" s="67"/>
-      <c r="S86" s="67"/>
-      <c r="T86" s="67"/>
-      <c r="U86" s="67"/>
-      <c r="V86" s="67"/>
-      <c r="W86" s="67"/>
-      <c r="X86" s="67"/>
-      <c r="Y86" s="67"/>
-      <c r="Z86" s="67"/>
-      <c r="AA86" s="67"/>
-      <c r="AB86" s="67"/>
-      <c r="AC86" s="67"/>
-      <c r="AD86" s="67"/>
+      <c r="C86" s="68"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="68"/>
+      <c r="F86" s="68"/>
+      <c r="G86" s="68"/>
+      <c r="H86" s="68"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="68"/>
+      <c r="K86" s="68"/>
+      <c r="L86" s="68"/>
+      <c r="M86" s="68"/>
+      <c r="N86" s="68"/>
+      <c r="O86" s="68"/>
+      <c r="P86" s="68"/>
+      <c r="Q86" s="68"/>
+      <c r="R86" s="68"/>
+      <c r="S86" s="68"/>
+      <c r="T86" s="68"/>
+      <c r="U86" s="68"/>
+      <c r="V86" s="68"/>
+      <c r="W86" s="68"/>
+      <c r="X86" s="68"/>
+      <c r="Y86" s="68"/>
+      <c r="Z86" s="68"/>
+      <c r="AA86" s="68"/>
+      <c r="AB86" s="68"/>
+      <c r="AC86" s="68"/>
+      <c r="AD86" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C15:AD16"/>
-    <mergeCell ref="C76:AD77"/>
-    <mergeCell ref="C79:AD80"/>
-    <mergeCell ref="C81:AD82"/>
-    <mergeCell ref="C83:AD84"/>
     <mergeCell ref="C85:AD86"/>
     <mergeCell ref="BA2:BG2"/>
     <mergeCell ref="BL2:BO2"/>
@@ -17515,6 +17510,11 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="C15:AD16"/>
+    <mergeCell ref="C76:AD77"/>
+    <mergeCell ref="C79:AD80"/>
+    <mergeCell ref="C81:AD82"/>
+    <mergeCell ref="C83:AD84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17527,8 +17527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC1ACA1-D39A-40A3-9EAE-07F33C90ECD2}">
   <dimension ref="A1:DU91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="EJ33" sqref="EJ33"/>
     </sheetView>
   </sheetViews>
@@ -17635,15 +17635,15 @@
     <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
       <c r="O2" s="75" t="s">
@@ -17654,12 +17654,12 @@
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="68" t="s">
+      <c r="V2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="71"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
       <c r="AD2" s="75" t="s">
@@ -17678,36 +17678,36 @@
       <c r="AO2" s="75"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
-      <c r="AT2" s="68" t="s">
+      <c r="AT2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="71"/>
       <c r="AW2" s="21"/>
-      <c r="BA2" s="68" t="s">
+      <c r="BA2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="71"/>
       <c r="BH2" s="21"/>
       <c r="BJ2" s="37"/>
-      <c r="BL2" s="68" t="s">
+      <c r="BL2" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="BM2" s="69"/>
-      <c r="BN2" s="69"/>
-      <c r="BO2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="71"/>
       <c r="BP2" s="21"/>
-      <c r="BT2" s="68" t="s">
+      <c r="BT2" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="69"/>
-      <c r="BV2" s="69"/>
-      <c r="BW2" s="70"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="71"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -17920,49 +17920,49 @@
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="71"/>
-      <c r="AJ6" s="71"/>
-      <c r="AK6" s="71"/>
-      <c r="AL6" s="71"/>
-      <c r="AM6" s="71"/>
-      <c r="AN6" s="71"/>
-      <c r="AO6" s="71"/>
-      <c r="AP6" s="71"/>
-      <c r="AQ6" s="71"/>
-      <c r="AR6" s="71"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="72"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="72"/>
+      <c r="AN6" s="72"/>
+      <c r="AO6" s="72"/>
+      <c r="AP6" s="72"/>
+      <c r="AQ6" s="72"/>
+      <c r="AR6" s="72"/>
       <c r="AS6" s="11"/>
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
@@ -17978,47 +17978,47 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="71"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="71"/>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="72"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="72"/>
+      <c r="AO7" s="72"/>
+      <c r="AP7" s="72"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="72"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
@@ -18034,47 +18034,47 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="71"/>
-      <c r="AF8" s="71"/>
-      <c r="AG8" s="71"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="71"/>
-      <c r="AJ8" s="71"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="71"/>
-      <c r="AM8" s="71"/>
-      <c r="AN8" s="71"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="71"/>
-      <c r="AQ8" s="71"/>
-      <c r="AR8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
@@ -18201,20 +18201,20 @@
     <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
       <c r="O12" s="73" t="s">
         <v>22</v>
       </c>
@@ -18275,18 +18275,18 @@
     <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -18433,36 +18433,36 @@
       <c r="CO14" s="22"/>
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
       <c r="BX15" s="22"/>
       <c r="BY15" s="22"/>
       <c r="BZ15" s="22"/>
@@ -18483,34 +18483,34 @@
       <c r="CO15" s="22"/>
     </row>
     <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
       <c r="CB16" s="22"/>
       <c r="CC16" s="22"/>
       <c r="CD16" s="22"/>
@@ -23105,36 +23105,36 @@
       <c r="DU76" s="11"/>
     </row>
     <row r="81" spans="3:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="72" t="s">
+      <c r="C81" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="72"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="72"/>
-      <c r="H81" s="72"/>
-      <c r="I81" s="72"/>
-      <c r="J81" s="72"/>
-      <c r="K81" s="72"/>
-      <c r="L81" s="72"/>
-      <c r="M81" s="72"/>
-      <c r="N81" s="72"/>
-      <c r="O81" s="72"/>
-      <c r="P81" s="72"/>
-      <c r="Q81" s="72"/>
-      <c r="R81" s="72"/>
-      <c r="S81" s="72"/>
-      <c r="T81" s="72"/>
-      <c r="U81" s="72"/>
-      <c r="V81" s="72"/>
-      <c r="W81" s="72"/>
-      <c r="X81" s="72"/>
-      <c r="Y81" s="72"/>
-      <c r="Z81" s="72"/>
-      <c r="AA81" s="72"/>
-      <c r="AB81" s="72"/>
-      <c r="AC81" s="72"/>
-      <c r="AD81" s="72"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="67"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="67"/>
+      <c r="J81" s="67"/>
+      <c r="K81" s="67"/>
+      <c r="L81" s="67"/>
+      <c r="M81" s="67"/>
+      <c r="N81" s="67"/>
+      <c r="O81" s="67"/>
+      <c r="P81" s="67"/>
+      <c r="Q81" s="67"/>
+      <c r="R81" s="67"/>
+      <c r="S81" s="67"/>
+      <c r="T81" s="67"/>
+      <c r="U81" s="67"/>
+      <c r="V81" s="67"/>
+      <c r="W81" s="67"/>
+      <c r="X81" s="67"/>
+      <c r="Y81" s="67"/>
+      <c r="Z81" s="67"/>
+      <c r="AA81" s="67"/>
+      <c r="AB81" s="67"/>
+      <c r="AC81" s="67"/>
+      <c r="AD81" s="67"/>
       <c r="BX81" s="22"/>
       <c r="BY81" s="22"/>
       <c r="BZ81" s="22"/>
@@ -23155,34 +23155,34 @@
       <c r="CO81" s="22"/>
     </row>
     <row r="82" spans="3:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="72"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="72"/>
-      <c r="F82" s="72"/>
-      <c r="G82" s="72"/>
-      <c r="H82" s="72"/>
-      <c r="I82" s="72"/>
-      <c r="J82" s="72"/>
-      <c r="K82" s="72"/>
-      <c r="L82" s="72"/>
-      <c r="M82" s="72"/>
-      <c r="N82" s="72"/>
-      <c r="O82" s="72"/>
-      <c r="P82" s="72"/>
-      <c r="Q82" s="72"/>
-      <c r="R82" s="72"/>
-      <c r="S82" s="72"/>
-      <c r="T82" s="72"/>
-      <c r="U82" s="72"/>
-      <c r="V82" s="72"/>
-      <c r="W82" s="72"/>
-      <c r="X82" s="72"/>
-      <c r="Y82" s="72"/>
-      <c r="Z82" s="72"/>
-      <c r="AA82" s="72"/>
-      <c r="AB82" s="72"/>
-      <c r="AC82" s="72"/>
-      <c r="AD82" s="72"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="67"/>
+      <c r="J82" s="67"/>
+      <c r="K82" s="67"/>
+      <c r="L82" s="67"/>
+      <c r="M82" s="67"/>
+      <c r="N82" s="67"/>
+      <c r="O82" s="67"/>
+      <c r="P82" s="67"/>
+      <c r="Q82" s="67"/>
+      <c r="R82" s="67"/>
+      <c r="S82" s="67"/>
+      <c r="T82" s="67"/>
+      <c r="U82" s="67"/>
+      <c r="V82" s="67"/>
+      <c r="W82" s="67"/>
+      <c r="X82" s="67"/>
+      <c r="Y82" s="67"/>
+      <c r="Z82" s="67"/>
+      <c r="AA82" s="67"/>
+      <c r="AB82" s="67"/>
+      <c r="AC82" s="67"/>
+      <c r="AD82" s="67"/>
       <c r="BX82" s="22"/>
       <c r="BY82" s="22"/>
       <c r="BZ82" s="22"/>
@@ -23296,34 +23296,34 @@
       <c r="CO83" s="22"/>
     </row>
     <row r="84" spans="3:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="67"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="67"/>
-      <c r="I84" s="67"/>
-      <c r="J84" s="67"/>
-      <c r="K84" s="67"/>
-      <c r="L84" s="67"/>
-      <c r="M84" s="67"/>
-      <c r="N84" s="67"/>
-      <c r="O84" s="67"/>
-      <c r="P84" s="67"/>
-      <c r="Q84" s="67"/>
-      <c r="R84" s="67"/>
-      <c r="S84" s="67"/>
-      <c r="T84" s="67"/>
-      <c r="U84" s="67"/>
-      <c r="V84" s="67"/>
-      <c r="W84" s="67"/>
-      <c r="X84" s="67"/>
-      <c r="Y84" s="67"/>
-      <c r="Z84" s="67"/>
-      <c r="AA84" s="67"/>
-      <c r="AB84" s="67"/>
-      <c r="AC84" s="67"/>
-      <c r="AD84" s="67"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="68"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="68"/>
+      <c r="H84" s="68"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="68"/>
+      <c r="K84" s="68"/>
+      <c r="L84" s="68"/>
+      <c r="M84" s="68"/>
+      <c r="N84" s="68"/>
+      <c r="O84" s="68"/>
+      <c r="P84" s="68"/>
+      <c r="Q84" s="68"/>
+      <c r="R84" s="68"/>
+      <c r="S84" s="68"/>
+      <c r="T84" s="68"/>
+      <c r="U84" s="68"/>
+      <c r="V84" s="68"/>
+      <c r="W84" s="68"/>
+      <c r="X84" s="68"/>
+      <c r="Y84" s="68"/>
+      <c r="Z84" s="68"/>
+      <c r="AA84" s="68"/>
+      <c r="AB84" s="68"/>
+      <c r="AC84" s="68"/>
+      <c r="AD84" s="68"/>
       <c r="AE84" s="22"/>
       <c r="AF84" s="22"/>
       <c r="AG84" s="22"/>
@@ -23389,34 +23389,34 @@
       <c r="CO84" s="22"/>
     </row>
     <row r="85" spans="3:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="67"/>
-      <c r="H85" s="67"/>
-      <c r="I85" s="67"/>
-      <c r="J85" s="67"/>
-      <c r="K85" s="67"/>
-      <c r="L85" s="67"/>
-      <c r="M85" s="67"/>
-      <c r="N85" s="67"/>
-      <c r="O85" s="67"/>
-      <c r="P85" s="67"/>
-      <c r="Q85" s="67"/>
-      <c r="R85" s="67"/>
-      <c r="S85" s="67"/>
-      <c r="T85" s="67"/>
-      <c r="U85" s="67"/>
-      <c r="V85" s="67"/>
-      <c r="W85" s="67"/>
-      <c r="X85" s="67"/>
-      <c r="Y85" s="67"/>
-      <c r="Z85" s="67"/>
-      <c r="AA85" s="67"/>
-      <c r="AB85" s="67"/>
-      <c r="AC85" s="67"/>
-      <c r="AD85" s="67"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="68"/>
+      <c r="L85" s="68"/>
+      <c r="M85" s="68"/>
+      <c r="N85" s="68"/>
+      <c r="O85" s="68"/>
+      <c r="P85" s="68"/>
+      <c r="Q85" s="68"/>
+      <c r="R85" s="68"/>
+      <c r="S85" s="68"/>
+      <c r="T85" s="68"/>
+      <c r="U85" s="68"/>
+      <c r="V85" s="68"/>
+      <c r="W85" s="68"/>
+      <c r="X85" s="68"/>
+      <c r="Y85" s="68"/>
+      <c r="Z85" s="68"/>
+      <c r="AA85" s="68"/>
+      <c r="AB85" s="68"/>
+      <c r="AC85" s="68"/>
+      <c r="AD85" s="68"/>
       <c r="AE85" s="22"/>
       <c r="AF85" s="22"/>
       <c r="AG85" s="22"/>
@@ -23482,191 +23482,196 @@
       <c r="CO85" s="22"/>
     </row>
     <row r="86" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="67" t="s">
+      <c r="C86" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="67"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="67"/>
-      <c r="J86" s="67"/>
-      <c r="K86" s="67"/>
-      <c r="L86" s="67"/>
-      <c r="M86" s="67"/>
-      <c r="N86" s="67"/>
-      <c r="O86" s="67"/>
-      <c r="P86" s="67"/>
-      <c r="Q86" s="67"/>
-      <c r="R86" s="67"/>
-      <c r="S86" s="67"/>
-      <c r="T86" s="67"/>
-      <c r="U86" s="67"/>
-      <c r="V86" s="67"/>
-      <c r="W86" s="67"/>
-      <c r="X86" s="67"/>
-      <c r="Y86" s="67"/>
-      <c r="Z86" s="67"/>
-      <c r="AA86" s="67"/>
-      <c r="AB86" s="67"/>
-      <c r="AC86" s="67"/>
-      <c r="AD86" s="67"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="68"/>
+      <c r="F86" s="68"/>
+      <c r="G86" s="68"/>
+      <c r="H86" s="68"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="68"/>
+      <c r="K86" s="68"/>
+      <c r="L86" s="68"/>
+      <c r="M86" s="68"/>
+      <c r="N86" s="68"/>
+      <c r="O86" s="68"/>
+      <c r="P86" s="68"/>
+      <c r="Q86" s="68"/>
+      <c r="R86" s="68"/>
+      <c r="S86" s="68"/>
+      <c r="T86" s="68"/>
+      <c r="U86" s="68"/>
+      <c r="V86" s="68"/>
+      <c r="W86" s="68"/>
+      <c r="X86" s="68"/>
+      <c r="Y86" s="68"/>
+      <c r="Z86" s="68"/>
+      <c r="AA86" s="68"/>
+      <c r="AB86" s="68"/>
+      <c r="AC86" s="68"/>
+      <c r="AD86" s="68"/>
     </row>
     <row r="87" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="67"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="67"/>
-      <c r="I87" s="67"/>
-      <c r="J87" s="67"/>
-      <c r="K87" s="67"/>
-      <c r="L87" s="67"/>
-      <c r="M87" s="67"/>
-      <c r="N87" s="67"/>
-      <c r="O87" s="67"/>
-      <c r="P87" s="67"/>
-      <c r="Q87" s="67"/>
-      <c r="R87" s="67"/>
-      <c r="S87" s="67"/>
-      <c r="T87" s="67"/>
-      <c r="U87" s="67"/>
-      <c r="V87" s="67"/>
-      <c r="W87" s="67"/>
-      <c r="X87" s="67"/>
-      <c r="Y87" s="67"/>
-      <c r="Z87" s="67"/>
-      <c r="AA87" s="67"/>
-      <c r="AB87" s="67"/>
-      <c r="AC87" s="67"/>
-      <c r="AD87" s="67"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="68"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="68"/>
+      <c r="H87" s="68"/>
+      <c r="I87" s="68"/>
+      <c r="J87" s="68"/>
+      <c r="K87" s="68"/>
+      <c r="L87" s="68"/>
+      <c r="M87" s="68"/>
+      <c r="N87" s="68"/>
+      <c r="O87" s="68"/>
+      <c r="P87" s="68"/>
+      <c r="Q87" s="68"/>
+      <c r="R87" s="68"/>
+      <c r="S87" s="68"/>
+      <c r="T87" s="68"/>
+      <c r="U87" s="68"/>
+      <c r="V87" s="68"/>
+      <c r="W87" s="68"/>
+      <c r="X87" s="68"/>
+      <c r="Y87" s="68"/>
+      <c r="Z87" s="68"/>
+      <c r="AA87" s="68"/>
+      <c r="AB87" s="68"/>
+      <c r="AC87" s="68"/>
+      <c r="AD87" s="68"/>
     </row>
     <row r="88" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="67" t="s">
+      <c r="C88" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="D88" s="67"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
-      <c r="I88" s="67"/>
-      <c r="J88" s="67"/>
-      <c r="K88" s="67"/>
-      <c r="L88" s="67"/>
-      <c r="M88" s="67"/>
-      <c r="N88" s="67"/>
-      <c r="O88" s="67"/>
-      <c r="P88" s="67"/>
-      <c r="Q88" s="67"/>
-      <c r="R88" s="67"/>
-      <c r="S88" s="67"/>
-      <c r="T88" s="67"/>
-      <c r="U88" s="67"/>
-      <c r="V88" s="67"/>
-      <c r="W88" s="67"/>
-      <c r="X88" s="67"/>
-      <c r="Y88" s="67"/>
-      <c r="Z88" s="67"/>
-      <c r="AA88" s="67"/>
-      <c r="AB88" s="67"/>
-      <c r="AC88" s="67"/>
-      <c r="AD88" s="67"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="68"/>
+      <c r="F88" s="68"/>
+      <c r="G88" s="68"/>
+      <c r="H88" s="68"/>
+      <c r="I88" s="68"/>
+      <c r="J88" s="68"/>
+      <c r="K88" s="68"/>
+      <c r="L88" s="68"/>
+      <c r="M88" s="68"/>
+      <c r="N88" s="68"/>
+      <c r="O88" s="68"/>
+      <c r="P88" s="68"/>
+      <c r="Q88" s="68"/>
+      <c r="R88" s="68"/>
+      <c r="S88" s="68"/>
+      <c r="T88" s="68"/>
+      <c r="U88" s="68"/>
+      <c r="V88" s="68"/>
+      <c r="W88" s="68"/>
+      <c r="X88" s="68"/>
+      <c r="Y88" s="68"/>
+      <c r="Z88" s="68"/>
+      <c r="AA88" s="68"/>
+      <c r="AB88" s="68"/>
+      <c r="AC88" s="68"/>
+      <c r="AD88" s="68"/>
     </row>
     <row r="89" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="67"/>
-      <c r="D89" s="67"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="67"/>
-      <c r="H89" s="67"/>
-      <c r="I89" s="67"/>
-      <c r="J89" s="67"/>
-      <c r="K89" s="67"/>
-      <c r="L89" s="67"/>
-      <c r="M89" s="67"/>
-      <c r="N89" s="67"/>
-      <c r="O89" s="67"/>
-      <c r="P89" s="67"/>
-      <c r="Q89" s="67"/>
-      <c r="R89" s="67"/>
-      <c r="S89" s="67"/>
-      <c r="T89" s="67"/>
-      <c r="U89" s="67"/>
-      <c r="V89" s="67"/>
-      <c r="W89" s="67"/>
-      <c r="X89" s="67"/>
-      <c r="Y89" s="67"/>
-      <c r="Z89" s="67"/>
-      <c r="AA89" s="67"/>
-      <c r="AB89" s="67"/>
-      <c r="AC89" s="67"/>
-      <c r="AD89" s="67"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="68"/>
+      <c r="H89" s="68"/>
+      <c r="I89" s="68"/>
+      <c r="J89" s="68"/>
+      <c r="K89" s="68"/>
+      <c r="L89" s="68"/>
+      <c r="M89" s="68"/>
+      <c r="N89" s="68"/>
+      <c r="O89" s="68"/>
+      <c r="P89" s="68"/>
+      <c r="Q89" s="68"/>
+      <c r="R89" s="68"/>
+      <c r="S89" s="68"/>
+      <c r="T89" s="68"/>
+      <c r="U89" s="68"/>
+      <c r="V89" s="68"/>
+      <c r="W89" s="68"/>
+      <c r="X89" s="68"/>
+      <c r="Y89" s="68"/>
+      <c r="Z89" s="68"/>
+      <c r="AA89" s="68"/>
+      <c r="AB89" s="68"/>
+      <c r="AC89" s="68"/>
+      <c r="AD89" s="68"/>
     </row>
     <row r="90" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="67"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="67"/>
-      <c r="J90" s="67"/>
-      <c r="K90" s="67"/>
-      <c r="L90" s="67"/>
-      <c r="M90" s="67"/>
-      <c r="N90" s="67"/>
-      <c r="O90" s="67"/>
-      <c r="P90" s="67"/>
-      <c r="Q90" s="67"/>
-      <c r="R90" s="67"/>
-      <c r="S90" s="67"/>
-      <c r="T90" s="67"/>
-      <c r="U90" s="67"/>
-      <c r="V90" s="67"/>
-      <c r="W90" s="67"/>
-      <c r="X90" s="67"/>
-      <c r="Y90" s="67"/>
-      <c r="Z90" s="67"/>
-      <c r="AA90" s="67"/>
-      <c r="AB90" s="67"/>
-      <c r="AC90" s="67"/>
-      <c r="AD90" s="67"/>
+      <c r="C90" s="68"/>
+      <c r="D90" s="68"/>
+      <c r="E90" s="68"/>
+      <c r="F90" s="68"/>
+      <c r="G90" s="68"/>
+      <c r="H90" s="68"/>
+      <c r="I90" s="68"/>
+      <c r="J90" s="68"/>
+      <c r="K90" s="68"/>
+      <c r="L90" s="68"/>
+      <c r="M90" s="68"/>
+      <c r="N90" s="68"/>
+      <c r="O90" s="68"/>
+      <c r="P90" s="68"/>
+      <c r="Q90" s="68"/>
+      <c r="R90" s="68"/>
+      <c r="S90" s="68"/>
+      <c r="T90" s="68"/>
+      <c r="U90" s="68"/>
+      <c r="V90" s="68"/>
+      <c r="W90" s="68"/>
+      <c r="X90" s="68"/>
+      <c r="Y90" s="68"/>
+      <c r="Z90" s="68"/>
+      <c r="AA90" s="68"/>
+      <c r="AB90" s="68"/>
+      <c r="AC90" s="68"/>
+      <c r="AD90" s="68"/>
     </row>
     <row r="91" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="67"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="67"/>
-      <c r="H91" s="67"/>
-      <c r="I91" s="67"/>
-      <c r="J91" s="67"/>
-      <c r="K91" s="67"/>
-      <c r="L91" s="67"/>
-      <c r="M91" s="67"/>
-      <c r="N91" s="67"/>
-      <c r="O91" s="67"/>
-      <c r="P91" s="67"/>
-      <c r="Q91" s="67"/>
-      <c r="R91" s="67"/>
-      <c r="S91" s="67"/>
-      <c r="T91" s="67"/>
-      <c r="U91" s="67"/>
-      <c r="V91" s="67"/>
-      <c r="W91" s="67"/>
-      <c r="X91" s="67"/>
-      <c r="Y91" s="67"/>
-      <c r="Z91" s="67"/>
-      <c r="AA91" s="67"/>
-      <c r="AB91" s="67"/>
-      <c r="AC91" s="67"/>
-      <c r="AD91" s="67"/>
+      <c r="C91" s="68"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="68"/>
+      <c r="F91" s="68"/>
+      <c r="G91" s="68"/>
+      <c r="H91" s="68"/>
+      <c r="I91" s="68"/>
+      <c r="J91" s="68"/>
+      <c r="K91" s="68"/>
+      <c r="L91" s="68"/>
+      <c r="M91" s="68"/>
+      <c r="N91" s="68"/>
+      <c r="O91" s="68"/>
+      <c r="P91" s="68"/>
+      <c r="Q91" s="68"/>
+      <c r="R91" s="68"/>
+      <c r="S91" s="68"/>
+      <c r="T91" s="68"/>
+      <c r="U91" s="68"/>
+      <c r="V91" s="68"/>
+      <c r="W91" s="68"/>
+      <c r="X91" s="68"/>
+      <c r="Y91" s="68"/>
+      <c r="Z91" s="68"/>
+      <c r="AA91" s="68"/>
+      <c r="AB91" s="68"/>
+      <c r="AC91" s="68"/>
+      <c r="AD91" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C81:AD82"/>
+    <mergeCell ref="C84:AD85"/>
+    <mergeCell ref="C86:AD87"/>
+    <mergeCell ref="C88:AD89"/>
+    <mergeCell ref="C90:AD91"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="C15:AD16"/>
@@ -23683,11 +23688,6 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AT2:AV2"/>
     <mergeCell ref="BA2:BG2"/>
-    <mergeCell ref="C81:AD82"/>
-    <mergeCell ref="C84:AD85"/>
-    <mergeCell ref="C86:AD87"/>
-    <mergeCell ref="C88:AD89"/>
-    <mergeCell ref="C90:AD91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
+++ b/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsao\Desktop\TeamHolyShit\개인작업폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA87F48A-2897-4CE5-93E9-5C4DA3B018EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C02709-0B70-439B-A3CC-6203997EA5FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="375" windowWidth="18765" windowHeight="14805" firstSheet="1" activeTab="5" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
   </bookViews>
@@ -10733,9 +10733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366C9AA2-E582-4DCF-87E8-3A93CB55243C}">
   <dimension ref="A1:DI65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BI39" sqref="BI39"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CB31" sqref="CB31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12576,6 +12576,7 @@
       <c r="BA40" s="32"/>
       <c r="BB40" s="32"/>
       <c r="BM40" s="32"/>
+      <c r="BQ40" s="35"/>
       <c r="BU40" s="34"/>
       <c r="BV40" s="34"/>
       <c r="BW40" s="11"/>
@@ -12599,7 +12600,7 @@
       <c r="AS41" s="34"/>
       <c r="AT41" s="34"/>
       <c r="AU41" s="34"/>
-      <c r="BQ41" s="35"/>
+      <c r="BR41" s="35"/>
       <c r="BU41" s="34"/>
       <c r="BV41" s="34"/>
       <c r="BW41" s="11"/>
@@ -12625,7 +12626,7 @@
       <c r="AU42" s="34"/>
       <c r="AV42" s="35"/>
       <c r="BF42" s="33"/>
-      <c r="BR42" s="35"/>
+      <c r="BS42" s="35"/>
       <c r="BU42" s="34"/>
       <c r="BV42" s="34"/>
       <c r="BW42" s="11"/>
@@ -12677,7 +12678,10 @@
       <c r="BN43" s="32"/>
       <c r="BO43" s="32"/>
       <c r="BP43" s="32"/>
+      <c r="BQ43" s="35"/>
+      <c r="BR43" s="35"/>
       <c r="BS43" s="35"/>
+      <c r="BT43" s="32"/>
       <c r="BU43" s="34"/>
       <c r="BV43" s="34"/>
       <c r="BW43" s="11"/>
@@ -12811,6 +12815,7 @@
       <c r="AT45" s="35"/>
       <c r="AU45" s="35"/>
       <c r="AX45" s="32"/>
+      <c r="BK45" s="33"/>
       <c r="BU45" s="34"/>
       <c r="BV45" s="34"/>
       <c r="BW45" s="11"/>
@@ -12974,7 +12979,7 @@
       <c r="BH49" s="34"/>
       <c r="BI49" s="34"/>
       <c r="BJ49" s="34"/>
-      <c r="BK49" s="34"/>
+      <c r="BK49" s="35"/>
       <c r="BL49" s="34"/>
       <c r="BM49" s="34"/>
       <c r="BN49" s="34"/>
@@ -13640,9 +13645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED20668-B17A-4E70-988E-2CE8318BE25B}">
   <dimension ref="A1:CP86"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="DC40" sqref="DC40"/>
+      <selection pane="bottomLeft" activeCell="BI30" sqref="BI30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15147,7 +15152,6 @@
       <c r="G28" s="34"/>
       <c r="H28" s="36"/>
       <c r="P28" s="37"/>
-      <c r="BB28" s="37"/>
       <c r="BD28" s="35"/>
       <c r="BL28" s="34"/>
       <c r="BM28" s="34"/>

--- a/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
+++ b/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsao\Desktop\TeamHolyShit\개인작업폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C02709-0B70-439B-A3CC-6203997EA5FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1551128A-11A6-42A8-B9EB-B2A6BCE0626C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="375" windowWidth="18765" windowHeight="14805" firstSheet="1" activeTab="5" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
+    <workbookView xWindow="30" yWindow="375" windowWidth="18765" windowHeight="14805" firstSheet="1" activeTab="6" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
   </bookViews>
   <sheets>
     <sheet name="문서정보" sheetId="19" r:id="rId1"/>
@@ -26,6 +26,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -10733,9 +10742,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366C9AA2-E582-4DCF-87E8-3A93CB55243C}">
   <dimension ref="A1:DI65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CB31" sqref="CB31"/>
+      <selection pane="bottomLeft" activeCell="AX43" sqref="AX43:AX44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12663,6 +12672,7 @@
       <c r="AV43" s="32"/>
       <c r="AW43" s="32"/>
       <c r="AX43" s="32"/>
+      <c r="AY43" s="32"/>
       <c r="BB43" s="32"/>
       <c r="BC43" s="32"/>
       <c r="BD43" s="32"/>
@@ -12739,6 +12749,7 @@
       <c r="AV44" s="32"/>
       <c r="AW44" s="32"/>
       <c r="AX44" s="32"/>
+      <c r="AY44" s="32"/>
       <c r="BB44" s="32"/>
       <c r="BC44" s="32"/>
       <c r="BD44" s="32"/>
@@ -12814,7 +12825,7 @@
       <c r="AO45" s="34"/>
       <c r="AT45" s="35"/>
       <c r="AU45" s="35"/>
-      <c r="AX45" s="32"/>
+      <c r="AY45" s="32"/>
       <c r="BK45" s="33"/>
       <c r="BU45" s="34"/>
       <c r="BV45" s="34"/>
@@ -13645,9 +13656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED20668-B17A-4E70-988E-2CE8318BE25B}">
   <dimension ref="A1:CP86"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BI30" sqref="BI30"/>
+      <selection pane="bottomLeft" activeCell="AO36" sqref="AO36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
+++ b/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsao\Desktop\TeamHolyShit\개인작업폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1551128A-11A6-42A8-B9EB-B2A6BCE0626C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5893BB8D-A821-4850-804B-A04331B206CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="375" windowWidth="18765" windowHeight="14805" firstSheet="1" activeTab="6" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
+    <workbookView xWindow="30" yWindow="375" windowWidth="18765" windowHeight="14805" firstSheet="1" activeTab="7" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
   </bookViews>
   <sheets>
     <sheet name="문서정보" sheetId="19" r:id="rId1"/>
@@ -3984,6 +3984,65 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>309562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="직선 연결선 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC3384D-20F6-43CC-87A7-699815927FDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10001250" y="7691437"/>
+          <a:ext cx="1023937" cy="4024313"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13656,9 +13715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED20668-B17A-4E70-988E-2CE8318BE25B}">
   <dimension ref="A1:CP86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO36" sqref="AO36"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AS31" sqref="AS31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14898,6 +14957,7 @@
       <c r="AW22" s="34"/>
       <c r="AX22" s="34"/>
       <c r="AY22" s="34"/>
+      <c r="BA22" s="34"/>
       <c r="BE22" s="35"/>
       <c r="BF22" s="34"/>
       <c r="BG22" s="34"/>
@@ -14951,15 +15011,15 @@
       <c r="T23" s="34"/>
       <c r="U23" s="34"/>
       <c r="V23" s="34"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
       <c r="Y23" s="34"/>
       <c r="Z23" s="34"/>
       <c r="AA23" s="34"/>
       <c r="AB23" s="34"/>
       <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
       <c r="AF23" s="34"/>
       <c r="AG23" s="34"/>
       <c r="AH23" s="34"/>
@@ -14979,6 +15039,7 @@
       <c r="AV23" s="32"/>
       <c r="AW23" s="32"/>
       <c r="AX23" s="32"/>
+      <c r="BA23" s="34"/>
       <c r="BF23" s="34"/>
       <c r="BG23" s="34"/>
       <c r="BH23" s="34"/>
@@ -15023,6 +15084,7 @@
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
       <c r="H24" s="32"/>
+      <c r="BA24" s="34"/>
       <c r="BF24" s="34"/>
       <c r="BG24" s="34"/>
       <c r="BH24" s="34"/>
@@ -15067,6 +15129,7 @@
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
       <c r="H25" s="32"/>
+      <c r="BA25" s="34"/>
       <c r="BH25" s="35"/>
       <c r="BI25" s="34"/>
       <c r="BJ25" s="34"/>
@@ -15847,6 +15910,7 @@
       <c r="F46" s="34"/>
       <c r="G46" s="34"/>
       <c r="H46" s="32"/>
+      <c r="L46" s="37"/>
       <c r="BE46" s="31"/>
       <c r="BH46" s="34"/>
       <c r="BI46" s="34"/>
@@ -17542,9 +17606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC1ACA1-D39A-40A3-9EAE-07F33C90ECD2}">
   <dimension ref="A1:DU91"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="EJ33" sqref="EJ33"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="DE37" sqref="DE37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19039,7 +19103,7 @@
       <c r="DE23" s="34"/>
       <c r="DF23" s="34"/>
       <c r="DG23" s="34"/>
-      <c r="DH23" s="32"/>
+      <c r="DH23" s="34"/>
       <c r="DI23" s="34"/>
       <c r="DJ23" s="34"/>
       <c r="DK23" s="34"/>
@@ -19110,6 +19174,9 @@
       <c r="DD24" s="36"/>
       <c r="DE24" s="36"/>
       <c r="DF24" s="36"/>
+      <c r="DG24" s="34"/>
+      <c r="DH24" s="32"/>
+      <c r="DI24" s="34"/>
       <c r="DJ24" s="34"/>
       <c r="DK24" s="34"/>
       <c r="DL24" s="34"/>
@@ -20430,7 +20497,7 @@
       <c r="CX40" s="34"/>
       <c r="CY40" s="34"/>
       <c r="CZ40" s="36"/>
-      <c r="DD40" s="35"/>
+      <c r="DD40" s="34"/>
       <c r="DG40" s="36"/>
       <c r="DH40" s="34"/>
       <c r="DI40" s="34"/>

--- a/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
+++ b/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsao\Desktop\TeamHolyShit\개인작업폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5893BB8D-A821-4850-804B-A04331B206CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D6538E-3CF7-4EB7-AE23-6A14D1FA7AED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="375" windowWidth="18765" windowHeight="14805" firstSheet="1" activeTab="7" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
   </bookViews>
@@ -17606,9 +17606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC1ACA1-D39A-40A3-9EAE-07F33C90ECD2}">
   <dimension ref="A1:DU91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="DE37" sqref="DE37"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N30" sqref="N29:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19168,14 +19168,14 @@
       <c r="CX24" s="34"/>
       <c r="CY24" s="34"/>
       <c r="CZ24" s="34"/>
-      <c r="DA24" s="36"/>
-      <c r="DB24" s="36"/>
-      <c r="DC24" s="36"/>
-      <c r="DD24" s="36"/>
-      <c r="DE24" s="36"/>
-      <c r="DF24" s="36"/>
+      <c r="DA24" s="34"/>
+      <c r="DB24" s="34"/>
+      <c r="DC24" s="34"/>
+      <c r="DD24" s="34"/>
+      <c r="DE24" s="34"/>
+      <c r="DF24" s="34"/>
       <c r="DG24" s="34"/>
-      <c r="DH24" s="32"/>
+      <c r="DH24" s="34"/>
       <c r="DI24" s="34"/>
       <c r="DJ24" s="34"/>
       <c r="DK24" s="34"/>
@@ -19240,6 +19240,23 @@
       <c r="CX25" s="34"/>
       <c r="CY25" s="34"/>
       <c r="CZ25" s="34"/>
+      <c r="DA25" s="36"/>
+      <c r="DB25" s="36"/>
+      <c r="DC25" s="36"/>
+      <c r="DD25" s="36"/>
+      <c r="DE25" s="36"/>
+      <c r="DF25" s="36"/>
+      <c r="DG25" s="34"/>
+      <c r="DH25" s="32"/>
+      <c r="DI25" s="34"/>
+      <c r="DJ25" s="34"/>
+      <c r="DK25" s="34"/>
+      <c r="DL25" s="34"/>
+      <c r="DM25" s="34"/>
+      <c r="DN25" s="34"/>
+      <c r="DO25" s="34"/>
+      <c r="DP25" s="34"/>
+      <c r="DQ25" s="34"/>
       <c r="DR25" s="34"/>
       <c r="DS25" s="34"/>
       <c r="DT25" s="34"/>
@@ -19462,7 +19479,6 @@
       <c r="CX28" s="34"/>
       <c r="CY28" s="34"/>
       <c r="CZ28" s="34"/>
-      <c r="DG28" s="36"/>
       <c r="DR28" s="34"/>
       <c r="DS28" s="34"/>
       <c r="DT28" s="34"/>
@@ -19786,7 +19802,6 @@
       <c r="CX32" s="34"/>
       <c r="CY32" s="34"/>
       <c r="CZ32" s="36"/>
-      <c r="DE32" s="35"/>
       <c r="DG32" s="36"/>
       <c r="DH32" s="34"/>
       <c r="DI32" s="34"/>
@@ -19872,7 +19887,6 @@
       <c r="CX33" s="34"/>
       <c r="CY33" s="34"/>
       <c r="CZ33" s="36"/>
-      <c r="DE33" s="36"/>
       <c r="DG33" s="36"/>
       <c r="DH33" s="34"/>
       <c r="DI33" s="34"/>
@@ -19958,6 +19972,7 @@
       <c r="CX34" s="34"/>
       <c r="CY34" s="34"/>
       <c r="CZ34" s="36"/>
+      <c r="DE34" s="35"/>
       <c r="DG34" s="36"/>
       <c r="DH34" s="34"/>
       <c r="DI34" s="34"/>
@@ -20049,6 +20064,7 @@
       <c r="CX35" s="34"/>
       <c r="CY35" s="34"/>
       <c r="CZ35" s="36"/>
+      <c r="DE35" s="36"/>
       <c r="DG35" s="36"/>
       <c r="DH35" s="34"/>
       <c r="DI35" s="34"/>
@@ -20144,7 +20160,6 @@
       <c r="CX36" s="34"/>
       <c r="CY36" s="34"/>
       <c r="CZ36" s="36"/>
-      <c r="DB36" s="35"/>
       <c r="DG36" s="36"/>
       <c r="DH36" s="34"/>
       <c r="DI36" s="34"/>
@@ -20231,7 +20246,7 @@
       <c r="CX37" s="34"/>
       <c r="CY37" s="34"/>
       <c r="CZ37" s="36"/>
-      <c r="DB37" s="36"/>
+      <c r="DB37" s="35"/>
       <c r="DG37" s="36"/>
       <c r="DH37" s="34"/>
       <c r="DI37" s="34"/>
@@ -20322,6 +20337,7 @@
       <c r="CX38" s="34"/>
       <c r="CY38" s="34"/>
       <c r="CZ38" s="36"/>
+      <c r="DB38" s="36"/>
       <c r="DG38" s="36"/>
       <c r="DH38" s="34"/>
       <c r="DI38" s="34"/>
@@ -20983,7 +20999,7 @@
       <c r="CZ47" s="34"/>
       <c r="DF47" s="35"/>
       <c r="DG47" s="32"/>
-      <c r="DH47" s="32"/>
+      <c r="DH47" s="34"/>
       <c r="DI47" s="34"/>
       <c r="DJ47" s="34"/>
       <c r="DK47" s="34"/>
@@ -21051,7 +21067,7 @@
       <c r="CY48" s="34"/>
       <c r="CZ48" s="34"/>
       <c r="DG48" s="32"/>
-      <c r="DH48" s="32"/>
+      <c r="DH48" s="34"/>
       <c r="DI48" s="34"/>
       <c r="DJ48" s="34"/>
       <c r="DK48" s="34"/>
@@ -21117,10 +21133,10 @@
       <c r="CV49" s="34"/>
       <c r="CW49" s="34"/>
       <c r="CX49" s="34"/>
-      <c r="CY49" s="32"/>
+      <c r="CY49" s="34"/>
       <c r="CZ49" s="32"/>
       <c r="DG49" s="32"/>
-      <c r="DH49" s="32"/>
+      <c r="DH49" s="34"/>
       <c r="DI49" s="34"/>
       <c r="DJ49" s="34"/>
       <c r="DK49" s="34"/>
@@ -21200,12 +21216,12 @@
       <c r="CV50" s="34"/>
       <c r="CW50" s="34"/>
       <c r="CX50" s="34"/>
-      <c r="CY50" s="32"/>
+      <c r="CY50" s="34"/>
       <c r="CZ50" s="32"/>
       <c r="DC50" s="32"/>
       <c r="DD50" s="32"/>
       <c r="DG50" s="32"/>
-      <c r="DH50" s="32"/>
+      <c r="DH50" s="34"/>
       <c r="DI50" s="34"/>
       <c r="DJ50" s="34"/>
       <c r="DK50" s="34"/>
@@ -21286,10 +21302,10 @@
       <c r="CV51" s="34"/>
       <c r="CW51" s="34"/>
       <c r="CX51" s="34"/>
-      <c r="CY51" s="32"/>
+      <c r="CY51" s="34"/>
       <c r="CZ51" s="32"/>
       <c r="DG51" s="32"/>
-      <c r="DH51" s="32"/>
+      <c r="DH51" s="34"/>
       <c r="DI51" s="34"/>
       <c r="DJ51" s="34"/>
       <c r="DK51" s="34"/>
@@ -21370,10 +21386,10 @@
       <c r="CV52" s="34"/>
       <c r="CW52" s="34"/>
       <c r="CX52" s="34"/>
-      <c r="CY52" s="32"/>
+      <c r="CY52" s="34"/>
       <c r="CZ52" s="32"/>
       <c r="DG52" s="32"/>
-      <c r="DH52" s="32"/>
+      <c r="DH52" s="34"/>
       <c r="DI52" s="34"/>
       <c r="DJ52" s="34"/>
       <c r="DK52" s="34"/>
@@ -21453,12 +21469,12 @@
       <c r="CV53" s="34"/>
       <c r="CW53" s="34"/>
       <c r="CX53" s="34"/>
-      <c r="CY53" s="32"/>
+      <c r="CY53" s="34"/>
       <c r="CZ53" s="32"/>
       <c r="DA53" s="35"/>
       <c r="DE53" s="33"/>
       <c r="DG53" s="32"/>
-      <c r="DH53" s="32"/>
+      <c r="DH53" s="34"/>
       <c r="DI53" s="34"/>
       <c r="DJ53" s="34"/>
       <c r="DK53" s="34"/>
@@ -21530,10 +21546,10 @@
       <c r="CV54" s="34"/>
       <c r="CW54" s="34"/>
       <c r="CX54" s="34"/>
-      <c r="CY54" s="32"/>
+      <c r="CY54" s="34"/>
       <c r="CZ54" s="32"/>
       <c r="DG54" s="32"/>
-      <c r="DH54" s="32"/>
+      <c r="DH54" s="34"/>
       <c r="DI54" s="34"/>
       <c r="DJ54" s="34"/>
       <c r="DK54" s="34"/>
@@ -21595,10 +21611,10 @@
       <c r="CV55" s="34"/>
       <c r="CW55" s="34"/>
       <c r="CX55" s="34"/>
-      <c r="CY55" s="32"/>
+      <c r="CY55" s="34"/>
       <c r="CZ55" s="32"/>
       <c r="DG55" s="32"/>
-      <c r="DH55" s="32"/>
+      <c r="DH55" s="34"/>
       <c r="DI55" s="34"/>
       <c r="DJ55" s="34"/>
       <c r="DK55" s="34"/>
@@ -21657,10 +21673,10 @@
       <c r="CV56" s="34"/>
       <c r="CW56" s="34"/>
       <c r="CX56" s="34"/>
-      <c r="CY56" s="32"/>
+      <c r="CY56" s="34"/>
       <c r="CZ56" s="32"/>
       <c r="DG56" s="32"/>
-      <c r="DH56" s="32"/>
+      <c r="DH56" s="34"/>
       <c r="DI56" s="34"/>
       <c r="DJ56" s="34"/>
       <c r="DK56" s="34"/>
@@ -21726,13 +21742,13 @@
       <c r="CV57" s="34"/>
       <c r="CW57" s="34"/>
       <c r="CX57" s="34"/>
-      <c r="CY57" s="32"/>
+      <c r="CY57" s="34"/>
       <c r="CZ57" s="32"/>
       <c r="DB57" s="32"/>
       <c r="DC57" s="32"/>
       <c r="DD57" s="32"/>
       <c r="DG57" s="32"/>
-      <c r="DH57" s="32"/>
+      <c r="DH57" s="34"/>
       <c r="DI57" s="34"/>
       <c r="DJ57" s="34"/>
       <c r="DK57" s="34"/>
@@ -21792,10 +21808,10 @@
       <c r="CV58" s="34"/>
       <c r="CW58" s="34"/>
       <c r="CX58" s="34"/>
-      <c r="CY58" s="32"/>
+      <c r="CY58" s="34"/>
       <c r="CZ58" s="32"/>
       <c r="DG58" s="32"/>
-      <c r="DH58" s="32"/>
+      <c r="DH58" s="34"/>
       <c r="DI58" s="34"/>
       <c r="DJ58" s="34"/>
       <c r="DK58" s="34"/>
@@ -21853,10 +21869,10 @@
       <c r="CV59" s="34"/>
       <c r="CW59" s="34"/>
       <c r="CX59" s="34"/>
-      <c r="CY59" s="32"/>
+      <c r="CY59" s="34"/>
       <c r="CZ59" s="32"/>
       <c r="DG59" s="32"/>
-      <c r="DH59" s="32"/>
+      <c r="DH59" s="34"/>
       <c r="DI59" s="34"/>
       <c r="DJ59" s="34"/>
       <c r="DK59" s="34"/>
@@ -21919,10 +21935,10 @@
       <c r="CV60" s="34"/>
       <c r="CW60" s="34"/>
       <c r="CX60" s="34"/>
-      <c r="CY60" s="32"/>
+      <c r="CY60" s="34"/>
       <c r="CZ60" s="32"/>
       <c r="DG60" s="32"/>
-      <c r="DH60" s="32"/>
+      <c r="DH60" s="34"/>
       <c r="DI60" s="34"/>
       <c r="DJ60" s="34"/>
       <c r="DK60" s="34"/>
@@ -22009,10 +22025,10 @@
       <c r="CV61" s="34"/>
       <c r="CW61" s="34"/>
       <c r="CX61" s="34"/>
-      <c r="CY61" s="32"/>
+      <c r="CY61" s="34"/>
       <c r="CZ61" s="32"/>
       <c r="DG61" s="32"/>
-      <c r="DH61" s="32"/>
+      <c r="DH61" s="34"/>
       <c r="DI61" s="34"/>
       <c r="DJ61" s="34"/>
       <c r="DK61" s="34"/>
@@ -22084,23 +22100,23 @@
       <c r="CG62" s="34"/>
       <c r="CH62" s="34"/>
       <c r="CI62" s="34"/>
-      <c r="CJ62" s="32"/>
-      <c r="CK62" s="32"/>
-      <c r="CL62" s="32"/>
-      <c r="CM62" s="32"/>
-      <c r="CN62" s="32"/>
-      <c r="CO62" s="32"/>
-      <c r="CP62" s="32"/>
-      <c r="CQ62" s="32"/>
-      <c r="CR62" s="32"/>
-      <c r="CS62" s="32"/>
-      <c r="CT62" s="32"/>
-      <c r="CU62" s="32"/>
-      <c r="CV62" s="32"/>
-      <c r="CW62" s="32"/>
-      <c r="CX62" s="32"/>
+      <c r="CJ62" s="34"/>
+      <c r="CK62" s="34"/>
+      <c r="CL62" s="34"/>
+      <c r="CM62" s="34"/>
+      <c r="CN62" s="34"/>
+      <c r="CO62" s="34"/>
+      <c r="CP62" s="34"/>
+      <c r="CQ62" s="34"/>
+      <c r="CR62" s="34"/>
+      <c r="CS62" s="34"/>
+      <c r="CT62" s="34"/>
+      <c r="CU62" s="34"/>
+      <c r="CV62" s="34"/>
+      <c r="CW62" s="34"/>
+      <c r="CX62" s="34"/>
       <c r="DG62" s="32"/>
-      <c r="DH62" s="32"/>
+      <c r="DH62" s="34"/>
       <c r="DI62" s="34"/>
       <c r="DJ62" s="34"/>
       <c r="DK62" s="34"/>
@@ -22174,7 +22190,7 @@
       <c r="CW63" s="32"/>
       <c r="CX63" s="32"/>
       <c r="DG63" s="32"/>
-      <c r="DH63" s="32"/>
+      <c r="DH63" s="34"/>
       <c r="DI63" s="34"/>
       <c r="DJ63" s="34"/>
       <c r="DK63" s="34"/>
@@ -22226,7 +22242,7 @@
       <c r="BO64" s="34"/>
       <c r="BW64" s="36"/>
       <c r="DG64" s="32"/>
-      <c r="DH64" s="32"/>
+      <c r="DH64" s="34"/>
       <c r="DI64" s="34"/>
       <c r="DJ64" s="34"/>
       <c r="DK64" s="34"/>
@@ -22267,8 +22283,8 @@
       <c r="BO65" s="34"/>
       <c r="BW65" s="36"/>
       <c r="DF65" s="32"/>
-      <c r="DG65" s="32"/>
-      <c r="DH65" s="32"/>
+      <c r="DG65" s="34"/>
+      <c r="DH65" s="34"/>
       <c r="DI65" s="34"/>
       <c r="DJ65" s="34"/>
       <c r="DK65" s="34"/>
@@ -22316,8 +22332,8 @@
       <c r="CV66" s="33"/>
       <c r="CY66" s="36"/>
       <c r="DF66" s="32"/>
-      <c r="DG66" s="32"/>
-      <c r="DH66" s="32"/>
+      <c r="DG66" s="34"/>
+      <c r="DH66" s="34"/>
       <c r="DI66" s="34"/>
       <c r="DJ66" s="34"/>
       <c r="DK66" s="34"/>
@@ -22365,8 +22381,8 @@
       <c r="CG67" s="36"/>
       <c r="CY67" s="34"/>
       <c r="DF67" s="32"/>
-      <c r="DG67" s="32"/>
-      <c r="DH67" s="32"/>
+      <c r="DG67" s="34"/>
+      <c r="DH67" s="34"/>
       <c r="DI67" s="34"/>
       <c r="DJ67" s="34"/>
       <c r="DK67" s="34"/>
@@ -22424,8 +22440,8 @@
       <c r="CY68" s="34"/>
       <c r="DC68" s="37"/>
       <c r="DF68" s="32"/>
-      <c r="DG68" s="32"/>
-      <c r="DH68" s="32"/>
+      <c r="DG68" s="34"/>
+      <c r="DH68" s="34"/>
       <c r="DI68" s="34"/>
       <c r="DJ68" s="34"/>
       <c r="DK68" s="34"/>

--- a/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
+++ b/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsao\Desktop\TeamHolyShit\개인작업폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D6538E-3CF7-4EB7-AE23-6A14D1FA7AED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8D7845-EA15-47A7-80E0-1DAABF2C7761}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="375" windowWidth="18765" windowHeight="14805" firstSheet="1" activeTab="7" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
   </bookViews>
@@ -17608,7 +17608,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N30" sqref="N29:N30"/>
+      <selection pane="bottomLeft" activeCell="AW35" sqref="AW35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
+++ b/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsao\Desktop\TeamHolyShit\개인작업폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8D7845-EA15-47A7-80E0-1DAABF2C7761}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BFB33C-71C7-4325-B6C6-1512952AB005}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="375" windowWidth="18765" windowHeight="14805" firstSheet="1" activeTab="7" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
+    <workbookView xWindow="4785" yWindow="0" windowWidth="18765" windowHeight="14805" firstSheet="1" activeTab="5" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
   </bookViews>
   <sheets>
     <sheet name="문서정보" sheetId="19" r:id="rId1"/>
@@ -972,9 +972,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1016,37 +1031,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1058,8 +1043,20 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1074,6 +1071,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4604,151 +4604,151 @@
     </row>
     <row r="3" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="42"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
     </row>
     <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="50"/>
     </row>
     <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="45"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
     </row>
     <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="50"/>
     </row>
     <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
     </row>
     <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="45"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
     </row>
     <row r="11" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="48"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="53"/>
     </row>
     <row r="12" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="54">
         <v>44225</v>
       </c>
-      <c r="D13" s="50"/>
+      <c r="D13" s="55"/>
       <c r="M13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="51" t="s">
+      <c r="N13" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="52"/>
+      <c r="O13" s="57"/>
     </row>
     <row r="14" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
@@ -4767,22 +4767,22 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="2:15" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
     </row>
     <row r="16" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
@@ -4804,233 +4804,233 @@
       <c r="C17" s="6">
         <v>1</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
     </row>
     <row r="18" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
     </row>
     <row r="19" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
     </row>
     <row r="20" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
     </row>
     <row r="21" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="6">
         <v>2</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
     </row>
     <row r="22" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
     </row>
     <row r="23" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
     </row>
     <row r="24" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
     </row>
     <row r="25" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="6">
         <v>3</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
     </row>
     <row r="26" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="6">
         <v>4</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
     </row>
     <row r="27" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="6">
         <v>5</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
     </row>
     <row r="28" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="30">
         <v>6</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
     </row>
     <row r="29" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="30">
         <v>7</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
     </row>
     <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
     </row>
     <row r="33" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="2:15" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
     </row>
     <row r="35" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
@@ -5055,413 +5055,364 @@
       <c r="C36" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="54"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G36" s="55" t="s">
+      <c r="G36" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="54" t="s">
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="O36" s="54"/>
+      <c r="O36" s="40"/>
     </row>
     <row r="37" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="8">
         <v>1</v>
       </c>
       <c r="C37" s="28"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
     </row>
     <row r="38" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="8">
         <v>2</v>
       </c>
       <c r="C38" s="28"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
       <c r="F38" s="28"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
     </row>
     <row r="39" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8"/>
       <c r="C39" s="28"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
       <c r="F39" s="28"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
     </row>
     <row r="40" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
       <c r="C40" s="28"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
       <c r="F40" s="28"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
     </row>
     <row r="41" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
       <c r="C41" s="28"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
       <c r="F41" s="28"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="57"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
     </row>
     <row r="42" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
       <c r="C42" s="28"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
       <c r="F42" s="28"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
     </row>
     <row r="43" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
       <c r="C43" s="28"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
       <c r="F43" s="28"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="57"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
     </row>
     <row r="44" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="8"/>
       <c r="C44" s="28"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
       <c r="F44" s="28"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
     </row>
     <row r="45" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
       <c r="C45" s="28"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="28"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="57"/>
-      <c r="O45" s="57"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
     </row>
     <row r="46" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
       <c r="C46" s="28"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
       <c r="F46" s="28"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
     </row>
     <row r="47" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8"/>
       <c r="C47" s="28"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
       <c r="F47" s="28"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="57"/>
-      <c r="O47" s="57"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
     </row>
     <row r="48" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="8"/>
       <c r="C48" s="28"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="28"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="57"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
     </row>
     <row r="49" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="8"/>
       <c r="C49" s="28"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
       <c r="F49" s="28"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="57"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
     </row>
     <row r="50" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="8"/>
       <c r="C50" s="28"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
       <c r="F50" s="28"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
     </row>
     <row r="51" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="8"/>
       <c r="C51" s="28"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
       <c r="F51" s="28"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="57"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
     </row>
     <row r="52" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
       <c r="C52" s="28"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
       <c r="F52" s="28"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
     </row>
     <row r="53" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
       <c r="C53" s="28"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
       <c r="F53" s="28"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
     </row>
     <row r="54" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="8"/>
       <c r="C54" s="28"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
       <c r="F54" s="28"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
     </row>
     <row r="55" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="8"/>
       <c r="C55" s="28"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
       <c r="F55" s="28"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="57"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
     </row>
     <row r="56" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="8"/>
       <c r="C56" s="28"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
       <c r="F56" s="28"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="57"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="E23:M23"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="E22:M22"/>
+    <mergeCell ref="B4:O11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="D17:M17"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="N36:O36"/>
     <mergeCell ref="G36:M36"/>
@@ -5473,17 +5424,66 @@
     <mergeCell ref="B34:O34"/>
     <mergeCell ref="D28:M28"/>
     <mergeCell ref="D29:M29"/>
-    <mergeCell ref="B4:O11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="E23:M23"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="E22:M22"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:M56"/>
+    <mergeCell ref="N56:O56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5509,379 +5509,888 @@
   <sheetData>
     <row r="1" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" s="13" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="10" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
     </row>
     <row r="16" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
     </row>
     <row r="17" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
     </row>
     <row r="20" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
     </row>
     <row r="21" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
     </row>
     <row r="22" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="66"/>
     </row>
     <row r="23" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
     </row>
     <row r="25" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
     </row>
     <row r="26" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
     </row>
     <row r="27" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
     </row>
     <row r="28" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
     </row>
     <row r="29" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
     </row>
     <row r="30" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
     </row>
     <row r="31" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
     </row>
     <row r="32" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
     </row>
     <row r="33" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
     </row>
     <row r="35" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
     </row>
     <row r="36" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
     </row>
     <row r="37" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
     </row>
     <row r="38" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
     </row>
     <row r="39" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
     </row>
     <row r="40" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B115CA4-4A3A-4C15-B086-786A2C0A2453}">
+  <dimension ref="B1:K46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:K42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" s="13" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="7" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+    </row>
+    <row r="8" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+    </row>
+    <row r="10" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+    </row>
+    <row r="11" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
+    </row>
+    <row r="12" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+    </row>
+    <row r="13" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+    </row>
+    <row r="16" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+    </row>
+    <row r="17" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+    </row>
+    <row r="19" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+    </row>
+    <row r="20" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+    </row>
+    <row r="21" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+    </row>
+    <row r="22" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="66"/>
+    </row>
+    <row r="23" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+    </row>
+    <row r="25" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+    </row>
+    <row r="26" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+    </row>
+    <row r="27" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+    </row>
+    <row r="28" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+    </row>
+    <row r="29" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+    </row>
+    <row r="30" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+    </row>
+    <row r="31" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+    </row>
+    <row r="32" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+    </row>
+    <row r="33" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+    </row>
+    <row r="35" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+    </row>
+    <row r="36" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+    </row>
+    <row r="37" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+    </row>
+    <row r="38" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+    </row>
+    <row r="39" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+    </row>
+    <row r="40" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+    </row>
+    <row r="42" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+    </row>
+    <row r="43" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+    </row>
+    <row r="44" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+    </row>
+    <row r="45" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+    </row>
+    <row r="46" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B4:K4"/>
@@ -5912,521 +6421,12 @@
     <mergeCell ref="B36:K36"/>
     <mergeCell ref="B37:K37"/>
     <mergeCell ref="B38:K38"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B115CA4-4A3A-4C15-B086-786A2C0A2453}">
-  <dimension ref="B1:K46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:K42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" s="13" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
-    </row>
-    <row r="3" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-    </row>
-    <row r="5" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-    </row>
-    <row r="7" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-    </row>
-    <row r="8" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-    </row>
-    <row r="10" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-    </row>
-    <row r="11" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
-    </row>
-    <row r="12" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-    </row>
-    <row r="13" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-    </row>
-    <row r="16" spans="2:11" s="14" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-    </row>
-    <row r="17" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-    </row>
-    <row r="19" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-    </row>
-    <row r="20" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-    </row>
-    <row r="21" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-    </row>
-    <row r="22" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
-    </row>
-    <row r="23" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-    </row>
-    <row r="25" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-    </row>
-    <row r="26" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-    </row>
-    <row r="27" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-    </row>
-    <row r="28" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-    </row>
-    <row r="29" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-    </row>
-    <row r="30" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-    </row>
-    <row r="31" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-    </row>
-    <row r="32" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-    </row>
-    <row r="33" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-    </row>
-    <row r="35" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-    </row>
-    <row r="36" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-    </row>
-    <row r="37" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-    </row>
-    <row r="38" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-    </row>
-    <row r="39" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-    </row>
-    <row r="40" spans="2:11" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:11" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-    </row>
-    <row r="42" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-    </row>
-    <row r="43" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-    </row>
-    <row r="44" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-    </row>
-    <row r="45" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-    </row>
-    <row r="46" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-    </row>
-  </sheetData>
-  <mergeCells count="36">
     <mergeCell ref="B46:K46"/>
     <mergeCell ref="B41:K41"/>
     <mergeCell ref="B42:K42"/>
     <mergeCell ref="B43:K43"/>
     <mergeCell ref="B44:K44"/>
     <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6546,79 +6546,79 @@
     <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="70"/>
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="69" t="s">
+      <c r="V2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="71"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="70"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
-      <c r="AD2" s="69" t="s">
+      <c r="AD2" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="71"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="70"/>
       <c r="AH2" s="21"/>
       <c r="AJ2" s="36"/>
-      <c r="AL2" s="69" t="s">
+      <c r="AL2" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="71"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="70"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AT2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="71"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="70"/>
       <c r="AW2" s="21"/>
-      <c r="BA2" s="69" t="s">
+      <c r="BA2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="71"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="70"/>
       <c r="BH2" s="21"/>
       <c r="BJ2" s="37"/>
-      <c r="BL2" s="69" t="s">
+      <c r="BL2" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="71"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="70"/>
       <c r="BP2" s="21"/>
-      <c r="BT2" s="69" t="s">
+      <c r="BT2" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="71"/>
+      <c r="BU2" s="69"/>
+      <c r="BV2" s="69"/>
+      <c r="BW2" s="70"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -6831,49 +6831,49 @@
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="72"/>
-      <c r="AQ6" s="72"/>
-      <c r="AR6" s="72"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
+      <c r="AL6" s="71"/>
+      <c r="AM6" s="71"/>
+      <c r="AN6" s="71"/>
+      <c r="AO6" s="71"/>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71"/>
       <c r="AS6" s="11"/>
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
@@ -6889,47 +6889,47 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="71"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="71"/>
+      <c r="AK7" s="71"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="71"/>
+      <c r="AN7" s="71"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
@@ -6945,47 +6945,47 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
@@ -7112,20 +7112,20 @@
     <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
       <c r="O12" s="73" t="s">
         <v>22</v>
       </c>
@@ -7173,18 +7173,18 @@
     <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -7291,128 +7291,128 @@
       <c r="BT14" s="22"/>
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
     </row>
     <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
     </row>
     <row r="53" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="67" t="s">
+      <c r="C53" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="67"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="67"/>
-      <c r="P53" s="67"/>
-      <c r="Q53" s="67"/>
-      <c r="R53" s="67"/>
-      <c r="S53" s="67"/>
-      <c r="T53" s="67"/>
-      <c r="U53" s="67"/>
-      <c r="V53" s="67"/>
-      <c r="W53" s="67"/>
-      <c r="X53" s="67"/>
-      <c r="Y53" s="67"/>
-      <c r="Z53" s="67"/>
-      <c r="AA53" s="67"/>
-      <c r="AB53" s="67"/>
-      <c r="AC53" s="67"/>
-      <c r="AD53" s="67"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="72"/>
+      <c r="S53" s="72"/>
+      <c r="T53" s="72"/>
+      <c r="U53" s="72"/>
+      <c r="V53" s="72"/>
+      <c r="W53" s="72"/>
+      <c r="X53" s="72"/>
+      <c r="Y53" s="72"/>
+      <c r="Z53" s="72"/>
+      <c r="AA53" s="72"/>
+      <c r="AB53" s="72"/>
+      <c r="AC53" s="72"/>
+      <c r="AD53" s="72"/>
     </row>
     <row r="54" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67"/>
-      <c r="O54" s="67"/>
-      <c r="P54" s="67"/>
-      <c r="Q54" s="67"/>
-      <c r="R54" s="67"/>
-      <c r="S54" s="67"/>
-      <c r="T54" s="67"/>
-      <c r="U54" s="67"/>
-      <c r="V54" s="67"/>
-      <c r="W54" s="67"/>
-      <c r="X54" s="67"/>
-      <c r="Y54" s="67"/>
-      <c r="Z54" s="67"/>
-      <c r="AA54" s="67"/>
-      <c r="AB54" s="67"/>
-      <c r="AC54" s="67"/>
-      <c r="AD54" s="67"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="72"/>
+      <c r="S54" s="72"/>
+      <c r="T54" s="72"/>
+      <c r="U54" s="72"/>
+      <c r="V54" s="72"/>
+      <c r="W54" s="72"/>
+      <c r="X54" s="72"/>
+      <c r="Y54" s="72"/>
+      <c r="Z54" s="72"/>
+      <c r="AA54" s="72"/>
+      <c r="AB54" s="72"/>
+      <c r="AC54" s="72"/>
+      <c r="AD54" s="72"/>
     </row>
     <row r="55" spans="3:72" s="24" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C55" s="22"/>
@@ -7487,34 +7487,34 @@
       <c r="BT55" s="22"/>
     </row>
     <row r="56" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="68"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="68"/>
-      <c r="O56" s="68"/>
-      <c r="P56" s="68"/>
-      <c r="Q56" s="68"/>
-      <c r="R56" s="68"/>
-      <c r="S56" s="68"/>
-      <c r="T56" s="68"/>
-      <c r="U56" s="68"/>
-      <c r="V56" s="68"/>
-      <c r="W56" s="68"/>
-      <c r="X56" s="68"/>
-      <c r="Y56" s="68"/>
-      <c r="Z56" s="68"/>
-      <c r="AA56" s="68"/>
-      <c r="AB56" s="68"/>
-      <c r="AC56" s="68"/>
-      <c r="AD56" s="68"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="67"/>
+      <c r="O56" s="67"/>
+      <c r="P56" s="67"/>
+      <c r="Q56" s="67"/>
+      <c r="R56" s="67"/>
+      <c r="S56" s="67"/>
+      <c r="T56" s="67"/>
+      <c r="U56" s="67"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
+      <c r="AD56" s="67"/>
       <c r="AE56" s="22"/>
       <c r="AF56" s="22"/>
       <c r="AG56" s="22"/>
@@ -7559,34 +7559,34 @@
       <c r="BT56" s="22"/>
     </row>
     <row r="57" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="68"/>
-      <c r="P57" s="68"/>
-      <c r="Q57" s="68"/>
-      <c r="R57" s="68"/>
-      <c r="S57" s="68"/>
-      <c r="T57" s="68"/>
-      <c r="U57" s="68"/>
-      <c r="V57" s="68"/>
-      <c r="W57" s="68"/>
-      <c r="X57" s="68"/>
-      <c r="Y57" s="68"/>
-      <c r="Z57" s="68"/>
-      <c r="AA57" s="68"/>
-      <c r="AB57" s="68"/>
-      <c r="AC57" s="68"/>
-      <c r="AD57" s="68"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="67"/>
+      <c r="P57" s="67"/>
+      <c r="Q57" s="67"/>
+      <c r="R57" s="67"/>
+      <c r="S57" s="67"/>
+      <c r="T57" s="67"/>
+      <c r="U57" s="67"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="67"/>
+      <c r="AD57" s="67"/>
       <c r="AE57" s="22"/>
       <c r="AF57" s="22"/>
       <c r="AG57" s="22"/>
@@ -7631,187 +7631,192 @@
       <c r="BT57" s="22"/>
     </row>
     <row r="58" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="68"/>
-      <c r="P58" s="68"/>
-      <c r="Q58" s="68"/>
-      <c r="R58" s="68"/>
-      <c r="S58" s="68"/>
-      <c r="T58" s="68"/>
-      <c r="U58" s="68"/>
-      <c r="V58" s="68"/>
-      <c r="W58" s="68"/>
-      <c r="X58" s="68"/>
-      <c r="Y58" s="68"/>
-      <c r="Z58" s="68"/>
-      <c r="AA58" s="68"/>
-      <c r="AB58" s="68"/>
-      <c r="AC58" s="68"/>
-      <c r="AD58" s="68"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="67"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="67"/>
+      <c r="T58" s="67"/>
+      <c r="U58" s="67"/>
+      <c r="V58" s="67"/>
+      <c r="W58" s="67"/>
+      <c r="X58" s="67"/>
+      <c r="Y58" s="67"/>
+      <c r="Z58" s="67"/>
+      <c r="AA58" s="67"/>
+      <c r="AB58" s="67"/>
+      <c r="AC58" s="67"/>
+      <c r="AD58" s="67"/>
     </row>
     <row r="59" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="68"/>
-      <c r="P59" s="68"/>
-      <c r="Q59" s="68"/>
-      <c r="R59" s="68"/>
-      <c r="S59" s="68"/>
-      <c r="T59" s="68"/>
-      <c r="U59" s="68"/>
-      <c r="V59" s="68"/>
-      <c r="W59" s="68"/>
-      <c r="X59" s="68"/>
-      <c r="Y59" s="68"/>
-      <c r="Z59" s="68"/>
-      <c r="AA59" s="68"/>
-      <c r="AB59" s="68"/>
-      <c r="AC59" s="68"/>
-      <c r="AD59" s="68"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="67"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="67"/>
+      <c r="T59" s="67"/>
+      <c r="U59" s="67"/>
+      <c r="V59" s="67"/>
+      <c r="W59" s="67"/>
+      <c r="X59" s="67"/>
+      <c r="Y59" s="67"/>
+      <c r="Z59" s="67"/>
+      <c r="AA59" s="67"/>
+      <c r="AB59" s="67"/>
+      <c r="AC59" s="67"/>
+      <c r="AD59" s="67"/>
     </row>
     <row r="60" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
-      <c r="P60" s="68"/>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="68"/>
-      <c r="S60" s="68"/>
-      <c r="T60" s="68"/>
-      <c r="U60" s="68"/>
-      <c r="V60" s="68"/>
-      <c r="W60" s="68"/>
-      <c r="X60" s="68"/>
-      <c r="Y60" s="68"/>
-      <c r="Z60" s="68"/>
-      <c r="AA60" s="68"/>
-      <c r="AB60" s="68"/>
-      <c r="AC60" s="68"/>
-      <c r="AD60" s="68"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="67"/>
+      <c r="P60" s="67"/>
+      <c r="Q60" s="67"/>
+      <c r="R60" s="67"/>
+      <c r="S60" s="67"/>
+      <c r="T60" s="67"/>
+      <c r="U60" s="67"/>
+      <c r="V60" s="67"/>
+      <c r="W60" s="67"/>
+      <c r="X60" s="67"/>
+      <c r="Y60" s="67"/>
+      <c r="Z60" s="67"/>
+      <c r="AA60" s="67"/>
+      <c r="AB60" s="67"/>
+      <c r="AC60" s="67"/>
+      <c r="AD60" s="67"/>
     </row>
     <row r="61" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="68"/>
-      <c r="N61" s="68"/>
-      <c r="O61" s="68"/>
-      <c r="P61" s="68"/>
-      <c r="Q61" s="68"/>
-      <c r="R61" s="68"/>
-      <c r="S61" s="68"/>
-      <c r="T61" s="68"/>
-      <c r="U61" s="68"/>
-      <c r="V61" s="68"/>
-      <c r="W61" s="68"/>
-      <c r="X61" s="68"/>
-      <c r="Y61" s="68"/>
-      <c r="Z61" s="68"/>
-      <c r="AA61" s="68"/>
-      <c r="AB61" s="68"/>
-      <c r="AC61" s="68"/>
-      <c r="AD61" s="68"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="67"/>
+      <c r="Q61" s="67"/>
+      <c r="R61" s="67"/>
+      <c r="S61" s="67"/>
+      <c r="T61" s="67"/>
+      <c r="U61" s="67"/>
+      <c r="V61" s="67"/>
+      <c r="W61" s="67"/>
+      <c r="X61" s="67"/>
+      <c r="Y61" s="67"/>
+      <c r="Z61" s="67"/>
+      <c r="AA61" s="67"/>
+      <c r="AB61" s="67"/>
+      <c r="AC61" s="67"/>
+      <c r="AD61" s="67"/>
     </row>
     <row r="62" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
-      <c r="N62" s="68"/>
-      <c r="O62" s="68"/>
-      <c r="P62" s="68"/>
-      <c r="Q62" s="68"/>
-      <c r="R62" s="68"/>
-      <c r="S62" s="68"/>
-      <c r="T62" s="68"/>
-      <c r="U62" s="68"/>
-      <c r="V62" s="68"/>
-      <c r="W62" s="68"/>
-      <c r="X62" s="68"/>
-      <c r="Y62" s="68"/>
-      <c r="Z62" s="68"/>
-      <c r="AA62" s="68"/>
-      <c r="AB62" s="68"/>
-      <c r="AC62" s="68"/>
-      <c r="AD62" s="68"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="67"/>
+      <c r="N62" s="67"/>
+      <c r="O62" s="67"/>
+      <c r="P62" s="67"/>
+      <c r="Q62" s="67"/>
+      <c r="R62" s="67"/>
+      <c r="S62" s="67"/>
+      <c r="T62" s="67"/>
+      <c r="U62" s="67"/>
+      <c r="V62" s="67"/>
+      <c r="W62" s="67"/>
+      <c r="X62" s="67"/>
+      <c r="Y62" s="67"/>
+      <c r="Z62" s="67"/>
+      <c r="AA62" s="67"/>
+      <c r="AB62" s="67"/>
+      <c r="AC62" s="67"/>
+      <c r="AD62" s="67"/>
     </row>
     <row r="63" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="68"/>
-      <c r="N63" s="68"/>
-      <c r="O63" s="68"/>
-      <c r="P63" s="68"/>
-      <c r="Q63" s="68"/>
-      <c r="R63" s="68"/>
-      <c r="S63" s="68"/>
-      <c r="T63" s="68"/>
-      <c r="U63" s="68"/>
-      <c r="V63" s="68"/>
-      <c r="W63" s="68"/>
-      <c r="X63" s="68"/>
-      <c r="Y63" s="68"/>
-      <c r="Z63" s="68"/>
-      <c r="AA63" s="68"/>
-      <c r="AB63" s="68"/>
-      <c r="AC63" s="68"/>
-      <c r="AD63" s="68"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="67"/>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="67"/>
+      <c r="S63" s="67"/>
+      <c r="T63" s="67"/>
+      <c r="U63" s="67"/>
+      <c r="V63" s="67"/>
+      <c r="W63" s="67"/>
+      <c r="X63" s="67"/>
+      <c r="Y63" s="67"/>
+      <c r="Z63" s="67"/>
+      <c r="AA63" s="67"/>
+      <c r="AB63" s="67"/>
+      <c r="AC63" s="67"/>
+      <c r="AD63" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C15:AD16"/>
+    <mergeCell ref="C53:AD54"/>
+    <mergeCell ref="C56:AD57"/>
+    <mergeCell ref="C58:AD59"/>
+    <mergeCell ref="C60:AD61"/>
     <mergeCell ref="C62:AD63"/>
     <mergeCell ref="BA2:BG2"/>
     <mergeCell ref="BL2:BO2"/>
@@ -7828,11 +7833,6 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="C15:AD16"/>
-    <mergeCell ref="C53:AD54"/>
-    <mergeCell ref="C56:AD57"/>
-    <mergeCell ref="C58:AD59"/>
-    <mergeCell ref="C60:AD61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7953,79 +7953,79 @@
     <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="70"/>
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="69" t="s">
+      <c r="V2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="71"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="70"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
-      <c r="AD2" s="69" t="s">
+      <c r="AD2" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="71"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="70"/>
       <c r="AH2" s="21"/>
       <c r="AJ2" s="36"/>
-      <c r="AL2" s="69" t="s">
+      <c r="AL2" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="71"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="70"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AT2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="71"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="70"/>
       <c r="AW2" s="21"/>
-      <c r="BA2" s="69" t="s">
+      <c r="BA2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="71"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="70"/>
       <c r="BH2" s="21"/>
       <c r="BJ2" s="37"/>
-      <c r="BL2" s="69" t="s">
+      <c r="BL2" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="71"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="70"/>
       <c r="BP2" s="21"/>
-      <c r="BT2" s="69" t="s">
+      <c r="BT2" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="71"/>
+      <c r="BU2" s="69"/>
+      <c r="BV2" s="69"/>
+      <c r="BW2" s="70"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -8238,49 +8238,49 @@
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="72"/>
-      <c r="AQ6" s="72"/>
-      <c r="AR6" s="72"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
+      <c r="AL6" s="71"/>
+      <c r="AM6" s="71"/>
+      <c r="AN6" s="71"/>
+      <c r="AO6" s="71"/>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71"/>
       <c r="AS6" s="11"/>
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
@@ -8296,47 +8296,47 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="71"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="71"/>
+      <c r="AK7" s="71"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="71"/>
+      <c r="AN7" s="71"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
@@ -8352,47 +8352,47 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
@@ -8519,20 +8519,20 @@
     <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
       <c r="O12" s="73" t="s">
         <v>22</v>
       </c>
@@ -8584,18 +8584,18 @@
     <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -8702,66 +8702,66 @@
       <c r="BT14" s="22"/>
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
     </row>
     <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
     </row>
     <row r="18" spans="4:71" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="11"/>
@@ -10309,66 +10309,66 @@
       <c r="BS48" s="11"/>
     </row>
     <row r="53" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="67" t="s">
+      <c r="C53" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="67"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="67"/>
-      <c r="P53" s="67"/>
-      <c r="Q53" s="67"/>
-      <c r="R53" s="67"/>
-      <c r="S53" s="67"/>
-      <c r="T53" s="67"/>
-      <c r="U53" s="67"/>
-      <c r="V53" s="67"/>
-      <c r="W53" s="67"/>
-      <c r="X53" s="67"/>
-      <c r="Y53" s="67"/>
-      <c r="Z53" s="67"/>
-      <c r="AA53" s="67"/>
-      <c r="AB53" s="67"/>
-      <c r="AC53" s="67"/>
-      <c r="AD53" s="67"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="72"/>
+      <c r="S53" s="72"/>
+      <c r="T53" s="72"/>
+      <c r="U53" s="72"/>
+      <c r="V53" s="72"/>
+      <c r="W53" s="72"/>
+      <c r="X53" s="72"/>
+      <c r="Y53" s="72"/>
+      <c r="Z53" s="72"/>
+      <c r="AA53" s="72"/>
+      <c r="AB53" s="72"/>
+      <c r="AC53" s="72"/>
+      <c r="AD53" s="72"/>
     </row>
     <row r="54" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67"/>
-      <c r="O54" s="67"/>
-      <c r="P54" s="67"/>
-      <c r="Q54" s="67"/>
-      <c r="R54" s="67"/>
-      <c r="S54" s="67"/>
-      <c r="T54" s="67"/>
-      <c r="U54" s="67"/>
-      <c r="V54" s="67"/>
-      <c r="W54" s="67"/>
-      <c r="X54" s="67"/>
-      <c r="Y54" s="67"/>
-      <c r="Z54" s="67"/>
-      <c r="AA54" s="67"/>
-      <c r="AB54" s="67"/>
-      <c r="AC54" s="67"/>
-      <c r="AD54" s="67"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="72"/>
+      <c r="S54" s="72"/>
+      <c r="T54" s="72"/>
+      <c r="U54" s="72"/>
+      <c r="V54" s="72"/>
+      <c r="W54" s="72"/>
+      <c r="X54" s="72"/>
+      <c r="Y54" s="72"/>
+      <c r="Z54" s="72"/>
+      <c r="AA54" s="72"/>
+      <c r="AB54" s="72"/>
+      <c r="AC54" s="72"/>
+      <c r="AD54" s="72"/>
     </row>
     <row r="55" spans="3:72" s="24" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C55" s="22"/>
@@ -10443,34 +10443,34 @@
       <c r="BT55" s="22"/>
     </row>
     <row r="56" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="68"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="68"/>
-      <c r="O56" s="68"/>
-      <c r="P56" s="68"/>
-      <c r="Q56" s="68"/>
-      <c r="R56" s="68"/>
-      <c r="S56" s="68"/>
-      <c r="T56" s="68"/>
-      <c r="U56" s="68"/>
-      <c r="V56" s="68"/>
-      <c r="W56" s="68"/>
-      <c r="X56" s="68"/>
-      <c r="Y56" s="68"/>
-      <c r="Z56" s="68"/>
-      <c r="AA56" s="68"/>
-      <c r="AB56" s="68"/>
-      <c r="AC56" s="68"/>
-      <c r="AD56" s="68"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="67"/>
+      <c r="O56" s="67"/>
+      <c r="P56" s="67"/>
+      <c r="Q56" s="67"/>
+      <c r="R56" s="67"/>
+      <c r="S56" s="67"/>
+      <c r="T56" s="67"/>
+      <c r="U56" s="67"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
+      <c r="AD56" s="67"/>
       <c r="AE56" s="22"/>
       <c r="AF56" s="22"/>
       <c r="AG56" s="22"/>
@@ -10515,34 +10515,34 @@
       <c r="BT56" s="22"/>
     </row>
     <row r="57" spans="3:72" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="68"/>
-      <c r="P57" s="68"/>
-      <c r="Q57" s="68"/>
-      <c r="R57" s="68"/>
-      <c r="S57" s="68"/>
-      <c r="T57" s="68"/>
-      <c r="U57" s="68"/>
-      <c r="V57" s="68"/>
-      <c r="W57" s="68"/>
-      <c r="X57" s="68"/>
-      <c r="Y57" s="68"/>
-      <c r="Z57" s="68"/>
-      <c r="AA57" s="68"/>
-      <c r="AB57" s="68"/>
-      <c r="AC57" s="68"/>
-      <c r="AD57" s="68"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="67"/>
+      <c r="P57" s="67"/>
+      <c r="Q57" s="67"/>
+      <c r="R57" s="67"/>
+      <c r="S57" s="67"/>
+      <c r="T57" s="67"/>
+      <c r="U57" s="67"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="67"/>
+      <c r="AD57" s="67"/>
       <c r="AE57" s="22"/>
       <c r="AF57" s="22"/>
       <c r="AG57" s="22"/>
@@ -10587,187 +10587,199 @@
       <c r="BT57" s="22"/>
     </row>
     <row r="58" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="68"/>
-      <c r="P58" s="68"/>
-      <c r="Q58" s="68"/>
-      <c r="R58" s="68"/>
-      <c r="S58" s="68"/>
-      <c r="T58" s="68"/>
-      <c r="U58" s="68"/>
-      <c r="V58" s="68"/>
-      <c r="W58" s="68"/>
-      <c r="X58" s="68"/>
-      <c r="Y58" s="68"/>
-      <c r="Z58" s="68"/>
-      <c r="AA58" s="68"/>
-      <c r="AB58" s="68"/>
-      <c r="AC58" s="68"/>
-      <c r="AD58" s="68"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="67"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="67"/>
+      <c r="T58" s="67"/>
+      <c r="U58" s="67"/>
+      <c r="V58" s="67"/>
+      <c r="W58" s="67"/>
+      <c r="X58" s="67"/>
+      <c r="Y58" s="67"/>
+      <c r="Z58" s="67"/>
+      <c r="AA58" s="67"/>
+      <c r="AB58" s="67"/>
+      <c r="AC58" s="67"/>
+      <c r="AD58" s="67"/>
     </row>
     <row r="59" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="68"/>
-      <c r="P59" s="68"/>
-      <c r="Q59" s="68"/>
-      <c r="R59" s="68"/>
-      <c r="S59" s="68"/>
-      <c r="T59" s="68"/>
-      <c r="U59" s="68"/>
-      <c r="V59" s="68"/>
-      <c r="W59" s="68"/>
-      <c r="X59" s="68"/>
-      <c r="Y59" s="68"/>
-      <c r="Z59" s="68"/>
-      <c r="AA59" s="68"/>
-      <c r="AB59" s="68"/>
-      <c r="AC59" s="68"/>
-      <c r="AD59" s="68"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="67"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="67"/>
+      <c r="T59" s="67"/>
+      <c r="U59" s="67"/>
+      <c r="V59" s="67"/>
+      <c r="W59" s="67"/>
+      <c r="X59" s="67"/>
+      <c r="Y59" s="67"/>
+      <c r="Z59" s="67"/>
+      <c r="AA59" s="67"/>
+      <c r="AB59" s="67"/>
+      <c r="AC59" s="67"/>
+      <c r="AD59" s="67"/>
     </row>
     <row r="60" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
-      <c r="P60" s="68"/>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="68"/>
-      <c r="S60" s="68"/>
-      <c r="T60" s="68"/>
-      <c r="U60" s="68"/>
-      <c r="V60" s="68"/>
-      <c r="W60" s="68"/>
-      <c r="X60" s="68"/>
-      <c r="Y60" s="68"/>
-      <c r="Z60" s="68"/>
-      <c r="AA60" s="68"/>
-      <c r="AB60" s="68"/>
-      <c r="AC60" s="68"/>
-      <c r="AD60" s="68"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="67"/>
+      <c r="P60" s="67"/>
+      <c r="Q60" s="67"/>
+      <c r="R60" s="67"/>
+      <c r="S60" s="67"/>
+      <c r="T60" s="67"/>
+      <c r="U60" s="67"/>
+      <c r="V60" s="67"/>
+      <c r="W60" s="67"/>
+      <c r="X60" s="67"/>
+      <c r="Y60" s="67"/>
+      <c r="Z60" s="67"/>
+      <c r="AA60" s="67"/>
+      <c r="AB60" s="67"/>
+      <c r="AC60" s="67"/>
+      <c r="AD60" s="67"/>
     </row>
     <row r="61" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="68"/>
-      <c r="N61" s="68"/>
-      <c r="O61" s="68"/>
-      <c r="P61" s="68"/>
-      <c r="Q61" s="68"/>
-      <c r="R61" s="68"/>
-      <c r="S61" s="68"/>
-      <c r="T61" s="68"/>
-      <c r="U61" s="68"/>
-      <c r="V61" s="68"/>
-      <c r="W61" s="68"/>
-      <c r="X61" s="68"/>
-      <c r="Y61" s="68"/>
-      <c r="Z61" s="68"/>
-      <c r="AA61" s="68"/>
-      <c r="AB61" s="68"/>
-      <c r="AC61" s="68"/>
-      <c r="AD61" s="68"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="67"/>
+      <c r="Q61" s="67"/>
+      <c r="R61" s="67"/>
+      <c r="S61" s="67"/>
+      <c r="T61" s="67"/>
+      <c r="U61" s="67"/>
+      <c r="V61" s="67"/>
+      <c r="W61" s="67"/>
+      <c r="X61" s="67"/>
+      <c r="Y61" s="67"/>
+      <c r="Z61" s="67"/>
+      <c r="AA61" s="67"/>
+      <c r="AB61" s="67"/>
+      <c r="AC61" s="67"/>
+      <c r="AD61" s="67"/>
     </row>
     <row r="62" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
-      <c r="N62" s="68"/>
-      <c r="O62" s="68"/>
-      <c r="P62" s="68"/>
-      <c r="Q62" s="68"/>
-      <c r="R62" s="68"/>
-      <c r="S62" s="68"/>
-      <c r="T62" s="68"/>
-      <c r="U62" s="68"/>
-      <c r="V62" s="68"/>
-      <c r="W62" s="68"/>
-      <c r="X62" s="68"/>
-      <c r="Y62" s="68"/>
-      <c r="Z62" s="68"/>
-      <c r="AA62" s="68"/>
-      <c r="AB62" s="68"/>
-      <c r="AC62" s="68"/>
-      <c r="AD62" s="68"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="67"/>
+      <c r="N62" s="67"/>
+      <c r="O62" s="67"/>
+      <c r="P62" s="67"/>
+      <c r="Q62" s="67"/>
+      <c r="R62" s="67"/>
+      <c r="S62" s="67"/>
+      <c r="T62" s="67"/>
+      <c r="U62" s="67"/>
+      <c r="V62" s="67"/>
+      <c r="W62" s="67"/>
+      <c r="X62" s="67"/>
+      <c r="Y62" s="67"/>
+      <c r="Z62" s="67"/>
+      <c r="AA62" s="67"/>
+      <c r="AB62" s="67"/>
+      <c r="AC62" s="67"/>
+      <c r="AD62" s="67"/>
     </row>
     <row r="63" spans="3:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="68"/>
-      <c r="N63" s="68"/>
-      <c r="O63" s="68"/>
-      <c r="P63" s="68"/>
-      <c r="Q63" s="68"/>
-      <c r="R63" s="68"/>
-      <c r="S63" s="68"/>
-      <c r="T63" s="68"/>
-      <c r="U63" s="68"/>
-      <c r="V63" s="68"/>
-      <c r="W63" s="68"/>
-      <c r="X63" s="68"/>
-      <c r="Y63" s="68"/>
-      <c r="Z63" s="68"/>
-      <c r="AA63" s="68"/>
-      <c r="AB63" s="68"/>
-      <c r="AC63" s="68"/>
-      <c r="AD63" s="68"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="67"/>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="67"/>
+      <c r="S63" s="67"/>
+      <c r="T63" s="67"/>
+      <c r="U63" s="67"/>
+      <c r="V63" s="67"/>
+      <c r="W63" s="67"/>
+      <c r="X63" s="67"/>
+      <c r="Y63" s="67"/>
+      <c r="Z63" s="67"/>
+      <c r="AA63" s="67"/>
+      <c r="AB63" s="67"/>
+      <c r="AC63" s="67"/>
+      <c r="AD63" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C15:AD16"/>
+    <mergeCell ref="D6:AR8"/>
+    <mergeCell ref="C12:N13"/>
+    <mergeCell ref="O12:R13"/>
+    <mergeCell ref="S12:V13"/>
+    <mergeCell ref="W12:Z13"/>
+    <mergeCell ref="AA12:AD13"/>
+    <mergeCell ref="C53:AD54"/>
+    <mergeCell ref="C56:AD57"/>
+    <mergeCell ref="C58:AD59"/>
+    <mergeCell ref="C60:AD61"/>
+    <mergeCell ref="C62:AD63"/>
     <mergeCell ref="AT2:AV2"/>
     <mergeCell ref="BA2:BG2"/>
     <mergeCell ref="BL2:BO2"/>
@@ -10777,18 +10789,6 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="C53:AD54"/>
-    <mergeCell ref="C56:AD57"/>
-    <mergeCell ref="C58:AD59"/>
-    <mergeCell ref="C60:AD61"/>
-    <mergeCell ref="C62:AD63"/>
-    <mergeCell ref="C15:AD16"/>
-    <mergeCell ref="D6:AR8"/>
-    <mergeCell ref="C12:N13"/>
-    <mergeCell ref="O12:R13"/>
-    <mergeCell ref="S12:V13"/>
-    <mergeCell ref="W12:Z13"/>
-    <mergeCell ref="AA12:AD13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10801,9 +10801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366C9AA2-E582-4DCF-87E8-3A93CB55243C}">
   <dimension ref="A1:DI65"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AX43" sqref="AX43:AX44"/>
+      <selection pane="bottomLeft" activeCell="BA36" sqref="BA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10909,79 +10909,79 @@
     <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="70"/>
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="69" t="s">
+      <c r="V2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="71"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="70"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
-      <c r="AD2" s="69" t="s">
+      <c r="AD2" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="71"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="70"/>
       <c r="AH2" s="21"/>
       <c r="AJ2" s="36"/>
-      <c r="AL2" s="69" t="s">
+      <c r="AL2" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="71"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="70"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AT2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="71"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="70"/>
       <c r="AW2" s="21"/>
-      <c r="BA2" s="69" t="s">
+      <c r="BA2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="71"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="70"/>
       <c r="BH2" s="21"/>
       <c r="BJ2" s="37"/>
-      <c r="BL2" s="69" t="s">
+      <c r="BL2" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="71"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="70"/>
       <c r="BP2" s="21"/>
-      <c r="BT2" s="69" t="s">
+      <c r="BT2" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="71"/>
+      <c r="BU2" s="69"/>
+      <c r="BV2" s="69"/>
+      <c r="BW2" s="70"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -11194,49 +11194,49 @@
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="72"/>
-      <c r="AQ6" s="72"/>
-      <c r="AR6" s="72"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
+      <c r="AL6" s="71"/>
+      <c r="AM6" s="71"/>
+      <c r="AN6" s="71"/>
+      <c r="AO6" s="71"/>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71"/>
       <c r="AS6" s="11"/>
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
@@ -11252,47 +11252,47 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="71"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="71"/>
+      <c r="AK7" s="71"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="71"/>
+      <c r="AN7" s="71"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
@@ -11308,47 +11308,47 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
@@ -11475,20 +11475,20 @@
     <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
       <c r="O12" s="73" t="s">
         <v>22</v>
       </c>
@@ -11540,18 +11540,18 @@
     <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -11658,66 +11658,66 @@
       <c r="BT14" s="22"/>
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
     </row>
     <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
     </row>
     <row r="19" spans="13:113" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M19" s="11"/>
@@ -11925,8 +11925,8 @@
       <c r="BD21" s="34"/>
       <c r="BE21" s="34"/>
       <c r="BF21" s="34"/>
-      <c r="BG21" s="34"/>
-      <c r="BH21" s="34"/>
+      <c r="BG21" s="35"/>
+      <c r="BH21" s="35"/>
       <c r="BI21" s="34"/>
       <c r="BJ21" s="34"/>
       <c r="BK21" s="35"/>
@@ -12800,8 +12800,8 @@
       <c r="AN44" s="34"/>
       <c r="AO44" s="34"/>
       <c r="AP44" s="34"/>
-      <c r="AQ44" s="34"/>
-      <c r="AR44" s="34"/>
+      <c r="AQ44" s="35"/>
+      <c r="AR44" s="35"/>
       <c r="AS44" s="34"/>
       <c r="AT44" s="34"/>
       <c r="AU44" s="34"/>
@@ -13223,66 +13223,66 @@
       <c r="BW51" s="11"/>
     </row>
     <row r="55" spans="3:113" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="67"/>
-      <c r="N55" s="67"/>
-      <c r="O55" s="67"/>
-      <c r="P55" s="67"/>
-      <c r="Q55" s="67"/>
-      <c r="R55" s="67"/>
-      <c r="S55" s="67"/>
-      <c r="T55" s="67"/>
-      <c r="U55" s="67"/>
-      <c r="V55" s="67"/>
-      <c r="W55" s="67"/>
-      <c r="X55" s="67"/>
-      <c r="Y55" s="67"/>
-      <c r="Z55" s="67"/>
-      <c r="AA55" s="67"/>
-      <c r="AB55" s="67"/>
-      <c r="AC55" s="67"/>
-      <c r="AD55" s="67"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="72"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="72"/>
+      <c r="S55" s="72"/>
+      <c r="T55" s="72"/>
+      <c r="U55" s="72"/>
+      <c r="V55" s="72"/>
+      <c r="W55" s="72"/>
+      <c r="X55" s="72"/>
+      <c r="Y55" s="72"/>
+      <c r="Z55" s="72"/>
+      <c r="AA55" s="72"/>
+      <c r="AB55" s="72"/>
+      <c r="AC55" s="72"/>
+      <c r="AD55" s="72"/>
     </row>
     <row r="56" spans="3:113" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="67"/>
-      <c r="M56" s="67"/>
-      <c r="N56" s="67"/>
-      <c r="O56" s="67"/>
-      <c r="P56" s="67"/>
-      <c r="Q56" s="67"/>
-      <c r="R56" s="67"/>
-      <c r="S56" s="67"/>
-      <c r="T56" s="67"/>
-      <c r="U56" s="67"/>
-      <c r="V56" s="67"/>
-      <c r="W56" s="67"/>
-      <c r="X56" s="67"/>
-      <c r="Y56" s="67"/>
-      <c r="Z56" s="67"/>
-      <c r="AA56" s="67"/>
-      <c r="AB56" s="67"/>
-      <c r="AC56" s="67"/>
-      <c r="AD56" s="67"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="72"/>
+      <c r="K56" s="72"/>
+      <c r="L56" s="72"/>
+      <c r="M56" s="72"/>
+      <c r="N56" s="72"/>
+      <c r="O56" s="72"/>
+      <c r="P56" s="72"/>
+      <c r="Q56" s="72"/>
+      <c r="R56" s="72"/>
+      <c r="S56" s="72"/>
+      <c r="T56" s="72"/>
+      <c r="U56" s="72"/>
+      <c r="V56" s="72"/>
+      <c r="W56" s="72"/>
+      <c r="X56" s="72"/>
+      <c r="Y56" s="72"/>
+      <c r="Z56" s="72"/>
+      <c r="AA56" s="72"/>
+      <c r="AB56" s="72"/>
+      <c r="AC56" s="72"/>
+      <c r="AD56" s="72"/>
     </row>
     <row r="57" spans="3:113" s="24" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C57" s="22"/>
@@ -13357,34 +13357,34 @@
       <c r="BT57" s="22"/>
     </row>
     <row r="58" spans="3:113" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="68"/>
-      <c r="P58" s="68"/>
-      <c r="Q58" s="68"/>
-      <c r="R58" s="68"/>
-      <c r="S58" s="68"/>
-      <c r="T58" s="68"/>
-      <c r="U58" s="68"/>
-      <c r="V58" s="68"/>
-      <c r="W58" s="68"/>
-      <c r="X58" s="68"/>
-      <c r="Y58" s="68"/>
-      <c r="Z58" s="68"/>
-      <c r="AA58" s="68"/>
-      <c r="AB58" s="68"/>
-      <c r="AC58" s="68"/>
-      <c r="AD58" s="68"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="67"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="67"/>
+      <c r="T58" s="67"/>
+      <c r="U58" s="67"/>
+      <c r="V58" s="67"/>
+      <c r="W58" s="67"/>
+      <c r="X58" s="67"/>
+      <c r="Y58" s="67"/>
+      <c r="Z58" s="67"/>
+      <c r="AA58" s="67"/>
+      <c r="AB58" s="67"/>
+      <c r="AC58" s="67"/>
+      <c r="AD58" s="67"/>
       <c r="AE58" s="22"/>
       <c r="AF58" s="22"/>
       <c r="AG58" s="22"/>
@@ -13429,34 +13429,34 @@
       <c r="BT58" s="22"/>
     </row>
     <row r="59" spans="3:113" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="68"/>
-      <c r="P59" s="68"/>
-      <c r="Q59" s="68"/>
-      <c r="R59" s="68"/>
-      <c r="S59" s="68"/>
-      <c r="T59" s="68"/>
-      <c r="U59" s="68"/>
-      <c r="V59" s="68"/>
-      <c r="W59" s="68"/>
-      <c r="X59" s="68"/>
-      <c r="Y59" s="68"/>
-      <c r="Z59" s="68"/>
-      <c r="AA59" s="68"/>
-      <c r="AB59" s="68"/>
-      <c r="AC59" s="68"/>
-      <c r="AD59" s="68"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="67"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="67"/>
+      <c r="T59" s="67"/>
+      <c r="U59" s="67"/>
+      <c r="V59" s="67"/>
+      <c r="W59" s="67"/>
+      <c r="X59" s="67"/>
+      <c r="Y59" s="67"/>
+      <c r="Z59" s="67"/>
+      <c r="AA59" s="67"/>
+      <c r="AB59" s="67"/>
+      <c r="AC59" s="67"/>
+      <c r="AD59" s="67"/>
       <c r="AE59" s="22"/>
       <c r="AF59" s="22"/>
       <c r="AG59" s="22"/>
@@ -13501,187 +13501,192 @@
       <c r="BT59" s="22"/>
     </row>
     <row r="60" spans="3:113" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
-      <c r="P60" s="68"/>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="68"/>
-      <c r="S60" s="68"/>
-      <c r="T60" s="68"/>
-      <c r="U60" s="68"/>
-      <c r="V60" s="68"/>
-      <c r="W60" s="68"/>
-      <c r="X60" s="68"/>
-      <c r="Y60" s="68"/>
-      <c r="Z60" s="68"/>
-      <c r="AA60" s="68"/>
-      <c r="AB60" s="68"/>
-      <c r="AC60" s="68"/>
-      <c r="AD60" s="68"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="67"/>
+      <c r="P60" s="67"/>
+      <c r="Q60" s="67"/>
+      <c r="R60" s="67"/>
+      <c r="S60" s="67"/>
+      <c r="T60" s="67"/>
+      <c r="U60" s="67"/>
+      <c r="V60" s="67"/>
+      <c r="W60" s="67"/>
+      <c r="X60" s="67"/>
+      <c r="Y60" s="67"/>
+      <c r="Z60" s="67"/>
+      <c r="AA60" s="67"/>
+      <c r="AB60" s="67"/>
+      <c r="AC60" s="67"/>
+      <c r="AD60" s="67"/>
     </row>
     <row r="61" spans="3:113" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="68"/>
-      <c r="N61" s="68"/>
-      <c r="O61" s="68"/>
-      <c r="P61" s="68"/>
-      <c r="Q61" s="68"/>
-      <c r="R61" s="68"/>
-      <c r="S61" s="68"/>
-      <c r="T61" s="68"/>
-      <c r="U61" s="68"/>
-      <c r="V61" s="68"/>
-      <c r="W61" s="68"/>
-      <c r="X61" s="68"/>
-      <c r="Y61" s="68"/>
-      <c r="Z61" s="68"/>
-      <c r="AA61" s="68"/>
-      <c r="AB61" s="68"/>
-      <c r="AC61" s="68"/>
-      <c r="AD61" s="68"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="67"/>
+      <c r="Q61" s="67"/>
+      <c r="R61" s="67"/>
+      <c r="S61" s="67"/>
+      <c r="T61" s="67"/>
+      <c r="U61" s="67"/>
+      <c r="V61" s="67"/>
+      <c r="W61" s="67"/>
+      <c r="X61" s="67"/>
+      <c r="Y61" s="67"/>
+      <c r="Z61" s="67"/>
+      <c r="AA61" s="67"/>
+      <c r="AB61" s="67"/>
+      <c r="AC61" s="67"/>
+      <c r="AD61" s="67"/>
     </row>
     <row r="62" spans="3:113" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
-      <c r="N62" s="68"/>
-      <c r="O62" s="68"/>
-      <c r="P62" s="68"/>
-      <c r="Q62" s="68"/>
-      <c r="R62" s="68"/>
-      <c r="S62" s="68"/>
-      <c r="T62" s="68"/>
-      <c r="U62" s="68"/>
-      <c r="V62" s="68"/>
-      <c r="W62" s="68"/>
-      <c r="X62" s="68"/>
-      <c r="Y62" s="68"/>
-      <c r="Z62" s="68"/>
-      <c r="AA62" s="68"/>
-      <c r="AB62" s="68"/>
-      <c r="AC62" s="68"/>
-      <c r="AD62" s="68"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="67"/>
+      <c r="N62" s="67"/>
+      <c r="O62" s="67"/>
+      <c r="P62" s="67"/>
+      <c r="Q62" s="67"/>
+      <c r="R62" s="67"/>
+      <c r="S62" s="67"/>
+      <c r="T62" s="67"/>
+      <c r="U62" s="67"/>
+      <c r="V62" s="67"/>
+      <c r="W62" s="67"/>
+      <c r="X62" s="67"/>
+      <c r="Y62" s="67"/>
+      <c r="Z62" s="67"/>
+      <c r="AA62" s="67"/>
+      <c r="AB62" s="67"/>
+      <c r="AC62" s="67"/>
+      <c r="AD62" s="67"/>
     </row>
     <row r="63" spans="3:113" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="68"/>
-      <c r="N63" s="68"/>
-      <c r="O63" s="68"/>
-      <c r="P63" s="68"/>
-      <c r="Q63" s="68"/>
-      <c r="R63" s="68"/>
-      <c r="S63" s="68"/>
-      <c r="T63" s="68"/>
-      <c r="U63" s="68"/>
-      <c r="V63" s="68"/>
-      <c r="W63" s="68"/>
-      <c r="X63" s="68"/>
-      <c r="Y63" s="68"/>
-      <c r="Z63" s="68"/>
-      <c r="AA63" s="68"/>
-      <c r="AB63" s="68"/>
-      <c r="AC63" s="68"/>
-      <c r="AD63" s="68"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="67"/>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="67"/>
+      <c r="S63" s="67"/>
+      <c r="T63" s="67"/>
+      <c r="U63" s="67"/>
+      <c r="V63" s="67"/>
+      <c r="W63" s="67"/>
+      <c r="X63" s="67"/>
+      <c r="Y63" s="67"/>
+      <c r="Z63" s="67"/>
+      <c r="AA63" s="67"/>
+      <c r="AB63" s="67"/>
+      <c r="AC63" s="67"/>
+      <c r="AD63" s="67"/>
     </row>
     <row r="64" spans="3:113" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="68"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="68"/>
-      <c r="L64" s="68"/>
-      <c r="M64" s="68"/>
-      <c r="N64" s="68"/>
-      <c r="O64" s="68"/>
-      <c r="P64" s="68"/>
-      <c r="Q64" s="68"/>
-      <c r="R64" s="68"/>
-      <c r="S64" s="68"/>
-      <c r="T64" s="68"/>
-      <c r="U64" s="68"/>
-      <c r="V64" s="68"/>
-      <c r="W64" s="68"/>
-      <c r="X64" s="68"/>
-      <c r="Y64" s="68"/>
-      <c r="Z64" s="68"/>
-      <c r="AA64" s="68"/>
-      <c r="AB64" s="68"/>
-      <c r="AC64" s="68"/>
-      <c r="AD64" s="68"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
+      <c r="T64" s="67"/>
+      <c r="U64" s="67"/>
+      <c r="V64" s="67"/>
+      <c r="W64" s="67"/>
+      <c r="X64" s="67"/>
+      <c r="Y64" s="67"/>
+      <c r="Z64" s="67"/>
+      <c r="AA64" s="67"/>
+      <c r="AB64" s="67"/>
+      <c r="AC64" s="67"/>
+      <c r="AD64" s="67"/>
     </row>
     <row r="65" spans="3:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="68"/>
-      <c r="L65" s="68"/>
-      <c r="M65" s="68"/>
-      <c r="N65" s="68"/>
-      <c r="O65" s="68"/>
-      <c r="P65" s="68"/>
-      <c r="Q65" s="68"/>
-      <c r="R65" s="68"/>
-      <c r="S65" s="68"/>
-      <c r="T65" s="68"/>
-      <c r="U65" s="68"/>
-      <c r="V65" s="68"/>
-      <c r="W65" s="68"/>
-      <c r="X65" s="68"/>
-      <c r="Y65" s="68"/>
-      <c r="Z65" s="68"/>
-      <c r="AA65" s="68"/>
-      <c r="AB65" s="68"/>
-      <c r="AC65" s="68"/>
-      <c r="AD65" s="68"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="67"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="67"/>
+      <c r="T65" s="67"/>
+      <c r="U65" s="67"/>
+      <c r="V65" s="67"/>
+      <c r="W65" s="67"/>
+      <c r="X65" s="67"/>
+      <c r="Y65" s="67"/>
+      <c r="Z65" s="67"/>
+      <c r="AA65" s="67"/>
+      <c r="AB65" s="67"/>
+      <c r="AC65" s="67"/>
+      <c r="AD65" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C15:AD16"/>
+    <mergeCell ref="C55:AD56"/>
+    <mergeCell ref="C58:AD59"/>
+    <mergeCell ref="C60:AD61"/>
+    <mergeCell ref="C62:AD63"/>
     <mergeCell ref="C64:AD65"/>
     <mergeCell ref="BA2:BG2"/>
     <mergeCell ref="BL2:BO2"/>
@@ -13698,11 +13703,6 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="C15:AD16"/>
-    <mergeCell ref="C55:AD56"/>
-    <mergeCell ref="C58:AD59"/>
-    <mergeCell ref="C60:AD61"/>
-    <mergeCell ref="C62:AD63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13823,79 +13823,79 @@
     <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="70"/>
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="69" t="s">
+      <c r="V2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="71"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="70"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
-      <c r="AD2" s="69" t="s">
+      <c r="AD2" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="71"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="70"/>
       <c r="AH2" s="21"/>
       <c r="AJ2" s="36"/>
-      <c r="AL2" s="69" t="s">
+      <c r="AL2" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="71"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="70"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AT2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="71"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="70"/>
       <c r="AW2" s="21"/>
-      <c r="BA2" s="69" t="s">
+      <c r="BA2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="71"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="70"/>
       <c r="BH2" s="21"/>
       <c r="BJ2" s="37"/>
-      <c r="BL2" s="69" t="s">
+      <c r="BL2" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="71"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="70"/>
       <c r="BP2" s="21"/>
-      <c r="BT2" s="69" t="s">
+      <c r="BT2" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="71"/>
+      <c r="BU2" s="69"/>
+      <c r="BV2" s="69"/>
+      <c r="BW2" s="70"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -14108,49 +14108,49 @@
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="72"/>
-      <c r="AQ6" s="72"/>
-      <c r="AR6" s="72"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
+      <c r="AL6" s="71"/>
+      <c r="AM6" s="71"/>
+      <c r="AN6" s="71"/>
+      <c r="AO6" s="71"/>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71"/>
       <c r="AS6" s="11"/>
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
@@ -14166,47 +14166,47 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="71"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="71"/>
+      <c r="AK7" s="71"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="71"/>
+      <c r="AN7" s="71"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
@@ -14222,47 +14222,47 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
@@ -14389,20 +14389,20 @@
     <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
       <c r="O12" s="73" t="s">
         <v>22</v>
       </c>
@@ -14450,18 +14450,18 @@
     <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -14568,66 +14568,66 @@
       <c r="BT14" s="22"/>
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
     </row>
     <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
     </row>
     <row r="19" spans="4:94" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="11"/>
@@ -17268,311 +17268,316 @@
       <c r="BT68" s="22"/>
     </row>
     <row r="76" spans="3:94" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="67" t="s">
+      <c r="C76" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D76" s="67"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="67"/>
-      <c r="K76" s="67"/>
-      <c r="L76" s="67"/>
-      <c r="M76" s="67"/>
-      <c r="N76" s="67"/>
-      <c r="O76" s="67"/>
-      <c r="P76" s="67"/>
-      <c r="Q76" s="67"/>
-      <c r="R76" s="67"/>
-      <c r="S76" s="67"/>
-      <c r="T76" s="67"/>
-      <c r="U76" s="67"/>
-      <c r="V76" s="67"/>
-      <c r="W76" s="67"/>
-      <c r="X76" s="67"/>
-      <c r="Y76" s="67"/>
-      <c r="Z76" s="67"/>
-      <c r="AA76" s="67"/>
-      <c r="AB76" s="67"/>
-      <c r="AC76" s="67"/>
-      <c r="AD76" s="67"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="72"/>
+      <c r="K76" s="72"/>
+      <c r="L76" s="72"/>
+      <c r="M76" s="72"/>
+      <c r="N76" s="72"/>
+      <c r="O76" s="72"/>
+      <c r="P76" s="72"/>
+      <c r="Q76" s="72"/>
+      <c r="R76" s="72"/>
+      <c r="S76" s="72"/>
+      <c r="T76" s="72"/>
+      <c r="U76" s="72"/>
+      <c r="V76" s="72"/>
+      <c r="W76" s="72"/>
+      <c r="X76" s="72"/>
+      <c r="Y76" s="72"/>
+      <c r="Z76" s="72"/>
+      <c r="AA76" s="72"/>
+      <c r="AB76" s="72"/>
+      <c r="AC76" s="72"/>
+      <c r="AD76" s="72"/>
       <c r="AE76" s="24"/>
     </row>
     <row r="77" spans="3:94" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="67"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
-      <c r="H77" s="67"/>
-      <c r="I77" s="67"/>
-      <c r="J77" s="67"/>
-      <c r="K77" s="67"/>
-      <c r="L77" s="67"/>
-      <c r="M77" s="67"/>
-      <c r="N77" s="67"/>
-      <c r="O77" s="67"/>
-      <c r="P77" s="67"/>
-      <c r="Q77" s="67"/>
-      <c r="R77" s="67"/>
-      <c r="S77" s="67"/>
-      <c r="T77" s="67"/>
-      <c r="U77" s="67"/>
-      <c r="V77" s="67"/>
-      <c r="W77" s="67"/>
-      <c r="X77" s="67"/>
-      <c r="Y77" s="67"/>
-      <c r="Z77" s="67"/>
-      <c r="AA77" s="67"/>
-      <c r="AB77" s="67"/>
-      <c r="AC77" s="67"/>
-      <c r="AD77" s="67"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
+      <c r="J77" s="72"/>
+      <c r="K77" s="72"/>
+      <c r="L77" s="72"/>
+      <c r="M77" s="72"/>
+      <c r="N77" s="72"/>
+      <c r="O77" s="72"/>
+      <c r="P77" s="72"/>
+      <c r="Q77" s="72"/>
+      <c r="R77" s="72"/>
+      <c r="S77" s="72"/>
+      <c r="T77" s="72"/>
+      <c r="U77" s="72"/>
+      <c r="V77" s="72"/>
+      <c r="W77" s="72"/>
+      <c r="X77" s="72"/>
+      <c r="Y77" s="72"/>
+      <c r="Z77" s="72"/>
+      <c r="AA77" s="72"/>
+      <c r="AB77" s="72"/>
+      <c r="AC77" s="72"/>
+      <c r="AD77" s="72"/>
       <c r="AE77" s="24"/>
     </row>
     <row r="79" spans="3:94" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="68"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="68"/>
-      <c r="H79" s="68"/>
-      <c r="I79" s="68"/>
-      <c r="J79" s="68"/>
-      <c r="K79" s="68"/>
-      <c r="L79" s="68"/>
-      <c r="M79" s="68"/>
-      <c r="N79" s="68"/>
-      <c r="O79" s="68"/>
-      <c r="P79" s="68"/>
-      <c r="Q79" s="68"/>
-      <c r="R79" s="68"/>
-      <c r="S79" s="68"/>
-      <c r="T79" s="68"/>
-      <c r="U79" s="68"/>
-      <c r="V79" s="68"/>
-      <c r="W79" s="68"/>
-      <c r="X79" s="68"/>
-      <c r="Y79" s="68"/>
-      <c r="Z79" s="68"/>
-      <c r="AA79" s="68"/>
-      <c r="AB79" s="68"/>
-      <c r="AC79" s="68"/>
-      <c r="AD79" s="68"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="67"/>
+      <c r="H79" s="67"/>
+      <c r="I79" s="67"/>
+      <c r="J79" s="67"/>
+      <c r="K79" s="67"/>
+      <c r="L79" s="67"/>
+      <c r="M79" s="67"/>
+      <c r="N79" s="67"/>
+      <c r="O79" s="67"/>
+      <c r="P79" s="67"/>
+      <c r="Q79" s="67"/>
+      <c r="R79" s="67"/>
+      <c r="S79" s="67"/>
+      <c r="T79" s="67"/>
+      <c r="U79" s="67"/>
+      <c r="V79" s="67"/>
+      <c r="W79" s="67"/>
+      <c r="X79" s="67"/>
+      <c r="Y79" s="67"/>
+      <c r="Z79" s="67"/>
+      <c r="AA79" s="67"/>
+      <c r="AB79" s="67"/>
+      <c r="AC79" s="67"/>
+      <c r="AD79" s="67"/>
     </row>
     <row r="80" spans="3:94" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="68"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="68"/>
-      <c r="H80" s="68"/>
-      <c r="I80" s="68"/>
-      <c r="J80" s="68"/>
-      <c r="K80" s="68"/>
-      <c r="L80" s="68"/>
-      <c r="M80" s="68"/>
-      <c r="N80" s="68"/>
-      <c r="O80" s="68"/>
-      <c r="P80" s="68"/>
-      <c r="Q80" s="68"/>
-      <c r="R80" s="68"/>
-      <c r="S80" s="68"/>
-      <c r="T80" s="68"/>
-      <c r="U80" s="68"/>
-      <c r="V80" s="68"/>
-      <c r="W80" s="68"/>
-      <c r="X80" s="68"/>
-      <c r="Y80" s="68"/>
-      <c r="Z80" s="68"/>
-      <c r="AA80" s="68"/>
-      <c r="AB80" s="68"/>
-      <c r="AC80" s="68"/>
-      <c r="AD80" s="68"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="67"/>
+      <c r="J80" s="67"/>
+      <c r="K80" s="67"/>
+      <c r="L80" s="67"/>
+      <c r="M80" s="67"/>
+      <c r="N80" s="67"/>
+      <c r="O80" s="67"/>
+      <c r="P80" s="67"/>
+      <c r="Q80" s="67"/>
+      <c r="R80" s="67"/>
+      <c r="S80" s="67"/>
+      <c r="T80" s="67"/>
+      <c r="U80" s="67"/>
+      <c r="V80" s="67"/>
+      <c r="W80" s="67"/>
+      <c r="X80" s="67"/>
+      <c r="Y80" s="67"/>
+      <c r="Z80" s="67"/>
+      <c r="AA80" s="67"/>
+      <c r="AB80" s="67"/>
+      <c r="AC80" s="67"/>
+      <c r="AD80" s="67"/>
     </row>
     <row r="81" spans="3:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="68"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="68"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="68"/>
-      <c r="H81" s="68"/>
-      <c r="I81" s="68"/>
-      <c r="J81" s="68"/>
-      <c r="K81" s="68"/>
-      <c r="L81" s="68"/>
-      <c r="M81" s="68"/>
-      <c r="N81" s="68"/>
-      <c r="O81" s="68"/>
-      <c r="P81" s="68"/>
-      <c r="Q81" s="68"/>
-      <c r="R81" s="68"/>
-      <c r="S81" s="68"/>
-      <c r="T81" s="68"/>
-      <c r="U81" s="68"/>
-      <c r="V81" s="68"/>
-      <c r="W81" s="68"/>
-      <c r="X81" s="68"/>
-      <c r="Y81" s="68"/>
-      <c r="Z81" s="68"/>
-      <c r="AA81" s="68"/>
-      <c r="AB81" s="68"/>
-      <c r="AC81" s="68"/>
-      <c r="AD81" s="68"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="67"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="67"/>
+      <c r="J81" s="67"/>
+      <c r="K81" s="67"/>
+      <c r="L81" s="67"/>
+      <c r="M81" s="67"/>
+      <c r="N81" s="67"/>
+      <c r="O81" s="67"/>
+      <c r="P81" s="67"/>
+      <c r="Q81" s="67"/>
+      <c r="R81" s="67"/>
+      <c r="S81" s="67"/>
+      <c r="T81" s="67"/>
+      <c r="U81" s="67"/>
+      <c r="V81" s="67"/>
+      <c r="W81" s="67"/>
+      <c r="X81" s="67"/>
+      <c r="Y81" s="67"/>
+      <c r="Z81" s="67"/>
+      <c r="AA81" s="67"/>
+      <c r="AB81" s="67"/>
+      <c r="AC81" s="67"/>
+      <c r="AD81" s="67"/>
     </row>
     <row r="82" spans="3:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="68"/>
-      <c r="D82" s="68"/>
-      <c r="E82" s="68"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="68"/>
-      <c r="H82" s="68"/>
-      <c r="I82" s="68"/>
-      <c r="J82" s="68"/>
-      <c r="K82" s="68"/>
-      <c r="L82" s="68"/>
-      <c r="M82" s="68"/>
-      <c r="N82" s="68"/>
-      <c r="O82" s="68"/>
-      <c r="P82" s="68"/>
-      <c r="Q82" s="68"/>
-      <c r="R82" s="68"/>
-      <c r="S82" s="68"/>
-      <c r="T82" s="68"/>
-      <c r="U82" s="68"/>
-      <c r="V82" s="68"/>
-      <c r="W82" s="68"/>
-      <c r="X82" s="68"/>
-      <c r="Y82" s="68"/>
-      <c r="Z82" s="68"/>
-      <c r="AA82" s="68"/>
-      <c r="AB82" s="68"/>
-      <c r="AC82" s="68"/>
-      <c r="AD82" s="68"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="67"/>
+      <c r="J82" s="67"/>
+      <c r="K82" s="67"/>
+      <c r="L82" s="67"/>
+      <c r="M82" s="67"/>
+      <c r="N82" s="67"/>
+      <c r="O82" s="67"/>
+      <c r="P82" s="67"/>
+      <c r="Q82" s="67"/>
+      <c r="R82" s="67"/>
+      <c r="S82" s="67"/>
+      <c r="T82" s="67"/>
+      <c r="U82" s="67"/>
+      <c r="V82" s="67"/>
+      <c r="W82" s="67"/>
+      <c r="X82" s="67"/>
+      <c r="Y82" s="67"/>
+      <c r="Z82" s="67"/>
+      <c r="AA82" s="67"/>
+      <c r="AB82" s="67"/>
+      <c r="AC82" s="67"/>
+      <c r="AD82" s="67"/>
     </row>
     <row r="83" spans="3:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="68"/>
-      <c r="K83" s="68"/>
-      <c r="L83" s="68"/>
-      <c r="M83" s="68"/>
-      <c r="N83" s="68"/>
-      <c r="O83" s="68"/>
-      <c r="P83" s="68"/>
-      <c r="Q83" s="68"/>
-      <c r="R83" s="68"/>
-      <c r="S83" s="68"/>
-      <c r="T83" s="68"/>
-      <c r="U83" s="68"/>
-      <c r="V83" s="68"/>
-      <c r="W83" s="68"/>
-      <c r="X83" s="68"/>
-      <c r="Y83" s="68"/>
-      <c r="Z83" s="68"/>
-      <c r="AA83" s="68"/>
-      <c r="AB83" s="68"/>
-      <c r="AC83" s="68"/>
-      <c r="AD83" s="68"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="67"/>
+      <c r="M83" s="67"/>
+      <c r="N83" s="67"/>
+      <c r="O83" s="67"/>
+      <c r="P83" s="67"/>
+      <c r="Q83" s="67"/>
+      <c r="R83" s="67"/>
+      <c r="S83" s="67"/>
+      <c r="T83" s="67"/>
+      <c r="U83" s="67"/>
+      <c r="V83" s="67"/>
+      <c r="W83" s="67"/>
+      <c r="X83" s="67"/>
+      <c r="Y83" s="67"/>
+      <c r="Z83" s="67"/>
+      <c r="AA83" s="67"/>
+      <c r="AB83" s="67"/>
+      <c r="AC83" s="67"/>
+      <c r="AD83" s="67"/>
     </row>
     <row r="84" spans="3:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="68"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="68"/>
-      <c r="H84" s="68"/>
-      <c r="I84" s="68"/>
-      <c r="J84" s="68"/>
-      <c r="K84" s="68"/>
-      <c r="L84" s="68"/>
-      <c r="M84" s="68"/>
-      <c r="N84" s="68"/>
-      <c r="O84" s="68"/>
-      <c r="P84" s="68"/>
-      <c r="Q84" s="68"/>
-      <c r="R84" s="68"/>
-      <c r="S84" s="68"/>
-      <c r="T84" s="68"/>
-      <c r="U84" s="68"/>
-      <c r="V84" s="68"/>
-      <c r="W84" s="68"/>
-      <c r="X84" s="68"/>
-      <c r="Y84" s="68"/>
-      <c r="Z84" s="68"/>
-      <c r="AA84" s="68"/>
-      <c r="AB84" s="68"/>
-      <c r="AC84" s="68"/>
-      <c r="AD84" s="68"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="67"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="67"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="67"/>
+      <c r="L84" s="67"/>
+      <c r="M84" s="67"/>
+      <c r="N84" s="67"/>
+      <c r="O84" s="67"/>
+      <c r="P84" s="67"/>
+      <c r="Q84" s="67"/>
+      <c r="R84" s="67"/>
+      <c r="S84" s="67"/>
+      <c r="T84" s="67"/>
+      <c r="U84" s="67"/>
+      <c r="V84" s="67"/>
+      <c r="W84" s="67"/>
+      <c r="X84" s="67"/>
+      <c r="Y84" s="67"/>
+      <c r="Z84" s="67"/>
+      <c r="AA84" s="67"/>
+      <c r="AB84" s="67"/>
+      <c r="AC84" s="67"/>
+      <c r="AD84" s="67"/>
     </row>
     <row r="85" spans="3:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="68"/>
-      <c r="K85" s="68"/>
-      <c r="L85" s="68"/>
-      <c r="M85" s="68"/>
-      <c r="N85" s="68"/>
-      <c r="O85" s="68"/>
-      <c r="P85" s="68"/>
-      <c r="Q85" s="68"/>
-      <c r="R85" s="68"/>
-      <c r="S85" s="68"/>
-      <c r="T85" s="68"/>
-      <c r="U85" s="68"/>
-      <c r="V85" s="68"/>
-      <c r="W85" s="68"/>
-      <c r="X85" s="68"/>
-      <c r="Y85" s="68"/>
-      <c r="Z85" s="68"/>
-      <c r="AA85" s="68"/>
-      <c r="AB85" s="68"/>
-      <c r="AC85" s="68"/>
-      <c r="AD85" s="68"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="67"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="67"/>
+      <c r="J85" s="67"/>
+      <c r="K85" s="67"/>
+      <c r="L85" s="67"/>
+      <c r="M85" s="67"/>
+      <c r="N85" s="67"/>
+      <c r="O85" s="67"/>
+      <c r="P85" s="67"/>
+      <c r="Q85" s="67"/>
+      <c r="R85" s="67"/>
+      <c r="S85" s="67"/>
+      <c r="T85" s="67"/>
+      <c r="U85" s="67"/>
+      <c r="V85" s="67"/>
+      <c r="W85" s="67"/>
+      <c r="X85" s="67"/>
+      <c r="Y85" s="67"/>
+      <c r="Z85" s="67"/>
+      <c r="AA85" s="67"/>
+      <c r="AB85" s="67"/>
+      <c r="AC85" s="67"/>
+      <c r="AD85" s="67"/>
     </row>
     <row r="86" spans="3:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="68"/>
-      <c r="D86" s="68"/>
-      <c r="E86" s="68"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="68"/>
-      <c r="H86" s="68"/>
-      <c r="I86" s="68"/>
-      <c r="J86" s="68"/>
-      <c r="K86" s="68"/>
-      <c r="L86" s="68"/>
-      <c r="M86" s="68"/>
-      <c r="N86" s="68"/>
-      <c r="O86" s="68"/>
-      <c r="P86" s="68"/>
-      <c r="Q86" s="68"/>
-      <c r="R86" s="68"/>
-      <c r="S86" s="68"/>
-      <c r="T86" s="68"/>
-      <c r="U86" s="68"/>
-      <c r="V86" s="68"/>
-      <c r="W86" s="68"/>
-      <c r="X86" s="68"/>
-      <c r="Y86" s="68"/>
-      <c r="Z86" s="68"/>
-      <c r="AA86" s="68"/>
-      <c r="AB86" s="68"/>
-      <c r="AC86" s="68"/>
-      <c r="AD86" s="68"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="67"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="67"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="67"/>
+      <c r="J86" s="67"/>
+      <c r="K86" s="67"/>
+      <c r="L86" s="67"/>
+      <c r="M86" s="67"/>
+      <c r="N86" s="67"/>
+      <c r="O86" s="67"/>
+      <c r="P86" s="67"/>
+      <c r="Q86" s="67"/>
+      <c r="R86" s="67"/>
+      <c r="S86" s="67"/>
+      <c r="T86" s="67"/>
+      <c r="U86" s="67"/>
+      <c r="V86" s="67"/>
+      <c r="W86" s="67"/>
+      <c r="X86" s="67"/>
+      <c r="Y86" s="67"/>
+      <c r="Z86" s="67"/>
+      <c r="AA86" s="67"/>
+      <c r="AB86" s="67"/>
+      <c r="AC86" s="67"/>
+      <c r="AD86" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C15:AD16"/>
+    <mergeCell ref="C76:AD77"/>
+    <mergeCell ref="C79:AD80"/>
+    <mergeCell ref="C81:AD82"/>
+    <mergeCell ref="C83:AD84"/>
     <mergeCell ref="C85:AD86"/>
     <mergeCell ref="BA2:BG2"/>
     <mergeCell ref="BL2:BO2"/>
@@ -17589,11 +17594,6 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="C15:AD16"/>
-    <mergeCell ref="C76:AD77"/>
-    <mergeCell ref="C79:AD80"/>
-    <mergeCell ref="C81:AD82"/>
-    <mergeCell ref="C83:AD84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17606,7 +17606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC1ACA1-D39A-40A3-9EAE-07F33C90ECD2}">
   <dimension ref="A1:DU91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AW35" sqref="AW35"/>
     </sheetView>
@@ -17714,15 +17714,15 @@
     <row r="2" spans="1:93" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="21"/>
       <c r="M2" s="32"/>
       <c r="O2" s="75" t="s">
@@ -17733,12 +17733,12 @@
       <c r="R2" s="21"/>
       <c r="T2" s="34"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="69" t="s">
+      <c r="V2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="71"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="70"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="35"/>
       <c r="AD2" s="75" t="s">
@@ -17757,36 +17757,36 @@
       <c r="AO2" s="75"/>
       <c r="AP2" s="21"/>
       <c r="AR2" s="33"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AT2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="71"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="70"/>
       <c r="AW2" s="21"/>
-      <c r="BA2" s="69" t="s">
+      <c r="BA2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="71"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="70"/>
       <c r="BH2" s="21"/>
       <c r="BJ2" s="37"/>
-      <c r="BL2" s="69" t="s">
+      <c r="BL2" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="71"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="70"/>
       <c r="BP2" s="21"/>
-      <c r="BT2" s="69" t="s">
+      <c r="BT2" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="71"/>
+      <c r="BU2" s="69"/>
+      <c r="BV2" s="69"/>
+      <c r="BW2" s="70"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -17999,49 +17999,49 @@
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="72"/>
-      <c r="AQ6" s="72"/>
-      <c r="AR6" s="72"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
+      <c r="AL6" s="71"/>
+      <c r="AM6" s="71"/>
+      <c r="AN6" s="71"/>
+      <c r="AO6" s="71"/>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71"/>
       <c r="AS6" s="11"/>
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
@@ -18057,47 +18057,47 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="71"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="71"/>
+      <c r="AK7" s="71"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="71"/>
+      <c r="AN7" s="71"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
@@ -18113,47 +18113,47 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
@@ -18280,20 +18280,20 @@
     <row r="12" spans="1:93" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
       <c r="O12" s="73" t="s">
         <v>22</v>
       </c>
@@ -18354,18 +18354,18 @@
     <row r="13" spans="1:93" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -18512,36 +18512,36 @@
       <c r="CO14" s="22"/>
     </row>
     <row r="15" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
       <c r="BX15" s="22"/>
       <c r="BY15" s="22"/>
       <c r="BZ15" s="22"/>
@@ -18562,34 +18562,34 @@
       <c r="CO15" s="22"/>
     </row>
     <row r="16" spans="1:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
       <c r="CB16" s="22"/>
       <c r="CC16" s="22"/>
       <c r="CD16" s="22"/>
@@ -23203,36 +23203,36 @@
       <c r="DU76" s="11"/>
     </row>
     <row r="81" spans="3:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="67" t="s">
+      <c r="C81" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="67"/>
-      <c r="H81" s="67"/>
-      <c r="I81" s="67"/>
-      <c r="J81" s="67"/>
-      <c r="K81" s="67"/>
-      <c r="L81" s="67"/>
-      <c r="M81" s="67"/>
-      <c r="N81" s="67"/>
-      <c r="O81" s="67"/>
-      <c r="P81" s="67"/>
-      <c r="Q81" s="67"/>
-      <c r="R81" s="67"/>
-      <c r="S81" s="67"/>
-      <c r="T81" s="67"/>
-      <c r="U81" s="67"/>
-      <c r="V81" s="67"/>
-      <c r="W81" s="67"/>
-      <c r="X81" s="67"/>
-      <c r="Y81" s="67"/>
-      <c r="Z81" s="67"/>
-      <c r="AA81" s="67"/>
-      <c r="AB81" s="67"/>
-      <c r="AC81" s="67"/>
-      <c r="AD81" s="67"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="72"/>
+      <c r="I81" s="72"/>
+      <c r="J81" s="72"/>
+      <c r="K81" s="72"/>
+      <c r="L81" s="72"/>
+      <c r="M81" s="72"/>
+      <c r="N81" s="72"/>
+      <c r="O81" s="72"/>
+      <c r="P81" s="72"/>
+      <c r="Q81" s="72"/>
+      <c r="R81" s="72"/>
+      <c r="S81" s="72"/>
+      <c r="T81" s="72"/>
+      <c r="U81" s="72"/>
+      <c r="V81" s="72"/>
+      <c r="W81" s="72"/>
+      <c r="X81" s="72"/>
+      <c r="Y81" s="72"/>
+      <c r="Z81" s="72"/>
+      <c r="AA81" s="72"/>
+      <c r="AB81" s="72"/>
+      <c r="AC81" s="72"/>
+      <c r="AD81" s="72"/>
       <c r="BX81" s="22"/>
       <c r="BY81" s="22"/>
       <c r="BZ81" s="22"/>
@@ -23253,34 +23253,34 @@
       <c r="CO81" s="22"/>
     </row>
     <row r="82" spans="3:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="67"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="67"/>
-      <c r="H82" s="67"/>
-      <c r="I82" s="67"/>
-      <c r="J82" s="67"/>
-      <c r="K82" s="67"/>
-      <c r="L82" s="67"/>
-      <c r="M82" s="67"/>
-      <c r="N82" s="67"/>
-      <c r="O82" s="67"/>
-      <c r="P82" s="67"/>
-      <c r="Q82" s="67"/>
-      <c r="R82" s="67"/>
-      <c r="S82" s="67"/>
-      <c r="T82" s="67"/>
-      <c r="U82" s="67"/>
-      <c r="V82" s="67"/>
-      <c r="W82" s="67"/>
-      <c r="X82" s="67"/>
-      <c r="Y82" s="67"/>
-      <c r="Z82" s="67"/>
-      <c r="AA82" s="67"/>
-      <c r="AB82" s="67"/>
-      <c r="AC82" s="67"/>
-      <c r="AD82" s="67"/>
+      <c r="C82" s="72"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="72"/>
+      <c r="I82" s="72"/>
+      <c r="J82" s="72"/>
+      <c r="K82" s="72"/>
+      <c r="L82" s="72"/>
+      <c r="M82" s="72"/>
+      <c r="N82" s="72"/>
+      <c r="O82" s="72"/>
+      <c r="P82" s="72"/>
+      <c r="Q82" s="72"/>
+      <c r="R82" s="72"/>
+      <c r="S82" s="72"/>
+      <c r="T82" s="72"/>
+      <c r="U82" s="72"/>
+      <c r="V82" s="72"/>
+      <c r="W82" s="72"/>
+      <c r="X82" s="72"/>
+      <c r="Y82" s="72"/>
+      <c r="Z82" s="72"/>
+      <c r="AA82" s="72"/>
+      <c r="AB82" s="72"/>
+      <c r="AC82" s="72"/>
+      <c r="AD82" s="72"/>
       <c r="BX82" s="22"/>
       <c r="BY82" s="22"/>
       <c r="BZ82" s="22"/>
@@ -23394,34 +23394,34 @@
       <c r="CO83" s="22"/>
     </row>
     <row r="84" spans="3:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="68"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="68"/>
-      <c r="H84" s="68"/>
-      <c r="I84" s="68"/>
-      <c r="J84" s="68"/>
-      <c r="K84" s="68"/>
-      <c r="L84" s="68"/>
-      <c r="M84" s="68"/>
-      <c r="N84" s="68"/>
-      <c r="O84" s="68"/>
-      <c r="P84" s="68"/>
-      <c r="Q84" s="68"/>
-      <c r="R84" s="68"/>
-      <c r="S84" s="68"/>
-      <c r="T84" s="68"/>
-      <c r="U84" s="68"/>
-      <c r="V84" s="68"/>
-      <c r="W84" s="68"/>
-      <c r="X84" s="68"/>
-      <c r="Y84" s="68"/>
-      <c r="Z84" s="68"/>
-      <c r="AA84" s="68"/>
-      <c r="AB84" s="68"/>
-      <c r="AC84" s="68"/>
-      <c r="AD84" s="68"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="67"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="67"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="67"/>
+      <c r="L84" s="67"/>
+      <c r="M84" s="67"/>
+      <c r="N84" s="67"/>
+      <c r="O84" s="67"/>
+      <c r="P84" s="67"/>
+      <c r="Q84" s="67"/>
+      <c r="R84" s="67"/>
+      <c r="S84" s="67"/>
+      <c r="T84" s="67"/>
+      <c r="U84" s="67"/>
+      <c r="V84" s="67"/>
+      <c r="W84" s="67"/>
+      <c r="X84" s="67"/>
+      <c r="Y84" s="67"/>
+      <c r="Z84" s="67"/>
+      <c r="AA84" s="67"/>
+      <c r="AB84" s="67"/>
+      <c r="AC84" s="67"/>
+      <c r="AD84" s="67"/>
       <c r="AE84" s="22"/>
       <c r="AF84" s="22"/>
       <c r="AG84" s="22"/>
@@ -23487,34 +23487,34 @@
       <c r="CO84" s="22"/>
     </row>
     <row r="85" spans="3:93" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="68"/>
-      <c r="K85" s="68"/>
-      <c r="L85" s="68"/>
-      <c r="M85" s="68"/>
-      <c r="N85" s="68"/>
-      <c r="O85" s="68"/>
-      <c r="P85" s="68"/>
-      <c r="Q85" s="68"/>
-      <c r="R85" s="68"/>
-      <c r="S85" s="68"/>
-      <c r="T85" s="68"/>
-      <c r="U85" s="68"/>
-      <c r="V85" s="68"/>
-      <c r="W85" s="68"/>
-      <c r="X85" s="68"/>
-      <c r="Y85" s="68"/>
-      <c r="Z85" s="68"/>
-      <c r="AA85" s="68"/>
-      <c r="AB85" s="68"/>
-      <c r="AC85" s="68"/>
-      <c r="AD85" s="68"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="67"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="67"/>
+      <c r="J85" s="67"/>
+      <c r="K85" s="67"/>
+      <c r="L85" s="67"/>
+      <c r="M85" s="67"/>
+      <c r="N85" s="67"/>
+      <c r="O85" s="67"/>
+      <c r="P85" s="67"/>
+      <c r="Q85" s="67"/>
+      <c r="R85" s="67"/>
+      <c r="S85" s="67"/>
+      <c r="T85" s="67"/>
+      <c r="U85" s="67"/>
+      <c r="V85" s="67"/>
+      <c r="W85" s="67"/>
+      <c r="X85" s="67"/>
+      <c r="Y85" s="67"/>
+      <c r="Z85" s="67"/>
+      <c r="AA85" s="67"/>
+      <c r="AB85" s="67"/>
+      <c r="AC85" s="67"/>
+      <c r="AD85" s="67"/>
       <c r="AE85" s="22"/>
       <c r="AF85" s="22"/>
       <c r="AG85" s="22"/>
@@ -23580,196 +23580,191 @@
       <c r="CO85" s="22"/>
     </row>
     <row r="86" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="68" t="s">
+      <c r="C86" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="68"/>
-      <c r="E86" s="68"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="68"/>
-      <c r="H86" s="68"/>
-      <c r="I86" s="68"/>
-      <c r="J86" s="68"/>
-      <c r="K86" s="68"/>
-      <c r="L86" s="68"/>
-      <c r="M86" s="68"/>
-      <c r="N86" s="68"/>
-      <c r="O86" s="68"/>
-      <c r="P86" s="68"/>
-      <c r="Q86" s="68"/>
-      <c r="R86" s="68"/>
-      <c r="S86" s="68"/>
-      <c r="T86" s="68"/>
-      <c r="U86" s="68"/>
-      <c r="V86" s="68"/>
-      <c r="W86" s="68"/>
-      <c r="X86" s="68"/>
-      <c r="Y86" s="68"/>
-      <c r="Z86" s="68"/>
-      <c r="AA86" s="68"/>
-      <c r="AB86" s="68"/>
-      <c r="AC86" s="68"/>
-      <c r="AD86" s="68"/>
+      <c r="D86" s="67"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="67"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="67"/>
+      <c r="J86" s="67"/>
+      <c r="K86" s="67"/>
+      <c r="L86" s="67"/>
+      <c r="M86" s="67"/>
+      <c r="N86" s="67"/>
+      <c r="O86" s="67"/>
+      <c r="P86" s="67"/>
+      <c r="Q86" s="67"/>
+      <c r="R86" s="67"/>
+      <c r="S86" s="67"/>
+      <c r="T86" s="67"/>
+      <c r="U86" s="67"/>
+      <c r="V86" s="67"/>
+      <c r="W86" s="67"/>
+      <c r="X86" s="67"/>
+      <c r="Y86" s="67"/>
+      <c r="Z86" s="67"/>
+      <c r="AA86" s="67"/>
+      <c r="AB86" s="67"/>
+      <c r="AC86" s="67"/>
+      <c r="AD86" s="67"/>
     </row>
     <row r="87" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="68"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="68"/>
-      <c r="F87" s="68"/>
-      <c r="G87" s="68"/>
-      <c r="H87" s="68"/>
-      <c r="I87" s="68"/>
-      <c r="J87" s="68"/>
-      <c r="K87" s="68"/>
-      <c r="L87" s="68"/>
-      <c r="M87" s="68"/>
-      <c r="N87" s="68"/>
-      <c r="O87" s="68"/>
-      <c r="P87" s="68"/>
-      <c r="Q87" s="68"/>
-      <c r="R87" s="68"/>
-      <c r="S87" s="68"/>
-      <c r="T87" s="68"/>
-      <c r="U87" s="68"/>
-      <c r="V87" s="68"/>
-      <c r="W87" s="68"/>
-      <c r="X87" s="68"/>
-      <c r="Y87" s="68"/>
-      <c r="Z87" s="68"/>
-      <c r="AA87" s="68"/>
-      <c r="AB87" s="68"/>
-      <c r="AC87" s="68"/>
-      <c r="AD87" s="68"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="67"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="67"/>
+      <c r="L87" s="67"/>
+      <c r="M87" s="67"/>
+      <c r="N87" s="67"/>
+      <c r="O87" s="67"/>
+      <c r="P87" s="67"/>
+      <c r="Q87" s="67"/>
+      <c r="R87" s="67"/>
+      <c r="S87" s="67"/>
+      <c r="T87" s="67"/>
+      <c r="U87" s="67"/>
+      <c r="V87" s="67"/>
+      <c r="W87" s="67"/>
+      <c r="X87" s="67"/>
+      <c r="Y87" s="67"/>
+      <c r="Z87" s="67"/>
+      <c r="AA87" s="67"/>
+      <c r="AB87" s="67"/>
+      <c r="AC87" s="67"/>
+      <c r="AD87" s="67"/>
     </row>
     <row r="88" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="68" t="s">
+      <c r="C88" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D88" s="68"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="68"/>
-      <c r="H88" s="68"/>
-      <c r="I88" s="68"/>
-      <c r="J88" s="68"/>
-      <c r="K88" s="68"/>
-      <c r="L88" s="68"/>
-      <c r="M88" s="68"/>
-      <c r="N88" s="68"/>
-      <c r="O88" s="68"/>
-      <c r="P88" s="68"/>
-      <c r="Q88" s="68"/>
-      <c r="R88" s="68"/>
-      <c r="S88" s="68"/>
-      <c r="T88" s="68"/>
-      <c r="U88" s="68"/>
-      <c r="V88" s="68"/>
-      <c r="W88" s="68"/>
-      <c r="X88" s="68"/>
-      <c r="Y88" s="68"/>
-      <c r="Z88" s="68"/>
-      <c r="AA88" s="68"/>
-      <c r="AB88" s="68"/>
-      <c r="AC88" s="68"/>
-      <c r="AD88" s="68"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="67"/>
+      <c r="J88" s="67"/>
+      <c r="K88" s="67"/>
+      <c r="L88" s="67"/>
+      <c r="M88" s="67"/>
+      <c r="N88" s="67"/>
+      <c r="O88" s="67"/>
+      <c r="P88" s="67"/>
+      <c r="Q88" s="67"/>
+      <c r="R88" s="67"/>
+      <c r="S88" s="67"/>
+      <c r="T88" s="67"/>
+      <c r="U88" s="67"/>
+      <c r="V88" s="67"/>
+      <c r="W88" s="67"/>
+      <c r="X88" s="67"/>
+      <c r="Y88" s="67"/>
+      <c r="Z88" s="67"/>
+      <c r="AA88" s="67"/>
+      <c r="AB88" s="67"/>
+      <c r="AC88" s="67"/>
+      <c r="AD88" s="67"/>
     </row>
     <row r="89" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="68"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="68"/>
-      <c r="H89" s="68"/>
-      <c r="I89" s="68"/>
-      <c r="J89" s="68"/>
-      <c r="K89" s="68"/>
-      <c r="L89" s="68"/>
-      <c r="M89" s="68"/>
-      <c r="N89" s="68"/>
-      <c r="O89" s="68"/>
-      <c r="P89" s="68"/>
-      <c r="Q89" s="68"/>
-      <c r="R89" s="68"/>
-      <c r="S89" s="68"/>
-      <c r="T89" s="68"/>
-      <c r="U89" s="68"/>
-      <c r="V89" s="68"/>
-      <c r="W89" s="68"/>
-      <c r="X89" s="68"/>
-      <c r="Y89" s="68"/>
-      <c r="Z89" s="68"/>
-      <c r="AA89" s="68"/>
-      <c r="AB89" s="68"/>
-      <c r="AC89" s="68"/>
-      <c r="AD89" s="68"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="67"/>
+      <c r="H89" s="67"/>
+      <c r="I89" s="67"/>
+      <c r="J89" s="67"/>
+      <c r="K89" s="67"/>
+      <c r="L89" s="67"/>
+      <c r="M89" s="67"/>
+      <c r="N89" s="67"/>
+      <c r="O89" s="67"/>
+      <c r="P89" s="67"/>
+      <c r="Q89" s="67"/>
+      <c r="R89" s="67"/>
+      <c r="S89" s="67"/>
+      <c r="T89" s="67"/>
+      <c r="U89" s="67"/>
+      <c r="V89" s="67"/>
+      <c r="W89" s="67"/>
+      <c r="X89" s="67"/>
+      <c r="Y89" s="67"/>
+      <c r="Z89" s="67"/>
+      <c r="AA89" s="67"/>
+      <c r="AB89" s="67"/>
+      <c r="AC89" s="67"/>
+      <c r="AD89" s="67"/>
     </row>
     <row r="90" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="68"/>
-      <c r="D90" s="68"/>
-      <c r="E90" s="68"/>
-      <c r="F90" s="68"/>
-      <c r="G90" s="68"/>
-      <c r="H90" s="68"/>
-      <c r="I90" s="68"/>
-      <c r="J90" s="68"/>
-      <c r="K90" s="68"/>
-      <c r="L90" s="68"/>
-      <c r="M90" s="68"/>
-      <c r="N90" s="68"/>
-      <c r="O90" s="68"/>
-      <c r="P90" s="68"/>
-      <c r="Q90" s="68"/>
-      <c r="R90" s="68"/>
-      <c r="S90" s="68"/>
-      <c r="T90" s="68"/>
-      <c r="U90" s="68"/>
-      <c r="V90" s="68"/>
-      <c r="W90" s="68"/>
-      <c r="X90" s="68"/>
-      <c r="Y90" s="68"/>
-      <c r="Z90" s="68"/>
-      <c r="AA90" s="68"/>
-      <c r="AB90" s="68"/>
-      <c r="AC90" s="68"/>
-      <c r="AD90" s="68"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="67"/>
+      <c r="J90" s="67"/>
+      <c r="K90" s="67"/>
+      <c r="L90" s="67"/>
+      <c r="M90" s="67"/>
+      <c r="N90" s="67"/>
+      <c r="O90" s="67"/>
+      <c r="P90" s="67"/>
+      <c r="Q90" s="67"/>
+      <c r="R90" s="67"/>
+      <c r="S90" s="67"/>
+      <c r="T90" s="67"/>
+      <c r="U90" s="67"/>
+      <c r="V90" s="67"/>
+      <c r="W90" s="67"/>
+      <c r="X90" s="67"/>
+      <c r="Y90" s="67"/>
+      <c r="Z90" s="67"/>
+      <c r="AA90" s="67"/>
+      <c r="AB90" s="67"/>
+      <c r="AC90" s="67"/>
+      <c r="AD90" s="67"/>
     </row>
     <row r="91" spans="3:93" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="68"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="68"/>
-      <c r="F91" s="68"/>
-      <c r="G91" s="68"/>
-      <c r="H91" s="68"/>
-      <c r="I91" s="68"/>
-      <c r="J91" s="68"/>
-      <c r="K91" s="68"/>
-      <c r="L91" s="68"/>
-      <c r="M91" s="68"/>
-      <c r="N91" s="68"/>
-      <c r="O91" s="68"/>
-      <c r="P91" s="68"/>
-      <c r="Q91" s="68"/>
-      <c r="R91" s="68"/>
-      <c r="S91" s="68"/>
-      <c r="T91" s="68"/>
-      <c r="U91" s="68"/>
-      <c r="V91" s="68"/>
-      <c r="W91" s="68"/>
-      <c r="X91" s="68"/>
-      <c r="Y91" s="68"/>
-      <c r="Z91" s="68"/>
-      <c r="AA91" s="68"/>
-      <c r="AB91" s="68"/>
-      <c r="AC91" s="68"/>
-      <c r="AD91" s="68"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="67"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="67"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="67"/>
+      <c r="J91" s="67"/>
+      <c r="K91" s="67"/>
+      <c r="L91" s="67"/>
+      <c r="M91" s="67"/>
+      <c r="N91" s="67"/>
+      <c r="O91" s="67"/>
+      <c r="P91" s="67"/>
+      <c r="Q91" s="67"/>
+      <c r="R91" s="67"/>
+      <c r="S91" s="67"/>
+      <c r="T91" s="67"/>
+      <c r="U91" s="67"/>
+      <c r="V91" s="67"/>
+      <c r="W91" s="67"/>
+      <c r="X91" s="67"/>
+      <c r="Y91" s="67"/>
+      <c r="Z91" s="67"/>
+      <c r="AA91" s="67"/>
+      <c r="AB91" s="67"/>
+      <c r="AC91" s="67"/>
+      <c r="AD91" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C81:AD82"/>
-    <mergeCell ref="C84:AD85"/>
-    <mergeCell ref="C86:AD87"/>
-    <mergeCell ref="C88:AD89"/>
-    <mergeCell ref="C90:AD91"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="C15:AD16"/>
@@ -23786,6 +23781,11 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AT2:AV2"/>
     <mergeCell ref="BA2:BG2"/>
+    <mergeCell ref="C81:AD82"/>
+    <mergeCell ref="C84:AD85"/>
+    <mergeCell ref="C86:AD87"/>
+    <mergeCell ref="C88:AD89"/>
+    <mergeCell ref="C90:AD91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
+++ b/개인작업폴더/윤도균/기계행성_레벨디자인.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsao\Desktop\TeamHolyShit\개인작업폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BFB33C-71C7-4325-B6C6-1512952AB005}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38C6F03-4A59-435B-B7DB-2927E496D23B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4785" yWindow="0" windowWidth="18765" windowHeight="14805" firstSheet="1" activeTab="5" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
   </bookViews>
@@ -10803,7 +10803,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BA36" sqref="BA36"/>
+      <selection pane="bottomLeft" activeCell="AM39" sqref="AM39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
